--- a/test1.xlsx
+++ b/test1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ЭтаКнига"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="11" activeTab="11" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="11" activeTab="11" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Февраль" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Январь" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -29,7 +29,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]mmmm;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -122,16 +122,6 @@
       <family val="2"/>
       <sz val="14"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <family val="2"/>
-      <strike val="0"/>
-      <outline val="0"/>
-      <shadow val="0"/>
-      <color rgb="FF92D050"/>
-      <sz val="14"/>
     </font>
   </fonts>
   <fills count="15">
@@ -366,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -394,15 +384,12 @@
     <xf numFmtId="49" fontId="1" fillId="14" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -428,6 +415,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -446,10 +436,10 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -464,7 +454,6 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -761,13 +750,13 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="4.7109375" customWidth="1" style="21" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" style="21" min="3" max="3"/>
-    <col width="5.7109375" customWidth="1" style="21" min="4" max="6"/>
-    <col width="5.42578125" customWidth="1" style="21" min="7" max="7"/>
-    <col width="5.7109375" customWidth="1" style="21" min="8" max="34"/>
+    <col width="4.6640625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="12.6640625" customWidth="1" style="20" min="3" max="3"/>
+    <col width="5.6640625" customWidth="1" style="20" min="4" max="6"/>
+    <col width="5.44140625" customWidth="1" style="20" min="7" max="7"/>
+    <col width="5.6640625" customWidth="1" style="20" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -782,8 +771,8 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="21">
-      <c r="B2" s="19" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="20">
+      <c r="B2" s="15" t="inlineStr">
         <is>
           <t>Февраль</t>
         </is>
@@ -819,13 +808,13 @@
       <c r="AE2" s="16" t="n"/>
       <c r="AF2" s="17" t="n"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="21">
+    <row r="3" ht="18.75" customHeight="1" s="20">
       <c r="B3" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="31" t="n"/>
+      <c r="C3" s="30" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>чт</t>
@@ -972,9 +961,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="21">
-      <c r="B4" s="26" t="n"/>
-      <c r="C4" s="28" t="n"/>
+    <row r="4" ht="18.75" customHeight="1" s="20">
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="27" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -1063,8 +1052,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="21">
-      <c r="B5" s="18" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="20">
+      <c r="B5" s="32" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
@@ -1156,8 +1145,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="21">
-      <c r="B6" s="18" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1" s="20">
+      <c r="B6" s="32" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
@@ -1251,8 +1240,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="21">
-      <c r="B7" s="18" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="20">
+      <c r="B7" s="32" t="inlineStr">
         <is>
           <t>Дима</t>
         </is>
@@ -1346,8 +1335,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="18.75" customHeight="1" s="21">
-      <c r="B8" s="18" t="inlineStr">
+    <row r="8" ht="18.75" customHeight="1" s="20">
+      <c r="B8" s="32" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
@@ -1441,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="18.75" customHeight="1" s="21">
+    <row r="10" ht="18.75" customHeight="1" s="20">
       <c r="B10" s="33" t="inlineStr">
         <is>
           <t>работа//смена</t>
@@ -1452,80 +1441,80 @@
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M10" s="40" t="inlineStr">
+      <c r="M10" s="39" t="inlineStr">
         <is>
           <t>Итоги (Февраль)</t>
         </is>
       </c>
-      <c r="N10" s="27" t="n"/>
-      <c r="O10" s="27" t="n"/>
-      <c r="P10" s="27" t="n"/>
-      <c r="Q10" s="27" t="n"/>
-      <c r="R10" s="27" t="n"/>
-      <c r="S10" s="27" t="n"/>
-      <c r="T10" s="27" t="n"/>
-      <c r="U10" s="27" t="n"/>
-      <c r="V10" s="27" t="n"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1" s="21">
-      <c r="B11" s="22" t="inlineStr">
+      <c r="N10" s="26" t="n"/>
+      <c r="O10" s="26" t="n"/>
+      <c r="P10" s="26" t="n"/>
+      <c r="Q10" s="26" t="n"/>
+      <c r="R10" s="26" t="n"/>
+      <c r="S10" s="26" t="n"/>
+      <c r="T10" s="26" t="n"/>
+      <c r="U10" s="26" t="n"/>
+      <c r="V10" s="26" t="n"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="20">
+      <c r="B11" s="21" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E11" s="20" t="inlineStr">
+      <c r="E11" s="19" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M11" s="29" t="inlineStr">
+      <c r="M11" s="28" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N11" s="25" t="n"/>
-      <c r="O11" s="23" t="inlineStr">
+      <c r="N11" s="24" t="n"/>
+      <c r="O11" s="22" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P11" s="24" t="n"/>
-      <c r="Q11" s="25" t="n"/>
-      <c r="R11" s="23" t="inlineStr">
+      <c r="P11" s="23" t="n"/>
+      <c r="Q11" s="24" t="n"/>
+      <c r="R11" s="22" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S11" s="24" t="n"/>
-      <c r="T11" s="25" t="n"/>
+      <c r="S11" s="23" t="n"/>
+      <c r="T11" s="24" t="n"/>
       <c r="U11" s="36" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V11" s="25" t="n"/>
+      <c r="V11" s="24" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="39" t="inlineStr">
+      <c r="B12" s="40" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M12" s="30" t="n"/>
-      <c r="N12" s="31" t="n"/>
-      <c r="O12" s="26" t="n"/>
-      <c r="P12" s="27" t="n"/>
-      <c r="Q12" s="28" t="n"/>
-      <c r="R12" s="26" t="n"/>
-      <c r="S12" s="27" t="n"/>
-      <c r="T12" s="28" t="n"/>
-      <c r="U12" s="26" t="n"/>
-      <c r="V12" s="28" t="n"/>
+      <c r="M12" s="29" t="n"/>
+      <c r="N12" s="30" t="n"/>
+      <c r="O12" s="25" t="n"/>
+      <c r="P12" s="26" t="n"/>
+      <c r="Q12" s="27" t="n"/>
+      <c r="R12" s="25" t="n"/>
+      <c r="S12" s="26" t="n"/>
+      <c r="T12" s="27" t="n"/>
+      <c r="U12" s="25" t="n"/>
+      <c r="V12" s="27" t="n"/>
       <c r="AA12" s="10" t="inlineStr"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="21">
-      <c r="M13" s="26" t="n"/>
-      <c r="N13" s="28" t="n"/>
+    <row r="13" ht="15.75" customHeight="1" s="20">
+      <c r="M13" s="25" t="n"/>
+      <c r="N13" s="27" t="n"/>
       <c r="O13" s="34" t="inlineStr">
         <is>
           <t>смены</t>
@@ -1551,19 +1540,19 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="18" customHeight="1" s="21">
+    <row r="14" ht="18" customHeight="1" s="20">
       <c r="M14" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N14" s="4" t="n"/>
-      <c r="O14" s="15">
+      <c r="O14" s="18">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
       <c r="P14" s="16" t="n"/>
       <c r="Q14" s="17" t="n"/>
-      <c r="R14" s="15">
+      <c r="R14" s="18">
         <f>SUM(S5:AF5)</f>
         <v/>
       </c>
@@ -1578,19 +1567,19 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="14.45" customHeight="1" s="21">
+    <row r="15" ht="14.4" customHeight="1" s="20">
       <c r="M15" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="15">
+      <c r="O15" s="18">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
       <c r="P15" s="16" t="n"/>
       <c r="Q15" s="17" t="n"/>
-      <c r="R15" s="15">
+      <c r="R15" s="18">
         <f>SUM(S6:AF6)</f>
         <v/>
       </c>
@@ -1599,19 +1588,19 @@
       <c r="U15" s="12" t="n"/>
       <c r="V15" s="5" t="n"/>
     </row>
-    <row r="16" ht="14.45" customHeight="1" s="21">
+    <row r="16" ht="14.4" customHeight="1" s="20">
       <c r="M16" s="4">
         <f>B7</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="15">
+      <c r="O16" s="18">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
       <c r="P16" s="16" t="n"/>
       <c r="Q16" s="17" t="n"/>
-      <c r="R16" s="15">
+      <c r="R16" s="18">
         <f>SUM(S7:AF7)</f>
         <v/>
       </c>
@@ -1620,19 +1609,19 @@
       <c r="U16" s="5" t="n"/>
       <c r="V16" s="5" t="n"/>
     </row>
-    <row r="17" ht="14.45" customHeight="1" s="21">
+    <row r="17" ht="14.4" customHeight="1" s="20">
       <c r="M17" s="4">
         <f>B8</f>
         <v/>
       </c>
       <c r="N17" s="4" t="n"/>
-      <c r="O17" s="15">
+      <c r="O17" s="18">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
       <c r="P17" s="16" t="n"/>
       <c r="Q17" s="17" t="n"/>
-      <c r="R17" s="15">
+      <c r="R17" s="18">
         <f>SUM(S8:AF8)</f>
         <v/>
       </c>
@@ -1641,12 +1630,12 @@
       <c r="U17" s="5" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="14.45" customHeight="1" s="21">
+    <row r="18" ht="14.4" customHeight="1" s="20">
       <c r="U18" s="10" t="n"/>
     </row>
-    <row r="19" ht="14.45" customHeight="1" s="21"/>
-    <row r="20" ht="14.45" customHeight="1" s="21"/>
-    <row r="21" ht="14.45" customHeight="1" s="21">
+    <row r="19" ht="14.4" customHeight="1" s="20"/>
+    <row r="20" ht="14.4" customHeight="1" s="20"/>
+    <row r="21" ht="14.4" customHeight="1" s="20">
       <c r="R21" s="10" t="n"/>
     </row>
   </sheetData>
@@ -1695,13 +1684,13 @@
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="4.7109375" customWidth="1" style="21" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" style="21" min="3" max="3"/>
-    <col width="5.7109375" customWidth="1" style="21" min="4" max="6"/>
-    <col width="5.42578125" customWidth="1" style="21" min="7" max="7"/>
-    <col width="5.7109375" customWidth="1" style="21" min="8" max="33"/>
+    <col width="4.6640625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="12.6640625" customWidth="1" style="20" min="3" max="3"/>
+    <col width="5.6640625" customWidth="1" style="20" min="4" max="6"/>
+    <col width="5.44140625" customWidth="1" style="20" min="7" max="7"/>
+    <col width="5.6640625" customWidth="1" style="20" min="8" max="33"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1716,8 +1705,8 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="21">
-      <c r="B2" s="19" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="20">
+      <c r="B2" s="15" t="inlineStr">
         <is>
           <t>Ноябрь</t>
         </is>
@@ -1754,13 +1743,13 @@
       <c r="AF2" s="16" t="n"/>
       <c r="AG2" s="17" t="n"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="21">
+    <row r="3" ht="18.75" customHeight="1" s="20">
       <c r="B3" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="31" t="n"/>
+      <c r="C3" s="30" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>пт</t>
@@ -1912,9 +1901,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="21">
-      <c r="B4" s="26" t="n"/>
-      <c r="C4" s="28" t="n"/>
+    <row r="4" ht="18.75" customHeight="1" s="20">
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="27" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -2006,8 +1995,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="21">
-      <c r="B5" s="18" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="20">
+      <c r="B5" s="32" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
@@ -2046,8 +2035,8 @@
       <c r="AF5" s="3" t="n"/>
       <c r="AG5" s="3" t="n"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="21">
-      <c r="B6" s="18" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1" s="20">
+      <c r="B6" s="32" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
@@ -2088,8 +2077,8 @@
       <c r="AF6" s="3" t="n"/>
       <c r="AG6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="21">
-      <c r="B7" s="18" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="20">
+      <c r="B7" s="32" t="inlineStr">
         <is>
           <t>Алена</t>
         </is>
@@ -2158,8 +2147,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="18.75" customHeight="1" s="21">
-      <c r="B8" s="18" t="inlineStr">
+    <row r="8" ht="18.75" customHeight="1" s="20">
+      <c r="B8" s="32" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
@@ -2196,8 +2185,8 @@
       <c r="AF8" s="3" t="n"/>
       <c r="AG8" s="3" t="n"/>
     </row>
-    <row r="9" ht="18.75" customHeight="1" s="21">
-      <c r="B9" s="18" t="inlineStr">
+    <row r="9" ht="18.75" customHeight="1" s="20">
+      <c r="B9" s="32" t="inlineStr">
         <is>
           <t>Ильдар</t>
         </is>
@@ -2256,7 +2245,7 @@
       </c>
       <c r="AG9" s="3" t="n"/>
     </row>
-    <row r="11" ht="18.75" customHeight="1" s="21">
+    <row r="11" ht="18.75" customHeight="1" s="20">
       <c r="B11" s="33" t="inlineStr">
         <is>
           <t>работа//смена</t>
@@ -2267,7 +2256,7 @@
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M11" s="32" t="inlineStr">
+      <c r="M11" s="31" t="inlineStr">
         <is>
           <t>Итоги (Ноябрь)</t>
         </is>
@@ -2282,65 +2271,65 @@
       <c r="U11" s="16" t="n"/>
       <c r="V11" s="17" t="n"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1" s="21">
-      <c r="B12" s="22" t="inlineStr">
+    <row r="12" ht="15.75" customHeight="1" s="20">
+      <c r="B12" s="21" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E12" s="20" t="inlineStr">
+      <c r="E12" s="19" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M12" s="29" t="inlineStr">
+      <c r="M12" s="28" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N12" s="25" t="n"/>
-      <c r="O12" s="23" t="inlineStr">
+      <c r="N12" s="24" t="n"/>
+      <c r="O12" s="22" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P12" s="24" t="n"/>
-      <c r="Q12" s="25" t="n"/>
-      <c r="R12" s="23" t="inlineStr">
+      <c r="P12" s="23" t="n"/>
+      <c r="Q12" s="24" t="n"/>
+      <c r="R12" s="22" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S12" s="24" t="n"/>
-      <c r="T12" s="25" t="n"/>
+      <c r="S12" s="23" t="n"/>
+      <c r="T12" s="24" t="n"/>
       <c r="U12" s="36" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V12" s="25" t="n"/>
+      <c r="V12" s="24" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="39" t="inlineStr">
+      <c r="B13" s="40" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M13" s="30" t="n"/>
-      <c r="N13" s="31" t="n"/>
-      <c r="O13" s="26" t="n"/>
-      <c r="P13" s="27" t="n"/>
-      <c r="Q13" s="28" t="n"/>
-      <c r="R13" s="26" t="n"/>
-      <c r="S13" s="27" t="n"/>
-      <c r="T13" s="28" t="n"/>
-      <c r="U13" s="26" t="n"/>
-      <c r="V13" s="28" t="n"/>
+      <c r="M13" s="29" t="n"/>
+      <c r="N13" s="30" t="n"/>
+      <c r="O13" s="25" t="n"/>
+      <c r="P13" s="26" t="n"/>
+      <c r="Q13" s="27" t="n"/>
+      <c r="R13" s="25" t="n"/>
+      <c r="S13" s="26" t="n"/>
+      <c r="T13" s="27" t="n"/>
+      <c r="U13" s="25" t="n"/>
+      <c r="V13" s="27" t="n"/>
       <c r="AA13" s="10" t="inlineStr"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="21">
-      <c r="M14" s="26" t="n"/>
-      <c r="N14" s="28" t="n"/>
+    <row r="14" ht="15.75" customHeight="1" s="20">
+      <c r="M14" s="25" t="n"/>
+      <c r="N14" s="27" t="n"/>
       <c r="O14" s="34" t="inlineStr">
         <is>
           <t>смены</t>
@@ -2366,19 +2355,19 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="18.75" customHeight="1" s="21">
+    <row r="15" ht="18.75" customHeight="1" s="20">
       <c r="M15" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="15">
+      <c r="O15" s="18">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
       <c r="P15" s="16" t="n"/>
       <c r="Q15" s="17" t="n"/>
-      <c r="R15" s="15">
+      <c r="R15" s="18">
         <f>SUM(S5:AG5)</f>
         <v/>
       </c>
@@ -2387,19 +2376,19 @@
       <c r="U15" s="7" t="n"/>
       <c r="V15" s="8" t="n"/>
     </row>
-    <row r="16" ht="18.75" customHeight="1" s="21">
+    <row r="16" ht="18.75" customHeight="1" s="20">
       <c r="M16" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="15">
+      <c r="O16" s="18">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
       <c r="P16" s="16" t="n"/>
       <c r="Q16" s="17" t="n"/>
-      <c r="R16" s="15">
+      <c r="R16" s="18">
         <f>SUM(S6:AG6)</f>
         <v/>
       </c>
@@ -2408,19 +2397,19 @@
       <c r="U16" s="12" t="n"/>
       <c r="V16" s="5" t="n"/>
     </row>
-    <row r="17" ht="18.75" customHeight="1" s="21">
+    <row r="17" ht="18.75" customHeight="1" s="20">
       <c r="M17" s="42">
         <f>B7</f>
         <v/>
       </c>
       <c r="N17" s="17" t="n"/>
-      <c r="O17" s="15">
+      <c r="O17" s="18">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
       <c r="P17" s="16" t="n"/>
       <c r="Q17" s="17" t="n"/>
-      <c r="R17" s="15">
+      <c r="R17" s="18">
         <f>SUM(S7:AG7)</f>
         <v/>
       </c>
@@ -2429,19 +2418,19 @@
       <c r="U17" s="5" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="18" customHeight="1" s="21">
+    <row r="18" ht="18" customHeight="1" s="20">
       <c r="M18" s="42">
         <f>B8</f>
         <v/>
       </c>
       <c r="N18" s="17" t="n"/>
-      <c r="O18" s="15">
+      <c r="O18" s="18">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
       <c r="P18" s="16" t="n"/>
       <c r="Q18" s="17" t="n"/>
-      <c r="R18" s="15">
+      <c r="R18" s="18">
         <f>SUM(S8:AG8)</f>
         <v/>
       </c>
@@ -2450,19 +2439,19 @@
       <c r="U18" s="5" t="n"/>
       <c r="V18" s="5" t="n"/>
     </row>
-    <row r="19" ht="14.45" customHeight="1" s="21">
+    <row r="19" ht="14.4" customHeight="1" s="20">
       <c r="M19" s="42">
         <f>B9</f>
         <v/>
       </c>
       <c r="N19" s="17" t="n"/>
-      <c r="O19" s="15">
+      <c r="O19" s="18">
         <f>SUM(D9:R9)</f>
         <v/>
       </c>
       <c r="P19" s="16" t="n"/>
       <c r="Q19" s="17" t="n"/>
-      <c r="R19" s="15">
+      <c r="R19" s="18">
         <f>SUM(S9:AG9)</f>
         <v/>
       </c>
@@ -2471,14 +2460,14 @@
       <c r="U19" s="5" t="n"/>
       <c r="V19" s="5" t="n"/>
     </row>
-    <row r="20" ht="14.45" customHeight="1" s="21"/>
-    <row r="21" ht="14.45" customHeight="1" s="21">
+    <row r="20" ht="14.4" customHeight="1" s="20"/>
+    <row r="21" ht="14.4" customHeight="1" s="20">
       <c r="M21" t="inlineStr"/>
     </row>
-    <row r="22" ht="14.45" customHeight="1" s="21"/>
-    <row r="23" ht="14.45" customHeight="1" s="21"/>
-    <row r="24" ht="14.45" customHeight="1" s="21"/>
-    <row r="25" ht="14.45" customHeight="1" s="21"/>
+    <row r="22" ht="14.4" customHeight="1" s="20"/>
+    <row r="23" ht="14.4" customHeight="1" s="20"/>
+    <row r="24" ht="14.4" customHeight="1" s="20"/>
+    <row r="25" ht="14.4" customHeight="1" s="20"/>
   </sheetData>
   <mergeCells count="32">
     <mergeCell ref="R15:T15"/>
@@ -2528,18 +2517,18 @@
   <dimension ref="B1:AH21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="4.7109375" customWidth="1" style="21" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" style="21" min="3" max="3"/>
-    <col width="5.7109375" customWidth="1" style="21" min="4" max="4"/>
-    <col width="5.28515625" customWidth="1" style="21" min="5" max="5"/>
-    <col width="5.42578125" customWidth="1" style="21" min="6" max="7"/>
-    <col width="5.7109375" customWidth="1" style="21" min="8" max="33"/>
-    <col width="5.5703125" customWidth="1" style="21" min="34" max="34"/>
+    <col width="4.6640625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="12.6640625" customWidth="1" style="20" min="3" max="3"/>
+    <col width="5.6640625" customWidth="1" style="20" min="4" max="4"/>
+    <col width="5.33203125" customWidth="1" style="20" min="5" max="5"/>
+    <col width="5.44140625" customWidth="1" style="20" min="6" max="7"/>
+    <col width="5.6640625" customWidth="1" style="20" min="8" max="33"/>
+    <col width="5.5546875" customWidth="1" style="20" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2554,8 +2543,8 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="21">
-      <c r="B2" s="19" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="20">
+      <c r="B2" s="15" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
@@ -2593,13 +2582,13 @@
       <c r="AG2" s="16" t="n"/>
       <c r="AH2" s="17" t="n"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="21">
+    <row r="3" ht="18.75" customHeight="1" s="20">
       <c r="B3" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="31" t="n"/>
+      <c r="C3" s="30" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>вс</t>
@@ -2756,9 +2745,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="21">
-      <c r="B4" s="26" t="n"/>
-      <c r="C4" s="28" t="n"/>
+    <row r="4" ht="18.75" customHeight="1" s="20">
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="27" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -2853,8 +2842,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="21">
-      <c r="B5" s="18" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="20">
+      <c r="B5" s="32" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
@@ -2900,8 +2889,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="21">
-      <c r="B6" s="18" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1" s="20">
+      <c r="B6" s="32" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
@@ -2947,8 +2936,8 @@
       </c>
       <c r="AH6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="21">
-      <c r="B7" s="18" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="20">
+      <c r="B7" s="32" t="inlineStr">
         <is>
           <t>Алена</t>
         </is>
@@ -3022,8 +3011,8 @@
       <c r="AG7" s="3" t="n"/>
       <c r="AH7" s="3" t="n"/>
     </row>
-    <row r="8" ht="18.75" customHeight="1" s="21">
-      <c r="B8" s="18" t="inlineStr">
+    <row r="8" ht="18.75" customHeight="1" s="20">
+      <c r="B8" s="32" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
@@ -3061,8 +3050,8 @@
       <c r="AG8" s="3" t="n"/>
       <c r="AH8" s="3" t="n"/>
     </row>
-    <row r="9" ht="18.75" customHeight="1" s="21">
-      <c r="B9" s="18" t="inlineStr">
+    <row r="9" ht="18.75" customHeight="1" s="20">
+      <c r="B9" s="32" t="inlineStr">
         <is>
           <t>Ильдар</t>
         </is>
@@ -3120,7 +3109,7 @@
       <c r="AG9" s="3" t="n"/>
       <c r="AH9" s="3" t="n"/>
     </row>
-    <row r="11" ht="18.75" customHeight="1" s="21">
+    <row r="11" ht="18.75" customHeight="1" s="20">
       <c r="B11" s="33" t="inlineStr">
         <is>
           <t>работа//смена</t>
@@ -3131,7 +3120,7 @@
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M11" s="32" t="inlineStr">
+      <c r="M11" s="31" t="inlineStr">
         <is>
           <t>Итоги (Декабрь)</t>
         </is>
@@ -3146,70 +3135,70 @@
       <c r="U11" s="16" t="n"/>
       <c r="V11" s="17" t="n"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1" s="21">
-      <c r="B12" s="22" t="inlineStr">
+    <row r="12" ht="15.75" customHeight="1" s="20">
+      <c r="B12" s="21" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E12" s="20" t="inlineStr">
+      <c r="E12" s="19" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M12" s="29" t="inlineStr">
+      <c r="M12" s="28" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N12" s="25" t="n"/>
-      <c r="O12" s="23" t="inlineStr">
+      <c r="N12" s="24" t="n"/>
+      <c r="O12" s="22" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P12" s="24" t="n"/>
-      <c r="Q12" s="25" t="n"/>
-      <c r="R12" s="23" t="inlineStr">
+      <c r="P12" s="23" t="n"/>
+      <c r="Q12" s="24" t="n"/>
+      <c r="R12" s="22" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S12" s="24" t="n"/>
-      <c r="T12" s="25" t="n"/>
+      <c r="S12" s="23" t="n"/>
+      <c r="T12" s="24" t="n"/>
       <c r="U12" s="43" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V12" s="25" t="n"/>
+      <c r="V12" s="24" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="39" t="inlineStr">
+      <c r="B13" s="40" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M13" s="30" t="n"/>
-      <c r="N13" s="31" t="n"/>
-      <c r="O13" s="26" t="n"/>
-      <c r="P13" s="27" t="n"/>
-      <c r="Q13" s="28" t="n"/>
-      <c r="R13" s="26" t="n"/>
-      <c r="S13" s="27" t="n"/>
-      <c r="T13" s="28" t="n"/>
-      <c r="U13" s="26" t="n"/>
-      <c r="V13" s="28" t="n"/>
+      <c r="M13" s="29" t="n"/>
+      <c r="N13" s="30" t="n"/>
+      <c r="O13" s="25" t="n"/>
+      <c r="P13" s="26" t="n"/>
+      <c r="Q13" s="27" t="n"/>
+      <c r="R13" s="25" t="n"/>
+      <c r="S13" s="26" t="n"/>
+      <c r="T13" s="27" t="n"/>
+      <c r="U13" s="25" t="n"/>
+      <c r="V13" s="27" t="n"/>
       <c r="AA13" s="10" t="inlineStr"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="21">
+    <row r="14" ht="15.75" customHeight="1" s="20">
       <c r="B14" s="44" t="inlineStr">
         <is>
           <t>Подработка/ч</t>
         </is>
       </c>
-      <c r="M14" s="26" t="n"/>
-      <c r="N14" s="28" t="n"/>
+      <c r="M14" s="25" t="n"/>
+      <c r="N14" s="27" t="n"/>
       <c r="O14" s="34" t="inlineStr">
         <is>
           <t>смены</t>
@@ -3235,19 +3224,19 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="18.75" customHeight="1" s="21">
+    <row r="15" ht="18.75" customHeight="1" s="20">
       <c r="M15" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="15">
+      <c r="O15" s="18">
         <f>SUMIF(D5:R5,"=1")</f>
         <v/>
       </c>
       <c r="P15" s="16" t="n"/>
       <c r="Q15" s="17" t="n"/>
-      <c r="R15" s="15">
+      <c r="R15" s="18">
         <f>SUMIF(S5:AH5,"=1")</f>
         <v/>
       </c>
@@ -3262,19 +3251,19 @@
         <v/>
       </c>
     </row>
-    <row r="16" ht="18.75" customHeight="1" s="21">
+    <row r="16" ht="18.75" customHeight="1" s="20">
       <c r="M16" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="15">
+      <c r="O16" s="18">
         <f>SUMIF(D6:R6,"=1")</f>
         <v/>
       </c>
       <c r="P16" s="16" t="n"/>
       <c r="Q16" s="17" t="n"/>
-      <c r="R16" s="15">
+      <c r="R16" s="18">
         <f>SUMIF(S6:AH6,"=1")</f>
         <v/>
       </c>
@@ -3289,19 +3278,19 @@
         <v/>
       </c>
     </row>
-    <row r="17" ht="18.75" customHeight="1" s="21">
+    <row r="17" ht="18.75" customHeight="1" s="20">
       <c r="M17" s="42">
         <f>B7</f>
         <v/>
       </c>
       <c r="N17" s="17" t="n"/>
-      <c r="O17" s="15">
+      <c r="O17" s="18">
         <f>SUMIF(D7:R7,"=1")</f>
         <v/>
       </c>
       <c r="P17" s="16" t="n"/>
       <c r="Q17" s="17" t="n"/>
-      <c r="R17" s="15">
+      <c r="R17" s="18">
         <f>SUMIF(S7:AH7,"=1")</f>
         <v/>
       </c>
@@ -3316,19 +3305,19 @@
         <v/>
       </c>
     </row>
-    <row r="18" ht="18" customHeight="1" s="21">
+    <row r="18" ht="18" customHeight="1" s="20">
       <c r="M18" s="42">
         <f>B8</f>
         <v/>
       </c>
       <c r="N18" s="17" t="n"/>
-      <c r="O18" s="15">
+      <c r="O18" s="18">
         <f>SUMIF(D8:R8,"=1")</f>
         <v/>
       </c>
       <c r="P18" s="16" t="n"/>
       <c r="Q18" s="17" t="n"/>
-      <c r="R18" s="15">
+      <c r="R18" s="18">
         <f>SUMIF(S8:AH8,"=1")</f>
         <v/>
       </c>
@@ -3343,19 +3332,19 @@
         <v/>
       </c>
     </row>
-    <row r="19" ht="18" customHeight="1" s="21">
+    <row r="19" ht="18" customHeight="1" s="20">
       <c r="M19" s="42">
         <f>B9</f>
         <v/>
       </c>
       <c r="N19" s="17" t="n"/>
-      <c r="O19" s="15">
+      <c r="O19" s="18">
         <f>SUMIF(D9:R9,"=1")</f>
         <v/>
       </c>
       <c r="P19" s="16" t="n"/>
       <c r="Q19" s="17" t="n"/>
-      <c r="R19" s="15">
+      <c r="R19" s="18">
         <f>SUMIF(S9:AH9,"=1")</f>
         <v/>
       </c>
@@ -3370,14 +3359,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" ht="14.45" customHeight="1" s="21"/>
-    <row r="21" ht="14.45" customHeight="1" s="21">
+    <row r="20" ht="14.4" customHeight="1" s="20"/>
+    <row r="21" ht="14.4" customHeight="1" s="20">
       <c r="M21" t="inlineStr"/>
     </row>
-    <row r="22" ht="14.45" customHeight="1" s="21"/>
-    <row r="23" ht="14.45" customHeight="1" s="21"/>
-    <row r="24" ht="14.45" customHeight="1" s="21"/>
-    <row r="25" ht="14.45" customHeight="1" s="21"/>
+    <row r="22" ht="14.4" customHeight="1" s="20"/>
+    <row r="23" ht="14.4" customHeight="1" s="20"/>
+    <row r="24" ht="14.4" customHeight="1" s="20"/>
+    <row r="25" ht="14.4" customHeight="1" s="20"/>
   </sheetData>
   <mergeCells count="33">
     <mergeCell ref="R15:T15"/>
@@ -3431,15 +3420,15 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="4.7109375" customWidth="1" style="21" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" style="21" min="3" max="3"/>
-    <col width="5.7109375" customWidth="1" style="21" min="4" max="4"/>
-    <col width="5.28515625" customWidth="1" style="21" min="5" max="5"/>
-    <col width="5.42578125" customWidth="1" style="21" min="6" max="7"/>
-    <col width="5.7109375" customWidth="1" style="21" min="8" max="33"/>
-    <col width="5.5703125" customWidth="1" style="21" min="34" max="34"/>
+    <col width="4.6640625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="12.6640625" customWidth="1" style="20" min="3" max="3"/>
+    <col width="5.6640625" customWidth="1" style="20" min="4" max="4"/>
+    <col width="5.33203125" customWidth="1" style="20" min="5" max="5"/>
+    <col width="5.44140625" customWidth="1" style="20" min="6" max="7"/>
+    <col width="5.6640625" customWidth="1" style="20" min="8" max="33"/>
+    <col width="5.5546875" customWidth="1" style="20" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3454,8 +3443,8 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="21">
-      <c r="B2" s="19" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="20">
+      <c r="B2" s="15" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
@@ -3493,172 +3482,172 @@
       <c r="AG2" s="16" t="n"/>
       <c r="AH2" s="17" t="n"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="21">
+    <row r="3" ht="18.75" customHeight="1" s="20">
       <c r="B3" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="31" t="n"/>
+      <c r="C3" s="30" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
+          <t>вс</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>пн</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>вт</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
           <t>ср</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>чт</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>пт</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="J3" s="1" t="inlineStr">
         <is>
           <t>сб</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="K3" s="1" t="inlineStr">
         <is>
           <t>вс</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="L3" s="1" t="inlineStr">
         <is>
           <t>пн</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>вт</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="N3" s="1" t="inlineStr">
         <is>
           <t>ср</t>
         </is>
       </c>
-      <c r="L3" s="1" t="inlineStr">
+      <c r="O3" s="1" t="inlineStr">
         <is>
           <t>чт</t>
         </is>
       </c>
-      <c r="M3" s="1" t="inlineStr">
+      <c r="P3" s="1" t="inlineStr">
         <is>
           <t>пт</t>
         </is>
       </c>
-      <c r="N3" s="1" t="inlineStr">
+      <c r="Q3" s="1" t="inlineStr">
         <is>
           <t>сб</t>
         </is>
       </c>
-      <c r="O3" s="1" t="inlineStr">
+      <c r="R3" s="1" t="inlineStr">
         <is>
           <t>вс</t>
         </is>
       </c>
-      <c r="P3" s="1" t="inlineStr">
+      <c r="S3" s="1" t="inlineStr">
         <is>
           <t>пн</t>
         </is>
       </c>
-      <c r="Q3" s="1" t="inlineStr">
+      <c r="T3" s="1" t="inlineStr">
         <is>
           <t>вт</t>
         </is>
       </c>
-      <c r="R3" s="1" t="inlineStr">
+      <c r="U3" s="1" t="inlineStr">
         <is>
           <t>ср</t>
         </is>
       </c>
-      <c r="S3" s="1" t="inlineStr">
+      <c r="V3" s="1" t="inlineStr">
         <is>
           <t>чт</t>
         </is>
       </c>
-      <c r="T3" s="1" t="inlineStr">
+      <c r="W3" s="1" t="inlineStr">
         <is>
           <t>пт</t>
         </is>
       </c>
-      <c r="U3" s="1" t="inlineStr">
+      <c r="X3" s="1" t="inlineStr">
         <is>
           <t>сб</t>
         </is>
       </c>
-      <c r="V3" s="1" t="inlineStr">
+      <c r="Y3" s="1" t="inlineStr">
         <is>
           <t>вс</t>
         </is>
       </c>
-      <c r="W3" s="1" t="inlineStr">
+      <c r="Z3" s="1" t="inlineStr">
         <is>
           <t>пн</t>
         </is>
       </c>
-      <c r="X3" s="1" t="inlineStr">
+      <c r="AA3" s="1" t="inlineStr">
         <is>
           <t>вт</t>
         </is>
       </c>
-      <c r="Y3" s="1" t="inlineStr">
+      <c r="AB3" s="1" t="inlineStr">
         <is>
           <t>ср</t>
         </is>
       </c>
-      <c r="Z3" s="1" t="inlineStr">
+      <c r="AC3" s="1" t="inlineStr">
         <is>
           <t>чт</t>
         </is>
       </c>
-      <c r="AA3" s="1" t="inlineStr">
+      <c r="AD3" s="1" t="inlineStr">
         <is>
           <t>пт</t>
         </is>
       </c>
-      <c r="AB3" s="1" t="inlineStr">
+      <c r="AE3" s="1" t="inlineStr">
         <is>
           <t>сб</t>
         </is>
       </c>
-      <c r="AC3" s="1" t="inlineStr">
+      <c r="AF3" s="1" t="inlineStr">
         <is>
           <t>вс</t>
         </is>
       </c>
-      <c r="AD3" s="1" t="inlineStr">
+      <c r="AG3" s="1" t="inlineStr">
         <is>
           <t>пн</t>
         </is>
       </c>
-      <c r="AE3" s="1" t="inlineStr">
+      <c r="AH3" s="1" t="inlineStr">
         <is>
           <t>вт</t>
         </is>
       </c>
-      <c r="AF3" s="1" t="inlineStr">
-        <is>
-          <t>ср</t>
-        </is>
-      </c>
-      <c r="AG3" s="1" t="inlineStr">
-        <is>
-          <t>чт</t>
-        </is>
-      </c>
-      <c r="AH3" s="1" t="inlineStr">
-        <is>
-          <t>пт</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18.75" customHeight="1" s="21">
-      <c r="B4" s="26" t="n"/>
-      <c r="C4" s="28" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" s="20">
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="27" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -3753,203 +3742,275 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="21">
-      <c r="B5" s="18" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="20">
+      <c r="B5" s="32" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
       <c r="C5" s="17" t="n"/>
-      <c r="D5" s="45" t="n"/>
-      <c r="E5" s="45" t="n"/>
-      <c r="F5" s="45" t="n"/>
-      <c r="G5" s="45" t="n"/>
-      <c r="H5" s="45" t="n"/>
-      <c r="I5" s="45" t="n"/>
-      <c r="J5" s="45" t="n"/>
-      <c r="K5" s="45" t="n"/>
-      <c r="L5" s="45" t="n"/>
-      <c r="M5" s="45" t="n"/>
-      <c r="N5" s="45" t="n"/>
-      <c r="O5" s="45" t="n"/>
-      <c r="P5" s="45" t="n"/>
-      <c r="Q5" s="45" t="n"/>
-      <c r="R5" s="45" t="n"/>
-      <c r="S5" s="45" t="n"/>
-      <c r="T5" s="45" t="n"/>
-      <c r="U5" s="45" t="n"/>
-      <c r="V5" s="45" t="n"/>
-      <c r="W5" s="45" t="n"/>
-      <c r="X5" s="45" t="n"/>
-      <c r="Y5" s="45" t="n"/>
-      <c r="Z5" s="45" t="n"/>
-      <c r="AA5" s="45" t="n"/>
-      <c r="AB5" s="45" t="n"/>
-      <c r="AC5" s="45" t="n"/>
-      <c r="AD5" s="45" t="n"/>
-      <c r="AE5" s="45" t="n"/>
-      <c r="AF5" s="45" t="n"/>
-      <c r="AG5" s="45" t="n"/>
-      <c r="AH5" s="45" t="n"/>
-    </row>
-    <row r="6" ht="18.75" customHeight="1" s="21">
-      <c r="B6" s="18" t="inlineStr">
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="n"/>
+      <c r="J5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="n"/>
+      <c r="M5" s="3" t="n"/>
+      <c r="N5" s="3" t="n"/>
+      <c r="O5" s="3" t="n"/>
+      <c r="P5" s="3" t="n"/>
+      <c r="Q5" s="3" t="n"/>
+      <c r="R5" s="3" t="n"/>
+      <c r="S5" s="3" t="n"/>
+      <c r="T5" s="3" t="n"/>
+      <c r="U5" s="3" t="n"/>
+      <c r="V5" s="3" t="n"/>
+      <c r="W5" s="3" t="n"/>
+      <c r="X5" s="3" t="n"/>
+      <c r="Y5" s="3" t="n"/>
+      <c r="Z5" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA5" s="3" t="n"/>
+      <c r="AB5" s="3" t="n"/>
+      <c r="AC5" s="3" t="n"/>
+      <c r="AD5" s="3" t="n"/>
+      <c r="AE5" s="3" t="n"/>
+      <c r="AF5" s="3" t="n"/>
+      <c r="AG5" s="3" t="n"/>
+      <c r="AH5" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" s="20">
+      <c r="B6" s="32" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
       <c r="C6" s="17" t="n"/>
-      <c r="D6" s="45" t="n"/>
-      <c r="E6" s="45" t="n"/>
-      <c r="F6" s="45" t="n"/>
-      <c r="G6" s="45" t="n"/>
-      <c r="H6" s="45" t="n"/>
-      <c r="I6" s="45" t="n"/>
-      <c r="J6" s="45" t="n"/>
-      <c r="K6" s="45" t="n"/>
-      <c r="L6" s="45" t="n"/>
-      <c r="M6" s="45" t="n"/>
-      <c r="N6" s="45" t="n"/>
-      <c r="O6" s="45" t="n"/>
-      <c r="P6" s="45" t="n"/>
-      <c r="Q6" s="45" t="n"/>
-      <c r="R6" s="45" t="n"/>
-      <c r="S6" s="45" t="n"/>
-      <c r="T6" s="45" t="n"/>
-      <c r="U6" s="45" t="n"/>
-      <c r="V6" s="45" t="n"/>
-      <c r="W6" s="45" t="n"/>
-      <c r="X6" s="45" t="n"/>
-      <c r="Y6" s="45" t="n"/>
-      <c r="Z6" s="45" t="n"/>
-      <c r="AA6" s="45" t="n"/>
-      <c r="AB6" s="45" t="n"/>
-      <c r="AC6" s="45" t="n"/>
-      <c r="AD6" s="45" t="n"/>
-      <c r="AE6" s="45" t="n"/>
-      <c r="AF6" s="45" t="n"/>
-      <c r="AG6" s="45" t="n"/>
-      <c r="AH6" s="45" t="n"/>
-    </row>
-    <row r="7" ht="18.75" customHeight="1" s="21">
-      <c r="B7" s="18" t="inlineStr">
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="n"/>
+      <c r="K6" s="3" t="n"/>
+      <c r="L6" s="3" t="n"/>
+      <c r="M6" s="3" t="n"/>
+      <c r="N6" s="3" t="n"/>
+      <c r="O6" s="3" t="n"/>
+      <c r="P6" s="3" t="n"/>
+      <c r="Q6" s="3" t="n"/>
+      <c r="R6" s="3" t="n"/>
+      <c r="S6" s="3" t="n"/>
+      <c r="T6" s="3" t="n"/>
+      <c r="U6" s="3" t="n"/>
+      <c r="V6" s="3" t="n"/>
+      <c r="W6" s="3" t="n"/>
+      <c r="X6" s="3" t="n"/>
+      <c r="Y6" s="3" t="n"/>
+      <c r="Z6" s="3" t="n"/>
+      <c r="AA6" s="3" t="n"/>
+      <c r="AB6" s="3" t="n"/>
+      <c r="AC6" s="3" t="n"/>
+      <c r="AD6" s="3" t="n"/>
+      <c r="AE6" s="3" t="n"/>
+      <c r="AF6" s="3" t="n"/>
+      <c r="AG6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="3" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1" s="20">
+      <c r="B7" s="32" t="inlineStr">
         <is>
           <t>Алена</t>
         </is>
       </c>
       <c r="C7" s="17" t="n"/>
-      <c r="D7" s="45" t="n"/>
-      <c r="E7" s="45" t="n"/>
-      <c r="F7" s="45" t="n"/>
-      <c r="G7" s="45" t="n"/>
-      <c r="H7" s="45" t="n"/>
-      <c r="I7" s="45" t="n"/>
-      <c r="J7" s="45" t="n"/>
-      <c r="K7" s="45" t="n"/>
-      <c r="L7" s="45" t="n"/>
-      <c r="M7" s="45" t="n"/>
-      <c r="N7" s="45" t="n"/>
-      <c r="O7" s="45" t="n"/>
-      <c r="P7" s="45" t="n"/>
-      <c r="Q7" s="45" t="n"/>
-      <c r="R7" s="45" t="n"/>
-      <c r="S7" s="45" t="n"/>
-      <c r="T7" s="45" t="n"/>
-      <c r="U7" s="45" t="n"/>
-      <c r="V7" s="45" t="n"/>
-      <c r="W7" s="45" t="n"/>
-      <c r="X7" s="45" t="n"/>
-      <c r="Y7" s="45" t="n"/>
-      <c r="Z7" s="45" t="n"/>
-      <c r="AA7" s="45" t="n"/>
-      <c r="AB7" s="45" t="n"/>
-      <c r="AC7" s="45" t="n"/>
-      <c r="AD7" s="45" t="n"/>
-      <c r="AE7" s="45" t="n"/>
-      <c r="AF7" s="45" t="n"/>
-      <c r="AG7" s="45" t="n"/>
-      <c r="AH7" s="45" t="n"/>
-    </row>
-    <row r="8" ht="18.75" customHeight="1" s="21">
-      <c r="B8" s="18" t="inlineStr">
+      <c r="D7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="n"/>
+      <c r="J7" s="3" t="n"/>
+      <c r="K7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3" t="n"/>
+      <c r="P7" s="3" t="n"/>
+      <c r="Q7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="3" t="n"/>
+      <c r="V7" s="3" t="n"/>
+      <c r="W7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA7" s="3" t="n"/>
+      <c r="AB7" s="3" t="n"/>
+      <c r="AC7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="3" t="n"/>
+      <c r="AH7" s="3" t="n"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1" s="20">
+      <c r="B8" s="32" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
       </c>
       <c r="C8" s="17" t="n"/>
-      <c r="D8" s="45" t="n"/>
-      <c r="E8" s="45" t="n"/>
-      <c r="F8" s="45" t="n"/>
-      <c r="G8" s="45" t="n"/>
-      <c r="H8" s="45" t="n"/>
-      <c r="I8" s="45" t="n"/>
-      <c r="J8" s="45" t="n"/>
-      <c r="K8" s="45" t="n"/>
-      <c r="L8" s="45" t="n"/>
-      <c r="M8" s="45" t="n"/>
-      <c r="N8" s="45" t="n"/>
-      <c r="O8" s="45" t="n"/>
-      <c r="P8" s="45" t="n"/>
-      <c r="Q8" s="45" t="n"/>
-      <c r="R8" s="45" t="n"/>
-      <c r="S8" s="45" t="n"/>
-      <c r="T8" s="45" t="n"/>
-      <c r="U8" s="45" t="n"/>
-      <c r="V8" s="45" t="n"/>
-      <c r="W8" s="45" t="n"/>
-      <c r="X8" s="45" t="n"/>
-      <c r="Y8" s="45" t="n"/>
-      <c r="Z8" s="45" t="n"/>
-      <c r="AA8" s="45" t="n"/>
-      <c r="AB8" s="45" t="n"/>
-      <c r="AC8" s="45" t="n"/>
-      <c r="AD8" s="45" t="n"/>
-      <c r="AE8" s="45" t="n"/>
-      <c r="AF8" s="45" t="n"/>
-      <c r="AG8" s="45" t="n"/>
-      <c r="AH8" s="45" t="n"/>
-    </row>
-    <row r="9" ht="18.75" customHeight="1" s="21">
-      <c r="B9" s="18" t="inlineStr">
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
+      <c r="H8" s="3" t="n"/>
+      <c r="I8" s="3" t="n"/>
+      <c r="J8" s="3" t="n"/>
+      <c r="K8" s="3" t="n"/>
+      <c r="L8" s="3" t="n"/>
+      <c r="M8" s="3" t="n"/>
+      <c r="N8" s="3" t="n"/>
+      <c r="O8" s="3" t="n"/>
+      <c r="P8" s="3" t="n"/>
+      <c r="Q8" s="3" t="n"/>
+      <c r="R8" s="3" t="n"/>
+      <c r="S8" s="3" t="n"/>
+      <c r="T8" s="3" t="n"/>
+      <c r="U8" s="3" t="n"/>
+      <c r="V8" s="3" t="n"/>
+      <c r="W8" s="3" t="n"/>
+      <c r="X8" s="3" t="n"/>
+      <c r="Y8" s="3" t="n"/>
+      <c r="Z8" s="3" t="n"/>
+      <c r="AA8" s="3" t="n"/>
+      <c r="AB8" s="3" t="n"/>
+      <c r="AC8" s="3" t="n"/>
+      <c r="AD8" s="3" t="n"/>
+      <c r="AE8" s="3" t="n"/>
+      <c r="AF8" s="3" t="n"/>
+      <c r="AG8" s="3" t="n"/>
+      <c r="AH8" s="3" t="n"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1" s="20">
+      <c r="B9" s="32" t="inlineStr">
         <is>
           <t>Ильдар</t>
         </is>
       </c>
       <c r="C9" s="17" t="n"/>
-      <c r="D9" s="45" t="n"/>
-      <c r="E9" s="45" t="n"/>
-      <c r="F9" s="45" t="n"/>
-      <c r="G9" s="45" t="n"/>
-      <c r="H9" s="45" t="n"/>
-      <c r="I9" s="45" t="n"/>
-      <c r="J9" s="45" t="n"/>
-      <c r="K9" s="45" t="n"/>
-      <c r="L9" s="45" t="n"/>
-      <c r="M9" s="45" t="n"/>
-      <c r="N9" s="45" t="n"/>
-      <c r="O9" s="45" t="n"/>
-      <c r="P9" s="45" t="n"/>
-      <c r="Q9" s="45" t="n"/>
-      <c r="R9" s="45" t="n"/>
-      <c r="S9" s="45" t="n"/>
-      <c r="T9" s="45" t="n"/>
-      <c r="U9" s="45" t="n"/>
-      <c r="V9" s="45" t="n"/>
-      <c r="W9" s="45" t="n"/>
-      <c r="X9" s="45" t="n"/>
-      <c r="Y9" s="45" t="n"/>
-      <c r="Z9" s="45" t="n"/>
-      <c r="AA9" s="45" t="n"/>
-      <c r="AB9" s="45" t="n"/>
-      <c r="AC9" s="45" t="n"/>
-      <c r="AD9" s="45" t="n"/>
-      <c r="AE9" s="45" t="n"/>
-      <c r="AF9" s="45" t="n"/>
-      <c r="AG9" s="45" t="n"/>
-      <c r="AH9" s="45" t="n"/>
+      <c r="D9" s="3" t="n"/>
+      <c r="E9" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="n"/>
+      <c r="J9" s="3" t="n"/>
+      <c r="K9" s="3" t="n"/>
+      <c r="L9" s="3" t="n"/>
+      <c r="M9" s="3" t="n"/>
+      <c r="N9" s="3" t="n"/>
+      <c r="O9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3" t="n"/>
+      <c r="R9" s="3" t="n"/>
+      <c r="S9" s="3" t="n"/>
+      <c r="T9" s="3" t="n"/>
+      <c r="U9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" s="3" t="n"/>
+      <c r="X9" s="3" t="n"/>
+      <c r="Y9" s="3" t="n"/>
+      <c r="Z9" s="3" t="n"/>
+      <c r="AA9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="3" t="n"/>
+      <c r="AD9" s="3" t="n"/>
+      <c r="AE9" s="3" t="n"/>
+      <c r="AF9" s="3" t="n"/>
+      <c r="AG9" s="3" t="n"/>
+      <c r="AH9" s="3" t="n"/>
     </row>
     <row r="10"/>
-    <row r="11" ht="18.75" customHeight="1" s="21">
+    <row r="11" ht="18.75" customHeight="1" s="20">
       <c r="B11" s="33" t="inlineStr">
         <is>
           <t>работа//смена</t>
@@ -3960,7 +4021,7 @@
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M11" s="32" t="inlineStr">
+      <c r="M11" s="31" t="inlineStr">
         <is>
           <t>Итоги (Январь)</t>
         </is>
@@ -3975,70 +4036,70 @@
       <c r="U11" s="16" t="n"/>
       <c r="V11" s="17" t="n"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1" s="21">
-      <c r="B12" s="22" t="inlineStr">
+    <row r="12" ht="15.75" customHeight="1" s="20">
+      <c r="B12" s="21" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E12" s="20" t="inlineStr">
+      <c r="E12" s="19" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M12" s="29" t="inlineStr">
+      <c r="M12" s="28" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N12" s="25" t="n"/>
-      <c r="O12" s="23" t="inlineStr">
+      <c r="N12" s="24" t="n"/>
+      <c r="O12" s="22" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P12" s="24" t="n"/>
-      <c r="Q12" s="25" t="n"/>
-      <c r="R12" s="23" t="inlineStr">
+      <c r="P12" s="23" t="n"/>
+      <c r="Q12" s="24" t="n"/>
+      <c r="R12" s="22" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S12" s="24" t="n"/>
-      <c r="T12" s="25" t="n"/>
+      <c r="S12" s="23" t="n"/>
+      <c r="T12" s="24" t="n"/>
       <c r="U12" s="43" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V12" s="25" t="n"/>
+      <c r="V12" s="24" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="39" t="inlineStr">
+      <c r="B13" s="40" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M13" s="30" t="n"/>
-      <c r="N13" s="31" t="n"/>
-      <c r="O13" s="26" t="n"/>
-      <c r="P13" s="27" t="n"/>
-      <c r="Q13" s="28" t="n"/>
-      <c r="R13" s="26" t="n"/>
-      <c r="S13" s="27" t="n"/>
-      <c r="T13" s="28" t="n"/>
-      <c r="U13" s="26" t="n"/>
-      <c r="V13" s="28" t="n"/>
+      <c r="M13" s="29" t="n"/>
+      <c r="N13" s="30" t="n"/>
+      <c r="O13" s="25" t="n"/>
+      <c r="P13" s="26" t="n"/>
+      <c r="Q13" s="27" t="n"/>
+      <c r="R13" s="25" t="n"/>
+      <c r="S13" s="26" t="n"/>
+      <c r="T13" s="27" t="n"/>
+      <c r="U13" s="25" t="n"/>
+      <c r="V13" s="27" t="n"/>
       <c r="AA13" s="10" t="inlineStr"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="21">
+    <row r="14" ht="15.75" customHeight="1" s="20">
       <c r="B14" s="44" t="inlineStr">
         <is>
           <t>Подработка/ч</t>
         </is>
       </c>
-      <c r="M14" s="26" t="n"/>
-      <c r="N14" s="28" t="n"/>
+      <c r="M14" s="25" t="n"/>
+      <c r="N14" s="27" t="n"/>
       <c r="O14" s="34" t="inlineStr">
         <is>
           <t>смены</t>
@@ -4064,19 +4125,19 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="18.75" customHeight="1" s="21">
+    <row r="15" ht="18.75" customHeight="1" s="20">
       <c r="M15" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="15">
+      <c r="O15" s="18">
         <f>SUMIF(D5:R5,"=1")</f>
         <v/>
       </c>
       <c r="P15" s="16" t="n"/>
       <c r="Q15" s="17" t="n"/>
-      <c r="R15" s="15">
+      <c r="R15" s="18">
         <f>SUMIF(S5:AH5,"=1")</f>
         <v/>
       </c>
@@ -4091,19 +4152,19 @@
         <v/>
       </c>
     </row>
-    <row r="16" ht="18.75" customHeight="1" s="21">
+    <row r="16" ht="18.75" customHeight="1" s="20">
       <c r="M16" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="15">
+      <c r="O16" s="18">
         <f>SUMIF(D6:R6,"=1")</f>
         <v/>
       </c>
       <c r="P16" s="16" t="n"/>
       <c r="Q16" s="17" t="n"/>
-      <c r="R16" s="15">
+      <c r="R16" s="18">
         <f>SUMIF(S6:AH6,"=1")</f>
         <v/>
       </c>
@@ -4118,19 +4179,19 @@
         <v/>
       </c>
     </row>
-    <row r="17" ht="18.75" customHeight="1" s="21">
+    <row r="17" ht="18.75" customHeight="1" s="20">
       <c r="M17" s="42">
         <f>B7</f>
         <v/>
       </c>
       <c r="N17" s="17" t="n"/>
-      <c r="O17" s="15">
+      <c r="O17" s="18">
         <f>SUMIF(D7:R7,"=1")</f>
         <v/>
       </c>
       <c r="P17" s="16" t="n"/>
       <c r="Q17" s="17" t="n"/>
-      <c r="R17" s="15">
+      <c r="R17" s="18">
         <f>SUMIF(S7:AH7,"=1")</f>
         <v/>
       </c>
@@ -4145,19 +4206,19 @@
         <v/>
       </c>
     </row>
-    <row r="18" ht="18" customHeight="1" s="21">
+    <row r="18" ht="18" customHeight="1" s="20">
       <c r="M18" s="42">
         <f>B8</f>
         <v/>
       </c>
       <c r="N18" s="17" t="n"/>
-      <c r="O18" s="15">
+      <c r="O18" s="18">
         <f>SUMIF(D8:R8,"=1")</f>
         <v/>
       </c>
       <c r="P18" s="16" t="n"/>
       <c r="Q18" s="17" t="n"/>
-      <c r="R18" s="15">
+      <c r="R18" s="18">
         <f>SUMIF(S8:AH8,"=1")</f>
         <v/>
       </c>
@@ -4172,19 +4233,19 @@
         <v/>
       </c>
     </row>
-    <row r="19" ht="18" customHeight="1" s="21">
+    <row r="19" ht="18" customHeight="1" s="20">
       <c r="M19" s="42">
         <f>B9</f>
         <v/>
       </c>
       <c r="N19" s="17" t="n"/>
-      <c r="O19" s="15">
+      <c r="O19" s="18">
         <f>SUMIF(D9:R9,"=1")</f>
         <v/>
       </c>
       <c r="P19" s="16" t="n"/>
       <c r="Q19" s="17" t="n"/>
-      <c r="R19" s="15">
+      <c r="R19" s="18">
         <f>SUMIF(S9:AH9,"=1")</f>
         <v/>
       </c>
@@ -4199,14 +4260,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" ht="14.45" customHeight="1" s="21"/>
-    <row r="21" ht="14.45" customHeight="1" s="21">
+    <row r="20" ht="14.4" customHeight="1" s="20"/>
+    <row r="21" ht="14.4" customHeight="1" s="20">
       <c r="M21" t="inlineStr"/>
     </row>
-    <row r="22" ht="14.45" customHeight="1" s="21"/>
-    <row r="23" ht="14.45" customHeight="1" s="21"/>
-    <row r="24" ht="14.45" customHeight="1" s="21"/>
-    <row r="25" ht="14.45" customHeight="1" s="21"/>
+    <row r="22" ht="14.4" customHeight="1" s="20"/>
+    <row r="23" ht="14.4" customHeight="1" s="20"/>
+    <row r="24" ht="14.4" customHeight="1" s="20"/>
+    <row r="25" ht="14.4" customHeight="1" s="20"/>
   </sheetData>
   <mergeCells count="33">
     <mergeCell ref="R15:T15"/>
@@ -4260,13 +4321,13 @@
       <selection activeCell="AG7" sqref="AG7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="4.7109375" customWidth="1" style="21" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" style="21" min="3" max="3"/>
-    <col width="5.7109375" customWidth="1" style="21" min="4" max="6"/>
-    <col width="5.42578125" customWidth="1" style="21" min="7" max="7"/>
-    <col width="5.7109375" customWidth="1" style="21" min="8" max="34"/>
+    <col width="4.6640625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="12.6640625" customWidth="1" style="20" min="3" max="3"/>
+    <col width="5.6640625" customWidth="1" style="20" min="4" max="6"/>
+    <col width="5.44140625" customWidth="1" style="20" min="7" max="7"/>
+    <col width="5.6640625" customWidth="1" style="20" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4281,8 +4342,8 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="21">
-      <c r="B2" s="19" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="20">
+      <c r="B2" s="15" t="inlineStr">
         <is>
           <t>Март</t>
         </is>
@@ -4320,13 +4381,13 @@
       <c r="AG2" s="16" t="n"/>
       <c r="AH2" s="17" t="n"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="21">
+    <row r="3" ht="18.75" customHeight="1" s="20">
       <c r="B3" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="31" t="n"/>
+      <c r="C3" s="30" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>пт</t>
@@ -4483,9 +4544,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="21">
-      <c r="B4" s="26" t="n"/>
-      <c r="C4" s="28" t="n"/>
+    <row r="4" ht="18.75" customHeight="1" s="20">
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="27" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -4580,8 +4641,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="21">
-      <c r="B5" s="18" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="20">
+      <c r="B5" s="32" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
@@ -4623,8 +4684,8 @@
       <c r="AG5" s="3" t="n"/>
       <c r="AH5" s="3" t="n"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="21">
-      <c r="B6" s="18" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1" s="20">
+      <c r="B6" s="32" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
@@ -4664,8 +4725,8 @@
       <c r="AG6" s="3" t="n"/>
       <c r="AH6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="21">
-      <c r="B7" s="18" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="20">
+      <c r="B7" s="32" t="inlineStr">
         <is>
           <t>Дима</t>
         </is>
@@ -4727,8 +4788,8 @@
       <c r="AG7" s="3" t="n"/>
       <c r="AH7" s="3" t="n"/>
     </row>
-    <row r="8" ht="18.75" customHeight="1" s="21">
-      <c r="B8" s="18" t="inlineStr">
+    <row r="8" ht="18.75" customHeight="1" s="20">
+      <c r="B8" s="32" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
@@ -4796,7 +4857,7 @@
       </c>
       <c r="AH8" s="3" t="n"/>
     </row>
-    <row r="10" ht="18.75" customHeight="1" s="21">
+    <row r="10" ht="18.75" customHeight="1" s="20">
       <c r="B10" s="33" t="inlineStr">
         <is>
           <t>работа//смена</t>
@@ -4807,80 +4868,80 @@
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M10" s="40" t="inlineStr">
+      <c r="M10" s="39" t="inlineStr">
         <is>
           <t>Итоги (Март)</t>
         </is>
       </c>
-      <c r="N10" s="27" t="n"/>
-      <c r="O10" s="27" t="n"/>
-      <c r="P10" s="27" t="n"/>
-      <c r="Q10" s="27" t="n"/>
-      <c r="R10" s="27" t="n"/>
-      <c r="S10" s="27" t="n"/>
-      <c r="T10" s="27" t="n"/>
-      <c r="U10" s="27" t="n"/>
-      <c r="V10" s="27" t="n"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1" s="21">
-      <c r="B11" s="22" t="inlineStr">
+      <c r="N10" s="26" t="n"/>
+      <c r="O10" s="26" t="n"/>
+      <c r="P10" s="26" t="n"/>
+      <c r="Q10" s="26" t="n"/>
+      <c r="R10" s="26" t="n"/>
+      <c r="S10" s="26" t="n"/>
+      <c r="T10" s="26" t="n"/>
+      <c r="U10" s="26" t="n"/>
+      <c r="V10" s="26" t="n"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="20">
+      <c r="B11" s="21" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E11" s="20" t="inlineStr">
+      <c r="E11" s="19" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M11" s="29" t="inlineStr">
+      <c r="M11" s="28" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N11" s="25" t="n"/>
-      <c r="O11" s="23" t="inlineStr">
+      <c r="N11" s="24" t="n"/>
+      <c r="O11" s="22" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P11" s="24" t="n"/>
-      <c r="Q11" s="25" t="n"/>
-      <c r="R11" s="23" t="inlineStr">
+      <c r="P11" s="23" t="n"/>
+      <c r="Q11" s="24" t="n"/>
+      <c r="R11" s="22" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S11" s="24" t="n"/>
-      <c r="T11" s="25" t="n"/>
+      <c r="S11" s="23" t="n"/>
+      <c r="T11" s="24" t="n"/>
       <c r="U11" s="36" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V11" s="25" t="n"/>
+      <c r="V11" s="24" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="39" t="inlineStr">
+      <c r="B12" s="40" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M12" s="30" t="n"/>
-      <c r="N12" s="31" t="n"/>
-      <c r="O12" s="26" t="n"/>
-      <c r="P12" s="27" t="n"/>
-      <c r="Q12" s="28" t="n"/>
-      <c r="R12" s="26" t="n"/>
-      <c r="S12" s="27" t="n"/>
-      <c r="T12" s="28" t="n"/>
-      <c r="U12" s="26" t="n"/>
-      <c r="V12" s="28" t="n"/>
+      <c r="M12" s="29" t="n"/>
+      <c r="N12" s="30" t="n"/>
+      <c r="O12" s="25" t="n"/>
+      <c r="P12" s="26" t="n"/>
+      <c r="Q12" s="27" t="n"/>
+      <c r="R12" s="25" t="n"/>
+      <c r="S12" s="26" t="n"/>
+      <c r="T12" s="27" t="n"/>
+      <c r="U12" s="25" t="n"/>
+      <c r="V12" s="27" t="n"/>
       <c r="AA12" s="10" t="inlineStr"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="21">
-      <c r="M13" s="26" t="n"/>
-      <c r="N13" s="28" t="n"/>
+    <row r="13" ht="15.75" customHeight="1" s="20">
+      <c r="M13" s="25" t="n"/>
+      <c r="N13" s="27" t="n"/>
       <c r="O13" s="34" t="inlineStr">
         <is>
           <t>смены</t>
@@ -4906,19 +4967,19 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="18" customHeight="1" s="21">
+    <row r="14" ht="18" customHeight="1" s="20">
       <c r="M14" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N14" s="4" t="n"/>
-      <c r="O14" s="15">
+      <c r="O14" s="18">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
       <c r="P14" s="16" t="n"/>
       <c r="Q14" s="17" t="n"/>
-      <c r="R14" s="15">
+      <c r="R14" s="18">
         <f>SUM(S5:AH5)</f>
         <v/>
       </c>
@@ -4933,19 +4994,19 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="14.45" customHeight="1" s="21">
+    <row r="15" ht="14.4" customHeight="1" s="20">
       <c r="M15" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="15">
+      <c r="O15" s="18">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
       <c r="P15" s="16" t="n"/>
       <c r="Q15" s="17" t="n"/>
-      <c r="R15" s="15">
+      <c r="R15" s="18">
         <f>SUM(S6:AH6)</f>
         <v/>
       </c>
@@ -4954,19 +5015,19 @@
       <c r="U15" s="12" t="n"/>
       <c r="V15" s="5" t="n"/>
     </row>
-    <row r="16" ht="14.45" customHeight="1" s="21">
+    <row r="16" ht="14.4" customHeight="1" s="20">
       <c r="M16" s="4">
         <f>B7</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="15">
+      <c r="O16" s="18">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
       <c r="P16" s="16" t="n"/>
       <c r="Q16" s="17" t="n"/>
-      <c r="R16" s="15">
+      <c r="R16" s="18">
         <f>SUM(S7:AH7)</f>
         <v/>
       </c>
@@ -4975,19 +5036,19 @@
       <c r="U16" s="5" t="n"/>
       <c r="V16" s="5" t="n"/>
     </row>
-    <row r="17" ht="14.45" customHeight="1" s="21">
+    <row r="17" ht="14.4" customHeight="1" s="20">
       <c r="M17" s="4">
         <f>B8</f>
         <v/>
       </c>
       <c r="N17" s="4" t="n"/>
-      <c r="O17" s="15">
+      <c r="O17" s="18">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
       <c r="P17" s="16" t="n"/>
       <c r="Q17" s="17" t="n"/>
-      <c r="R17" s="15">
+      <c r="R17" s="18">
         <f>SUM(S8:AH8)</f>
         <v/>
       </c>
@@ -4996,12 +5057,12 @@
       <c r="U17" s="5" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="14.45" customHeight="1" s="21">
+    <row r="18" ht="14.4" customHeight="1" s="20">
       <c r="U18" s="10" t="n"/>
     </row>
-    <row r="19" ht="14.45" customHeight="1" s="21"/>
-    <row r="20" ht="14.45" customHeight="1" s="21"/>
-    <row r="21" ht="14.45" customHeight="1" s="21">
+    <row r="19" ht="14.4" customHeight="1" s="20"/>
+    <row r="20" ht="14.4" customHeight="1" s="20"/>
+    <row r="21" ht="14.4" customHeight="1" s="20">
       <c r="R21" s="10" t="n"/>
     </row>
   </sheetData>
@@ -5050,13 +5111,13 @@
       <selection activeCell="AG8" sqref="AG8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="4.7109375" customWidth="1" style="21" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" style="21" min="3" max="3"/>
-    <col width="5.7109375" customWidth="1" style="21" min="4" max="6"/>
-    <col width="5.42578125" customWidth="1" style="21" min="7" max="7"/>
-    <col width="5.7109375" customWidth="1" style="21" min="8" max="34"/>
+    <col width="4.6640625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="12.6640625" customWidth="1" style="20" min="3" max="3"/>
+    <col width="5.6640625" customWidth="1" style="20" min="4" max="6"/>
+    <col width="5.44140625" customWidth="1" style="20" min="7" max="7"/>
+    <col width="5.6640625" customWidth="1" style="20" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5071,7 +5132,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="21">
+    <row r="2" ht="18.75" customHeight="1" s="20">
       <c r="B2" s="41" t="inlineStr">
         <is>
           <t>Апрель</t>
@@ -5109,13 +5170,13 @@
       <c r="AF2" s="16" t="n"/>
       <c r="AG2" s="16" t="n"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="21">
+    <row r="3" ht="18.75" customHeight="1" s="20">
       <c r="B3" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="31" t="n"/>
+      <c r="C3" s="30" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>пн</t>
@@ -5267,9 +5328,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="21">
-      <c r="B4" s="26" t="n"/>
-      <c r="C4" s="28" t="n"/>
+    <row r="4" ht="18.75" customHeight="1" s="20">
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="27" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -5361,8 +5422,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="21">
-      <c r="B5" s="18" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="20">
+      <c r="B5" s="32" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
@@ -5399,8 +5460,8 @@
       <c r="AF5" s="3" t="n"/>
       <c r="AG5" s="3" t="n"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="21">
-      <c r="B6" s="18" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1" s="20">
+      <c r="B6" s="32" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
@@ -5441,8 +5502,8 @@
       <c r="AF6" s="3" t="n"/>
       <c r="AG6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="21">
-      <c r="B7" s="18" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="20">
+      <c r="B7" s="32" t="inlineStr">
         <is>
           <t>Маша</t>
         </is>
@@ -5479,8 +5540,8 @@
       <c r="AF7" s="3" t="n"/>
       <c r="AG7" s="3" t="n"/>
     </row>
-    <row r="8" ht="18.75" customHeight="1" s="21">
-      <c r="B8" s="18" t="inlineStr">
+    <row r="8" ht="18.75" customHeight="1" s="20">
+      <c r="B8" s="32" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
@@ -5547,8 +5608,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="18.75" customHeight="1" s="21">
-      <c r="B9" s="18" t="inlineStr">
+    <row r="9" ht="18.75" customHeight="1" s="20">
+      <c r="B9" s="32" t="inlineStr">
         <is>
           <t>Рома</t>
         </is>
@@ -5587,8 +5648,8 @@
       <c r="AF9" s="3" t="n"/>
       <c r="AG9" s="3" t="n"/>
     </row>
-    <row r="10" ht="18.75" customHeight="1" s="21">
-      <c r="B10" s="18" t="inlineStr">
+    <row r="10" ht="18.75" customHeight="1" s="20">
+      <c r="B10" s="32" t="inlineStr">
         <is>
           <t>Амелия</t>
         </is>
@@ -5649,7 +5710,7 @@
       </c>
       <c r="AG10" s="3" t="n"/>
     </row>
-    <row r="12" ht="18.75" customHeight="1" s="21">
+    <row r="12" ht="18.75" customHeight="1" s="20">
       <c r="B12" s="33" t="inlineStr">
         <is>
           <t>работа//смена</t>
@@ -5660,80 +5721,80 @@
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M12" s="40" t="inlineStr">
+      <c r="M12" s="39" t="inlineStr">
         <is>
           <t>Итоги (Апрель)</t>
         </is>
       </c>
-      <c r="N12" s="27" t="n"/>
-      <c r="O12" s="27" t="n"/>
-      <c r="P12" s="27" t="n"/>
-      <c r="Q12" s="27" t="n"/>
-      <c r="R12" s="27" t="n"/>
-      <c r="S12" s="27" t="n"/>
-      <c r="T12" s="27" t="n"/>
-      <c r="U12" s="27" t="n"/>
-      <c r="V12" s="27" t="n"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" s="21">
-      <c r="B13" s="22" t="inlineStr">
+      <c r="N12" s="26" t="n"/>
+      <c r="O12" s="26" t="n"/>
+      <c r="P12" s="26" t="n"/>
+      <c r="Q12" s="26" t="n"/>
+      <c r="R12" s="26" t="n"/>
+      <c r="S12" s="26" t="n"/>
+      <c r="T12" s="26" t="n"/>
+      <c r="U12" s="26" t="n"/>
+      <c r="V12" s="26" t="n"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="20">
+      <c r="B13" s="21" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E13" s="20" t="inlineStr">
+      <c r="E13" s="19" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M13" s="29" t="inlineStr">
+      <c r="M13" s="28" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N13" s="25" t="n"/>
-      <c r="O13" s="23" t="inlineStr">
+      <c r="N13" s="24" t="n"/>
+      <c r="O13" s="22" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P13" s="24" t="n"/>
-      <c r="Q13" s="25" t="n"/>
-      <c r="R13" s="23" t="inlineStr">
+      <c r="P13" s="23" t="n"/>
+      <c r="Q13" s="24" t="n"/>
+      <c r="R13" s="22" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S13" s="24" t="n"/>
-      <c r="T13" s="25" t="n"/>
+      <c r="S13" s="23" t="n"/>
+      <c r="T13" s="24" t="n"/>
       <c r="U13" s="36" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V13" s="25" t="n"/>
+      <c r="V13" s="24" t="n"/>
     </row>
     <row r="14">
-      <c r="B14" s="39" t="inlineStr">
+      <c r="B14" s="40" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M14" s="30" t="n"/>
-      <c r="N14" s="31" t="n"/>
-      <c r="O14" s="26" t="n"/>
-      <c r="P14" s="27" t="n"/>
-      <c r="Q14" s="28" t="n"/>
-      <c r="R14" s="26" t="n"/>
-      <c r="S14" s="27" t="n"/>
-      <c r="T14" s="28" t="n"/>
-      <c r="U14" s="26" t="n"/>
-      <c r="V14" s="28" t="n"/>
+      <c r="M14" s="29" t="n"/>
+      <c r="N14" s="30" t="n"/>
+      <c r="O14" s="25" t="n"/>
+      <c r="P14" s="26" t="n"/>
+      <c r="Q14" s="27" t="n"/>
+      <c r="R14" s="25" t="n"/>
+      <c r="S14" s="26" t="n"/>
+      <c r="T14" s="27" t="n"/>
+      <c r="U14" s="25" t="n"/>
+      <c r="V14" s="27" t="n"/>
       <c r="AA14" s="10" t="inlineStr"/>
     </row>
-    <row r="15" ht="18" customHeight="1" s="21">
-      <c r="M15" s="26" t="n"/>
-      <c r="N15" s="28" t="n"/>
+    <row r="15" ht="18" customHeight="1" s="20">
+      <c r="M15" s="25" t="n"/>
+      <c r="N15" s="27" t="n"/>
       <c r="O15" s="34" t="inlineStr">
         <is>
           <t>смены</t>
@@ -5759,19 +5820,19 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="14.45" customHeight="1" s="21">
+    <row r="16" ht="14.4" customHeight="1" s="20">
       <c r="M16" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="15">
+      <c r="O16" s="18">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
       <c r="P16" s="16" t="n"/>
       <c r="Q16" s="17" t="n"/>
-      <c r="R16" s="15">
+      <c r="R16" s="18">
         <f>SUM(S5:AG5)</f>
         <v/>
       </c>
@@ -5780,19 +5841,19 @@
       <c r="U16" s="7" t="n"/>
       <c r="V16" s="8" t="n"/>
     </row>
-    <row r="17" ht="14.45" customHeight="1" s="21">
+    <row r="17" ht="14.4" customHeight="1" s="20">
       <c r="M17" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N17" s="4" t="n"/>
-      <c r="O17" s="15">
+      <c r="O17" s="18">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
       <c r="P17" s="16" t="n"/>
       <c r="Q17" s="17" t="n"/>
-      <c r="R17" s="15">
+      <c r="R17" s="18">
         <f>SUM(S6:AG6)</f>
         <v/>
       </c>
@@ -5801,19 +5862,19 @@
       <c r="U17" s="12" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="14.45" customHeight="1" s="21">
+    <row r="18" ht="14.4" customHeight="1" s="20">
       <c r="M18" s="4">
         <f>B7</f>
         <v/>
       </c>
       <c r="N18" s="4" t="n"/>
-      <c r="O18" s="15">
+      <c r="O18" s="18">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
       <c r="P18" s="16" t="n"/>
       <c r="Q18" s="17" t="n"/>
-      <c r="R18" s="15">
+      <c r="R18" s="18">
         <f>SUM(S7:AG7)</f>
         <v/>
       </c>
@@ -5822,19 +5883,19 @@
       <c r="U18" s="5" t="n"/>
       <c r="V18" s="5" t="n"/>
     </row>
-    <row r="19" ht="14.45" customHeight="1" s="21">
+    <row r="19" ht="14.4" customHeight="1" s="20">
       <c r="M19" s="4">
         <f>B8</f>
         <v/>
       </c>
       <c r="N19" s="4" t="n"/>
-      <c r="O19" s="15">
+      <c r="O19" s="18">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
       <c r="P19" s="16" t="n"/>
       <c r="Q19" s="17" t="n"/>
-      <c r="R19" s="15">
+      <c r="R19" s="18">
         <f>SUM(S8:AG8)</f>
         <v/>
       </c>
@@ -5843,19 +5904,19 @@
       <c r="U19" s="5" t="n"/>
       <c r="V19" s="5" t="n"/>
     </row>
-    <row r="20" ht="14.45" customHeight="1" s="21">
+    <row r="20" ht="14.4" customHeight="1" s="20">
       <c r="M20" s="4">
         <f>B9</f>
         <v/>
       </c>
       <c r="N20" s="4" t="n"/>
-      <c r="O20" s="15">
+      <c r="O20" s="18">
         <f>SUM(D9:R9)</f>
         <v/>
       </c>
       <c r="P20" s="16" t="n"/>
       <c r="Q20" s="17" t="n"/>
-      <c r="R20" s="15">
+      <c r="R20" s="18">
         <f>SUM(S9:AG9)</f>
         <v/>
       </c>
@@ -5864,19 +5925,19 @@
       <c r="U20" s="5" t="n"/>
       <c r="V20" s="5" t="n"/>
     </row>
-    <row r="21" ht="14.45" customHeight="1" s="21">
+    <row r="21" ht="14.4" customHeight="1" s="20">
       <c r="M21" s="4">
         <f>B10</f>
         <v/>
       </c>
       <c r="N21" s="4" t="n"/>
-      <c r="O21" s="15">
+      <c r="O21" s="18">
         <f>SUM(D10:R10)</f>
         <v/>
       </c>
       <c r="P21" s="16" t="n"/>
       <c r="Q21" s="17" t="n"/>
-      <c r="R21" s="15">
+      <c r="R21" s="18">
         <f>SUM(S10:AG10)</f>
         <v/>
       </c>
@@ -5885,7 +5946,7 @@
       <c r="U21" s="5" t="n"/>
       <c r="V21" s="5" t="n"/>
     </row>
-    <row r="22" ht="14.45" customHeight="1" s="21"/>
+    <row r="22" ht="14.4" customHeight="1" s="20"/>
     <row r="23">
       <c r="R23" s="10" t="n"/>
     </row>
@@ -5941,13 +6002,13 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="4.7109375" customWidth="1" style="21" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" style="21" min="3" max="3"/>
-    <col width="5.7109375" customWidth="1" style="21" min="4" max="6"/>
-    <col width="5.42578125" customWidth="1" style="21" min="7" max="7"/>
-    <col width="5.7109375" customWidth="1" style="21" min="8" max="34"/>
+    <col width="4.6640625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="12.6640625" customWidth="1" style="20" min="3" max="3"/>
+    <col width="5.6640625" customWidth="1" style="20" min="4" max="6"/>
+    <col width="5.44140625" customWidth="1" style="20" min="7" max="7"/>
+    <col width="5.6640625" customWidth="1" style="20" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5962,8 +6023,8 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="21">
-      <c r="B2" s="19" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="20">
+      <c r="B2" s="15" t="inlineStr">
         <is>
           <t>Май</t>
         </is>
@@ -6001,13 +6062,13 @@
       <c r="AG2" s="16" t="n"/>
       <c r="AH2" s="17" t="n"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="21">
+    <row r="3" ht="18.75" customHeight="1" s="20">
       <c r="B3" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="31" t="n"/>
+      <c r="C3" s="30" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>ср</t>
@@ -6164,9 +6225,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="21">
-      <c r="B4" s="26" t="n"/>
-      <c r="C4" s="28" t="n"/>
+    <row r="4" ht="18.75" customHeight="1" s="20">
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="27" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -6261,8 +6322,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="21">
-      <c r="B5" s="18" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="20">
+      <c r="B5" s="32" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
@@ -6302,8 +6363,8 @@
       <c r="AG5" s="3" t="n"/>
       <c r="AH5" s="3" t="n"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="21">
-      <c r="B6" s="18" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1" s="20">
+      <c r="B6" s="32" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
@@ -6341,8 +6402,8 @@
       <c r="AG6" s="3" t="n"/>
       <c r="AH6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="21">
-      <c r="B7" s="18" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="20">
+      <c r="B7" s="32" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
@@ -6408,8 +6469,8 @@
       <c r="AG7" s="3" t="n"/>
       <c r="AH7" s="3" t="n"/>
     </row>
-    <row r="8" ht="18.75" customHeight="1" s="21">
-      <c r="B8" s="18" t="inlineStr">
+    <row r="8" ht="18.75" customHeight="1" s="20">
+      <c r="B8" s="32" t="inlineStr">
         <is>
           <t>Амелия</t>
         </is>
@@ -6479,7 +6540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="18.75" customHeight="1" s="21">
+    <row r="10" ht="18.75" customHeight="1" s="20">
       <c r="B10" s="33" t="inlineStr">
         <is>
           <t>работа//смена</t>
@@ -6490,7 +6551,7 @@
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M10" s="32" t="inlineStr">
+      <c r="M10" s="31" t="inlineStr">
         <is>
           <t>Итоги (Май)</t>
         </is>
@@ -6505,65 +6566,65 @@
       <c r="U10" s="16" t="n"/>
       <c r="V10" s="17" t="n"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="21">
-      <c r="B11" s="22" t="inlineStr">
+    <row r="11" ht="15.75" customHeight="1" s="20">
+      <c r="B11" s="21" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E11" s="20" t="inlineStr">
+      <c r="E11" s="19" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M11" s="29" t="inlineStr">
+      <c r="M11" s="28" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N11" s="25" t="n"/>
-      <c r="O11" s="23" t="inlineStr">
+      <c r="N11" s="24" t="n"/>
+      <c r="O11" s="22" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P11" s="24" t="n"/>
-      <c r="Q11" s="25" t="n"/>
-      <c r="R11" s="23" t="inlineStr">
+      <c r="P11" s="23" t="n"/>
+      <c r="Q11" s="24" t="n"/>
+      <c r="R11" s="22" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S11" s="24" t="n"/>
-      <c r="T11" s="25" t="n"/>
+      <c r="S11" s="23" t="n"/>
+      <c r="T11" s="24" t="n"/>
       <c r="U11" s="36" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V11" s="25" t="n"/>
+      <c r="V11" s="24" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="39" t="inlineStr">
+      <c r="B12" s="40" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M12" s="30" t="n"/>
-      <c r="N12" s="31" t="n"/>
-      <c r="O12" s="26" t="n"/>
-      <c r="P12" s="27" t="n"/>
-      <c r="Q12" s="28" t="n"/>
-      <c r="R12" s="26" t="n"/>
-      <c r="S12" s="27" t="n"/>
-      <c r="T12" s="28" t="n"/>
-      <c r="U12" s="26" t="n"/>
-      <c r="V12" s="28" t="n"/>
+      <c r="M12" s="29" t="n"/>
+      <c r="N12" s="30" t="n"/>
+      <c r="O12" s="25" t="n"/>
+      <c r="P12" s="26" t="n"/>
+      <c r="Q12" s="27" t="n"/>
+      <c r="R12" s="25" t="n"/>
+      <c r="S12" s="26" t="n"/>
+      <c r="T12" s="27" t="n"/>
+      <c r="U12" s="25" t="n"/>
+      <c r="V12" s="27" t="n"/>
       <c r="AA12" s="10" t="inlineStr"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="21">
-      <c r="M13" s="26" t="n"/>
-      <c r="N13" s="28" t="n"/>
+    <row r="13" ht="15.75" customHeight="1" s="20">
+      <c r="M13" s="25" t="n"/>
+      <c r="N13" s="27" t="n"/>
       <c r="O13" s="34" t="inlineStr">
         <is>
           <t>смены</t>
@@ -6589,19 +6650,19 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="18.75" customHeight="1" s="21">
+    <row r="14" ht="18.75" customHeight="1" s="20">
       <c r="M14" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N14" s="4" t="n"/>
-      <c r="O14" s="15">
+      <c r="O14" s="18">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
       <c r="P14" s="16" t="n"/>
       <c r="Q14" s="17" t="n"/>
-      <c r="R14" s="15">
+      <c r="R14" s="18">
         <f>SUM(S5:AG5)</f>
         <v/>
       </c>
@@ -6610,19 +6671,19 @@
       <c r="U14" s="7" t="n"/>
       <c r="V14" s="8" t="n"/>
     </row>
-    <row r="15" ht="18" customHeight="1" s="21">
+    <row r="15" ht="18" customHeight="1" s="20">
       <c r="M15" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="15">
+      <c r="O15" s="18">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
       <c r="P15" s="16" t="n"/>
       <c r="Q15" s="17" t="n"/>
-      <c r="R15" s="15">
+      <c r="R15" s="18">
         <f>SUM(S6:AG6)</f>
         <v/>
       </c>
@@ -6631,19 +6692,19 @@
       <c r="U15" s="12" t="n"/>
       <c r="V15" s="5" t="n"/>
     </row>
-    <row r="16" ht="14.45" customHeight="1" s="21">
+    <row r="16" ht="14.4" customHeight="1" s="20">
       <c r="M16" s="4">
         <f>B7</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="15">
+      <c r="O16" s="18">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
       <c r="P16" s="16" t="n"/>
       <c r="Q16" s="17" t="n"/>
-      <c r="R16" s="15">
+      <c r="R16" s="18">
         <f>SUM(S7:AH7)</f>
         <v/>
       </c>
@@ -6652,19 +6713,19 @@
       <c r="U16" s="5" t="n"/>
       <c r="V16" s="5" t="n"/>
     </row>
-    <row r="17" ht="14.45" customHeight="1" s="21">
+    <row r="17" ht="14.4" customHeight="1" s="20">
       <c r="M17" s="4">
         <f>B8</f>
         <v/>
       </c>
       <c r="N17" s="4" t="n"/>
-      <c r="O17" s="15">
+      <c r="O17" s="18">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
       <c r="P17" s="16" t="n"/>
       <c r="Q17" s="17" t="n"/>
-      <c r="R17" s="15">
+      <c r="R17" s="18">
         <f>SUM(S8:AH8)</f>
         <v/>
       </c>
@@ -6673,13 +6734,13 @@
       <c r="U17" s="5" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="14.45" customHeight="1" s="21"/>
-    <row r="19" ht="14.45" customHeight="1" s="21">
+    <row r="18" ht="14.4" customHeight="1" s="20"/>
+    <row r="19" ht="14.4" customHeight="1" s="20">
       <c r="R19" s="10" t="n"/>
     </row>
-    <row r="20" ht="14.45" customHeight="1" s="21"/>
-    <row r="21" ht="14.45" customHeight="1" s="21"/>
-    <row r="22" ht="14.45" customHeight="1" s="21"/>
+    <row r="20" ht="14.4" customHeight="1" s="20"/>
+    <row r="21" ht="14.4" customHeight="1" s="20"/>
+    <row r="22" ht="14.4" customHeight="1" s="20"/>
   </sheetData>
   <mergeCells count="26">
     <mergeCell ref="R15:T15"/>
@@ -6726,13 +6787,13 @@
       <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="4.7109375" customWidth="1" style="21" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" style="21" min="3" max="3"/>
-    <col width="5.7109375" customWidth="1" style="21" min="4" max="6"/>
-    <col width="5.42578125" customWidth="1" style="21" min="7" max="7"/>
-    <col width="5.7109375" customWidth="1" style="21" min="8" max="34"/>
+    <col width="4.6640625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="12.6640625" customWidth="1" style="20" min="3" max="3"/>
+    <col width="5.6640625" customWidth="1" style="20" min="4" max="6"/>
+    <col width="5.44140625" customWidth="1" style="20" min="7" max="7"/>
+    <col width="5.6640625" customWidth="1" style="20" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6747,8 +6808,8 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="21">
-      <c r="B2" s="19" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="20">
+      <c r="B2" s="15" t="inlineStr">
         <is>
           <t>Июнь</t>
         </is>
@@ -6785,13 +6846,13 @@
       <c r="AF2" s="16" t="n"/>
       <c r="AG2" s="17" t="n"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="21">
+    <row r="3" ht="18.75" customHeight="1" s="20">
       <c r="B3" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="31" t="n"/>
+      <c r="C3" s="30" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>сб</t>
@@ -6943,9 +7004,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="21">
-      <c r="B4" s="26" t="n"/>
-      <c r="C4" s="28" t="n"/>
+    <row r="4" ht="18.75" customHeight="1" s="20">
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="27" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -7037,8 +7098,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="21">
-      <c r="B5" s="18" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="20">
+      <c r="B5" s="32" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
@@ -7077,8 +7138,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="21">
-      <c r="B6" s="18" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1" s="20">
+      <c r="B6" s="32" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
@@ -7127,8 +7188,8 @@
       </c>
       <c r="AG6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="21">
-      <c r="B7" s="18" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="20">
+      <c r="B7" s="32" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
@@ -7185,8 +7246,8 @@
       <c r="AF7" s="3" t="n"/>
       <c r="AG7" s="3" t="n"/>
     </row>
-    <row r="8" ht="18.75" customHeight="1" s="21">
-      <c r="B8" s="18" t="inlineStr">
+    <row r="8" ht="18.75" customHeight="1" s="20">
+      <c r="B8" s="32" t="inlineStr">
         <is>
           <t>Амелия</t>
         </is>
@@ -7253,7 +7314,7 @@
       <c r="AF8" s="3" t="n"/>
       <c r="AG8" s="3" t="n"/>
     </row>
-    <row r="10" ht="18.75" customHeight="1" s="21">
+    <row r="10" ht="18.75" customHeight="1" s="20">
       <c r="B10" s="33" t="inlineStr">
         <is>
           <t>работа//смена</t>
@@ -7264,7 +7325,7 @@
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M10" s="32" t="inlineStr">
+      <c r="M10" s="31" t="inlineStr">
         <is>
           <t>Итоги (Июнь)</t>
         </is>
@@ -7279,65 +7340,65 @@
       <c r="U10" s="16" t="n"/>
       <c r="V10" s="17" t="n"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="21">
-      <c r="B11" s="22" t="inlineStr">
+    <row r="11" ht="15.75" customHeight="1" s="20">
+      <c r="B11" s="21" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E11" s="20" t="inlineStr">
+      <c r="E11" s="19" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M11" s="29" t="inlineStr">
+      <c r="M11" s="28" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N11" s="25" t="n"/>
-      <c r="O11" s="23" t="inlineStr">
+      <c r="N11" s="24" t="n"/>
+      <c r="O11" s="22" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P11" s="24" t="n"/>
-      <c r="Q11" s="25" t="n"/>
-      <c r="R11" s="23" t="inlineStr">
+      <c r="P11" s="23" t="n"/>
+      <c r="Q11" s="24" t="n"/>
+      <c r="R11" s="22" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S11" s="24" t="n"/>
-      <c r="T11" s="25" t="n"/>
+      <c r="S11" s="23" t="n"/>
+      <c r="T11" s="24" t="n"/>
       <c r="U11" s="36" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V11" s="25" t="n"/>
+      <c r="V11" s="24" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="39" t="inlineStr">
+      <c r="B12" s="40" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M12" s="30" t="n"/>
-      <c r="N12" s="31" t="n"/>
-      <c r="O12" s="26" t="n"/>
-      <c r="P12" s="27" t="n"/>
-      <c r="Q12" s="28" t="n"/>
-      <c r="R12" s="26" t="n"/>
-      <c r="S12" s="27" t="n"/>
-      <c r="T12" s="28" t="n"/>
-      <c r="U12" s="26" t="n"/>
-      <c r="V12" s="28" t="n"/>
+      <c r="M12" s="29" t="n"/>
+      <c r="N12" s="30" t="n"/>
+      <c r="O12" s="25" t="n"/>
+      <c r="P12" s="26" t="n"/>
+      <c r="Q12" s="27" t="n"/>
+      <c r="R12" s="25" t="n"/>
+      <c r="S12" s="26" t="n"/>
+      <c r="T12" s="27" t="n"/>
+      <c r="U12" s="25" t="n"/>
+      <c r="V12" s="27" t="n"/>
       <c r="AA12" s="10" t="inlineStr"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="21">
-      <c r="M13" s="26" t="n"/>
-      <c r="N13" s="28" t="n"/>
+    <row r="13" ht="15.75" customHeight="1" s="20">
+      <c r="M13" s="25" t="n"/>
+      <c r="N13" s="27" t="n"/>
       <c r="O13" s="34" t="inlineStr">
         <is>
           <t>смены</t>
@@ -7363,19 +7424,19 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="18.75" customHeight="1" s="21">
+    <row r="14" ht="18.75" customHeight="1" s="20">
       <c r="M14" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N14" s="4" t="n"/>
-      <c r="O14" s="15">
+      <c r="O14" s="18">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
       <c r="P14" s="16" t="n"/>
       <c r="Q14" s="17" t="n"/>
-      <c r="R14" s="15">
+      <c r="R14" s="18">
         <f>SUM(S5:AG5)</f>
         <v/>
       </c>
@@ -7388,19 +7449,19 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="18" customHeight="1" s="21">
+    <row r="15" ht="18" customHeight="1" s="20">
       <c r="M15" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="15">
+      <c r="O15" s="18">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
       <c r="P15" s="16" t="n"/>
       <c r="Q15" s="17" t="n"/>
-      <c r="R15" s="15">
+      <c r="R15" s="18">
         <f>SUM(S6:AG6)</f>
         <v/>
       </c>
@@ -7409,19 +7470,19 @@
       <c r="U15" s="12" t="n"/>
       <c r="V15" s="5" t="n"/>
     </row>
-    <row r="16" ht="14.45" customHeight="1" s="21">
+    <row r="16" ht="14.4" customHeight="1" s="20">
       <c r="M16" s="4">
         <f>B7</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="15">
+      <c r="O16" s="18">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
       <c r="P16" s="16" t="n"/>
       <c r="Q16" s="17" t="n"/>
-      <c r="R16" s="15">
+      <c r="R16" s="18">
         <f>SUM(S7:AG7)</f>
         <v/>
       </c>
@@ -7430,19 +7491,19 @@
       <c r="U16" s="5" t="n"/>
       <c r="V16" s="5" t="n"/>
     </row>
-    <row r="17" ht="14.45" customHeight="1" s="21">
+    <row r="17" ht="14.4" customHeight="1" s="20">
       <c r="M17" s="4">
         <f>B8</f>
         <v/>
       </c>
       <c r="N17" s="4" t="n"/>
-      <c r="O17" s="15">
+      <c r="O17" s="18">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
       <c r="P17" s="16" t="n"/>
       <c r="Q17" s="17" t="n"/>
-      <c r="R17" s="15">
+      <c r="R17" s="18">
         <f>SUM(S8:AG8)</f>
         <v/>
       </c>
@@ -7451,13 +7512,13 @@
       <c r="U17" s="5" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="14.45" customHeight="1" s="21"/>
-    <row r="19" ht="14.45" customHeight="1" s="21">
+    <row r="18" ht="14.4" customHeight="1" s="20"/>
+    <row r="19" ht="14.4" customHeight="1" s="20">
       <c r="R19" s="10" t="n"/>
     </row>
-    <row r="20" ht="14.45" customHeight="1" s="21"/>
-    <row r="21" ht="14.45" customHeight="1" s="21"/>
-    <row r="22" ht="14.45" customHeight="1" s="21"/>
+    <row r="20" ht="14.4" customHeight="1" s="20"/>
+    <row r="21" ht="14.4" customHeight="1" s="20"/>
+    <row r="22" ht="14.4" customHeight="1" s="20"/>
   </sheetData>
   <mergeCells count="26">
     <mergeCell ref="R15:T15"/>
@@ -7504,13 +7565,13 @@
       <selection activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="4.7109375" customWidth="1" style="21" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" style="21" min="3" max="3"/>
-    <col width="5.7109375" customWidth="1" style="21" min="4" max="6"/>
-    <col width="5.42578125" customWidth="1" style="21" min="7" max="7"/>
-    <col width="5.7109375" customWidth="1" style="21" min="8" max="34"/>
+    <col width="4.6640625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="12.6640625" customWidth="1" style="20" min="3" max="3"/>
+    <col width="5.6640625" customWidth="1" style="20" min="4" max="6"/>
+    <col width="5.44140625" customWidth="1" style="20" min="7" max="7"/>
+    <col width="5.6640625" customWidth="1" style="20" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7525,8 +7586,8 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="21">
-      <c r="B2" s="19" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="20">
+      <c r="B2" s="15" t="inlineStr">
         <is>
           <t>Июль</t>
         </is>
@@ -7564,13 +7625,13 @@
       <c r="AG2" s="16" t="n"/>
       <c r="AH2" s="17" t="n"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="21">
+    <row r="3" ht="18.75" customHeight="1" s="20">
       <c r="B3" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="31" t="n"/>
+      <c r="C3" s="30" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>пн</t>
@@ -7727,9 +7788,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="21">
-      <c r="B4" s="26" t="n"/>
-      <c r="C4" s="28" t="n"/>
+    <row r="4" ht="18.75" customHeight="1" s="20">
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="27" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -7824,8 +7885,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="21">
-      <c r="B5" s="18" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="20">
+      <c r="B5" s="32" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
@@ -7869,8 +7930,8 @@
       <c r="AG5" s="3" t="n"/>
       <c r="AH5" s="3" t="n"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="21">
-      <c r="B6" s="18" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1" s="20">
+      <c r="B6" s="32" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
@@ -7936,8 +7997,8 @@
       <c r="AG6" s="3" t="n"/>
       <c r="AH6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="21">
-      <c r="B7" s="18" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="20">
+      <c r="B7" s="32" t="inlineStr">
         <is>
           <t>Игорь</t>
         </is>
@@ -7991,7 +8052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="18.75" customHeight="1" s="21">
+    <row r="9" ht="18.75" customHeight="1" s="20">
       <c r="B9" s="33" t="inlineStr">
         <is>
           <t>работа//смена</t>
@@ -8002,7 +8063,7 @@
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M9" s="32" t="inlineStr">
+      <c r="M9" s="31" t="inlineStr">
         <is>
           <t>Итоги (Июль)</t>
         </is>
@@ -8017,65 +8078,65 @@
       <c r="U9" s="16" t="n"/>
       <c r="V9" s="17" t="n"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1" s="21">
-      <c r="B10" s="22" t="inlineStr">
+    <row r="10" ht="15.75" customHeight="1" s="20">
+      <c r="B10" s="21" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E10" s="20" t="inlineStr">
+      <c r="E10" s="19" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M10" s="29" t="inlineStr">
+      <c r="M10" s="28" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N10" s="25" t="n"/>
-      <c r="O10" s="23" t="inlineStr">
+      <c r="N10" s="24" t="n"/>
+      <c r="O10" s="22" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P10" s="24" t="n"/>
-      <c r="Q10" s="25" t="n"/>
-      <c r="R10" s="23" t="inlineStr">
+      <c r="P10" s="23" t="n"/>
+      <c r="Q10" s="24" t="n"/>
+      <c r="R10" s="22" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S10" s="24" t="n"/>
-      <c r="T10" s="25" t="n"/>
+      <c r="S10" s="23" t="n"/>
+      <c r="T10" s="24" t="n"/>
       <c r="U10" s="36" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V10" s="25" t="n"/>
+      <c r="V10" s="24" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="39" t="inlineStr">
+      <c r="B11" s="40" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M11" s="30" t="n"/>
-      <c r="N11" s="31" t="n"/>
-      <c r="O11" s="26" t="n"/>
-      <c r="P11" s="27" t="n"/>
-      <c r="Q11" s="28" t="n"/>
-      <c r="R11" s="26" t="n"/>
-      <c r="S11" s="27" t="n"/>
-      <c r="T11" s="28" t="n"/>
-      <c r="U11" s="26" t="n"/>
-      <c r="V11" s="28" t="n"/>
+      <c r="M11" s="29" t="n"/>
+      <c r="N11" s="30" t="n"/>
+      <c r="O11" s="25" t="n"/>
+      <c r="P11" s="26" t="n"/>
+      <c r="Q11" s="27" t="n"/>
+      <c r="R11" s="25" t="n"/>
+      <c r="S11" s="26" t="n"/>
+      <c r="T11" s="27" t="n"/>
+      <c r="U11" s="25" t="n"/>
+      <c r="V11" s="27" t="n"/>
       <c r="AA11" s="10" t="inlineStr"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1" s="21">
-      <c r="M12" s="26" t="n"/>
-      <c r="N12" s="28" t="n"/>
+    <row r="12" ht="15.75" customHeight="1" s="20">
+      <c r="M12" s="25" t="n"/>
+      <c r="N12" s="27" t="n"/>
       <c r="O12" s="34" t="inlineStr">
         <is>
           <t>смены</t>
@@ -8101,19 +8162,19 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="18.75" customHeight="1" s="21">
+    <row r="13" ht="18.75" customHeight="1" s="20">
       <c r="M13" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N13" s="4" t="n"/>
-      <c r="O13" s="15">
+      <c r="O13" s="18">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
       <c r="P13" s="16" t="n"/>
       <c r="Q13" s="17" t="n"/>
-      <c r="R13" s="15">
+      <c r="R13" s="18">
         <f>SUM(S5:AG5)</f>
         <v/>
       </c>
@@ -8124,19 +8185,19 @@
       </c>
       <c r="V13" s="8" t="n"/>
     </row>
-    <row r="14" ht="18" customHeight="1" s="21">
+    <row r="14" ht="18" customHeight="1" s="20">
       <c r="M14" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N14" s="4" t="n"/>
-      <c r="O14" s="15">
+      <c r="O14" s="18">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
       <c r="P14" s="16" t="n"/>
       <c r="Q14" s="17" t="n"/>
-      <c r="R14" s="15">
+      <c r="R14" s="18">
         <f>SUM(S6:AG6)</f>
         <v/>
       </c>
@@ -8145,19 +8206,19 @@
       <c r="U14" s="12" t="n"/>
       <c r="V14" s="5" t="n"/>
     </row>
-    <row r="15" ht="14.45" customHeight="1" s="21">
+    <row r="15" ht="14.4" customHeight="1" s="20">
       <c r="M15" s="4">
         <f>B7</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="15">
+      <c r="O15" s="18">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
       <c r="P15" s="16" t="n"/>
       <c r="Q15" s="17" t="n"/>
-      <c r="R15" s="15">
+      <c r="R15" s="18">
         <f>SUM(S7:AG7)</f>
         <v/>
       </c>
@@ -8166,14 +8227,14 @@
       <c r="U15" s="5" t="n"/>
       <c r="V15" s="5" t="n"/>
     </row>
-    <row r="16" ht="14.45" customHeight="1" s="21"/>
-    <row r="17" ht="14.45" customHeight="1" s="21">
+    <row r="16" ht="14.4" customHeight="1" s="20"/>
+    <row r="17" ht="14.4" customHeight="1" s="20">
       <c r="R17" s="10" t="n"/>
     </row>
-    <row r="18" ht="14.45" customHeight="1" s="21"/>
-    <row r="19" ht="14.45" customHeight="1" s="21"/>
-    <row r="20" ht="14.45" customHeight="1" s="21"/>
-    <row r="21" ht="14.45" customHeight="1" s="21">
+    <row r="18" ht="14.4" customHeight="1" s="20"/>
+    <row r="19" ht="14.4" customHeight="1" s="20"/>
+    <row r="20" ht="14.4" customHeight="1" s="20"/>
+    <row r="21" ht="14.4" customHeight="1" s="20">
       <c r="M21" t="inlineStr"/>
     </row>
     <row r="25">
@@ -8226,13 +8287,13 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="4.7109375" customWidth="1" style="21" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" style="21" min="3" max="3"/>
-    <col width="5.7109375" customWidth="1" style="21" min="4" max="6"/>
-    <col width="5.42578125" customWidth="1" style="21" min="7" max="7"/>
-    <col width="5.7109375" customWidth="1" style="21" min="8" max="34"/>
+    <col width="4.6640625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="12.6640625" customWidth="1" style="20" min="3" max="3"/>
+    <col width="5.6640625" customWidth="1" style="20" min="4" max="6"/>
+    <col width="5.44140625" customWidth="1" style="20" min="7" max="7"/>
+    <col width="5.6640625" customWidth="1" style="20" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8247,8 +8308,8 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="21">
-      <c r="B2" s="19" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="20">
+      <c r="B2" s="15" t="inlineStr">
         <is>
           <t>Август</t>
         </is>
@@ -8286,13 +8347,13 @@
       <c r="AG2" s="16" t="n"/>
       <c r="AH2" s="17" t="n"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="21">
+    <row r="3" ht="18.75" customHeight="1" s="20">
       <c r="B3" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="31" t="n"/>
+      <c r="C3" s="30" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>чт</t>
@@ -8449,9 +8510,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="21">
-      <c r="B4" s="26" t="n"/>
-      <c r="C4" s="28" t="n"/>
+    <row r="4" ht="18.75" customHeight="1" s="20">
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="27" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -8546,8 +8607,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="21">
-      <c r="B5" s="18" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="20">
+      <c r="B5" s="32" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
@@ -8591,8 +8652,8 @@
       <c r="AG5" s="3" t="n"/>
       <c r="AH5" s="3" t="n"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="21">
-      <c r="B6" s="18" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1" s="20">
+      <c r="B6" s="32" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
@@ -8652,8 +8713,8 @@
       </c>
       <c r="AH6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="21">
-      <c r="B7" s="18" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="20">
+      <c r="B7" s="32" t="inlineStr">
         <is>
           <t>Игорь</t>
         </is>
@@ -8693,8 +8754,8 @@
       <c r="AG7" s="3" t="n"/>
       <c r="AH7" s="3" t="n"/>
     </row>
-    <row r="8" ht="18.75" customHeight="1" s="21">
-      <c r="B8" s="18" t="inlineStr">
+    <row r="8" ht="18.75" customHeight="1" s="20">
+      <c r="B8" s="32" t="inlineStr">
         <is>
           <t>Алена</t>
         </is>
@@ -8762,8 +8823,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="18.75" customHeight="1" s="21">
-      <c r="B9" s="18" t="inlineStr">
+    <row r="9" ht="18.75" customHeight="1" s="20">
+      <c r="B9" s="32" t="inlineStr">
         <is>
           <t>Снежанна</t>
         </is>
@@ -8807,7 +8868,7 @@
       <c r="AG9" s="3" t="n"/>
       <c r="AH9" s="3" t="n"/>
     </row>
-    <row r="11" ht="18.75" customHeight="1" s="21">
+    <row r="11" ht="18.75" customHeight="1" s="20">
       <c r="B11" s="33" t="inlineStr">
         <is>
           <t>работа//смена</t>
@@ -8818,7 +8879,7 @@
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M11" s="32" t="inlineStr">
+      <c r="M11" s="31" t="inlineStr">
         <is>
           <t>Итоги (Август)</t>
         </is>
@@ -8833,65 +8894,65 @@
       <c r="U11" s="16" t="n"/>
       <c r="V11" s="17" t="n"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1" s="21">
-      <c r="B12" s="22" t="inlineStr">
+    <row r="12" ht="15.75" customHeight="1" s="20">
+      <c r="B12" s="21" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E12" s="20" t="inlineStr">
+      <c r="E12" s="19" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M12" s="29" t="inlineStr">
+      <c r="M12" s="28" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N12" s="25" t="n"/>
-      <c r="O12" s="23" t="inlineStr">
+      <c r="N12" s="24" t="n"/>
+      <c r="O12" s="22" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P12" s="24" t="n"/>
-      <c r="Q12" s="25" t="n"/>
-      <c r="R12" s="23" t="inlineStr">
+      <c r="P12" s="23" t="n"/>
+      <c r="Q12" s="24" t="n"/>
+      <c r="R12" s="22" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S12" s="24" t="n"/>
-      <c r="T12" s="25" t="n"/>
+      <c r="S12" s="23" t="n"/>
+      <c r="T12" s="24" t="n"/>
       <c r="U12" s="36" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V12" s="25" t="n"/>
+      <c r="V12" s="24" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="39" t="inlineStr">
+      <c r="B13" s="40" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M13" s="30" t="n"/>
-      <c r="N13" s="31" t="n"/>
-      <c r="O13" s="26" t="n"/>
-      <c r="P13" s="27" t="n"/>
-      <c r="Q13" s="28" t="n"/>
-      <c r="R13" s="26" t="n"/>
-      <c r="S13" s="27" t="n"/>
-      <c r="T13" s="28" t="n"/>
-      <c r="U13" s="26" t="n"/>
-      <c r="V13" s="28" t="n"/>
+      <c r="M13" s="29" t="n"/>
+      <c r="N13" s="30" t="n"/>
+      <c r="O13" s="25" t="n"/>
+      <c r="P13" s="26" t="n"/>
+      <c r="Q13" s="27" t="n"/>
+      <c r="R13" s="25" t="n"/>
+      <c r="S13" s="26" t="n"/>
+      <c r="T13" s="27" t="n"/>
+      <c r="U13" s="25" t="n"/>
+      <c r="V13" s="27" t="n"/>
       <c r="AA13" s="10" t="inlineStr"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="21">
-      <c r="M14" s="26" t="n"/>
-      <c r="N14" s="28" t="n"/>
+    <row r="14" ht="15.75" customHeight="1" s="20">
+      <c r="M14" s="25" t="n"/>
+      <c r="N14" s="27" t="n"/>
       <c r="O14" s="34" t="inlineStr">
         <is>
           <t>смены</t>
@@ -8917,19 +8978,19 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="18.75" customHeight="1" s="21">
+    <row r="15" ht="18.75" customHeight="1" s="20">
       <c r="M15" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="15">
+      <c r="O15" s="18">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
       <c r="P15" s="16" t="n"/>
       <c r="Q15" s="17" t="n"/>
-      <c r="R15" s="15">
+      <c r="R15" s="18">
         <f>SUM(S5:AG5)</f>
         <v/>
       </c>
@@ -8944,19 +9005,19 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="18" customHeight="1" s="21">
+    <row r="16" ht="18" customHeight="1" s="20">
       <c r="M16" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="15">
+      <c r="O16" s="18">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
       <c r="P16" s="16" t="n"/>
       <c r="Q16" s="17" t="n"/>
-      <c r="R16" s="15">
+      <c r="R16" s="18">
         <f>SUM(S6:AG6)</f>
         <v/>
       </c>
@@ -8965,19 +9026,19 @@
       <c r="U16" s="12" t="n"/>
       <c r="V16" s="5" t="n"/>
     </row>
-    <row r="17" ht="14.45" customHeight="1" s="21">
+    <row r="17" ht="14.4" customHeight="1" s="20">
       <c r="M17" s="42">
         <f>B7</f>
         <v/>
       </c>
       <c r="N17" s="17" t="n"/>
-      <c r="O17" s="15">
+      <c r="O17" s="18">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
       <c r="P17" s="16" t="n"/>
       <c r="Q17" s="17" t="n"/>
-      <c r="R17" s="15">
+      <c r="R17" s="18">
         <f>SUM(S7:AG7)</f>
         <v/>
       </c>
@@ -8986,19 +9047,19 @@
       <c r="U17" s="5" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="14.45" customHeight="1" s="21">
+    <row r="18" ht="14.4" customHeight="1" s="20">
       <c r="M18" s="42">
         <f>B8</f>
         <v/>
       </c>
       <c r="N18" s="17" t="n"/>
-      <c r="O18" s="15">
+      <c r="O18" s="18">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
       <c r="P18" s="16" t="n"/>
       <c r="Q18" s="17" t="n"/>
-      <c r="R18" s="15">
+      <c r="R18" s="18">
         <f>SUM(S8:AG8)</f>
         <v/>
       </c>
@@ -9007,19 +9068,19 @@
       <c r="U18" s="5" t="n"/>
       <c r="V18" s="5" t="n"/>
     </row>
-    <row r="19" ht="14.45" customHeight="1" s="21">
+    <row r="19" ht="14.4" customHeight="1" s="20">
       <c r="M19" s="42">
         <f>B9</f>
         <v/>
       </c>
       <c r="N19" s="17" t="n"/>
-      <c r="O19" s="15">
+      <c r="O19" s="18">
         <f>SUM(D9:R9)</f>
         <v/>
       </c>
       <c r="P19" s="16" t="n"/>
       <c r="Q19" s="17" t="n"/>
-      <c r="R19" s="15">
+      <c r="R19" s="18">
         <f>SUM(S9:AG9)</f>
         <v/>
       </c>
@@ -9028,10 +9089,10 @@
       <c r="U19" s="5" t="n"/>
       <c r="V19" s="5" t="n"/>
     </row>
-    <row r="20" ht="14.45" customHeight="1" s="21"/>
-    <row r="21" ht="14.45" customHeight="1" s="21"/>
-    <row r="22" ht="14.45" customHeight="1" s="21"/>
-    <row r="23" ht="14.45" customHeight="1" s="21">
+    <row r="20" ht="14.4" customHeight="1" s="20"/>
+    <row r="21" ht="14.4" customHeight="1" s="20"/>
+    <row r="22" ht="14.4" customHeight="1" s="20"/>
+    <row r="23" ht="14.4" customHeight="1" s="20">
       <c r="M23" t="inlineStr"/>
     </row>
   </sheetData>
@@ -9086,13 +9147,13 @@
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="4.7109375" customWidth="1" style="21" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" style="21" min="3" max="3"/>
-    <col width="5.7109375" customWidth="1" style="21" min="4" max="6"/>
-    <col width="5.42578125" customWidth="1" style="21" min="7" max="7"/>
-    <col width="5.7109375" customWidth="1" style="21" min="8" max="34"/>
+    <col width="4.6640625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="12.6640625" customWidth="1" style="20" min="3" max="3"/>
+    <col width="5.6640625" customWidth="1" style="20" min="4" max="6"/>
+    <col width="5.44140625" customWidth="1" style="20" min="7" max="7"/>
+    <col width="5.6640625" customWidth="1" style="20" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9107,8 +9168,8 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="21">
-      <c r="B2" s="19" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="20">
+      <c r="B2" s="15" t="inlineStr">
         <is>
           <t>Сентябрь</t>
         </is>
@@ -9145,13 +9206,13 @@
       <c r="AF2" s="16" t="n"/>
       <c r="AG2" s="17" t="n"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="21">
+    <row r="3" ht="18.75" customHeight="1" s="20">
       <c r="B3" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="31" t="n"/>
+      <c r="C3" s="30" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>вс</t>
@@ -9303,9 +9364,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="21">
-      <c r="B4" s="26" t="n"/>
-      <c r="C4" s="28" t="n"/>
+    <row r="4" ht="18.75" customHeight="1" s="20">
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="27" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -9397,8 +9458,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="21">
-      <c r="B5" s="18" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="20">
+      <c r="B5" s="32" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
@@ -9435,8 +9496,8 @@
       <c r="AF5" s="3" t="n"/>
       <c r="AG5" s="3" t="n"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="21">
-      <c r="B6" s="18" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1" s="20">
+      <c r="B6" s="32" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
@@ -9487,8 +9548,8 @@
       <c r="AF6" s="3" t="n"/>
       <c r="AG6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="21">
-      <c r="B7" s="18" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="20">
+      <c r="B7" s="32" t="inlineStr">
         <is>
           <t>Алена</t>
         </is>
@@ -9567,8 +9628,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="18.75" customHeight="1" s="21">
-      <c r="B8" s="18" t="inlineStr">
+    <row r="8" ht="18.75" customHeight="1" s="20">
+      <c r="B8" s="32" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
@@ -9609,7 +9670,7 @@
       </c>
       <c r="AG8" s="3" t="n"/>
     </row>
-    <row r="10" ht="18.75" customHeight="1" s="21">
+    <row r="10" ht="18.75" customHeight="1" s="20">
       <c r="B10" s="33" t="inlineStr">
         <is>
           <t>работа//смена</t>
@@ -9620,7 +9681,7 @@
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M10" s="32" t="inlineStr">
+      <c r="M10" s="31" t="inlineStr">
         <is>
           <t>Итоги (Сентябрь)</t>
         </is>
@@ -9635,65 +9696,65 @@
       <c r="U10" s="16" t="n"/>
       <c r="V10" s="17" t="n"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="21">
-      <c r="B11" s="22" t="inlineStr">
+    <row r="11" ht="15.75" customHeight="1" s="20">
+      <c r="B11" s="21" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E11" s="20" t="inlineStr">
+      <c r="E11" s="19" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M11" s="29" t="inlineStr">
+      <c r="M11" s="28" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N11" s="25" t="n"/>
-      <c r="O11" s="23" t="inlineStr">
+      <c r="N11" s="24" t="n"/>
+      <c r="O11" s="22" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P11" s="24" t="n"/>
-      <c r="Q11" s="25" t="n"/>
-      <c r="R11" s="23" t="inlineStr">
+      <c r="P11" s="23" t="n"/>
+      <c r="Q11" s="24" t="n"/>
+      <c r="R11" s="22" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S11" s="24" t="n"/>
-      <c r="T11" s="25" t="n"/>
+      <c r="S11" s="23" t="n"/>
+      <c r="T11" s="24" t="n"/>
       <c r="U11" s="36" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V11" s="25" t="n"/>
+      <c r="V11" s="24" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="39" t="inlineStr">
+      <c r="B12" s="40" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M12" s="30" t="n"/>
-      <c r="N12" s="31" t="n"/>
-      <c r="O12" s="26" t="n"/>
-      <c r="P12" s="27" t="n"/>
-      <c r="Q12" s="28" t="n"/>
-      <c r="R12" s="26" t="n"/>
-      <c r="S12" s="27" t="n"/>
-      <c r="T12" s="28" t="n"/>
-      <c r="U12" s="26" t="n"/>
-      <c r="V12" s="28" t="n"/>
+      <c r="M12" s="29" t="n"/>
+      <c r="N12" s="30" t="n"/>
+      <c r="O12" s="25" t="n"/>
+      <c r="P12" s="26" t="n"/>
+      <c r="Q12" s="27" t="n"/>
+      <c r="R12" s="25" t="n"/>
+      <c r="S12" s="26" t="n"/>
+      <c r="T12" s="27" t="n"/>
+      <c r="U12" s="25" t="n"/>
+      <c r="V12" s="27" t="n"/>
       <c r="AA12" s="10" t="inlineStr"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="21">
-      <c r="M13" s="26" t="n"/>
-      <c r="N13" s="28" t="n"/>
+    <row r="13" ht="15.75" customHeight="1" s="20">
+      <c r="M13" s="25" t="n"/>
+      <c r="N13" s="27" t="n"/>
       <c r="O13" s="34" t="inlineStr">
         <is>
           <t>смены</t>
@@ -9719,19 +9780,19 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="18.75" customHeight="1" s="21">
+    <row r="14" ht="18.75" customHeight="1" s="20">
       <c r="M14" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N14" s="4" t="n"/>
-      <c r="O14" s="15">
+      <c r="O14" s="18">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
       <c r="P14" s="16" t="n"/>
       <c r="Q14" s="17" t="n"/>
-      <c r="R14" s="15">
+      <c r="R14" s="18">
         <f>SUM(S5:AG5)</f>
         <v/>
       </c>
@@ -9740,19 +9801,19 @@
       <c r="U14" s="7" t="n"/>
       <c r="V14" s="8" t="n"/>
     </row>
-    <row r="15" ht="18.75" customHeight="1" s="21">
+    <row r="15" ht="18.75" customHeight="1" s="20">
       <c r="M15" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="15">
+      <c r="O15" s="18">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
       <c r="P15" s="16" t="n"/>
       <c r="Q15" s="17" t="n"/>
-      <c r="R15" s="15">
+      <c r="R15" s="18">
         <f>SUM(S6:AG6)</f>
         <v/>
       </c>
@@ -9761,19 +9822,19 @@
       <c r="U15" s="12" t="n"/>
       <c r="V15" s="5" t="n"/>
     </row>
-    <row r="16" ht="18.75" customHeight="1" s="21">
+    <row r="16" ht="18.75" customHeight="1" s="20">
       <c r="M16" s="42">
         <f>B7</f>
         <v/>
       </c>
       <c r="N16" s="17" t="n"/>
-      <c r="O16" s="15">
+      <c r="O16" s="18">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
       <c r="P16" s="16" t="n"/>
       <c r="Q16" s="17" t="n"/>
-      <c r="R16" s="15">
+      <c r="R16" s="18">
         <f>SUM(S7:AG7)</f>
         <v/>
       </c>
@@ -9782,19 +9843,19 @@
       <c r="U16" s="5" t="n"/>
       <c r="V16" s="5" t="n"/>
     </row>
-    <row r="17" ht="18" customHeight="1" s="21">
+    <row r="17" ht="18" customHeight="1" s="20">
       <c r="M17" s="42">
         <f>B8</f>
         <v/>
       </c>
       <c r="N17" s="17" t="n"/>
-      <c r="O17" s="15">
+      <c r="O17" s="18">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
       <c r="P17" s="16" t="n"/>
       <c r="Q17" s="17" t="n"/>
-      <c r="R17" s="15">
+      <c r="R17" s="18">
         <f>SUM(S8:AG8)</f>
         <v/>
       </c>
@@ -9803,15 +9864,15 @@
       <c r="U17" s="5" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="14.45" customHeight="1" s="21"/>
-    <row r="19" ht="14.45" customHeight="1" s="21"/>
-    <row r="20" ht="14.45" customHeight="1" s="21">
+    <row r="18" ht="14.4" customHeight="1" s="20"/>
+    <row r="19" ht="14.4" customHeight="1" s="20"/>
+    <row r="20" ht="14.4" customHeight="1" s="20">
       <c r="M20" t="inlineStr"/>
     </row>
-    <row r="21" ht="14.45" customHeight="1" s="21"/>
-    <row r="22" ht="14.45" customHeight="1" s="21"/>
-    <row r="23" ht="14.45" customHeight="1" s="21"/>
-    <row r="24" ht="14.45" customHeight="1" s="21"/>
+    <row r="21" ht="14.4" customHeight="1" s="20"/>
+    <row r="22" ht="14.4" customHeight="1" s="20"/>
+    <row r="23" ht="14.4" customHeight="1" s="20"/>
+    <row r="24" ht="14.4" customHeight="1" s="20"/>
   </sheetData>
   <mergeCells count="28">
     <mergeCell ref="R15:T15"/>
@@ -9860,13 +9921,13 @@
       <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="4.7109375" customWidth="1" style="21" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" style="21" min="3" max="3"/>
-    <col width="5.7109375" customWidth="1" style="21" min="4" max="6"/>
-    <col width="5.42578125" customWidth="1" style="21" min="7" max="7"/>
-    <col width="5.7109375" customWidth="1" style="21" min="8" max="34"/>
+    <col width="4.6640625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="12.6640625" customWidth="1" style="20" min="3" max="3"/>
+    <col width="5.6640625" customWidth="1" style="20" min="4" max="6"/>
+    <col width="5.44140625" customWidth="1" style="20" min="7" max="7"/>
+    <col width="5.6640625" customWidth="1" style="20" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9881,8 +9942,8 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="21">
-      <c r="B2" s="19" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="20">
+      <c r="B2" s="15" t="inlineStr">
         <is>
           <t>Октябрь</t>
         </is>
@@ -9920,13 +9981,13 @@
       <c r="AG2" s="16" t="n"/>
       <c r="AH2" s="17" t="n"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="21">
+    <row r="3" ht="18.75" customHeight="1" s="20">
       <c r="B3" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="31" t="n"/>
+      <c r="C3" s="30" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>вт</t>
@@ -10083,9 +10144,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="21">
-      <c r="B4" s="26" t="n"/>
-      <c r="C4" s="28" t="n"/>
+    <row r="4" ht="18.75" customHeight="1" s="20">
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="27" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -10180,8 +10241,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="21">
-      <c r="B5" s="18" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="20">
+      <c r="B5" s="32" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
@@ -10221,8 +10282,8 @@
       <c r="AG5" s="3" t="n"/>
       <c r="AH5" s="3" t="n"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="21">
-      <c r="B6" s="18" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1" s="20">
+      <c r="B6" s="32" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
@@ -10262,8 +10323,8 @@
       <c r="AG6" s="3" t="n"/>
       <c r="AH6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="21">
-      <c r="B7" s="18" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="20">
+      <c r="B7" s="32" t="inlineStr">
         <is>
           <t>Алена</t>
         </is>
@@ -10345,8 +10406,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="18.75" customHeight="1" s="21">
-      <c r="B8" s="18" t="inlineStr">
+    <row r="8" ht="18.75" customHeight="1" s="20">
+      <c r="B8" s="32" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
@@ -10388,8 +10449,8 @@
       <c r="AG8" s="3" t="n"/>
       <c r="AH8" s="3" t="n"/>
     </row>
-    <row r="9" ht="18.75" customHeight="1" s="21">
-      <c r="B9" s="18" t="inlineStr">
+    <row r="9" ht="18.75" customHeight="1" s="20">
+      <c r="B9" s="32" t="inlineStr">
         <is>
           <t>Ильдар</t>
         </is>
@@ -10437,7 +10498,7 @@
       </c>
       <c r="AH9" s="3" t="n"/>
     </row>
-    <row r="11" ht="18.75" customHeight="1" s="21">
+    <row r="11" ht="18.75" customHeight="1" s="20">
       <c r="B11" s="33" t="inlineStr">
         <is>
           <t>работа//смена</t>
@@ -10448,7 +10509,7 @@
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M11" s="32" t="inlineStr">
+      <c r="M11" s="31" t="inlineStr">
         <is>
           <t>Итоги (Октябрь)</t>
         </is>
@@ -10463,65 +10524,65 @@
       <c r="U11" s="16" t="n"/>
       <c r="V11" s="17" t="n"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1" s="21">
-      <c r="B12" s="22" t="inlineStr">
+    <row r="12" ht="15.75" customHeight="1" s="20">
+      <c r="B12" s="21" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E12" s="20" t="inlineStr">
+      <c r="E12" s="19" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M12" s="29" t="inlineStr">
+      <c r="M12" s="28" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N12" s="25" t="n"/>
-      <c r="O12" s="23" t="inlineStr">
+      <c r="N12" s="24" t="n"/>
+      <c r="O12" s="22" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P12" s="24" t="n"/>
-      <c r="Q12" s="25" t="n"/>
-      <c r="R12" s="23" t="inlineStr">
+      <c r="P12" s="23" t="n"/>
+      <c r="Q12" s="24" t="n"/>
+      <c r="R12" s="22" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S12" s="24" t="n"/>
-      <c r="T12" s="25" t="n"/>
+      <c r="S12" s="23" t="n"/>
+      <c r="T12" s="24" t="n"/>
       <c r="U12" s="36" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V12" s="25" t="n"/>
+      <c r="V12" s="24" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="39" t="inlineStr">
+      <c r="B13" s="40" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M13" s="30" t="n"/>
-      <c r="N13" s="31" t="n"/>
-      <c r="O13" s="26" t="n"/>
-      <c r="P13" s="27" t="n"/>
-      <c r="Q13" s="28" t="n"/>
-      <c r="R13" s="26" t="n"/>
-      <c r="S13" s="27" t="n"/>
-      <c r="T13" s="28" t="n"/>
-      <c r="U13" s="26" t="n"/>
-      <c r="V13" s="28" t="n"/>
+      <c r="M13" s="29" t="n"/>
+      <c r="N13" s="30" t="n"/>
+      <c r="O13" s="25" t="n"/>
+      <c r="P13" s="26" t="n"/>
+      <c r="Q13" s="27" t="n"/>
+      <c r="R13" s="25" t="n"/>
+      <c r="S13" s="26" t="n"/>
+      <c r="T13" s="27" t="n"/>
+      <c r="U13" s="25" t="n"/>
+      <c r="V13" s="27" t="n"/>
       <c r="AA13" s="10" t="inlineStr"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="21">
-      <c r="M14" s="26" t="n"/>
-      <c r="N14" s="28" t="n"/>
+    <row r="14" ht="15.75" customHeight="1" s="20">
+      <c r="M14" s="25" t="n"/>
+      <c r="N14" s="27" t="n"/>
       <c r="O14" s="34" t="inlineStr">
         <is>
           <t>смены</t>
@@ -10547,19 +10608,19 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="18.75" customHeight="1" s="21">
+    <row r="15" ht="18.75" customHeight="1" s="20">
       <c r="M15" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="15">
+      <c r="O15" s="18">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
       <c r="P15" s="16" t="n"/>
       <c r="Q15" s="17" t="n"/>
-      <c r="R15" s="15">
+      <c r="R15" s="18">
         <f>SUM(S5:AH5)</f>
         <v/>
       </c>
@@ -10568,19 +10629,19 @@
       <c r="U15" s="7" t="n"/>
       <c r="V15" s="8" t="n"/>
     </row>
-    <row r="16" ht="18.75" customHeight="1" s="21">
+    <row r="16" ht="18.75" customHeight="1" s="20">
       <c r="M16" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="15">
+      <c r="O16" s="18">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
       <c r="P16" s="16" t="n"/>
       <c r="Q16" s="17" t="n"/>
-      <c r="R16" s="15">
+      <c r="R16" s="18">
         <f>SUM(S6:AH6)</f>
         <v/>
       </c>
@@ -10589,19 +10650,19 @@
       <c r="U16" s="12" t="n"/>
       <c r="V16" s="5" t="n"/>
     </row>
-    <row r="17" ht="18.75" customHeight="1" s="21">
+    <row r="17" ht="18.75" customHeight="1" s="20">
       <c r="M17" s="42">
         <f>B7</f>
         <v/>
       </c>
       <c r="N17" s="17" t="n"/>
-      <c r="O17" s="15">
+      <c r="O17" s="18">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
       <c r="P17" s="16" t="n"/>
       <c r="Q17" s="17" t="n"/>
-      <c r="R17" s="15">
+      <c r="R17" s="18">
         <f>SUM(S7:AH7)</f>
         <v/>
       </c>
@@ -10610,19 +10671,19 @@
       <c r="U17" s="5" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="18" customHeight="1" s="21">
+    <row r="18" ht="18" customHeight="1" s="20">
       <c r="M18" s="42">
         <f>B8</f>
         <v/>
       </c>
       <c r="N18" s="17" t="n"/>
-      <c r="O18" s="15">
+      <c r="O18" s="18">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
       <c r="P18" s="16" t="n"/>
       <c r="Q18" s="17" t="n"/>
-      <c r="R18" s="15">
+      <c r="R18" s="18">
         <f>SUM(S8:AH8)</f>
         <v/>
       </c>
@@ -10631,19 +10692,19 @@
       <c r="U18" s="5" t="n"/>
       <c r="V18" s="5" t="n"/>
     </row>
-    <row r="19" ht="14.45" customHeight="1" s="21">
+    <row r="19" ht="14.4" customHeight="1" s="20">
       <c r="M19" s="42">
         <f>B9</f>
         <v/>
       </c>
       <c r="N19" s="17" t="n"/>
-      <c r="O19" s="15">
+      <c r="O19" s="18">
         <f>SUM(D9:R9)</f>
         <v/>
       </c>
       <c r="P19" s="16" t="n"/>
       <c r="Q19" s="17" t="n"/>
-      <c r="R19" s="15">
+      <c r="R19" s="18">
         <f>SUM(S9:AH9)</f>
         <v/>
       </c>
@@ -10652,14 +10713,14 @@
       <c r="U19" s="5" t="n"/>
       <c r="V19" s="5" t="n"/>
     </row>
-    <row r="20" ht="14.45" customHeight="1" s="21"/>
-    <row r="21" ht="14.45" customHeight="1" s="21">
+    <row r="20" ht="14.4" customHeight="1" s="20"/>
+    <row r="21" ht="14.4" customHeight="1" s="20">
       <c r="M21" t="inlineStr"/>
     </row>
-    <row r="22" ht="14.45" customHeight="1" s="21"/>
-    <row r="23" ht="14.45" customHeight="1" s="21"/>
-    <row r="24" ht="14.45" customHeight="1" s="21"/>
-    <row r="25" ht="14.45" customHeight="1" s="21"/>
+    <row r="22" ht="14.4" customHeight="1" s="20"/>
+    <row r="23" ht="14.4" customHeight="1" s="20"/>
+    <row r="24" ht="14.4" customHeight="1" s="20"/>
+    <row r="25" ht="14.4" customHeight="1" s="20"/>
   </sheetData>
   <mergeCells count="32">
     <mergeCell ref="R15:T15"/>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -227,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -369,6 +369,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -398,7 +427,9 @@
     <xf numFmtId="49" fontId="1" fillId="14" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -469,7 +500,9 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1526,7 +1559,7 @@
       <c r="T12" s="27" t="n"/>
       <c r="U12" s="25" t="n"/>
       <c r="V12" s="27" t="n"/>
-      <c r="AA12" s="10" t="inlineStr"/>
+      <c r="AA12" s="10" t="n"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="20">
       <c r="M13" s="25" t="n"/>
@@ -2341,7 +2374,7 @@
       <c r="T13" s="27" t="n"/>
       <c r="U13" s="25" t="n"/>
       <c r="V13" s="27" t="n"/>
-      <c r="AA13" s="10" t="inlineStr"/>
+      <c r="AA13" s="10" t="n"/>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="20">
       <c r="M14" s="25" t="n"/>
@@ -2531,7 +2564,7 @@
   <dimension ref="B1:AH20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -3203,7 +3236,7 @@
       <c r="T13" s="27" t="n"/>
       <c r="U13" s="25" t="n"/>
       <c r="V13" s="27" t="n"/>
-      <c r="AA13" s="10" t="inlineStr"/>
+      <c r="AA13" s="10" t="n"/>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="20">
       <c r="B14" s="44" t="inlineStr">
@@ -3426,49 +3459,49 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI19"/>
+  <dimension ref="A1:AI20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I5" sqref="H5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4.7109375" customWidth="1" style="20" min="1" max="1"/>
-    <col width="13" customWidth="1" style="20" min="2" max="3"/>
-    <col width="13" customWidth="1" style="20" min="3" max="3"/>
-    <col width="5.7109375" customWidth="1" style="20" min="4" max="35"/>
-    <col width="5.7109375" customWidth="1" style="20" min="5" max="5"/>
-    <col width="5.7109375" customWidth="1" style="20" min="6" max="6"/>
-    <col width="5.7109375" customWidth="1" style="20" min="7" max="7"/>
-    <col width="5.7109375" customWidth="1" style="20" min="8" max="8"/>
-    <col width="5.7109375" customWidth="1" style="20" min="9" max="9"/>
-    <col width="5.7109375" customWidth="1" style="20" min="10" max="10"/>
-    <col width="5.7109375" customWidth="1" style="20" min="11" max="11"/>
-    <col width="5.7109375" customWidth="1" style="20" min="12" max="12"/>
-    <col width="5.7109375" customWidth="1" style="20" min="13" max="13"/>
-    <col width="5.7109375" customWidth="1" style="20" min="14" max="14"/>
-    <col width="5.7109375" customWidth="1" style="20" min="15" max="15"/>
-    <col width="5.7109375" customWidth="1" style="20" min="16" max="16"/>
-    <col width="5.7109375" customWidth="1" style="20" min="17" max="17"/>
-    <col width="5.7109375" customWidth="1" style="20" min="18" max="18"/>
-    <col width="5.7109375" customWidth="1" style="20" min="19" max="19"/>
-    <col width="5.7109375" customWidth="1" style="20" min="20" max="20"/>
-    <col width="5.7109375" customWidth="1" style="20" min="21" max="21"/>
-    <col width="5.7109375" customWidth="1" style="20" min="22" max="22"/>
-    <col width="5.7109375" customWidth="1" style="20" min="23" max="23"/>
-    <col width="5.7109375" customWidth="1" style="20" min="24" max="24"/>
-    <col width="5.7109375" customWidth="1" style="20" min="25" max="25"/>
-    <col width="5.7109375" customWidth="1" style="20" min="26" max="26"/>
-    <col width="5.7109375" customWidth="1" style="20" min="27" max="27"/>
-    <col width="5.7109375" customWidth="1" style="20" min="28" max="28"/>
-    <col width="5.7109375" customWidth="1" style="20" min="29" max="29"/>
-    <col width="5.7109375" customWidth="1" style="20" min="30" max="30"/>
-    <col width="5.7109375" customWidth="1" style="20" min="31" max="31"/>
-    <col width="5.7109375" customWidth="1" style="20" min="32" max="32"/>
-    <col width="5.7109375" customWidth="1" style="20" min="33" max="33"/>
-    <col width="5.7109375" customWidth="1" style="20" min="34" max="34"/>
-    <col width="5.7109375" customWidth="1" style="20" min="35" max="35"/>
+    <col width="4.7109375" customWidth="1" style="20" min="2" max="3"/>
+    <col width="4.7109375" customWidth="1" style="20" min="3" max="3"/>
+    <col width="4.7109375" customWidth="1" style="20" min="4" max="35"/>
+    <col width="4.7109375" customWidth="1" style="20" min="5" max="5"/>
+    <col width="4.7109375" customWidth="1" style="20" min="6" max="6"/>
+    <col width="4.7109375" customWidth="1" style="20" min="7" max="7"/>
+    <col width="4.7109375" customWidth="1" style="20" min="8" max="8"/>
+    <col width="4.7109375" customWidth="1" style="20" min="9" max="9"/>
+    <col width="4.7109375" customWidth="1" style="20" min="10" max="10"/>
+    <col width="4.7109375" customWidth="1" style="20" min="11" max="11"/>
+    <col width="4.7109375" customWidth="1" style="20" min="12" max="12"/>
+    <col width="4.7109375" customWidth="1" style="20" min="13" max="13"/>
+    <col width="4.7109375" customWidth="1" style="20" min="14" max="14"/>
+    <col width="4.7109375" customWidth="1" style="20" min="15" max="15"/>
+    <col width="4.7109375" customWidth="1" style="20" min="16" max="16"/>
+    <col width="4.7109375" customWidth="1" style="20" min="17" max="17"/>
+    <col width="4.7109375" customWidth="1" style="20" min="18" max="18"/>
+    <col width="4.7109375" customWidth="1" style="20" min="19" max="19"/>
+    <col width="4.7109375" customWidth="1" style="20" min="20" max="20"/>
+    <col width="4.7109375" customWidth="1" style="20" min="21" max="21"/>
+    <col width="4.7109375" customWidth="1" style="20" min="22" max="22"/>
+    <col width="4.7109375" customWidth="1" style="20" min="23" max="23"/>
+    <col width="4.7109375" customWidth="1" style="20" min="24" max="24"/>
+    <col width="4.7109375" customWidth="1" style="20" min="25" max="25"/>
+    <col width="4.7109375" customWidth="1" style="20" min="26" max="26"/>
+    <col width="4.7109375" customWidth="1" style="20" min="27" max="27"/>
+    <col width="4.7109375" customWidth="1" style="20" min="28" max="28"/>
+    <col width="4.7109375" customWidth="1" style="20" min="29" max="29"/>
+    <col width="4.7109375" customWidth="1" style="20" min="30" max="30"/>
+    <col width="4.7109375" customWidth="1" style="20" min="31" max="31"/>
+    <col width="4.7109375" customWidth="1" style="20" min="32" max="32"/>
+    <col width="4.7109375" customWidth="1" style="20" min="33" max="33"/>
+    <col width="4.7109375" customWidth="1" style="20" min="34" max="34"/>
+    <col width="4.7109375" customWidth="1" style="20" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3830,7 +3863,7 @@
     <row r="6" ht="18.75" customHeight="1" s="20">
       <c r="B6" s="18" t="inlineStr">
         <is>
-          <t>Алиса</t>
+          <t>Работяга</t>
         </is>
       </c>
       <c r="C6" s="17" t="n"/>
@@ -3866,180 +3899,245 @@
       <c r="AG6" s="45" t="n"/>
       <c r="AH6" s="45" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="20"/>
-    <row r="8" ht="18.75" customHeight="1" s="20">
-      <c r="B8" s="32" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="20">
+      <c r="B7" s="18" t="inlineStr">
+        <is>
+          <t>Супер</t>
+        </is>
+      </c>
+      <c r="C7" s="17" t="n"/>
+      <c r="D7" s="45" t="n"/>
+      <c r="E7" s="45" t="n"/>
+      <c r="F7" s="45" t="n"/>
+      <c r="G7" s="45" t="n"/>
+      <c r="H7" s="45" t="n"/>
+      <c r="I7" s="45" t="n"/>
+      <c r="J7" s="45" t="n"/>
+      <c r="K7" s="45" t="n"/>
+      <c r="L7" s="45" t="n"/>
+      <c r="M7" s="45" t="n"/>
+      <c r="N7" s="45" t="n"/>
+      <c r="O7" s="45" t="n"/>
+      <c r="P7" s="45" t="n"/>
+      <c r="Q7" s="45" t="n"/>
+      <c r="R7" s="45" t="n"/>
+      <c r="S7" s="45" t="n"/>
+      <c r="T7" s="45" t="n"/>
+      <c r="U7" s="45" t="n"/>
+      <c r="V7" s="45" t="n"/>
+      <c r="W7" s="45" t="n"/>
+      <c r="X7" s="45" t="n"/>
+      <c r="Y7" s="45" t="n"/>
+      <c r="Z7" s="45" t="n"/>
+      <c r="AA7" s="45" t="n"/>
+      <c r="AB7" s="45" t="n"/>
+      <c r="AC7" s="45" t="n"/>
+      <c r="AD7" s="45" t="n"/>
+      <c r="AE7" s="45" t="n"/>
+      <c r="AF7" s="45" t="n"/>
+      <c r="AG7" s="45" t="n"/>
+      <c r="AH7" s="45" t="n"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1" s="20"/>
+    <row r="9" ht="18.75" customHeight="1" s="20">
+      <c r="B9" s="32" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E8" s="34" t="inlineStr">
+      <c r="E9" s="34" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M8" s="41" t="inlineStr">
+      <c r="M9" s="41" t="inlineStr">
         <is>
           <t>Итоги (Январь)</t>
         </is>
       </c>
-      <c r="N8" s="16" t="n"/>
-      <c r="O8" s="16" t="n"/>
-      <c r="P8" s="16" t="n"/>
-      <c r="Q8" s="16" t="n"/>
-      <c r="R8" s="16" t="n"/>
-      <c r="S8" s="16" t="n"/>
-      <c r="T8" s="16" t="n"/>
-      <c r="U8" s="16" t="n"/>
-      <c r="V8" s="17" t="n"/>
-    </row>
-    <row r="9" ht="18.75" customHeight="1" s="20">
-      <c r="B9" s="28" t="inlineStr">
+      <c r="N9" s="16" t="n"/>
+      <c r="O9" s="16" t="n"/>
+      <c r="P9" s="16" t="n"/>
+      <c r="Q9" s="16" t="n"/>
+      <c r="R9" s="16" t="n"/>
+      <c r="S9" s="16" t="n"/>
+      <c r="T9" s="16" t="n"/>
+      <c r="U9" s="16" t="n"/>
+      <c r="V9" s="17" t="n"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1" s="20">
+      <c r="B10" s="28" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E9" s="21" t="inlineStr">
+      <c r="E10" s="21" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M9" s="29" t="inlineStr">
+      <c r="M10" s="29" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N9" s="24" t="n"/>
-      <c r="O9" s="22" t="inlineStr">
+      <c r="N10" s="24" t="n"/>
+      <c r="O10" s="22" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P9" s="23" t="n"/>
-      <c r="Q9" s="24" t="n"/>
-      <c r="R9" s="22" t="inlineStr">
+      <c r="P10" s="23" t="n"/>
+      <c r="Q10" s="24" t="n"/>
+      <c r="R10" s="22" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S9" s="23" t="n"/>
-      <c r="T9" s="24" t="n"/>
-      <c r="U9" s="43" t="inlineStr">
+      <c r="S10" s="23" t="n"/>
+      <c r="T10" s="24" t="n"/>
+      <c r="U10" s="43" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V9" s="24" t="n"/>
-    </row>
-    <row r="10" ht="18.75" customHeight="1" s="20">
-      <c r="B10" s="19" t="inlineStr">
+      <c r="V10" s="24" t="n"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1" s="20">
+      <c r="B11" s="19" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M10" s="30" t="n"/>
-      <c r="N10" s="31" t="n"/>
-      <c r="O10" s="25" t="n"/>
-      <c r="P10" s="26" t="n"/>
-      <c r="Q10" s="27" t="n"/>
-      <c r="R10" s="25" t="n"/>
-      <c r="S10" s="26" t="n"/>
-      <c r="T10" s="27" t="n"/>
-      <c r="U10" s="25" t="n"/>
-      <c r="V10" s="27" t="n"/>
-      <c r="AA10" s="10" t="inlineStr"/>
-    </row>
-    <row r="11" ht="18.75" customHeight="1" s="20">
-      <c r="B11" s="44" t="inlineStr">
+      <c r="M11" s="30" t="n"/>
+      <c r="N11" s="31" t="n"/>
+      <c r="O11" s="25" t="n"/>
+      <c r="P11" s="26" t="n"/>
+      <c r="Q11" s="27" t="n"/>
+      <c r="R11" s="25" t="n"/>
+      <c r="S11" s="26" t="n"/>
+      <c r="T11" s="27" t="n"/>
+      <c r="U11" s="25" t="n"/>
+      <c r="V11" s="27" t="n"/>
+      <c r="AA11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" s="20">
+      <c r="B12" s="44" t="inlineStr">
         <is>
           <t>Подработка/ч</t>
         </is>
       </c>
-      <c r="M11" s="25" t="n"/>
-      <c r="N11" s="27" t="n"/>
-      <c r="O11" s="33" t="inlineStr">
+      <c r="M12" s="25" t="n"/>
+      <c r="N12" s="27" t="n"/>
+      <c r="O12" s="33" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
-      </c>
-      <c r="P11" s="16" t="n"/>
-      <c r="Q11" s="17" t="n"/>
-      <c r="R11" s="39" t="inlineStr">
-        <is>
-          <t>смены</t>
-        </is>
-      </c>
-      <c r="S11" s="16" t="n"/>
-      <c r="T11" s="17" t="n"/>
-      <c r="U11" s="13" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-      <c r="V11" s="13" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1" s="20">
-      <c r="M12" s="42" t="inlineStr">
-        <is>
-          <t>Кирилл</t>
-        </is>
-      </c>
-      <c r="N12" s="17" t="n"/>
-      <c r="O12" s="15">
-        <f>SUMIF(D5:R5,"=1")</f>
-        <v/>
       </c>
       <c r="P12" s="16" t="n"/>
       <c r="Q12" s="17" t="n"/>
-      <c r="R12" s="15">
-        <f>SUMIF(S5:AH5,"=1")</f>
-        <v/>
+      <c r="R12" s="39" t="inlineStr">
+        <is>
+          <t>смены</t>
+        </is>
       </c>
       <c r="S12" s="16" t="n"/>
       <c r="T12" s="17" t="n"/>
-      <c r="U12" s="7">
-        <f>SUMIF(D5:R5,"&gt;1")</f>
-        <v/>
-      </c>
-      <c r="V12" s="7">
-        <f>SUMIF(S5:AH5,"&gt;1")</f>
-        <v/>
+      <c r="U12" s="13" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="V12" s="13" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="20">
       <c r="M13" s="42" t="inlineStr">
         <is>
-          <t>Алиса</t>
+          <t>Кирилл</t>
         </is>
       </c>
       <c r="N13" s="17" t="n"/>
       <c r="O13" s="15">
-        <f>SUMIF(D6:R6,"=1")</f>
+        <f>SUMIF(D5:R5,"=1")</f>
         <v/>
       </c>
       <c r="P13" s="16" t="n"/>
       <c r="Q13" s="17" t="n"/>
       <c r="R13" s="15">
-        <f>SUMIF(S6:AH6,"=1")</f>
+        <f>SUMIF(S5:AH5,"=1")</f>
         <v/>
       </c>
       <c r="S13" s="16" t="n"/>
       <c r="T13" s="17" t="n"/>
       <c r="U13" s="7">
+        <f>SUMIF(D5:R5,"&gt;1")</f>
+        <v/>
+      </c>
+      <c r="V13" s="7">
+        <f>SUMIF(S5:AH5,"&gt;1")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1" s="20">
+      <c r="M14" s="42" t="inlineStr">
+        <is>
+          <t>Работяга</t>
+        </is>
+      </c>
+      <c r="N14" s="17" t="n"/>
+      <c r="O14" s="15">
+        <f>SUMIF(D6:R6,"=1")</f>
+        <v/>
+      </c>
+      <c r="P14" s="16" t="n"/>
+      <c r="Q14" s="17" t="n"/>
+      <c r="R14" s="15">
+        <f>SUMIF(S6:AH6,"=1")</f>
+        <v/>
+      </c>
+      <c r="S14" s="16" t="n"/>
+      <c r="T14" s="17" t="n"/>
+      <c r="U14" s="7">
         <f>SUMIF(D6:R6,"&gt;1")</f>
         <v/>
       </c>
-      <c r="V13" s="7">
+      <c r="V14" s="7">
         <f>SUMIF(S6:AH6,"&gt;1")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="20"/>
-    <row r="15" ht="18.75" customHeight="1" s="20"/>
+    <row r="15" ht="15.75" customHeight="1" s="20">
+      <c r="M15" s="42" t="inlineStr">
+        <is>
+          <t>Супер</t>
+        </is>
+      </c>
+      <c r="N15" s="17" t="n"/>
+      <c r="O15" s="15">
+        <f>SUMIF(D7:R7,"=1")</f>
+        <v/>
+      </c>
+      <c r="P15" s="16" t="n"/>
+      <c r="Q15" s="17" t="n"/>
+      <c r="R15" s="15">
+        <f>SUMIF(S7:AH7,"=1")</f>
+        <v/>
+      </c>
+      <c r="S15" s="16" t="n"/>
+      <c r="T15" s="17" t="n"/>
+      <c r="U15" s="7">
+        <f>SUMIF(D7:R7,"&gt;1")</f>
+        <v/>
+      </c>
+      <c r="V15" s="7">
+        <f>SUMIF(S7:AH7,"&gt;1")</f>
+        <v/>
+      </c>
+    </row>
     <row r="16" ht="18.75" customHeight="1" s="20"/>
     <row r="17" ht="18.75" customHeight="1" s="20"/>
     <row r="18" ht="18" customHeight="1" s="20"/>
@@ -4050,45 +4148,46 @@
     <row r="23" ht="14.45" customHeight="1" s="20"/>
     <row r="24" ht="14.45" customHeight="1" s="20"/>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="40">
     <mergeCell ref="R15:T15"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="M8:V8"/>
     <mergeCell ref="B2:AH2"/>
+    <mergeCell ref="O10:Q11"/>
     <mergeCell ref="R12:T12"/>
-    <mergeCell ref="R9:T10"/>
-    <mergeCell ref="M9:N11"/>
-    <mergeCell ref="O9:Q10"/>
     <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="R10:T11"/>
     <mergeCell ref="O12:Q12"/>
     <mergeCell ref="R17:T17"/>
+    <mergeCell ref="M10:N12"/>
     <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="U10:V11"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="E10:K17"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="M16:N16"/>
-    <mergeCell ref="E8:K8"/>
     <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="M9:V9"/>
     <mergeCell ref="M15:N15"/>
-    <mergeCell ref="U9:V10"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="E9:K16"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="R18:T18"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="O13:Q13"/>
     <mergeCell ref="R14:T14"/>
-    <mergeCell ref="O13:Q13"/>
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O19:Q19"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="E9:K9"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="O18:Q18"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="R13:T13"/>
+    <mergeCell ref="M19:N19"/>
     <mergeCell ref="R16:T16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4724,7 +4823,7 @@
       <c r="T12" s="27" t="n"/>
       <c r="U12" s="25" t="n"/>
       <c r="V12" s="27" t="n"/>
-      <c r="AA12" s="10" t="inlineStr"/>
+      <c r="AA12" s="10" t="n"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="20">
       <c r="M13" s="25" t="n"/>
@@ -5577,7 +5676,7 @@
       <c r="T14" s="27" t="n"/>
       <c r="U14" s="25" t="n"/>
       <c r="V14" s="27" t="n"/>
-      <c r="AA14" s="10" t="inlineStr"/>
+      <c r="AA14" s="10" t="n"/>
     </row>
     <row r="15" ht="18" customHeight="1" s="20">
       <c r="M15" s="25" t="n"/>
@@ -6407,7 +6506,7 @@
       <c r="T12" s="27" t="n"/>
       <c r="U12" s="25" t="n"/>
       <c r="V12" s="27" t="n"/>
-      <c r="AA12" s="10" t="inlineStr"/>
+      <c r="AA12" s="10" t="n"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="20">
       <c r="M13" s="25" t="n"/>
@@ -7181,7 +7280,7 @@
       <c r="T12" s="27" t="n"/>
       <c r="U12" s="25" t="n"/>
       <c r="V12" s="27" t="n"/>
-      <c r="AA12" s="10" t="inlineStr"/>
+      <c r="AA12" s="10" t="n"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="20">
       <c r="M13" s="25" t="n"/>
@@ -7919,7 +8018,7 @@
       <c r="T11" s="27" t="n"/>
       <c r="U11" s="25" t="n"/>
       <c r="V11" s="27" t="n"/>
-      <c r="AA11" s="10" t="inlineStr"/>
+      <c r="AA11" s="10" t="n"/>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="20">
       <c r="M12" s="25" t="n"/>
@@ -8733,7 +8832,7 @@
       <c r="T13" s="27" t="n"/>
       <c r="U13" s="25" t="n"/>
       <c r="V13" s="27" t="n"/>
-      <c r="AA13" s="10" t="inlineStr"/>
+      <c r="AA13" s="10" t="n"/>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="20">
       <c r="M14" s="25" t="n"/>
@@ -9533,7 +9632,7 @@
       <c r="T12" s="27" t="n"/>
       <c r="U12" s="25" t="n"/>
       <c r="V12" s="27" t="n"/>
-      <c r="AA12" s="10" t="inlineStr"/>
+      <c r="AA12" s="10" t="n"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="20">
       <c r="M13" s="25" t="n"/>
@@ -10359,7 +10458,7 @@
       <c r="T13" s="27" t="n"/>
       <c r="U13" s="25" t="n"/>
       <c r="V13" s="27" t="n"/>
-      <c r="AA13" s="10" t="inlineStr"/>
+      <c r="AA13" s="10" t="n"/>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="20">
       <c r="M14" s="25" t="n"/>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -3460,7 +3460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI22"/>
+  <dimension ref="A1:AI27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
@@ -4019,311 +4019,459 @@
       <c r="AG9" s="46" t="n"/>
       <c r="AH9" s="46" t="n"/>
     </row>
-    <row r="10" ht="18.75" customHeight="1" s="21"/>
+    <row r="10" ht="18.75" customHeight="1" s="21">
+      <c r="B10" s="19" t="inlineStr">
+        <is>
+          <t>Тестович</t>
+        </is>
+      </c>
+      <c r="C10" s="18" t="n"/>
+      <c r="D10" s="46" t="n"/>
+      <c r="E10" s="46" t="n"/>
+      <c r="F10" s="46" t="n"/>
+      <c r="G10" s="46" t="n"/>
+      <c r="H10" s="46" t="n"/>
+      <c r="I10" s="46" t="n"/>
+      <c r="J10" s="46" t="n"/>
+      <c r="K10" s="46" t="n"/>
+      <c r="L10" s="46" t="n"/>
+      <c r="M10" s="46" t="n"/>
+      <c r="N10" s="46" t="n"/>
+      <c r="O10" s="46" t="n"/>
+      <c r="P10" s="46" t="n"/>
+      <c r="Q10" s="46" t="n"/>
+      <c r="R10" s="46" t="n"/>
+      <c r="S10" s="46" t="n"/>
+      <c r="T10" s="46" t="n"/>
+      <c r="U10" s="46" t="n"/>
+      <c r="V10" s="46" t="n"/>
+      <c r="W10" s="46" t="n"/>
+      <c r="X10" s="46" t="n"/>
+      <c r="Y10" s="46" t="n"/>
+      <c r="Z10" s="46" t="n"/>
+      <c r="AA10" s="46" t="n"/>
+      <c r="AB10" s="46" t="n"/>
+      <c r="AC10" s="46" t="n"/>
+      <c r="AD10" s="46" t="n"/>
+      <c r="AE10" s="46" t="n"/>
+      <c r="AF10" s="46" t="n"/>
+      <c r="AG10" s="46" t="n"/>
+      <c r="AH10" s="46" t="n"/>
+    </row>
     <row r="11" ht="18.75" customHeight="1" s="21">
-      <c r="B11" s="33" t="inlineStr">
+      <c r="B11" s="19" t="inlineStr">
+        <is>
+          <t>Экономичный</t>
+        </is>
+      </c>
+      <c r="C11" s="18" t="n"/>
+      <c r="D11" s="46" t="n"/>
+      <c r="E11" s="46" t="n"/>
+      <c r="F11" s="46" t="n"/>
+      <c r="G11" s="46" t="n"/>
+      <c r="H11" s="46" t="n"/>
+      <c r="I11" s="46" t="n"/>
+      <c r="J11" s="46" t="n"/>
+      <c r="K11" s="46" t="n"/>
+      <c r="L11" s="46" t="n"/>
+      <c r="M11" s="46" t="n"/>
+      <c r="N11" s="46" t="n"/>
+      <c r="O11" s="46" t="n"/>
+      <c r="P11" s="46" t="n"/>
+      <c r="Q11" s="46" t="n"/>
+      <c r="R11" s="46" t="n"/>
+      <c r="S11" s="46" t="n"/>
+      <c r="T11" s="46" t="n"/>
+      <c r="U11" s="46" t="n"/>
+      <c r="V11" s="46" t="n"/>
+      <c r="W11" s="46" t="n"/>
+      <c r="X11" s="46" t="n"/>
+      <c r="Y11" s="46" t="n"/>
+      <c r="Z11" s="46" t="n"/>
+      <c r="AA11" s="46" t="n"/>
+      <c r="AB11" s="46" t="n"/>
+      <c r="AC11" s="46" t="n"/>
+      <c r="AD11" s="46" t="n"/>
+      <c r="AE11" s="46" t="n"/>
+      <c r="AF11" s="46" t="n"/>
+      <c r="AG11" s="46" t="n"/>
+      <c r="AH11" s="46" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1" s="21"/>
+    <row r="13" ht="18.75" customHeight="1" s="21">
+      <c r="B13" s="33" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E11" s="35" t="inlineStr">
+      <c r="E13" s="35" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M11" s="42" t="inlineStr">
+      <c r="M13" s="42" t="inlineStr">
         <is>
           <t>Итоги (Январь)</t>
         </is>
       </c>
-      <c r="N11" s="17" t="n"/>
-      <c r="O11" s="17" t="n"/>
-      <c r="P11" s="17" t="n"/>
-      <c r="Q11" s="17" t="n"/>
-      <c r="R11" s="17" t="n"/>
-      <c r="S11" s="17" t="n"/>
-      <c r="T11" s="17" t="n"/>
-      <c r="U11" s="17" t="n"/>
-      <c r="V11" s="18" t="n"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1" s="21">
-      <c r="B12" s="29" t="inlineStr">
+      <c r="N13" s="17" t="n"/>
+      <c r="O13" s="17" t="n"/>
+      <c r="P13" s="17" t="n"/>
+      <c r="Q13" s="17" t="n"/>
+      <c r="R13" s="17" t="n"/>
+      <c r="S13" s="17" t="n"/>
+      <c r="T13" s="17" t="n"/>
+      <c r="U13" s="17" t="n"/>
+      <c r="V13" s="18" t="n"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1" s="21">
+      <c r="B14" s="29" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E12" s="22" t="inlineStr">
+      <c r="E14" s="22" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M12" s="30" t="inlineStr">
+      <c r="M14" s="30" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N12" s="25" t="n"/>
-      <c r="O12" s="23" t="inlineStr">
+      <c r="N14" s="25" t="n"/>
+      <c r="O14" s="23" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P12" s="24" t="n"/>
-      <c r="Q12" s="25" t="n"/>
-      <c r="R12" s="23" t="inlineStr">
+      <c r="P14" s="24" t="n"/>
+      <c r="Q14" s="25" t="n"/>
+      <c r="R14" s="23" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S12" s="24" t="n"/>
-      <c r="T12" s="25" t="n"/>
-      <c r="U12" s="44" t="inlineStr">
+      <c r="S14" s="24" t="n"/>
+      <c r="T14" s="25" t="n"/>
+      <c r="U14" s="44" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V12" s="25" t="n"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" s="21">
-      <c r="B13" s="20" t="inlineStr">
+      <c r="V14" s="25" t="n"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1" s="21">
+      <c r="B15" s="20" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M13" s="31" t="n"/>
-      <c r="N13" s="32" t="n"/>
-      <c r="O13" s="26" t="n"/>
-      <c r="P13" s="27" t="n"/>
-      <c r="Q13" s="28" t="n"/>
-      <c r="R13" s="26" t="n"/>
-      <c r="S13" s="27" t="n"/>
-      <c r="T13" s="28" t="n"/>
-      <c r="U13" s="26" t="n"/>
-      <c r="V13" s="28" t="n"/>
-      <c r="AA13" s="10" t="n"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1" s="21">
-      <c r="B14" s="45" t="inlineStr">
+      <c r="M15" s="31" t="n"/>
+      <c r="N15" s="32" t="n"/>
+      <c r="O15" s="26" t="n"/>
+      <c r="P15" s="27" t="n"/>
+      <c r="Q15" s="28" t="n"/>
+      <c r="R15" s="26" t="n"/>
+      <c r="S15" s="27" t="n"/>
+      <c r="T15" s="28" t="n"/>
+      <c r="U15" s="26" t="n"/>
+      <c r="V15" s="28" t="n"/>
+      <c r="AA15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1" s="21">
+      <c r="B16" s="45" t="inlineStr">
         <is>
           <t>Подработка/ч</t>
         </is>
       </c>
-      <c r="M14" s="26" t="n"/>
-      <c r="N14" s="28" t="n"/>
-      <c r="O14" s="34" t="inlineStr">
+      <c r="M16" s="26" t="n"/>
+      <c r="N16" s="28" t="n"/>
+      <c r="O16" s="34" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
-      </c>
-      <c r="P14" s="17" t="n"/>
-      <c r="Q14" s="18" t="n"/>
-      <c r="R14" s="40" t="inlineStr">
-        <is>
-          <t>смены</t>
-        </is>
-      </c>
-      <c r="S14" s="17" t="n"/>
-      <c r="T14" s="18" t="n"/>
-      <c r="U14" s="13" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-      <c r="V14" s="13" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1" s="21">
-      <c r="M15" s="43" t="inlineStr">
-        <is>
-          <t>Кирилл</t>
-        </is>
-      </c>
-      <c r="N15" s="18" t="n"/>
-      <c r="O15" s="16">
-        <f>SUMIF(D5:R5,"=1")</f>
-        <v/>
-      </c>
-      <c r="P15" s="17" t="n"/>
-      <c r="Q15" s="18" t="n"/>
-      <c r="R15" s="16">
-        <f>SUMIF(S5:AH5,"=1")</f>
-        <v/>
-      </c>
-      <c r="S15" s="17" t="n"/>
-      <c r="T15" s="18" t="n"/>
-      <c r="U15" s="7">
-        <f>SUMIF(D5:R5,"&gt;1")</f>
-        <v/>
-      </c>
-      <c r="V15" s="7">
-        <f>SUMIF(S5:AH5,"&gt;1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="18.75" customHeight="1" s="21">
-      <c r="M16" s="43" t="inlineStr">
-        <is>
-          <t>Работяга</t>
-        </is>
-      </c>
-      <c r="N16" s="18" t="n"/>
-      <c r="O16" s="16">
-        <f>SUMIF(D6:R6,"=1")</f>
-        <v/>
       </c>
       <c r="P16" s="17" t="n"/>
       <c r="Q16" s="18" t="n"/>
-      <c r="R16" s="16">
-        <f>SUMIF(S6:AH6,"=1")</f>
-        <v/>
+      <c r="R16" s="40" t="inlineStr">
+        <is>
+          <t>смены</t>
+        </is>
       </c>
       <c r="S16" s="17" t="n"/>
       <c r="T16" s="18" t="n"/>
-      <c r="U16" s="7">
-        <f>SUMIF(D6:R6,"&gt;1")</f>
-        <v/>
-      </c>
-      <c r="V16" s="7">
-        <f>SUMIF(S6:AH6,"&gt;1")</f>
-        <v/>
+      <c r="U16" s="13" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="V16" s="13" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1" s="21">
       <c r="M17" s="43" t="inlineStr">
         <is>
-          <t>Супер</t>
+          <t>Кирилл</t>
         </is>
       </c>
       <c r="N17" s="18" t="n"/>
       <c r="O17" s="16">
-        <f>SUMIF(D7:R7,"=1")</f>
+        <f>SUMIF(D5:R5,"=1")</f>
         <v/>
       </c>
       <c r="P17" s="17" t="n"/>
       <c r="Q17" s="18" t="n"/>
       <c r="R17" s="16">
-        <f>SUMIF(S7:AH7,"=1")</f>
+        <f>SUMIF(S5:AH5,"=1")</f>
         <v/>
       </c>
       <c r="S17" s="17" t="n"/>
       <c r="T17" s="18" t="n"/>
       <c r="U17" s="7">
-        <f>SUMIF(D7:R7,"&gt;1")</f>
+        <f>SUMIF(D5:R5,"&gt;1")</f>
         <v/>
       </c>
       <c r="V17" s="7">
-        <f>SUMIF(S7:AH7,"&gt;1")</f>
+        <f>SUMIF(S5:AH5,"&gt;1")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="18" customHeight="1" s="21">
       <c r="M18" s="43" t="inlineStr">
         <is>
-          <t>Владимир</t>
+          <t>Работяга</t>
         </is>
       </c>
       <c r="N18" s="18" t="n"/>
       <c r="O18" s="16">
-        <f>SUMIF(D8:R8,"=1")</f>
+        <f>SUMIF(D6:R6,"=1")</f>
         <v/>
       </c>
       <c r="P18" s="17" t="n"/>
       <c r="Q18" s="18" t="n"/>
       <c r="R18" s="16">
-        <f>SUMIF(S8:AH8,"=1")</f>
+        <f>SUMIF(S6:AH6,"=1")</f>
         <v/>
       </c>
       <c r="S18" s="17" t="n"/>
       <c r="T18" s="18" t="n"/>
       <c r="U18" s="7">
-        <f>SUMIF(D8:R8,"&gt;1")</f>
+        <f>SUMIF(D6:R6,"&gt;1")</f>
         <v/>
       </c>
       <c r="V18" s="7">
-        <f>SUMIF(S8:AH8,"&gt;1")</f>
+        <f>SUMIF(S6:AH6,"&gt;1")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1" s="21">
       <c r="M19" s="43" t="inlineStr">
         <is>
-          <t>Олигарх</t>
+          <t>Супер</t>
         </is>
       </c>
       <c r="N19" s="18" t="n"/>
       <c r="O19" s="16">
-        <f>SUMIF(D9:R9,"=1")</f>
+        <f>SUMIF(D7:R7,"=1")</f>
         <v/>
       </c>
       <c r="P19" s="17" t="n"/>
       <c r="Q19" s="18" t="n"/>
       <c r="R19" s="16">
-        <f>SUMIF(S9:AH9,"=1")</f>
+        <f>SUMIF(S7:AH7,"=1")</f>
         <v/>
       </c>
       <c r="S19" s="17" t="n"/>
       <c r="T19" s="18" t="n"/>
       <c r="U19" s="7">
+        <f>SUMIF(D7:R7,"&gt;1")</f>
+        <v/>
+      </c>
+      <c r="V19" s="7">
+        <f>SUMIF(S7:AH7,"&gt;1")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="14.4" customHeight="1" s="21">
+      <c r="M20" s="43" t="inlineStr">
+        <is>
+          <t>Владимир</t>
+        </is>
+      </c>
+      <c r="N20" s="18" t="n"/>
+      <c r="O20" s="16">
+        <f>SUMIF(D8:R8,"=1")</f>
+        <v/>
+      </c>
+      <c r="P20" s="17" t="n"/>
+      <c r="Q20" s="18" t="n"/>
+      <c r="R20" s="16">
+        <f>SUMIF(S8:AH8,"=1")</f>
+        <v/>
+      </c>
+      <c r="S20" s="17" t="n"/>
+      <c r="T20" s="18" t="n"/>
+      <c r="U20" s="7">
+        <f>SUMIF(D8:R8,"&gt;1")</f>
+        <v/>
+      </c>
+      <c r="V20" s="7">
+        <f>SUMIF(S8:AH8,"&gt;1")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="14.4" customHeight="1" s="21">
+      <c r="M21" s="43" t="inlineStr">
+        <is>
+          <t>Олигарх</t>
+        </is>
+      </c>
+      <c r="N21" s="18" t="n"/>
+      <c r="O21" s="16">
+        <f>SUMIF(D9:R9,"=1")</f>
+        <v/>
+      </c>
+      <c r="P21" s="17" t="n"/>
+      <c r="Q21" s="18" t="n"/>
+      <c r="R21" s="16">
+        <f>SUMIF(S9:AH9,"=1")</f>
+        <v/>
+      </c>
+      <c r="S21" s="17" t="n"/>
+      <c r="T21" s="18" t="n"/>
+      <c r="U21" s="7">
         <f>SUMIF(D9:R9,"&gt;1")</f>
         <v/>
       </c>
-      <c r="V19" s="7">
+      <c r="V21" s="7">
         <f>SUMIF(S9:AH9,"&gt;1")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="14.4" customHeight="1" s="21"/>
-    <row r="21" ht="14.4" customHeight="1" s="21"/>
-    <row r="22" ht="14.4" customHeight="1" s="21"/>
-    <row r="23" ht="14.4" customHeight="1" s="21"/>
+    <row r="22" ht="14.4" customHeight="1" s="21">
+      <c r="M22" s="43" t="inlineStr">
+        <is>
+          <t>Тестович</t>
+        </is>
+      </c>
+      <c r="N22" s="18" t="n"/>
+      <c r="O22" s="16">
+        <f>SUMIF(D10:R10,"=1")</f>
+        <v/>
+      </c>
+      <c r="P22" s="17" t="n"/>
+      <c r="Q22" s="18" t="n"/>
+      <c r="R22" s="16">
+        <f>SUMIF(S10:AH10,"=1")</f>
+        <v/>
+      </c>
+      <c r="S22" s="17" t="n"/>
+      <c r="T22" s="18" t="n"/>
+      <c r="U22" s="7">
+        <f>SUMIF(D10:R10,"&gt;1")</f>
+        <v/>
+      </c>
+      <c r="V22" s="7">
+        <f>SUMIF(S10:AH10,"&gt;1")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="14.4" customHeight="1" s="21">
+      <c r="M23" s="43" t="inlineStr">
+        <is>
+          <t>Экономичный</t>
+        </is>
+      </c>
+      <c r="N23" s="18" t="n"/>
+      <c r="O23" s="16">
+        <f>SUMIF(D11:R11,"=1")</f>
+        <v/>
+      </c>
+      <c r="P23" s="17" t="n"/>
+      <c r="Q23" s="18" t="n"/>
+      <c r="R23" s="16">
+        <f>SUMIF(S11:AH11,"=1")</f>
+        <v/>
+      </c>
+      <c r="S23" s="17" t="n"/>
+      <c r="T23" s="18" t="n"/>
+      <c r="U23" s="7">
+        <f>SUMIF(D11:R11,"&gt;1")</f>
+        <v/>
+      </c>
+      <c r="V23" s="7">
+        <f>SUMIF(S11:AH11,"&gt;1")</f>
+        <v/>
+      </c>
+    </row>
     <row r="24" ht="14.4" customHeight="1" s="21"/>
+    <row r="25" ht="14.4" customHeight="1" s="21"/>
+    <row r="26" s="21"/>
+    <row r="27" s="21"/>
+    <row r="28" s="21"/>
+    <row r="29" s="21"/>
+    <row r="30" s="21"/>
+    <row r="31" s="21"/>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="R15:T15"/>
+  <mergeCells count="53">
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="O14:Q15"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="O22:Q22"/>
     <mergeCell ref="B2:AH2"/>
-    <mergeCell ref="E12:K19"/>
+    <mergeCell ref="R14:T15"/>
+    <mergeCell ref="R26:T26"/>
     <mergeCell ref="R21:T21"/>
+    <mergeCell ref="O25:Q25"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="U14:V15"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="O21:Q21"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="O20:Q20"/>
     <mergeCell ref="R17:T17"/>
+    <mergeCell ref="R22:T22"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="O17:Q17"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="E14:K21"/>
+    <mergeCell ref="M22:N22"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="M25:N25"/>
     <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O23:Q23"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="R18:T18"/>
-    <mergeCell ref="R14:T14"/>
     <mergeCell ref="M18:N18"/>
-    <mergeCell ref="R12:T13"/>
+    <mergeCell ref="R23:T23"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="M11:V11"/>
+    <mergeCell ref="M26:N26"/>
     <mergeCell ref="B3:C4"/>
-    <mergeCell ref="M12:N14"/>
-    <mergeCell ref="O12:Q13"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="M13:V13"/>
+    <mergeCell ref="M14:N16"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="O20:Q20"/>
     <mergeCell ref="R16:T16"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="E11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -3460,7 +3460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI22"/>
+  <dimension ref="A1:AI23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
@@ -4019,274 +4019,339 @@
       <c r="AG9" s="46" t="n"/>
       <c r="AH9" s="46" t="n"/>
     </row>
-    <row r="10" ht="18.75" customHeight="1" s="21"/>
-    <row r="11" ht="18.75" customHeight="1" s="21">
-      <c r="B11" s="33" t="inlineStr">
+    <row r="10" ht="18.75" customHeight="1" s="21">
+      <c r="B10" s="19" t="inlineStr">
+        <is>
+          <t>Месяц</t>
+        </is>
+      </c>
+      <c r="C10" s="18" t="n"/>
+      <c r="D10" s="46" t="n"/>
+      <c r="E10" s="46" t="n"/>
+      <c r="F10" s="46" t="n"/>
+      <c r="G10" s="46" t="n"/>
+      <c r="H10" s="46" t="n"/>
+      <c r="I10" s="46" t="n"/>
+      <c r="J10" s="46" t="n"/>
+      <c r="K10" s="46" t="n"/>
+      <c r="L10" s="46" t="n"/>
+      <c r="M10" s="46" t="n"/>
+      <c r="N10" s="46" t="n"/>
+      <c r="O10" s="46" t="n"/>
+      <c r="P10" s="46" t="n"/>
+      <c r="Q10" s="46" t="n"/>
+      <c r="R10" s="46" t="n"/>
+      <c r="S10" s="46" t="n"/>
+      <c r="T10" s="46" t="n"/>
+      <c r="U10" s="46" t="n"/>
+      <c r="V10" s="46" t="n"/>
+      <c r="W10" s="46" t="n"/>
+      <c r="X10" s="46" t="n"/>
+      <c r="Y10" s="46" t="n"/>
+      <c r="Z10" s="46" t="n"/>
+      <c r="AA10" s="46" t="n"/>
+      <c r="AB10" s="46" t="n"/>
+      <c r="AC10" s="46" t="n"/>
+      <c r="AD10" s="46" t="n"/>
+      <c r="AE10" s="46" t="n"/>
+      <c r="AF10" s="46" t="n"/>
+      <c r="AG10" s="46" t="n"/>
+      <c r="AH10" s="46" t="n"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1" s="21"/>
+    <row r="12" ht="15.75" customHeight="1" s="21">
+      <c r="B12" s="33" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E11" s="35" t="inlineStr">
+      <c r="E12" s="35" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M11" s="42" t="inlineStr">
+      <c r="M12" s="42" t="inlineStr">
         <is>
           <t>Итоги (Январь)</t>
         </is>
       </c>
-      <c r="N11" s="17" t="n"/>
-      <c r="O11" s="17" t="n"/>
-      <c r="P11" s="17" t="n"/>
-      <c r="Q11" s="17" t="n"/>
-      <c r="R11" s="17" t="n"/>
-      <c r="S11" s="17" t="n"/>
-      <c r="T11" s="17" t="n"/>
-      <c r="U11" s="17" t="n"/>
-      <c r="V11" s="18" t="n"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1" s="21">
-      <c r="B12" s="29" t="inlineStr">
+      <c r="N12" s="17" t="n"/>
+      <c r="O12" s="17" t="n"/>
+      <c r="P12" s="17" t="n"/>
+      <c r="Q12" s="17" t="n"/>
+      <c r="R12" s="17" t="n"/>
+      <c r="S12" s="17" t="n"/>
+      <c r="T12" s="17" t="n"/>
+      <c r="U12" s="17" t="n"/>
+      <c r="V12" s="18" t="n"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="21">
+      <c r="B13" s="29" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E12" s="22" t="inlineStr">
+      <c r="E13" s="22" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M12" s="30" t="inlineStr">
+      <c r="M13" s="30" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N12" s="25" t="n"/>
-      <c r="O12" s="23" t="inlineStr">
+      <c r="N13" s="25" t="n"/>
+      <c r="O13" s="23" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P12" s="24" t="n"/>
-      <c r="Q12" s="25" t="n"/>
-      <c r="R12" s="23" t="inlineStr">
+      <c r="P13" s="24" t="n"/>
+      <c r="Q13" s="25" t="n"/>
+      <c r="R13" s="23" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S12" s="24" t="n"/>
-      <c r="T12" s="25" t="n"/>
-      <c r="U12" s="44" t="inlineStr">
+      <c r="S13" s="24" t="n"/>
+      <c r="T13" s="25" t="n"/>
+      <c r="U13" s="44" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V12" s="25" t="n"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" s="21">
-      <c r="B13" s="20" t="inlineStr">
+      <c r="V13" s="25" t="n"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1" s="21">
+      <c r="B14" s="20" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M13" s="31" t="n"/>
-      <c r="N13" s="32" t="n"/>
-      <c r="O13" s="26" t="n"/>
-      <c r="P13" s="27" t="n"/>
-      <c r="Q13" s="28" t="n"/>
-      <c r="R13" s="26" t="n"/>
-      <c r="S13" s="27" t="n"/>
-      <c r="T13" s="28" t="n"/>
-      <c r="U13" s="26" t="n"/>
-      <c r="V13" s="28" t="n"/>
-      <c r="AA13" s="10" t="n"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1" s="21">
-      <c r="B14" s="45" t="inlineStr">
+      <c r="M14" s="31" t="n"/>
+      <c r="N14" s="32" t="n"/>
+      <c r="O14" s="26" t="n"/>
+      <c r="P14" s="27" t="n"/>
+      <c r="Q14" s="28" t="n"/>
+      <c r="R14" s="26" t="n"/>
+      <c r="S14" s="27" t="n"/>
+      <c r="T14" s="28" t="n"/>
+      <c r="U14" s="26" t="n"/>
+      <c r="V14" s="28" t="n"/>
+      <c r="AA14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" s="21">
+      <c r="B15" s="45" t="inlineStr">
         <is>
           <t>Подработка/ч</t>
         </is>
       </c>
-      <c r="M14" s="26" t="n"/>
-      <c r="N14" s="28" t="n"/>
-      <c r="O14" s="34" t="inlineStr">
+      <c r="M15" s="26" t="n"/>
+      <c r="N15" s="28" t="n"/>
+      <c r="O15" s="34" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
-      </c>
-      <c r="P14" s="17" t="n"/>
-      <c r="Q14" s="18" t="n"/>
-      <c r="R14" s="40" t="inlineStr">
-        <is>
-          <t>смены</t>
-        </is>
-      </c>
-      <c r="S14" s="17" t="n"/>
-      <c r="T14" s="18" t="n"/>
-      <c r="U14" s="13" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-      <c r="V14" s="13" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1" s="21">
-      <c r="M15" s="43" t="inlineStr">
-        <is>
-          <t>Кирилл</t>
-        </is>
-      </c>
-      <c r="N15" s="18" t="n"/>
-      <c r="O15" s="16">
-        <f>SUMIF(D5:R5,"=1")</f>
-        <v/>
       </c>
       <c r="P15" s="17" t="n"/>
       <c r="Q15" s="18" t="n"/>
-      <c r="R15" s="16">
-        <f>SUMIF(S5:AH5,"=1")</f>
-        <v/>
+      <c r="R15" s="40" t="inlineStr">
+        <is>
+          <t>смены</t>
+        </is>
       </c>
       <c r="S15" s="17" t="n"/>
       <c r="T15" s="18" t="n"/>
-      <c r="U15" s="7">
-        <f>SUMIF(D5:R5,"&gt;1")</f>
-        <v/>
-      </c>
-      <c r="V15" s="7">
-        <f>SUMIF(S5:AH5,"&gt;1")</f>
-        <v/>
+      <c r="U15" s="13" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="V15" s="13" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="1" s="21">
       <c r="M16" s="43" t="inlineStr">
         <is>
-          <t>Работяга</t>
+          <t>Кирилл</t>
         </is>
       </c>
       <c r="N16" s="18" t="n"/>
       <c r="O16" s="16">
-        <f>SUMIF(D6:R6,"=1")</f>
+        <f>SUMIF(D5:R5,"=1")</f>
         <v/>
       </c>
       <c r="P16" s="17" t="n"/>
       <c r="Q16" s="18" t="n"/>
       <c r="R16" s="16">
-        <f>SUMIF(S6:AH6,"=1")</f>
+        <f>SUMIF(S5:AH5,"=1")</f>
         <v/>
       </c>
       <c r="S16" s="17" t="n"/>
       <c r="T16" s="18" t="n"/>
       <c r="U16" s="7">
-        <f>SUMIF(D6:R6,"&gt;1")</f>
+        <f>SUMIF(D5:R5,"&gt;1")</f>
         <v/>
       </c>
       <c r="V16" s="7">
-        <f>SUMIF(S6:AH6,"&gt;1")</f>
+        <f>SUMIF(S5:AH5,"&gt;1")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1" s="21">
       <c r="M17" s="43" t="inlineStr">
         <is>
-          <t>Супер</t>
+          <t>Работяга</t>
         </is>
       </c>
       <c r="N17" s="18" t="n"/>
       <c r="O17" s="16">
-        <f>SUMIF(D7:R7,"=1")</f>
+        <f>SUMIF(D6:R6,"=1")</f>
         <v/>
       </c>
       <c r="P17" s="17" t="n"/>
       <c r="Q17" s="18" t="n"/>
       <c r="R17" s="16">
-        <f>SUMIF(S7:AH7,"=1")</f>
+        <f>SUMIF(S6:AH6,"=1")</f>
         <v/>
       </c>
       <c r="S17" s="17" t="n"/>
       <c r="T17" s="18" t="n"/>
       <c r="U17" s="7">
-        <f>SUMIF(D7:R7,"&gt;1")</f>
+        <f>SUMIF(D6:R6,"&gt;1")</f>
         <v/>
       </c>
       <c r="V17" s="7">
-        <f>SUMIF(S7:AH7,"&gt;1")</f>
+        <f>SUMIF(S6:AH6,"&gt;1")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="18" customHeight="1" s="21">
       <c r="M18" s="43" t="inlineStr">
         <is>
-          <t>Владимир</t>
+          <t>Супер</t>
         </is>
       </c>
       <c r="N18" s="18" t="n"/>
       <c r="O18" s="16">
-        <f>SUMIF(D8:R8,"=1")</f>
+        <f>SUMIF(D7:R7,"=1")</f>
         <v/>
       </c>
       <c r="P18" s="17" t="n"/>
       <c r="Q18" s="18" t="n"/>
       <c r="R18" s="16">
-        <f>SUMIF(S8:AH8,"=1")</f>
+        <f>SUMIF(S7:AH7,"=1")</f>
         <v/>
       </c>
       <c r="S18" s="17" t="n"/>
       <c r="T18" s="18" t="n"/>
       <c r="U18" s="7">
-        <f>SUMIF(D8:R8,"&gt;1")</f>
+        <f>SUMIF(D7:R7,"&gt;1")</f>
         <v/>
       </c>
       <c r="V18" s="7">
-        <f>SUMIF(S8:AH8,"&gt;1")</f>
+        <f>SUMIF(S7:AH7,"&gt;1")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1" s="21">
       <c r="M19" s="43" t="inlineStr">
         <is>
-          <t>Олигарх</t>
+          <t>Владимир</t>
         </is>
       </c>
       <c r="N19" s="18" t="n"/>
       <c r="O19" s="16">
-        <f>SUMIF(D9:R9,"=1")</f>
+        <f>SUMIF(D8:R8,"=1")</f>
         <v/>
       </c>
       <c r="P19" s="17" t="n"/>
       <c r="Q19" s="18" t="n"/>
       <c r="R19" s="16">
-        <f>SUMIF(S9:AH9,"=1")</f>
+        <f>SUMIF(S8:AH8,"=1")</f>
         <v/>
       </c>
       <c r="S19" s="17" t="n"/>
       <c r="T19" s="18" t="n"/>
       <c r="U19" s="7">
+        <f>SUMIF(D8:R8,"&gt;1")</f>
+        <v/>
+      </c>
+      <c r="V19" s="7">
+        <f>SUMIF(S8:AH8,"&gt;1")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="14.4" customHeight="1" s="21">
+      <c r="M20" s="43" t="inlineStr">
+        <is>
+          <t>Олигарх</t>
+        </is>
+      </c>
+      <c r="N20" s="18" t="n"/>
+      <c r="O20" s="16">
+        <f>SUMIF(D9:R9,"=1")</f>
+        <v/>
+      </c>
+      <c r="P20" s="17" t="n"/>
+      <c r="Q20" s="18" t="n"/>
+      <c r="R20" s="16">
+        <f>SUMIF(S9:AH9,"=1")</f>
+        <v/>
+      </c>
+      <c r="S20" s="17" t="n"/>
+      <c r="T20" s="18" t="n"/>
+      <c r="U20" s="7">
         <f>SUMIF(D9:R9,"&gt;1")</f>
         <v/>
       </c>
-      <c r="V19" s="7">
+      <c r="V20" s="7">
         <f>SUMIF(S9:AH9,"&gt;1")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="14.4" customHeight="1" s="21"/>
-    <row r="21" ht="14.4" customHeight="1" s="21"/>
+    <row r="21" ht="14.4" customHeight="1" s="21">
+      <c r="M21" s="43" t="inlineStr">
+        <is>
+          <t>Месяц</t>
+        </is>
+      </c>
+      <c r="N21" s="18" t="n"/>
+      <c r="O21" s="16">
+        <f>SUMIF(D10:R10,"=1")</f>
+        <v/>
+      </c>
+      <c r="P21" s="17" t="n"/>
+      <c r="Q21" s="18" t="n"/>
+      <c r="R21" s="16">
+        <f>SUMIF(S10:AH10,"=1")</f>
+        <v/>
+      </c>
+      <c r="S21" s="17" t="n"/>
+      <c r="T21" s="18" t="n"/>
+      <c r="U21" s="7">
+        <f>SUMIF(D10:R10,"&gt;1")</f>
+        <v/>
+      </c>
+      <c r="V21" s="7">
+        <f>SUMIF(S10:AH10,"&gt;1")</f>
+        <v/>
+      </c>
+    </row>
     <row r="22" ht="14.4" customHeight="1" s="21"/>
     <row r="23" ht="14.4" customHeight="1" s="21"/>
     <row r="24" ht="14.4" customHeight="1" s="21"/>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="43">
     <mergeCell ref="R15:T15"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="U12:V13"/>
     <mergeCell ref="B2:AH2"/>
-    <mergeCell ref="E12:K19"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O13:Q14"/>
     <mergeCell ref="R21:T21"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="O16:Q16"/>
@@ -4294,36 +4359,37 @@
     <mergeCell ref="O21:Q21"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="R22:T22"/>
     <mergeCell ref="R17:T17"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="R13:T14"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="O17:Q17"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="M22:N22"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="O14:Q14"/>
     <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="E13:K20"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="R18:T18"/>
-    <mergeCell ref="R14:T14"/>
     <mergeCell ref="M18:N18"/>
-    <mergeCell ref="R12:T13"/>
+    <mergeCell ref="M13:N15"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="M11:V11"/>
     <mergeCell ref="B3:C4"/>
-    <mergeCell ref="M12:N14"/>
-    <mergeCell ref="O12:Q13"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="O19:Q19"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="R16:T16"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="O19:Q19"/>
     <mergeCell ref="R19:T19"/>
     <mergeCell ref="O18:Q18"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="M19:N19"/>
-    <mergeCell ref="E11:K11"/>
+    <mergeCell ref="M12:V12"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="U13:V14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ЭтаКнига"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="24" yWindow="1440" windowWidth="23016" windowHeight="10800" tabRatio="600" firstSheet="2" activeTab="11" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="9" activeTab="11" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Февраль" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Январь" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -29,7 +29,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]mmmm;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -122,13 +122,6 @@
       <family val="2"/>
       <sz val="14"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <family val="2"/>
-      <color rgb="FF92D050"/>
-      <sz val="14"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -227,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -371,21 +364,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="00000000"/>
       </left>
       <right style="thin">
@@ -402,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -428,10 +406,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -439,12 +414,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="16" fontId="5" fillId="9" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -454,6 +425,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -461,7 +452,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -470,21 +460,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -495,13 +470,13 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -797,16 +772,16 @@
   <dimension ref="B1:AF21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4.6640625" customWidth="1" style="21" min="1" max="1"/>
-    <col width="12.6640625" customWidth="1" style="21" min="3" max="3"/>
-    <col width="5.6640625" customWidth="1" style="21" min="4" max="6"/>
-    <col width="5.44140625" customWidth="1" style="21" min="7" max="7"/>
-    <col width="5.6640625" customWidth="1" style="21" min="8" max="34"/>
+    <col width="4.7109375" customWidth="1" style="32" min="1" max="1"/>
+    <col width="12.7109375" customWidth="1" style="32" min="3" max="3"/>
+    <col width="5.7109375" customWidth="1" style="32" min="4" max="6"/>
+    <col width="5.42578125" customWidth="1" style="32" min="7" max="7"/>
+    <col width="5.7109375" customWidth="1" style="32" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -821,50 +796,50 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="21">
-      <c r="B2" s="39" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="32">
+      <c r="B2" s="15" t="inlineStr">
         <is>
           <t>Февраль</t>
         </is>
       </c>
-      <c r="C2" s="17" t="n"/>
-      <c r="D2" s="17" t="n"/>
-      <c r="E2" s="17" t="n"/>
-      <c r="F2" s="17" t="n"/>
-      <c r="G2" s="17" t="n"/>
-      <c r="H2" s="17" t="n"/>
-      <c r="I2" s="17" t="n"/>
-      <c r="J2" s="17" t="n"/>
-      <c r="K2" s="17" t="n"/>
-      <c r="L2" s="17" t="n"/>
-      <c r="M2" s="17" t="n"/>
-      <c r="N2" s="17" t="n"/>
-      <c r="O2" s="17" t="n"/>
-      <c r="P2" s="17" t="n"/>
-      <c r="Q2" s="17" t="n"/>
-      <c r="R2" s="17" t="n"/>
-      <c r="S2" s="17" t="n"/>
-      <c r="T2" s="17" t="n"/>
-      <c r="U2" s="17" t="n"/>
-      <c r="V2" s="17" t="n"/>
-      <c r="W2" s="17" t="n"/>
-      <c r="X2" s="17" t="n"/>
-      <c r="Y2" s="17" t="n"/>
-      <c r="Z2" s="17" t="n"/>
-      <c r="AA2" s="17" t="n"/>
-      <c r="AB2" s="17" t="n"/>
-      <c r="AC2" s="17" t="n"/>
-      <c r="AD2" s="17" t="n"/>
-      <c r="AE2" s="17" t="n"/>
-      <c r="AF2" s="18" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="21">
-      <c r="B3" s="37" t="inlineStr">
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="16" t="n"/>
+      <c r="I2" s="16" t="n"/>
+      <c r="J2" s="16" t="n"/>
+      <c r="K2" s="16" t="n"/>
+      <c r="L2" s="16" t="n"/>
+      <c r="M2" s="16" t="n"/>
+      <c r="N2" s="16" t="n"/>
+      <c r="O2" s="16" t="n"/>
+      <c r="P2" s="16" t="n"/>
+      <c r="Q2" s="16" t="n"/>
+      <c r="R2" s="16" t="n"/>
+      <c r="S2" s="16" t="n"/>
+      <c r="T2" s="16" t="n"/>
+      <c r="U2" s="16" t="n"/>
+      <c r="V2" s="16" t="n"/>
+      <c r="W2" s="16" t="n"/>
+      <c r="X2" s="16" t="n"/>
+      <c r="Y2" s="16" t="n"/>
+      <c r="Z2" s="16" t="n"/>
+      <c r="AA2" s="16" t="n"/>
+      <c r="AB2" s="16" t="n"/>
+      <c r="AC2" s="16" t="n"/>
+      <c r="AD2" s="16" t="n"/>
+      <c r="AE2" s="16" t="n"/>
+      <c r="AF2" s="17" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="32">
+      <c r="B3" s="28" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="32" t="n"/>
+      <c r="C3" s="29" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>чт</t>
@@ -1011,9 +986,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="21">
-      <c r="B4" s="26" t="n"/>
-      <c r="C4" s="28" t="n"/>
+    <row r="4" ht="18.75" customHeight="1" s="32">
+      <c r="B4" s="23" t="n"/>
+      <c r="C4" s="25" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -1102,13 +1077,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="21">
-      <c r="B5" s="19" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="32">
+      <c r="B5" s="18" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="18" t="n"/>
+      <c r="C5" s="17" t="n"/>
       <c r="D5" s="3" t="n">
         <v>0</v>
       </c>
@@ -1195,13 +1170,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="21">
-      <c r="B6" s="19" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1" s="32">
+      <c r="B6" s="18" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="C6" s="18" t="n"/>
+      <c r="C6" s="17" t="n"/>
       <c r="D6" s="3" t="n">
         <v>0</v>
       </c>
@@ -1290,13 +1265,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="21">
-      <c r="B7" s="19" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="32">
+      <c r="B7" s="18" t="inlineStr">
         <is>
           <t>Дима</t>
         </is>
       </c>
-      <c r="C7" s="18" t="n"/>
+      <c r="C7" s="17" t="n"/>
       <c r="D7" s="3" t="n">
         <v>0</v>
       </c>
@@ -1385,13 +1360,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="18.75" customHeight="1" s="21">
-      <c r="B8" s="19" t="inlineStr">
+    <row r="8" ht="18.75" customHeight="1" s="32">
+      <c r="B8" s="18" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
       </c>
-      <c r="C8" s="18" t="n"/>
+      <c r="C8" s="17" t="n"/>
       <c r="D8" s="3" t="n">
         <v>0</v>
       </c>
@@ -1480,105 +1455,105 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="18.75" customHeight="1" s="21">
-      <c r="B10" s="33" t="inlineStr">
+    <row r="10" ht="18.75" customHeight="1" s="32">
+      <c r="B10" s="37" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E10" s="35" t="inlineStr">
+      <c r="E10" s="39" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M10" s="38" t="inlineStr">
+      <c r="M10" s="30" t="inlineStr">
         <is>
           <t>Итоги (Февраль)</t>
         </is>
       </c>
-      <c r="N10" s="27" t="n"/>
-      <c r="O10" s="27" t="n"/>
-      <c r="P10" s="27" t="n"/>
-      <c r="Q10" s="27" t="n"/>
-      <c r="R10" s="27" t="n"/>
-      <c r="S10" s="27" t="n"/>
-      <c r="T10" s="27" t="n"/>
-      <c r="U10" s="27" t="n"/>
-      <c r="V10" s="27" t="n"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1" s="21">
-      <c r="B11" s="29" t="inlineStr">
+      <c r="N10" s="24" t="n"/>
+      <c r="O10" s="24" t="n"/>
+      <c r="P10" s="24" t="n"/>
+      <c r="Q10" s="24" t="n"/>
+      <c r="R10" s="24" t="n"/>
+      <c r="S10" s="24" t="n"/>
+      <c r="T10" s="24" t="n"/>
+      <c r="U10" s="24" t="n"/>
+      <c r="V10" s="24" t="n"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="32">
+      <c r="B11" s="34" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E11" s="22" t="inlineStr">
+      <c r="E11" s="33" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M11" s="30" t="inlineStr">
+      <c r="M11" s="35" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N11" s="25" t="n"/>
-      <c r="O11" s="23" t="inlineStr">
+      <c r="N11" s="22" t="n"/>
+      <c r="O11" s="20" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P11" s="24" t="n"/>
-      <c r="Q11" s="25" t="n"/>
-      <c r="R11" s="23" t="inlineStr">
+      <c r="P11" s="21" t="n"/>
+      <c r="Q11" s="22" t="n"/>
+      <c r="R11" s="20" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S11" s="24" t="n"/>
-      <c r="T11" s="25" t="n"/>
-      <c r="U11" s="36" t="inlineStr">
+      <c r="S11" s="21" t="n"/>
+      <c r="T11" s="22" t="n"/>
+      <c r="U11" s="27" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V11" s="25" t="n"/>
+      <c r="V11" s="22" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="20" t="inlineStr">
+      <c r="B12" s="31" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M12" s="31" t="n"/>
-      <c r="N12" s="32" t="n"/>
-      <c r="O12" s="26" t="n"/>
-      <c r="P12" s="27" t="n"/>
-      <c r="Q12" s="28" t="n"/>
-      <c r="R12" s="26" t="n"/>
-      <c r="S12" s="27" t="n"/>
-      <c r="T12" s="28" t="n"/>
-      <c r="U12" s="26" t="n"/>
-      <c r="V12" s="28" t="n"/>
+      <c r="M12" s="36" t="n"/>
+      <c r="N12" s="29" t="n"/>
+      <c r="O12" s="23" t="n"/>
+      <c r="P12" s="24" t="n"/>
+      <c r="Q12" s="25" t="n"/>
+      <c r="R12" s="23" t="n"/>
+      <c r="S12" s="24" t="n"/>
+      <c r="T12" s="25" t="n"/>
+      <c r="U12" s="23" t="n"/>
+      <c r="V12" s="25" t="n"/>
       <c r="AA12" s="10" t="n"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="21">
-      <c r="M13" s="26" t="n"/>
-      <c r="N13" s="28" t="n"/>
-      <c r="O13" s="34" t="inlineStr">
+    <row r="13" ht="15.75" customHeight="1" s="32">
+      <c r="M13" s="23" t="n"/>
+      <c r="N13" s="25" t="n"/>
+      <c r="O13" s="38" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P13" s="17" t="n"/>
-      <c r="Q13" s="18" t="n"/>
-      <c r="R13" s="40" t="inlineStr">
+      <c r="P13" s="16" t="n"/>
+      <c r="Q13" s="17" t="n"/>
+      <c r="R13" s="19" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S13" s="17" t="n"/>
-      <c r="T13" s="18" t="n"/>
+      <c r="S13" s="16" t="n"/>
+      <c r="T13" s="17" t="n"/>
       <c r="U13" s="11" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -1590,24 +1565,24 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="18" customHeight="1" s="21">
+    <row r="14" ht="18" customHeight="1" s="32">
       <c r="M14" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N14" s="4" t="n"/>
-      <c r="O14" s="16">
+      <c r="O14" s="26">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
-      <c r="P14" s="17" t="n"/>
-      <c r="Q14" s="18" t="n"/>
-      <c r="R14" s="16">
+      <c r="P14" s="16" t="n"/>
+      <c r="Q14" s="17" t="n"/>
+      <c r="R14" s="26">
         <f>SUM(S5:AF5)</f>
         <v/>
       </c>
-      <c r="S14" s="17" t="n"/>
-      <c r="T14" s="18" t="n"/>
+      <c r="S14" s="16" t="n"/>
+      <c r="T14" s="17" t="n"/>
       <c r="U14" s="5" t="n">
         <v>2</v>
       </c>
@@ -1617,75 +1592,75 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="14.4" customHeight="1" s="21">
+    <row r="15" ht="14.45" customHeight="1" s="32">
       <c r="M15" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="16">
+      <c r="O15" s="26">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
-      <c r="P15" s="17" t="n"/>
-      <c r="Q15" s="18" t="n"/>
-      <c r="R15" s="16">
+      <c r="P15" s="16" t="n"/>
+      <c r="Q15" s="17" t="n"/>
+      <c r="R15" s="26">
         <f>SUM(S6:AF6)</f>
         <v/>
       </c>
-      <c r="S15" s="17" t="n"/>
-      <c r="T15" s="18" t="n"/>
+      <c r="S15" s="16" t="n"/>
+      <c r="T15" s="17" t="n"/>
       <c r="U15" s="12" t="n"/>
       <c r="V15" s="5" t="n"/>
     </row>
-    <row r="16" ht="14.4" customHeight="1" s="21">
+    <row r="16" ht="14.45" customHeight="1" s="32">
       <c r="M16" s="4">
         <f>B7</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="16">
+      <c r="O16" s="26">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
-      <c r="P16" s="17" t="n"/>
-      <c r="Q16" s="18" t="n"/>
-      <c r="R16" s="16">
+      <c r="P16" s="16" t="n"/>
+      <c r="Q16" s="17" t="n"/>
+      <c r="R16" s="26">
         <f>SUM(S7:AF7)</f>
         <v/>
       </c>
-      <c r="S16" s="17" t="n"/>
-      <c r="T16" s="18" t="n"/>
+      <c r="S16" s="16" t="n"/>
+      <c r="T16" s="17" t="n"/>
       <c r="U16" s="5" t="n"/>
       <c r="V16" s="5" t="n"/>
     </row>
-    <row r="17" ht="14.4" customHeight="1" s="21">
+    <row r="17" ht="14.45" customHeight="1" s="32">
       <c r="M17" s="4">
         <f>B8</f>
         <v/>
       </c>
       <c r="N17" s="4" t="n"/>
-      <c r="O17" s="16">
+      <c r="O17" s="26">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
-      <c r="P17" s="17" t="n"/>
-      <c r="Q17" s="18" t="n"/>
-      <c r="R17" s="16">
+      <c r="P17" s="16" t="n"/>
+      <c r="Q17" s="17" t="n"/>
+      <c r="R17" s="26">
         <f>SUM(S8:AF8)</f>
         <v/>
       </c>
-      <c r="S17" s="17" t="n"/>
-      <c r="T17" s="18" t="n"/>
+      <c r="S17" s="16" t="n"/>
+      <c r="T17" s="17" t="n"/>
       <c r="U17" s="5" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="14.4" customHeight="1" s="21">
+    <row r="18" ht="14.45" customHeight="1" s="32">
       <c r="U18" s="10" t="n"/>
     </row>
-    <row r="19" ht="14.4" customHeight="1" s="21"/>
-    <row r="20" ht="14.4" customHeight="1" s="21"/>
-    <row r="21" ht="14.4" customHeight="1" s="21">
+    <row r="19" ht="14.45" customHeight="1" s="32"/>
+    <row r="20" ht="14.45" customHeight="1" s="32"/>
+    <row r="21" ht="14.45" customHeight="1" s="32">
       <c r="R21" s="10" t="n"/>
     </row>
   </sheetData>
@@ -1730,17 +1705,17 @@
   </sheetPr>
   <dimension ref="B1:AG20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4.6640625" customWidth="1" style="21" min="1" max="1"/>
-    <col width="12.6640625" customWidth="1" style="21" min="3" max="3"/>
-    <col width="5.6640625" customWidth="1" style="21" min="4" max="6"/>
-    <col width="5.44140625" customWidth="1" style="21" min="7" max="7"/>
-    <col width="5.6640625" customWidth="1" style="21" min="8" max="33"/>
+    <col width="4.7109375" customWidth="1" style="32" min="1" max="1"/>
+    <col width="12.7109375" customWidth="1" style="32" min="3" max="3"/>
+    <col width="5.7109375" customWidth="1" style="32" min="4" max="6"/>
+    <col width="5.42578125" customWidth="1" style="32" min="7" max="7"/>
+    <col width="5.7109375" customWidth="1" style="32" min="8" max="33"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1755,51 +1730,51 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="21">
-      <c r="B2" s="39" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="32">
+      <c r="B2" s="15" t="inlineStr">
         <is>
           <t>Ноябрь</t>
         </is>
       </c>
-      <c r="C2" s="17" t="n"/>
-      <c r="D2" s="17" t="n"/>
-      <c r="E2" s="17" t="n"/>
-      <c r="F2" s="17" t="n"/>
-      <c r="G2" s="17" t="n"/>
-      <c r="H2" s="17" t="n"/>
-      <c r="I2" s="17" t="n"/>
-      <c r="J2" s="17" t="n"/>
-      <c r="K2" s="17" t="n"/>
-      <c r="L2" s="17" t="n"/>
-      <c r="M2" s="17" t="n"/>
-      <c r="N2" s="17" t="n"/>
-      <c r="O2" s="17" t="n"/>
-      <c r="P2" s="17" t="n"/>
-      <c r="Q2" s="17" t="n"/>
-      <c r="R2" s="17" t="n"/>
-      <c r="S2" s="17" t="n"/>
-      <c r="T2" s="17" t="n"/>
-      <c r="U2" s="17" t="n"/>
-      <c r="V2" s="17" t="n"/>
-      <c r="W2" s="17" t="n"/>
-      <c r="X2" s="17" t="n"/>
-      <c r="Y2" s="17" t="n"/>
-      <c r="Z2" s="17" t="n"/>
-      <c r="AA2" s="17" t="n"/>
-      <c r="AB2" s="17" t="n"/>
-      <c r="AC2" s="17" t="n"/>
-      <c r="AD2" s="17" t="n"/>
-      <c r="AE2" s="17" t="n"/>
-      <c r="AF2" s="17" t="n"/>
-      <c r="AG2" s="18" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="21">
-      <c r="B3" s="37" t="inlineStr">
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="16" t="n"/>
+      <c r="I2" s="16" t="n"/>
+      <c r="J2" s="16" t="n"/>
+      <c r="K2" s="16" t="n"/>
+      <c r="L2" s="16" t="n"/>
+      <c r="M2" s="16" t="n"/>
+      <c r="N2" s="16" t="n"/>
+      <c r="O2" s="16" t="n"/>
+      <c r="P2" s="16" t="n"/>
+      <c r="Q2" s="16" t="n"/>
+      <c r="R2" s="16" t="n"/>
+      <c r="S2" s="16" t="n"/>
+      <c r="T2" s="16" t="n"/>
+      <c r="U2" s="16" t="n"/>
+      <c r="V2" s="16" t="n"/>
+      <c r="W2" s="16" t="n"/>
+      <c r="X2" s="16" t="n"/>
+      <c r="Y2" s="16" t="n"/>
+      <c r="Z2" s="16" t="n"/>
+      <c r="AA2" s="16" t="n"/>
+      <c r="AB2" s="16" t="n"/>
+      <c r="AC2" s="16" t="n"/>
+      <c r="AD2" s="16" t="n"/>
+      <c r="AE2" s="16" t="n"/>
+      <c r="AF2" s="16" t="n"/>
+      <c r="AG2" s="17" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="32">
+      <c r="B3" s="28" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="32" t="n"/>
+      <c r="C3" s="29" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>пт</t>
@@ -1951,9 +1926,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="21">
-      <c r="B4" s="26" t="n"/>
-      <c r="C4" s="28" t="n"/>
+    <row r="4" ht="18.75" customHeight="1" s="32">
+      <c r="B4" s="23" t="n"/>
+      <c r="C4" s="25" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -2045,13 +2020,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="21">
-      <c r="B5" s="19" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="32">
+      <c r="B5" s="18" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="18" t="n"/>
+      <c r="C5" s="17" t="n"/>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="3" t="n"/>
       <c r="F5" s="3" t="n"/>
@@ -2085,13 +2060,13 @@
       <c r="AF5" s="3" t="n"/>
       <c r="AG5" s="3" t="n"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="21">
-      <c r="B6" s="19" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1" s="32">
+      <c r="B6" s="18" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="C6" s="18" t="n"/>
+      <c r="C6" s="17" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="6" t="n">
@@ -2127,13 +2102,13 @@
       <c r="AF6" s="3" t="n"/>
       <c r="AG6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="21">
-      <c r="B7" s="19" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="32">
+      <c r="B7" s="18" t="inlineStr">
         <is>
           <t>Алена</t>
         </is>
       </c>
-      <c r="C7" s="18" t="n"/>
+      <c r="C7" s="17" t="n"/>
       <c r="D7" s="2" t="n">
         <v>1</v>
       </c>
@@ -2197,13 +2172,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="18.75" customHeight="1" s="21">
-      <c r="B8" s="19" t="inlineStr">
+    <row r="8" ht="18.75" customHeight="1" s="32">
+      <c r="B8" s="18" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
       </c>
-      <c r="C8" s="18" t="n"/>
+      <c r="C8" s="17" t="n"/>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="3" t="n"/>
       <c r="F8" s="3" t="n"/>
@@ -2235,13 +2210,13 @@
       <c r="AF8" s="3" t="n"/>
       <c r="AG8" s="3" t="n"/>
     </row>
-    <row r="9" ht="18.75" customHeight="1" s="21">
-      <c r="B9" s="19" t="inlineStr">
+    <row r="9" ht="18.75" customHeight="1" s="32">
+      <c r="B9" s="18" t="inlineStr">
         <is>
           <t>Ильдар</t>
         </is>
       </c>
-      <c r="C9" s="18" t="n"/>
+      <c r="C9" s="17" t="n"/>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="3" t="n"/>
       <c r="F9" s="3" t="n"/>
@@ -2295,105 +2270,105 @@
       </c>
       <c r="AG9" s="3" t="n"/>
     </row>
-    <row r="11" ht="18.75" customHeight="1" s="21">
-      <c r="B11" s="33" t="inlineStr">
+    <row r="11" ht="18.75" customHeight="1" s="32">
+      <c r="B11" s="37" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E11" s="35" t="inlineStr">
+      <c r="E11" s="39" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M11" s="42" t="inlineStr">
+      <c r="M11" s="41" t="inlineStr">
         <is>
           <t>Итоги (Ноябрь)</t>
         </is>
       </c>
-      <c r="N11" s="17" t="n"/>
-      <c r="O11" s="17" t="n"/>
-      <c r="P11" s="17" t="n"/>
-      <c r="Q11" s="17" t="n"/>
-      <c r="R11" s="17" t="n"/>
-      <c r="S11" s="17" t="n"/>
-      <c r="T11" s="17" t="n"/>
-      <c r="U11" s="17" t="n"/>
-      <c r="V11" s="18" t="n"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1" s="21">
-      <c r="B12" s="29" t="inlineStr">
+      <c r="N11" s="16" t="n"/>
+      <c r="O11" s="16" t="n"/>
+      <c r="P11" s="16" t="n"/>
+      <c r="Q11" s="16" t="n"/>
+      <c r="R11" s="16" t="n"/>
+      <c r="S11" s="16" t="n"/>
+      <c r="T11" s="16" t="n"/>
+      <c r="U11" s="16" t="n"/>
+      <c r="V11" s="17" t="n"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" s="32">
+      <c r="B12" s="34" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E12" s="22" t="inlineStr">
+      <c r="E12" s="33" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M12" s="30" t="inlineStr">
+      <c r="M12" s="35" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N12" s="25" t="n"/>
-      <c r="O12" s="23" t="inlineStr">
+      <c r="N12" s="22" t="n"/>
+      <c r="O12" s="20" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P12" s="24" t="n"/>
-      <c r="Q12" s="25" t="n"/>
-      <c r="R12" s="23" t="inlineStr">
+      <c r="P12" s="21" t="n"/>
+      <c r="Q12" s="22" t="n"/>
+      <c r="R12" s="20" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S12" s="24" t="n"/>
-      <c r="T12" s="25" t="n"/>
-      <c r="U12" s="36" t="inlineStr">
+      <c r="S12" s="21" t="n"/>
+      <c r="T12" s="22" t="n"/>
+      <c r="U12" s="27" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V12" s="25" t="n"/>
+      <c r="V12" s="22" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="20" t="inlineStr">
+      <c r="B13" s="31" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M13" s="31" t="n"/>
-      <c r="N13" s="32" t="n"/>
-      <c r="O13" s="26" t="n"/>
-      <c r="P13" s="27" t="n"/>
-      <c r="Q13" s="28" t="n"/>
-      <c r="R13" s="26" t="n"/>
-      <c r="S13" s="27" t="n"/>
-      <c r="T13" s="28" t="n"/>
-      <c r="U13" s="26" t="n"/>
-      <c r="V13" s="28" t="n"/>
+      <c r="M13" s="36" t="n"/>
+      <c r="N13" s="29" t="n"/>
+      <c r="O13" s="23" t="n"/>
+      <c r="P13" s="24" t="n"/>
+      <c r="Q13" s="25" t="n"/>
+      <c r="R13" s="23" t="n"/>
+      <c r="S13" s="24" t="n"/>
+      <c r="T13" s="25" t="n"/>
+      <c r="U13" s="23" t="n"/>
+      <c r="V13" s="25" t="n"/>
       <c r="AA13" s="10" t="n"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="21">
-      <c r="M14" s="26" t="n"/>
-      <c r="N14" s="28" t="n"/>
-      <c r="O14" s="34" t="inlineStr">
+    <row r="14" ht="15.75" customHeight="1" s="32">
+      <c r="M14" s="23" t="n"/>
+      <c r="N14" s="25" t="n"/>
+      <c r="O14" s="38" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P14" s="17" t="n"/>
-      <c r="Q14" s="18" t="n"/>
-      <c r="R14" s="40" t="inlineStr">
+      <c r="P14" s="16" t="n"/>
+      <c r="Q14" s="17" t="n"/>
+      <c r="R14" s="19" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S14" s="17" t="n"/>
-      <c r="T14" s="18" t="n"/>
+      <c r="S14" s="16" t="n"/>
+      <c r="T14" s="17" t="n"/>
       <c r="U14" s="11" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -2405,122 +2380,123 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="18.75" customHeight="1" s="21">
+    <row r="15" ht="18.75" customHeight="1" s="32">
       <c r="M15" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="16">
+      <c r="O15" s="26">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
-      <c r="P15" s="17" t="n"/>
-      <c r="Q15" s="18" t="n"/>
-      <c r="R15" s="16">
+      <c r="P15" s="16" t="n"/>
+      <c r="Q15" s="17" t="n"/>
+      <c r="R15" s="26">
         <f>SUM(S5:AG5)</f>
         <v/>
       </c>
-      <c r="S15" s="17" t="n"/>
-      <c r="T15" s="18" t="n"/>
+      <c r="S15" s="16" t="n"/>
+      <c r="T15" s="17" t="n"/>
       <c r="U15" s="7" t="n"/>
       <c r="V15" s="8" t="n"/>
     </row>
-    <row r="16" ht="18.75" customHeight="1" s="21">
+    <row r="16" ht="18.75" customHeight="1" s="32">
       <c r="M16" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="16">
+      <c r="O16" s="26">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
-      <c r="P16" s="17" t="n"/>
-      <c r="Q16" s="18" t="n"/>
-      <c r="R16" s="16">
+      <c r="P16" s="16" t="n"/>
+      <c r="Q16" s="17" t="n"/>
+      <c r="R16" s="26">
         <f>SUM(S6:AG6)</f>
         <v/>
       </c>
-      <c r="S16" s="17" t="n"/>
-      <c r="T16" s="18" t="n"/>
+      <c r="S16" s="16" t="n"/>
+      <c r="T16" s="17" t="n"/>
       <c r="U16" s="12" t="n"/>
       <c r="V16" s="5" t="n"/>
     </row>
-    <row r="17" ht="18.75" customHeight="1" s="21">
-      <c r="M17" s="43">
+    <row r="17" ht="18.75" customHeight="1" s="32">
+      <c r="M17" s="42">
         <f>B7</f>
         <v/>
       </c>
-      <c r="N17" s="18" t="n"/>
-      <c r="O17" s="16">
+      <c r="N17" s="17" t="n"/>
+      <c r="O17" s="26">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
-      <c r="P17" s="17" t="n"/>
-      <c r="Q17" s="18" t="n"/>
-      <c r="R17" s="16">
+      <c r="P17" s="16" t="n"/>
+      <c r="Q17" s="17" t="n"/>
+      <c r="R17" s="26">
         <f>SUM(S7:AG7)</f>
         <v/>
       </c>
-      <c r="S17" s="17" t="n"/>
-      <c r="T17" s="18" t="n"/>
+      <c r="S17" s="16" t="n"/>
+      <c r="T17" s="17" t="n"/>
       <c r="U17" s="5" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="18" customHeight="1" s="21">
-      <c r="M18" s="43">
+    <row r="18" ht="18" customHeight="1" s="32">
+      <c r="M18" s="42">
         <f>B8</f>
         <v/>
       </c>
-      <c r="N18" s="18" t="n"/>
-      <c r="O18" s="16">
+      <c r="N18" s="17" t="n"/>
+      <c r="O18" s="26">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
-      <c r="P18" s="17" t="n"/>
-      <c r="Q18" s="18" t="n"/>
-      <c r="R18" s="16">
+      <c r="P18" s="16" t="n"/>
+      <c r="Q18" s="17" t="n"/>
+      <c r="R18" s="26">
         <f>SUM(S8:AG8)</f>
         <v/>
       </c>
-      <c r="S18" s="17" t="n"/>
-      <c r="T18" s="18" t="n"/>
+      <c r="S18" s="16" t="n"/>
+      <c r="T18" s="17" t="n"/>
       <c r="U18" s="5" t="n"/>
       <c r="V18" s="5" t="n"/>
     </row>
-    <row r="19" ht="14.4" customHeight="1" s="21">
-      <c r="M19" s="43">
+    <row r="19" ht="14.45" customHeight="1" s="32">
+      <c r="M19" s="42">
         <f>B9</f>
         <v/>
       </c>
-      <c r="N19" s="18" t="n"/>
-      <c r="O19" s="16">
+      <c r="N19" s="17" t="n"/>
+      <c r="O19" s="26">
         <f>SUM(D9:R9)</f>
         <v/>
       </c>
-      <c r="P19" s="17" t="n"/>
-      <c r="Q19" s="18" t="n"/>
-      <c r="R19" s="16">
+      <c r="P19" s="16" t="n"/>
+      <c r="Q19" s="17" t="n"/>
+      <c r="R19" s="26">
         <f>SUM(S9:AG9)</f>
         <v/>
       </c>
-      <c r="S19" s="17" t="n"/>
-      <c r="T19" s="18" t="n"/>
+      <c r="S19" s="16" t="n"/>
+      <c r="T19" s="17" t="n"/>
       <c r="U19" s="5" t="n"/>
       <c r="V19" s="5" t="n"/>
     </row>
-    <row r="20" ht="14.4" customHeight="1" s="21"/>
-    <row r="21" ht="14.4" customHeight="1" s="21"/>
-    <row r="22" ht="14.4" customHeight="1" s="21"/>
-    <row r="23" ht="14.4" customHeight="1" s="21"/>
-    <row r="24" ht="14.4" customHeight="1" s="21"/>
-    <row r="25" ht="14.4" customHeight="1" s="21"/>
+    <row r="20" ht="14.45" customHeight="1" s="32"/>
+    <row r="21" ht="14.45" customHeight="1" s="32"/>
+    <row r="22" ht="14.45" customHeight="1" s="32"/>
+    <row r="23" ht="14.45" customHeight="1" s="32"/>
+    <row r="24" ht="14.45" customHeight="1" s="32"/>
+    <row r="25" ht="14.45" customHeight="1" s="32"/>
   </sheetData>
   <mergeCells count="32">
     <mergeCell ref="R15:T15"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="U12:V13"/>
+    <mergeCell ref="E11:K11"/>
     <mergeCell ref="O16:Q16"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B11:C11"/>
@@ -2541,15 +2517,14 @@
     <mergeCell ref="M12:N14"/>
     <mergeCell ref="O12:Q13"/>
     <mergeCell ref="M17:N17"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="M19:N19"/>
     <mergeCell ref="R16:T16"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="E11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -2565,18 +2540,18 @@
   <dimension ref="B1:AH20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4.6640625" customWidth="1" style="21" min="1" max="1"/>
-    <col width="12.6640625" customWidth="1" style="21" min="3" max="3"/>
-    <col width="5.6640625" customWidth="1" style="21" min="4" max="4"/>
-    <col width="5.33203125" customWidth="1" style="21" min="5" max="5"/>
-    <col width="5.44140625" customWidth="1" style="21" min="6" max="7"/>
-    <col width="5.6640625" customWidth="1" style="21" min="8" max="33"/>
-    <col width="5.5546875" customWidth="1" style="21" min="34" max="34"/>
+    <col width="4.7109375" customWidth="1" style="32" min="1" max="1"/>
+    <col width="12.7109375" customWidth="1" style="32" min="3" max="3"/>
+    <col width="5.7109375" customWidth="1" style="32" min="4" max="4"/>
+    <col width="5.28515625" customWidth="1" style="32" min="5" max="5"/>
+    <col width="5.42578125" customWidth="1" style="32" min="6" max="7"/>
+    <col width="5.7109375" customWidth="1" style="32" min="8" max="33"/>
+    <col width="5.5703125" customWidth="1" style="32" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2591,52 +2566,52 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="21">
-      <c r="B2" s="39" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="32">
+      <c r="B2" s="15" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="C2" s="17" t="n"/>
-      <c r="D2" s="17" t="n"/>
-      <c r="E2" s="17" t="n"/>
-      <c r="F2" s="17" t="n"/>
-      <c r="G2" s="17" t="n"/>
-      <c r="H2" s="17" t="n"/>
-      <c r="I2" s="17" t="n"/>
-      <c r="J2" s="17" t="n"/>
-      <c r="K2" s="17" t="n"/>
-      <c r="L2" s="17" t="n"/>
-      <c r="M2" s="17" t="n"/>
-      <c r="N2" s="17" t="n"/>
-      <c r="O2" s="17" t="n"/>
-      <c r="P2" s="17" t="n"/>
-      <c r="Q2" s="17" t="n"/>
-      <c r="R2" s="17" t="n"/>
-      <c r="S2" s="17" t="n"/>
-      <c r="T2" s="17" t="n"/>
-      <c r="U2" s="17" t="n"/>
-      <c r="V2" s="17" t="n"/>
-      <c r="W2" s="17" t="n"/>
-      <c r="X2" s="17" t="n"/>
-      <c r="Y2" s="17" t="n"/>
-      <c r="Z2" s="17" t="n"/>
-      <c r="AA2" s="17" t="n"/>
-      <c r="AB2" s="17" t="n"/>
-      <c r="AC2" s="17" t="n"/>
-      <c r="AD2" s="17" t="n"/>
-      <c r="AE2" s="17" t="n"/>
-      <c r="AF2" s="17" t="n"/>
-      <c r="AG2" s="17" t="n"/>
-      <c r="AH2" s="18" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="21">
-      <c r="B3" s="37" t="inlineStr">
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="16" t="n"/>
+      <c r="I2" s="16" t="n"/>
+      <c r="J2" s="16" t="n"/>
+      <c r="K2" s="16" t="n"/>
+      <c r="L2" s="16" t="n"/>
+      <c r="M2" s="16" t="n"/>
+      <c r="N2" s="16" t="n"/>
+      <c r="O2" s="16" t="n"/>
+      <c r="P2" s="16" t="n"/>
+      <c r="Q2" s="16" t="n"/>
+      <c r="R2" s="16" t="n"/>
+      <c r="S2" s="16" t="n"/>
+      <c r="T2" s="16" t="n"/>
+      <c r="U2" s="16" t="n"/>
+      <c r="V2" s="16" t="n"/>
+      <c r="W2" s="16" t="n"/>
+      <c r="X2" s="16" t="n"/>
+      <c r="Y2" s="16" t="n"/>
+      <c r="Z2" s="16" t="n"/>
+      <c r="AA2" s="16" t="n"/>
+      <c r="AB2" s="16" t="n"/>
+      <c r="AC2" s="16" t="n"/>
+      <c r="AD2" s="16" t="n"/>
+      <c r="AE2" s="16" t="n"/>
+      <c r="AF2" s="16" t="n"/>
+      <c r="AG2" s="16" t="n"/>
+      <c r="AH2" s="17" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="32">
+      <c r="B3" s="28" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="32" t="n"/>
+      <c r="C3" s="29" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>вс</t>
@@ -2793,9 +2768,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="21">
-      <c r="B4" s="26" t="n"/>
-      <c r="C4" s="28" t="n"/>
+    <row r="4" ht="18.75" customHeight="1" s="32">
+      <c r="B4" s="23" t="n"/>
+      <c r="C4" s="25" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -2890,13 +2865,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="21">
-      <c r="B5" s="19" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="32">
+      <c r="B5" s="18" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="18" t="n"/>
+      <c r="C5" s="17" t="n"/>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="3" t="n"/>
       <c r="F5" s="9" t="n">
@@ -2937,13 +2912,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="21">
-      <c r="B6" s="19" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1" s="32">
+      <c r="B6" s="18" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="C6" s="18" t="n"/>
+      <c r="C6" s="17" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="9" t="n">
         <v>4</v>
@@ -2984,13 +2959,13 @@
       </c>
       <c r="AH6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="21">
-      <c r="B7" s="19" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="32">
+      <c r="B7" s="18" t="inlineStr">
         <is>
           <t>Алена</t>
         </is>
       </c>
-      <c r="C7" s="18" t="n"/>
+      <c r="C7" s="17" t="n"/>
       <c r="D7" s="2" t="n">
         <v>1</v>
       </c>
@@ -3059,13 +3034,13 @@
       <c r="AG7" s="3" t="n"/>
       <c r="AH7" s="3" t="n"/>
     </row>
-    <row r="8" ht="18.75" customHeight="1" s="21">
-      <c r="B8" s="19" t="inlineStr">
+    <row r="8" ht="18.75" customHeight="1" s="32">
+      <c r="B8" s="18" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
       </c>
-      <c r="C8" s="18" t="n"/>
+      <c r="C8" s="17" t="n"/>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="3" t="n"/>
       <c r="F8" s="3" t="n"/>
@@ -3098,13 +3073,13 @@
       <c r="AG8" s="3" t="n"/>
       <c r="AH8" s="3" t="n"/>
     </row>
-    <row r="9" ht="18.75" customHeight="1" s="21">
-      <c r="B9" s="19" t="inlineStr">
+    <row r="9" ht="18.75" customHeight="1" s="32">
+      <c r="B9" s="18" t="inlineStr">
         <is>
           <t>Ильдар</t>
         </is>
       </c>
-      <c r="C9" s="18" t="n"/>
+      <c r="C9" s="17" t="n"/>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="9" t="n">
         <v>3</v>
@@ -3157,110 +3132,110 @@
       <c r="AG9" s="3" t="n"/>
       <c r="AH9" s="3" t="n"/>
     </row>
-    <row r="11" ht="18.75" customHeight="1" s="21">
-      <c r="B11" s="33" t="inlineStr">
+    <row r="11" ht="18.75" customHeight="1" s="32">
+      <c r="B11" s="37" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E11" s="35" t="inlineStr">
+      <c r="E11" s="39" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M11" s="42" t="inlineStr">
+      <c r="M11" s="41" t="inlineStr">
         <is>
           <t>Итоги (Декабрь)</t>
         </is>
       </c>
-      <c r="N11" s="17" t="n"/>
-      <c r="O11" s="17" t="n"/>
-      <c r="P11" s="17" t="n"/>
-      <c r="Q11" s="17" t="n"/>
-      <c r="R11" s="17" t="n"/>
-      <c r="S11" s="17" t="n"/>
-      <c r="T11" s="17" t="n"/>
-      <c r="U11" s="17" t="n"/>
-      <c r="V11" s="18" t="n"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1" s="21">
-      <c r="B12" s="29" t="inlineStr">
+      <c r="N11" s="16" t="n"/>
+      <c r="O11" s="16" t="n"/>
+      <c r="P11" s="16" t="n"/>
+      <c r="Q11" s="16" t="n"/>
+      <c r="R11" s="16" t="n"/>
+      <c r="S11" s="16" t="n"/>
+      <c r="T11" s="16" t="n"/>
+      <c r="U11" s="16" t="n"/>
+      <c r="V11" s="17" t="n"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" s="32">
+      <c r="B12" s="34" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E12" s="22" t="inlineStr">
+      <c r="E12" s="33" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M12" s="30" t="inlineStr">
+      <c r="M12" s="35" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N12" s="25" t="n"/>
-      <c r="O12" s="23" t="inlineStr">
+      <c r="N12" s="22" t="n"/>
+      <c r="O12" s="20" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P12" s="24" t="n"/>
-      <c r="Q12" s="25" t="n"/>
-      <c r="R12" s="23" t="inlineStr">
+      <c r="P12" s="21" t="n"/>
+      <c r="Q12" s="22" t="n"/>
+      <c r="R12" s="20" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S12" s="24" t="n"/>
-      <c r="T12" s="25" t="n"/>
+      <c r="S12" s="21" t="n"/>
+      <c r="T12" s="22" t="n"/>
       <c r="U12" s="44" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V12" s="25" t="n"/>
+      <c r="V12" s="22" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="20" t="inlineStr">
+      <c r="B13" s="31" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M13" s="31" t="n"/>
-      <c r="N13" s="32" t="n"/>
-      <c r="O13" s="26" t="n"/>
-      <c r="P13" s="27" t="n"/>
-      <c r="Q13" s="28" t="n"/>
-      <c r="R13" s="26" t="n"/>
-      <c r="S13" s="27" t="n"/>
-      <c r="T13" s="28" t="n"/>
-      <c r="U13" s="26" t="n"/>
-      <c r="V13" s="28" t="n"/>
+      <c r="M13" s="36" t="n"/>
+      <c r="N13" s="29" t="n"/>
+      <c r="O13" s="23" t="n"/>
+      <c r="P13" s="24" t="n"/>
+      <c r="Q13" s="25" t="n"/>
+      <c r="R13" s="23" t="n"/>
+      <c r="S13" s="24" t="n"/>
+      <c r="T13" s="25" t="n"/>
+      <c r="U13" s="23" t="n"/>
+      <c r="V13" s="25" t="n"/>
       <c r="AA13" s="10" t="n"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="21">
-      <c r="B14" s="45" t="inlineStr">
+    <row r="14" ht="15.75" customHeight="1" s="32">
+      <c r="B14" s="43" t="inlineStr">
         <is>
           <t>Подработка/ч</t>
         </is>
       </c>
-      <c r="M14" s="26" t="n"/>
-      <c r="N14" s="28" t="n"/>
-      <c r="O14" s="34" t="inlineStr">
+      <c r="M14" s="23" t="n"/>
+      <c r="N14" s="25" t="n"/>
+      <c r="O14" s="38" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P14" s="17" t="n"/>
-      <c r="Q14" s="18" t="n"/>
-      <c r="R14" s="40" t="inlineStr">
+      <c r="P14" s="16" t="n"/>
+      <c r="Q14" s="17" t="n"/>
+      <c r="R14" s="19" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S14" s="17" t="n"/>
-      <c r="T14" s="18" t="n"/>
+      <c r="S14" s="16" t="n"/>
+      <c r="T14" s="17" t="n"/>
       <c r="U14" s="13" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -3272,24 +3247,24 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="18.75" customHeight="1" s="21">
+    <row r="15" ht="18.75" customHeight="1" s="32">
       <c r="M15" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="16">
+      <c r="O15" s="26">
         <f>SUMIF(D5:R5,"=1")</f>
         <v/>
       </c>
-      <c r="P15" s="17" t="n"/>
-      <c r="Q15" s="18" t="n"/>
-      <c r="R15" s="16">
+      <c r="P15" s="16" t="n"/>
+      <c r="Q15" s="17" t="n"/>
+      <c r="R15" s="26">
         <f>SUMIF(S5:AH5,"=1")</f>
         <v/>
       </c>
-      <c r="S15" s="17" t="n"/>
-      <c r="T15" s="18" t="n"/>
+      <c r="S15" s="16" t="n"/>
+      <c r="T15" s="17" t="n"/>
       <c r="U15" s="7">
         <f>SUMIF(D5:R5,"&gt;1")</f>
         <v/>
@@ -3299,24 +3274,24 @@
         <v/>
       </c>
     </row>
-    <row r="16" ht="18.75" customHeight="1" s="21">
+    <row r="16" ht="18.75" customHeight="1" s="32">
       <c r="M16" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="16">
+      <c r="O16" s="26">
         <f>SUMIF(D6:R6,"=1")</f>
         <v/>
       </c>
-      <c r="P16" s="17" t="n"/>
-      <c r="Q16" s="18" t="n"/>
-      <c r="R16" s="16">
+      <c r="P16" s="16" t="n"/>
+      <c r="Q16" s="17" t="n"/>
+      <c r="R16" s="26">
         <f>SUMIF(S6:AH6,"=1")</f>
         <v/>
       </c>
-      <c r="S16" s="17" t="n"/>
-      <c r="T16" s="18" t="n"/>
+      <c r="S16" s="16" t="n"/>
+      <c r="T16" s="17" t="n"/>
       <c r="U16" s="7">
         <f>SUMIF(D6:R6,"&gt;1")</f>
         <v/>
@@ -3326,24 +3301,24 @@
         <v/>
       </c>
     </row>
-    <row r="17" ht="18.75" customHeight="1" s="21">
-      <c r="M17" s="43">
+    <row r="17" ht="18.75" customHeight="1" s="32">
+      <c r="M17" s="42">
         <f>B7</f>
         <v/>
       </c>
-      <c r="N17" s="18" t="n"/>
-      <c r="O17" s="16">
+      <c r="N17" s="17" t="n"/>
+      <c r="O17" s="26">
         <f>SUMIF(D7:R7,"=1")</f>
         <v/>
       </c>
-      <c r="P17" s="17" t="n"/>
-      <c r="Q17" s="18" t="n"/>
-      <c r="R17" s="16">
+      <c r="P17" s="16" t="n"/>
+      <c r="Q17" s="17" t="n"/>
+      <c r="R17" s="26">
         <f>SUMIF(S7:AH7,"=1")</f>
         <v/>
       </c>
-      <c r="S17" s="17" t="n"/>
-      <c r="T17" s="18" t="n"/>
+      <c r="S17" s="16" t="n"/>
+      <c r="T17" s="17" t="n"/>
       <c r="U17" s="7">
         <f>SUMIF(D7:R7,"&gt;1")</f>
         <v/>
@@ -3353,24 +3328,24 @@
         <v/>
       </c>
     </row>
-    <row r="18" ht="18" customHeight="1" s="21">
-      <c r="M18" s="43">
+    <row r="18" ht="18" customHeight="1" s="32">
+      <c r="M18" s="42">
         <f>B8</f>
         <v/>
       </c>
-      <c r="N18" s="18" t="n"/>
-      <c r="O18" s="16">
+      <c r="N18" s="17" t="n"/>
+      <c r="O18" s="26">
         <f>SUMIF(D8:R8,"=1")</f>
         <v/>
       </c>
-      <c r="P18" s="17" t="n"/>
-      <c r="Q18" s="18" t="n"/>
-      <c r="R18" s="16">
+      <c r="P18" s="16" t="n"/>
+      <c r="Q18" s="17" t="n"/>
+      <c r="R18" s="26">
         <f>SUMIF(S8:AH8,"=1")</f>
         <v/>
       </c>
-      <c r="S18" s="17" t="n"/>
-      <c r="T18" s="18" t="n"/>
+      <c r="S18" s="16" t="n"/>
+      <c r="T18" s="17" t="n"/>
       <c r="U18" s="7">
         <f>SUMIF(D8:R8,"&gt;1")</f>
         <v/>
@@ -3380,24 +3355,24 @@
         <v/>
       </c>
     </row>
-    <row r="19" ht="18" customHeight="1" s="21">
-      <c r="M19" s="43">
+    <row r="19" ht="18" customHeight="1" s="32">
+      <c r="M19" s="42">
         <f>B9</f>
         <v/>
       </c>
-      <c r="N19" s="18" t="n"/>
-      <c r="O19" s="16">
+      <c r="N19" s="17" t="n"/>
+      <c r="O19" s="26">
         <f>SUMIF(D9:R9,"=1")</f>
         <v/>
       </c>
-      <c r="P19" s="17" t="n"/>
-      <c r="Q19" s="18" t="n"/>
-      <c r="R19" s="16">
+      <c r="P19" s="16" t="n"/>
+      <c r="Q19" s="17" t="n"/>
+      <c r="R19" s="26">
         <f>SUMIF(S9:AH9,"=1")</f>
         <v/>
       </c>
-      <c r="S19" s="17" t="n"/>
-      <c r="T19" s="18" t="n"/>
+      <c r="S19" s="16" t="n"/>
+      <c r="T19" s="17" t="n"/>
       <c r="U19" s="7">
         <f>SUMIF(D9:R9,"&gt;1")</f>
         <v/>
@@ -3407,17 +3382,18 @@
         <v/>
       </c>
     </row>
-    <row r="20" ht="14.4" customHeight="1" s="21"/>
-    <row r="21" ht="14.4" customHeight="1" s="21"/>
-    <row r="22" ht="14.4" customHeight="1" s="21"/>
-    <row r="23" ht="14.4" customHeight="1" s="21"/>
-    <row r="24" ht="14.4" customHeight="1" s="21"/>
-    <row r="25" ht="14.4" customHeight="1" s="21"/>
+    <row r="20" ht="14.45" customHeight="1" s="32"/>
+    <row r="21" ht="14.45" customHeight="1" s="32"/>
+    <row r="22" ht="14.45" customHeight="1" s="32"/>
+    <row r="23" ht="14.45" customHeight="1" s="32"/>
+    <row r="24" ht="14.45" customHeight="1" s="32"/>
+    <row r="25" ht="14.45" customHeight="1" s="32"/>
   </sheetData>
   <mergeCells count="33">
     <mergeCell ref="R15:T15"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="U12:V13"/>
+    <mergeCell ref="E11:K11"/>
     <mergeCell ref="B2:AH2"/>
     <mergeCell ref="O16:Q16"/>
     <mergeCell ref="B12:C12"/>
@@ -3439,15 +3415,14 @@
     <mergeCell ref="M12:N14"/>
     <mergeCell ref="O12:Q13"/>
     <mergeCell ref="M17:N17"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="M19:N19"/>
     <mergeCell ref="R16:T16"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="E11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -3460,49 +3435,49 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI23"/>
+  <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4.6640625" customWidth="1" style="21" min="1" max="35"/>
-    <col width="4.6640625" customWidth="1" style="21" min="2" max="2"/>
-    <col width="4.6640625" customWidth="1" style="21" min="3" max="3"/>
-    <col width="4.6640625" customWidth="1" style="21" min="4" max="4"/>
-    <col width="4.6640625" customWidth="1" style="21" min="5" max="5"/>
-    <col width="4.6640625" customWidth="1" style="21" min="6" max="6"/>
-    <col width="4.6640625" customWidth="1" style="21" min="7" max="7"/>
-    <col width="4.6640625" customWidth="1" style="21" min="8" max="8"/>
-    <col width="4.6640625" customWidth="1" style="21" min="9" max="9"/>
-    <col width="4.6640625" customWidth="1" style="21" min="10" max="10"/>
-    <col width="4.6640625" customWidth="1" style="21" min="11" max="11"/>
-    <col width="4.6640625" customWidth="1" style="21" min="12" max="12"/>
-    <col width="4.6640625" customWidth="1" style="21" min="13" max="13"/>
-    <col width="4.6640625" customWidth="1" style="21" min="14" max="14"/>
-    <col width="4.6640625" customWidth="1" style="21" min="15" max="15"/>
-    <col width="4.6640625" customWidth="1" style="21" min="16" max="16"/>
-    <col width="4.6640625" customWidth="1" style="21" min="17" max="17"/>
-    <col width="4.6640625" customWidth="1" style="21" min="18" max="18"/>
-    <col width="4.6640625" customWidth="1" style="21" min="19" max="19"/>
-    <col width="4.6640625" customWidth="1" style="21" min="20" max="20"/>
-    <col width="4.6640625" customWidth="1" style="21" min="21" max="21"/>
-    <col width="4.6640625" customWidth="1" style="21" min="22" max="22"/>
-    <col width="4.6640625" customWidth="1" style="21" min="23" max="23"/>
-    <col width="4.6640625" customWidth="1" style="21" min="24" max="24"/>
-    <col width="4.6640625" customWidth="1" style="21" min="25" max="25"/>
-    <col width="4.6640625" customWidth="1" style="21" min="26" max="26"/>
-    <col width="4.6640625" customWidth="1" style="21" min="27" max="27"/>
-    <col width="4.6640625" customWidth="1" style="21" min="28" max="28"/>
-    <col width="4.6640625" customWidth="1" style="21" min="29" max="29"/>
-    <col width="4.6640625" customWidth="1" style="21" min="30" max="30"/>
-    <col width="4.6640625" customWidth="1" style="21" min="31" max="31"/>
-    <col width="4.6640625" customWidth="1" style="21" min="32" max="32"/>
-    <col width="4.6640625" customWidth="1" style="21" min="33" max="33"/>
-    <col width="4.6640625" customWidth="1" style="21" min="34" max="34"/>
-    <col width="4.6640625" customWidth="1" style="21" min="35" max="35"/>
+    <col width="4.7109375" customWidth="1" style="32" min="1" max="1"/>
+    <col width="4.7109375" customWidth="1" style="32" min="2" max="2"/>
+    <col width="4.7109375" customWidth="1" style="32" min="3" max="3"/>
+    <col width="4.7109375" customWidth="1" style="32" min="4" max="4"/>
+    <col width="4.7109375" customWidth="1" style="32" min="5" max="5"/>
+    <col width="4.7109375" customWidth="1" style="32" min="6" max="7"/>
+    <col width="4.7109375" customWidth="1" style="32" min="7" max="7"/>
+    <col width="4.7109375" customWidth="1" style="32" min="8" max="33"/>
+    <col width="4.7109375" customWidth="1" style="32" min="9" max="9"/>
+    <col width="4.7109375" customWidth="1" style="32" min="10" max="10"/>
+    <col width="4.7109375" customWidth="1" style="32" min="11" max="11"/>
+    <col width="4.7109375" customWidth="1" style="32" min="12" max="12"/>
+    <col width="4.7109375" customWidth="1" style="32" min="13" max="13"/>
+    <col width="4.7109375" customWidth="1" style="32" min="14" max="14"/>
+    <col width="4.7109375" customWidth="1" style="32" min="15" max="15"/>
+    <col width="4.7109375" customWidth="1" style="32" min="16" max="16"/>
+    <col width="4.7109375" customWidth="1" style="32" min="17" max="17"/>
+    <col width="4.7109375" customWidth="1" style="32" min="18" max="18"/>
+    <col width="4.7109375" customWidth="1" style="32" min="19" max="19"/>
+    <col width="4.7109375" customWidth="1" style="32" min="20" max="20"/>
+    <col width="4.7109375" customWidth="1" style="32" min="21" max="21"/>
+    <col width="4.7109375" customWidth="1" style="32" min="22" max="22"/>
+    <col width="4.7109375" customWidth="1" style="32" min="23" max="23"/>
+    <col width="4.7109375" customWidth="1" style="32" min="24" max="24"/>
+    <col width="4.7109375" customWidth="1" style="32" min="25" max="25"/>
+    <col width="4.7109375" customWidth="1" style="32" min="26" max="26"/>
+    <col width="4.7109375" customWidth="1" style="32" min="27" max="27"/>
+    <col width="4.7109375" customWidth="1" style="32" min="28" max="28"/>
+    <col width="4.7109375" customWidth="1" style="32" min="29" max="29"/>
+    <col width="4.7109375" customWidth="1" style="32" min="30" max="30"/>
+    <col width="4.7109375" customWidth="1" style="32" min="31" max="31"/>
+    <col width="4.7109375" customWidth="1" style="32" min="32" max="32"/>
+    <col width="4.7109375" customWidth="1" style="32" min="33" max="33"/>
+    <col width="4.7109375" customWidth="1" style="32" min="34" max="34"/>
+    <col width="4.7109375" customWidth="1" style="32" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3517,52 +3492,52 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="21">
-      <c r="B2" s="39" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="32">
+      <c r="B2" s="15" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="C2" s="17" t="n"/>
-      <c r="D2" s="17" t="n"/>
-      <c r="E2" s="17" t="n"/>
-      <c r="F2" s="17" t="n"/>
-      <c r="G2" s="17" t="n"/>
-      <c r="H2" s="17" t="n"/>
-      <c r="I2" s="17" t="n"/>
-      <c r="J2" s="17" t="n"/>
-      <c r="K2" s="17" t="n"/>
-      <c r="L2" s="17" t="n"/>
-      <c r="M2" s="17" t="n"/>
-      <c r="N2" s="17" t="n"/>
-      <c r="O2" s="17" t="n"/>
-      <c r="P2" s="17" t="n"/>
-      <c r="Q2" s="17" t="n"/>
-      <c r="R2" s="17" t="n"/>
-      <c r="S2" s="17" t="n"/>
-      <c r="T2" s="17" t="n"/>
-      <c r="U2" s="17" t="n"/>
-      <c r="V2" s="17" t="n"/>
-      <c r="W2" s="17" t="n"/>
-      <c r="X2" s="17" t="n"/>
-      <c r="Y2" s="17" t="n"/>
-      <c r="Z2" s="17" t="n"/>
-      <c r="AA2" s="17" t="n"/>
-      <c r="AB2" s="17" t="n"/>
-      <c r="AC2" s="17" t="n"/>
-      <c r="AD2" s="17" t="n"/>
-      <c r="AE2" s="17" t="n"/>
-      <c r="AF2" s="17" t="n"/>
-      <c r="AG2" s="17" t="n"/>
-      <c r="AH2" s="18" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="21">
-      <c r="B3" s="37" t="inlineStr">
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="16" t="n"/>
+      <c r="I2" s="16" t="n"/>
+      <c r="J2" s="16" t="n"/>
+      <c r="K2" s="16" t="n"/>
+      <c r="L2" s="16" t="n"/>
+      <c r="M2" s="16" t="n"/>
+      <c r="N2" s="16" t="n"/>
+      <c r="O2" s="16" t="n"/>
+      <c r="P2" s="16" t="n"/>
+      <c r="Q2" s="16" t="n"/>
+      <c r="R2" s="16" t="n"/>
+      <c r="S2" s="16" t="n"/>
+      <c r="T2" s="16" t="n"/>
+      <c r="U2" s="16" t="n"/>
+      <c r="V2" s="16" t="n"/>
+      <c r="W2" s="16" t="n"/>
+      <c r="X2" s="16" t="n"/>
+      <c r="Y2" s="16" t="n"/>
+      <c r="Z2" s="16" t="n"/>
+      <c r="AA2" s="16" t="n"/>
+      <c r="AB2" s="16" t="n"/>
+      <c r="AC2" s="16" t="n"/>
+      <c r="AD2" s="16" t="n"/>
+      <c r="AE2" s="16" t="n"/>
+      <c r="AF2" s="16" t="n"/>
+      <c r="AG2" s="16" t="n"/>
+      <c r="AH2" s="17" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="32">
+      <c r="B3" s="28" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="32" t="n"/>
+      <c r="C3" s="29" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>ср</t>
@@ -3719,9 +3694,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="21">
-      <c r="B4" s="26" t="n"/>
-      <c r="C4" s="28" t="n"/>
+    <row r="4" ht="18.75" customHeight="1" s="32">
+      <c r="B4" s="23" t="n"/>
+      <c r="C4" s="25" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -3816,25 +3791,23 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="21">
-      <c r="B5" s="19" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="32">
+      <c r="B5" s="18" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="18" t="n"/>
+      <c r="C5" s="17" t="n"/>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="3" t="n"/>
       <c r="F5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H5" s="3" t="n"/>
-      <c r="I5" s="9" t="n">
-        <v>3</v>
-      </c>
+      <c r="I5" s="3" t="n"/>
       <c r="J5" s="3" t="n"/>
       <c r="K5" s="2" t="n">
         <v>1</v>
@@ -3863,533 +3836,716 @@
       <c r="AG5" s="3" t="n"/>
       <c r="AH5" s="3" t="n"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="21">
-      <c r="B6" s="19" t="inlineStr">
-        <is>
-          <t>Работяга</t>
-        </is>
-      </c>
-      <c r="C6" s="18" t="n"/>
-      <c r="D6" s="15" t="n"/>
-      <c r="E6" s="15" t="n"/>
-      <c r="F6" s="15" t="n"/>
-      <c r="G6" s="15" t="n"/>
-      <c r="H6" s="15" t="n"/>
-      <c r="I6" s="15" t="n"/>
-      <c r="J6" s="15" t="n"/>
-      <c r="K6" s="15" t="n"/>
-      <c r="L6" s="15" t="n"/>
-      <c r="M6" s="15" t="n"/>
-      <c r="N6" s="15" t="n"/>
-      <c r="O6" s="15" t="n"/>
-      <c r="P6" s="15" t="n"/>
-      <c r="Q6" s="15" t="n"/>
-      <c r="R6" s="15" t="n"/>
-      <c r="S6" s="15" t="n"/>
-      <c r="T6" s="15" t="n"/>
-      <c r="U6" s="15" t="n"/>
-      <c r="V6" s="15" t="n"/>
-      <c r="W6" s="15" t="n"/>
-      <c r="X6" s="15" t="n"/>
-      <c r="Y6" s="15" t="n"/>
-      <c r="Z6" s="15" t="n"/>
-      <c r="AA6" s="15" t="n"/>
-      <c r="AB6" s="15" t="n"/>
-      <c r="AC6" s="15" t="n"/>
-      <c r="AD6" s="15" t="n"/>
-      <c r="AE6" s="15" t="n"/>
-      <c r="AF6" s="15" t="n"/>
-      <c r="AG6" s="15" t="n"/>
-      <c r="AH6" s="15" t="n"/>
-    </row>
-    <row r="7" ht="18.75" customHeight="1" s="21">
-      <c r="B7" s="19" t="inlineStr">
-        <is>
-          <t>Супер</t>
-        </is>
-      </c>
-      <c r="C7" s="18" t="n"/>
-      <c r="D7" s="15" t="n"/>
-      <c r="E7" s="15" t="n"/>
-      <c r="F7" s="15" t="n"/>
-      <c r="G7" s="15" t="n"/>
-      <c r="H7" s="15" t="n"/>
-      <c r="I7" s="15" t="n"/>
-      <c r="J7" s="15" t="n"/>
-      <c r="K7" s="15" t="n"/>
-      <c r="L7" s="15" t="n"/>
-      <c r="M7" s="15" t="n"/>
-      <c r="N7" s="15" t="n"/>
-      <c r="O7" s="15" t="n"/>
-      <c r="P7" s="15" t="n"/>
-      <c r="Q7" s="15" t="n"/>
-      <c r="R7" s="15" t="n"/>
-      <c r="S7" s="15" t="n"/>
-      <c r="T7" s="15" t="n"/>
-      <c r="U7" s="15" t="n"/>
-      <c r="V7" s="15" t="n"/>
-      <c r="W7" s="15" t="n"/>
-      <c r="X7" s="15" t="n"/>
-      <c r="Y7" s="15" t="n"/>
-      <c r="Z7" s="15" t="n"/>
-      <c r="AA7" s="15" t="n"/>
-      <c r="AB7" s="15" t="n"/>
-      <c r="AC7" s="15" t="n"/>
-      <c r="AD7" s="15" t="n"/>
-      <c r="AE7" s="15" t="n"/>
-      <c r="AF7" s="15" t="n"/>
-      <c r="AG7" s="15" t="n"/>
-      <c r="AH7" s="15" t="n"/>
-    </row>
-    <row r="8" ht="18.75" customHeight="1" s="21">
-      <c r="B8" s="19" t="inlineStr">
-        <is>
-          <t>Владимир</t>
-        </is>
-      </c>
-      <c r="C8" s="18" t="n"/>
-      <c r="D8" s="46" t="n"/>
-      <c r="E8" s="46" t="n"/>
-      <c r="F8" s="46" t="n"/>
-      <c r="G8" s="46" t="n"/>
-      <c r="H8" s="46" t="n"/>
-      <c r="I8" s="46" t="n"/>
-      <c r="J8" s="46" t="n"/>
-      <c r="K8" s="46" t="n"/>
-      <c r="L8" s="46" t="n"/>
-      <c r="M8" s="46" t="n"/>
-      <c r="N8" s="46" t="n"/>
-      <c r="O8" s="46" t="n"/>
-      <c r="P8" s="46" t="n"/>
-      <c r="Q8" s="46" t="n"/>
-      <c r="R8" s="46" t="n"/>
-      <c r="S8" s="46" t="n"/>
-      <c r="T8" s="46" t="n"/>
-      <c r="U8" s="46" t="n"/>
-      <c r="V8" s="46" t="n"/>
-      <c r="W8" s="46" t="n"/>
-      <c r="X8" s="46" t="n"/>
-      <c r="Y8" s="46" t="n"/>
-      <c r="Z8" s="46" t="n"/>
-      <c r="AA8" s="46" t="n"/>
-      <c r="AB8" s="46" t="n"/>
-      <c r="AC8" s="46" t="n"/>
-      <c r="AD8" s="46" t="n"/>
-      <c r="AE8" s="46" t="n"/>
-      <c r="AF8" s="46" t="n"/>
-      <c r="AG8" s="46" t="n"/>
-      <c r="AH8" s="46" t="n"/>
-    </row>
-    <row r="9" ht="18.75" customHeight="1" s="21">
-      <c r="B9" s="19" t="inlineStr">
-        <is>
-          <t>Олигарх</t>
-        </is>
-      </c>
-      <c r="C9" s="18" t="n"/>
-      <c r="D9" s="46" t="n"/>
-      <c r="E9" s="46" t="n"/>
-      <c r="F9" s="46" t="n"/>
-      <c r="G9" s="46" t="n"/>
-      <c r="H9" s="46" t="n"/>
-      <c r="I9" s="46" t="n"/>
-      <c r="J9" s="46" t="n"/>
-      <c r="K9" s="46" t="n"/>
-      <c r="L9" s="46" t="n"/>
-      <c r="M9" s="46" t="n"/>
-      <c r="N9" s="46" t="n"/>
-      <c r="O9" s="46" t="n"/>
-      <c r="P9" s="46" t="n"/>
-      <c r="Q9" s="46" t="n"/>
-      <c r="R9" s="46" t="n"/>
-      <c r="S9" s="46" t="n"/>
-      <c r="T9" s="46" t="n"/>
-      <c r="U9" s="46" t="n"/>
-      <c r="V9" s="46" t="n"/>
-      <c r="W9" s="46" t="n"/>
-      <c r="X9" s="46" t="n"/>
-      <c r="Y9" s="46" t="n"/>
-      <c r="Z9" s="46" t="n"/>
-      <c r="AA9" s="46" t="n"/>
-      <c r="AB9" s="46" t="n"/>
-      <c r="AC9" s="46" t="n"/>
-      <c r="AD9" s="46" t="n"/>
-      <c r="AE9" s="46" t="n"/>
-      <c r="AF9" s="46" t="n"/>
-      <c r="AG9" s="46" t="n"/>
-      <c r="AH9" s="46" t="n"/>
-    </row>
-    <row r="10" ht="18.75" customHeight="1" s="21">
-      <c r="B10" s="19" t="inlineStr">
-        <is>
-          <t>Месяц</t>
-        </is>
-      </c>
-      <c r="C10" s="18" t="n"/>
-      <c r="D10" s="46" t="n"/>
-      <c r="E10" s="46" t="n"/>
-      <c r="F10" s="46" t="n"/>
-      <c r="G10" s="46" t="n"/>
-      <c r="H10" s="46" t="n"/>
-      <c r="I10" s="46" t="n"/>
-      <c r="J10" s="46" t="n"/>
-      <c r="K10" s="46" t="n"/>
-      <c r="L10" s="46" t="n"/>
-      <c r="M10" s="46" t="n"/>
-      <c r="N10" s="46" t="n"/>
-      <c r="O10" s="46" t="n"/>
-      <c r="P10" s="46" t="n"/>
-      <c r="Q10" s="46" t="n"/>
-      <c r="R10" s="46" t="n"/>
-      <c r="S10" s="46" t="n"/>
-      <c r="T10" s="46" t="n"/>
-      <c r="U10" s="46" t="n"/>
-      <c r="V10" s="46" t="n"/>
-      <c r="W10" s="46" t="n"/>
-      <c r="X10" s="46" t="n"/>
-      <c r="Y10" s="46" t="n"/>
-      <c r="Z10" s="46" t="n"/>
-      <c r="AA10" s="46" t="n"/>
-      <c r="AB10" s="46" t="n"/>
-      <c r="AC10" s="46" t="n"/>
-      <c r="AD10" s="46" t="n"/>
-      <c r="AE10" s="46" t="n"/>
-      <c r="AF10" s="46" t="n"/>
-      <c r="AG10" s="46" t="n"/>
-      <c r="AH10" s="46" t="n"/>
-    </row>
-    <row r="11" ht="18.75" customHeight="1" s="21"/>
-    <row r="12" ht="15.75" customHeight="1" s="21">
-      <c r="B12" s="33" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1" s="32">
+      <c r="B6" s="18" t="inlineStr">
+        <is>
+          <t>Лариса</t>
+        </is>
+      </c>
+      <c r="C6" s="17" t="n"/>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="n"/>
+      <c r="J6" s="3" t="n"/>
+      <c r="K6" s="3" t="n"/>
+      <c r="L6" s="3" t="n"/>
+      <c r="M6" s="3" t="n"/>
+      <c r="N6" s="3" t="n"/>
+      <c r="O6" s="3" t="n"/>
+      <c r="P6" s="3" t="n"/>
+      <c r="Q6" s="3" t="n"/>
+      <c r="R6" s="3" t="n"/>
+      <c r="S6" s="3" t="n"/>
+      <c r="T6" s="3" t="n"/>
+      <c r="U6" s="3" t="n"/>
+      <c r="V6" s="3" t="n"/>
+      <c r="W6" s="3" t="n"/>
+      <c r="X6" s="3" t="n"/>
+      <c r="Y6" s="3" t="n"/>
+      <c r="Z6" s="3" t="n"/>
+      <c r="AA6" s="3" t="n"/>
+      <c r="AB6" s="3" t="n"/>
+      <c r="AC6" s="3" t="n"/>
+      <c r="AD6" s="3" t="n"/>
+      <c r="AE6" s="3" t="n"/>
+      <c r="AF6" s="3" t="n"/>
+      <c r="AG6" s="3" t="n"/>
+      <c r="AH6" s="3" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1" s="32">
+      <c r="B7" s="18" t="inlineStr">
+        <is>
+          <t>Алена</t>
+        </is>
+      </c>
+      <c r="C7" s="17" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3" t="n"/>
+      <c r="L7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3" t="n"/>
+      <c r="N7" s="3" t="n"/>
+      <c r="O7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="3" t="n"/>
+      <c r="T7" s="3" t="n"/>
+      <c r="U7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="3" t="n"/>
+      <c r="Z7" s="3" t="n"/>
+      <c r="AA7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="3" t="n"/>
+      <c r="AF7" s="3" t="n"/>
+      <c r="AG7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" customHeight="1" s="32">
+      <c r="B8" s="18" t="inlineStr">
+        <is>
+          <t>Нурик</t>
+        </is>
+      </c>
+      <c r="C8" s="17" t="n"/>
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
+      <c r="H8" s="3" t="n"/>
+      <c r="I8" s="3" t="n"/>
+      <c r="J8" s="3" t="n"/>
+      <c r="K8" s="3" t="n"/>
+      <c r="L8" s="3" t="n"/>
+      <c r="M8" s="3" t="n"/>
+      <c r="N8" s="3" t="n"/>
+      <c r="O8" s="3" t="n"/>
+      <c r="P8" s="3" t="n"/>
+      <c r="Q8" s="3" t="n"/>
+      <c r="R8" s="3" t="n"/>
+      <c r="S8" s="3" t="n"/>
+      <c r="T8" s="3" t="n"/>
+      <c r="U8" s="3" t="n"/>
+      <c r="V8" s="3" t="n"/>
+      <c r="W8" s="3" t="n"/>
+      <c r="X8" s="3" t="n"/>
+      <c r="Y8" s="3" t="n"/>
+      <c r="Z8" s="3" t="n"/>
+      <c r="AA8" s="3" t="n"/>
+      <c r="AB8" s="3" t="n"/>
+      <c r="AC8" s="3" t="n"/>
+      <c r="AD8" s="3" t="n"/>
+      <c r="AE8" s="3" t="n"/>
+      <c r="AF8" s="3" t="n"/>
+      <c r="AG8" s="3" t="n"/>
+      <c r="AH8" s="3" t="n"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1" s="32">
+      <c r="B9" s="18" t="inlineStr">
+        <is>
+          <t>Ильдар</t>
+        </is>
+      </c>
+      <c r="C9" s="17" t="n"/>
+      <c r="D9" s="3" t="n"/>
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
+      <c r="H9" s="3" t="n"/>
+      <c r="I9" s="3" t="n"/>
+      <c r="J9" s="3" t="n"/>
+      <c r="K9" s="3" t="n"/>
+      <c r="L9" s="3" t="n"/>
+      <c r="M9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3" t="n"/>
+      <c r="P9" s="3" t="n"/>
+      <c r="Q9" s="3" t="n"/>
+      <c r="R9" s="3" t="n"/>
+      <c r="S9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" s="3" t="n"/>
+      <c r="V9" s="3" t="n"/>
+      <c r="W9" s="3" t="n"/>
+      <c r="X9" s="3" t="n"/>
+      <c r="Y9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="3" t="n"/>
+      <c r="AB9" s="3" t="n"/>
+      <c r="AC9" s="3" t="n"/>
+      <c r="AD9" s="3" t="n"/>
+      <c r="AE9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="3" t="n"/>
+      <c r="AH9" s="3" t="n"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1" s="32">
+      <c r="B10" s="18" t="inlineStr">
+        <is>
+          <t>Красавчик</t>
+        </is>
+      </c>
+      <c r="C10" s="17" t="n"/>
+      <c r="D10" s="45" t="n"/>
+      <c r="E10" s="45" t="n"/>
+      <c r="F10" s="45" t="n"/>
+      <c r="G10" s="45" t="n"/>
+      <c r="H10" s="45" t="n"/>
+      <c r="I10" s="45" t="n"/>
+      <c r="J10" s="45" t="n"/>
+      <c r="K10" s="45" t="n"/>
+      <c r="L10" s="45" t="n"/>
+      <c r="M10" s="45" t="n"/>
+      <c r="N10" s="45" t="n"/>
+      <c r="O10" s="45" t="n"/>
+      <c r="P10" s="45" t="n"/>
+      <c r="Q10" s="45" t="n"/>
+      <c r="R10" s="45" t="n"/>
+      <c r="S10" s="45" t="n"/>
+      <c r="T10" s="45" t="n"/>
+      <c r="U10" s="45" t="n"/>
+      <c r="V10" s="45" t="n"/>
+      <c r="W10" s="45" t="n"/>
+      <c r="X10" s="45" t="n"/>
+      <c r="Y10" s="45" t="n"/>
+      <c r="Z10" s="45" t="n"/>
+      <c r="AA10" s="45" t="n"/>
+      <c r="AB10" s="45" t="n"/>
+      <c r="AC10" s="45" t="n"/>
+      <c r="AD10" s="45" t="n"/>
+      <c r="AE10" s="45" t="n"/>
+      <c r="AF10" s="45" t="n"/>
+      <c r="AG10" s="45" t="n"/>
+      <c r="AH10" s="45" t="n"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1" s="32">
+      <c r="B11" s="18" t="inlineStr">
+        <is>
+          <t>Отличник</t>
+        </is>
+      </c>
+      <c r="C11" s="17" t="n"/>
+      <c r="D11" s="45" t="n"/>
+      <c r="E11" s="45" t="n"/>
+      <c r="F11" s="45" t="n"/>
+      <c r="G11" s="45" t="n"/>
+      <c r="H11" s="45" t="n"/>
+      <c r="I11" s="45" t="n"/>
+      <c r="J11" s="45" t="n"/>
+      <c r="K11" s="45" t="n"/>
+      <c r="L11" s="45" t="n"/>
+      <c r="M11" s="45" t="n"/>
+      <c r="N11" s="45" t="n"/>
+      <c r="O11" s="45" t="n"/>
+      <c r="P11" s="45" t="n"/>
+      <c r="Q11" s="45" t="n"/>
+      <c r="R11" s="45" t="n"/>
+      <c r="S11" s="45" t="n"/>
+      <c r="T11" s="45" t="n"/>
+      <c r="U11" s="45" t="n"/>
+      <c r="V11" s="45" t="n"/>
+      <c r="W11" s="45" t="n"/>
+      <c r="X11" s="45" t="n"/>
+      <c r="Y11" s="45" t="n"/>
+      <c r="Z11" s="45" t="n"/>
+      <c r="AA11" s="45" t="n"/>
+      <c r="AB11" s="45" t="n"/>
+      <c r="AC11" s="45" t="n"/>
+      <c r="AD11" s="45" t="n"/>
+      <c r="AE11" s="45" t="n"/>
+      <c r="AF11" s="45" t="n"/>
+      <c r="AG11" s="45" t="n"/>
+      <c r="AH11" s="45" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1" s="32">
+      <c r="B12" s="18" t="inlineStr">
+        <is>
+          <t>Лунный</t>
+        </is>
+      </c>
+      <c r="C12" s="17" t="n"/>
+      <c r="D12" s="45" t="n"/>
+      <c r="E12" s="45" t="n"/>
+      <c r="F12" s="45" t="n"/>
+      <c r="G12" s="45" t="n"/>
+      <c r="H12" s="45" t="n"/>
+      <c r="I12" s="45" t="n"/>
+      <c r="J12" s="45" t="n"/>
+      <c r="K12" s="45" t="n"/>
+      <c r="L12" s="45" t="n"/>
+      <c r="M12" s="45" t="n"/>
+      <c r="N12" s="45" t="n"/>
+      <c r="O12" s="45" t="n"/>
+      <c r="P12" s="45" t="n"/>
+      <c r="Q12" s="45" t="n"/>
+      <c r="R12" s="45" t="n"/>
+      <c r="S12" s="45" t="n"/>
+      <c r="T12" s="45" t="n"/>
+      <c r="U12" s="45" t="n"/>
+      <c r="V12" s="45" t="n"/>
+      <c r="W12" s="45" t="n"/>
+      <c r="X12" s="45" t="n"/>
+      <c r="Y12" s="45" t="n"/>
+      <c r="Z12" s="45" t="n"/>
+      <c r="AA12" s="45" t="n"/>
+      <c r="AB12" s="45" t="n"/>
+      <c r="AC12" s="45" t="n"/>
+      <c r="AD12" s="45" t="n"/>
+      <c r="AE12" s="45" t="n"/>
+      <c r="AF12" s="45" t="n"/>
+      <c r="AG12" s="45" t="n"/>
+      <c r="AH12" s="45" t="n"/>
+    </row>
+    <row r="13"/>
+    <row r="14" ht="15.75" customHeight="1" s="32">
+      <c r="B14" s="37" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E12" s="35" t="inlineStr">
+      <c r="E14" s="39" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M12" s="42" t="inlineStr">
+      <c r="M14" s="41" t="inlineStr">
         <is>
           <t>Итоги (Январь)</t>
         </is>
       </c>
-      <c r="N12" s="17" t="n"/>
-      <c r="O12" s="17" t="n"/>
-      <c r="P12" s="17" t="n"/>
-      <c r="Q12" s="17" t="n"/>
-      <c r="R12" s="17" t="n"/>
-      <c r="S12" s="17" t="n"/>
-      <c r="T12" s="17" t="n"/>
-      <c r="U12" s="17" t="n"/>
-      <c r="V12" s="18" t="n"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" s="21">
-      <c r="B13" s="29" t="inlineStr">
+      <c r="N14" s="16" t="n"/>
+      <c r="O14" s="16" t="n"/>
+      <c r="P14" s="16" t="n"/>
+      <c r="Q14" s="16" t="n"/>
+      <c r="R14" s="16" t="n"/>
+      <c r="S14" s="16" t="n"/>
+      <c r="T14" s="16" t="n"/>
+      <c r="U14" s="16" t="n"/>
+      <c r="V14" s="17" t="n"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1" s="32">
+      <c r="B15" s="34" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E13" s="22" t="inlineStr">
+      <c r="E15" s="33" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M13" s="30" t="inlineStr">
+      <c r="M15" s="35" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N13" s="25" t="n"/>
-      <c r="O13" s="23" t="inlineStr">
+      <c r="N15" s="22" t="n"/>
+      <c r="O15" s="20" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P13" s="24" t="n"/>
-      <c r="Q13" s="25" t="n"/>
-      <c r="R13" s="23" t="inlineStr">
+      <c r="P15" s="21" t="n"/>
+      <c r="Q15" s="22" t="n"/>
+      <c r="R15" s="20" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S13" s="24" t="n"/>
-      <c r="T13" s="25" t="n"/>
-      <c r="U13" s="44" t="inlineStr">
+      <c r="S15" s="21" t="n"/>
+      <c r="T15" s="22" t="n"/>
+      <c r="U15" s="44" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V13" s="25" t="n"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1" s="21">
-      <c r="B14" s="20" t="inlineStr">
+      <c r="V15" s="22" t="n"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1" s="32">
+      <c r="B16" s="31" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M14" s="31" t="n"/>
-      <c r="N14" s="32" t="n"/>
-      <c r="O14" s="26" t="n"/>
-      <c r="P14" s="27" t="n"/>
-      <c r="Q14" s="28" t="n"/>
-      <c r="R14" s="26" t="n"/>
-      <c r="S14" s="27" t="n"/>
-      <c r="T14" s="28" t="n"/>
-      <c r="U14" s="26" t="n"/>
-      <c r="V14" s="28" t="n"/>
-      <c r="AA14" s="10" t="n"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1" s="21">
-      <c r="B15" s="45" t="inlineStr">
+      <c r="M16" s="36" t="n"/>
+      <c r="N16" s="29" t="n"/>
+      <c r="O16" s="23" t="n"/>
+      <c r="P16" s="24" t="n"/>
+      <c r="Q16" s="25" t="n"/>
+      <c r="R16" s="23" t="n"/>
+      <c r="S16" s="24" t="n"/>
+      <c r="T16" s="25" t="n"/>
+      <c r="U16" s="23" t="n"/>
+      <c r="V16" s="25" t="n"/>
+      <c r="AA16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1" s="32">
+      <c r="B17" s="43" t="inlineStr">
         <is>
           <t>Подработка/ч</t>
         </is>
       </c>
-      <c r="M15" s="26" t="n"/>
-      <c r="N15" s="28" t="n"/>
-      <c r="O15" s="34" t="inlineStr">
+      <c r="M17" s="23" t="n"/>
+      <c r="N17" s="25" t="n"/>
+      <c r="O17" s="38" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P15" s="17" t="n"/>
-      <c r="Q15" s="18" t="n"/>
-      <c r="R15" s="40" t="inlineStr">
+      <c r="P17" s="16" t="n"/>
+      <c r="Q17" s="17" t="n"/>
+      <c r="R17" s="19" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S15" s="17" t="n"/>
-      <c r="T15" s="18" t="n"/>
-      <c r="U15" s="13" t="inlineStr">
+      <c r="S17" s="16" t="n"/>
+      <c r="T17" s="17" t="n"/>
+      <c r="U17" s="13" t="inlineStr">
         <is>
           <t>1/2</t>
         </is>
       </c>
-      <c r="V15" s="13" t="inlineStr">
+      <c r="V17" s="13" t="inlineStr">
         <is>
           <t>2/2</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="18.75" customHeight="1" s="21">
-      <c r="M16" s="43" t="inlineStr">
-        <is>
-          <t>Кирилл</t>
-        </is>
-      </c>
-      <c r="N16" s="18" t="n"/>
-      <c r="O16" s="16">
+    <row r="18" ht="18" customHeight="1" s="32">
+      <c r="M18" s="4">
+        <f>B5</f>
+        <v/>
+      </c>
+      <c r="N18" s="4" t="n"/>
+      <c r="O18" s="26">
         <f>SUMIF(D5:R5,"=1")</f>
         <v/>
       </c>
-      <c r="P16" s="17" t="n"/>
-      <c r="Q16" s="18" t="n"/>
-      <c r="R16" s="16">
+      <c r="P18" s="16" t="n"/>
+      <c r="Q18" s="17" t="n"/>
+      <c r="R18" s="26">
         <f>SUMIF(S5:AH5,"=1")</f>
         <v/>
       </c>
-      <c r="S16" s="17" t="n"/>
-      <c r="T16" s="18" t="n"/>
-      <c r="U16" s="7">
+      <c r="S18" s="16" t="n"/>
+      <c r="T18" s="17" t="n"/>
+      <c r="U18" s="7">
         <f>SUMIF(D5:R5,"&gt;1")</f>
         <v/>
       </c>
-      <c r="V16" s="7">
+      <c r="V18" s="7">
         <f>SUMIF(S5:AH5,"&gt;1")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="18.75" customHeight="1" s="21">
-      <c r="M17" s="43" t="inlineStr">
-        <is>
-          <t>Работяга</t>
-        </is>
-      </c>
-      <c r="N17" s="18" t="n"/>
-      <c r="O17" s="16">
+    <row r="19" ht="18" customHeight="1" s="32">
+      <c r="M19" s="4">
+        <f>B6</f>
+        <v/>
+      </c>
+      <c r="N19" s="4" t="n"/>
+      <c r="O19" s="26">
         <f>SUMIF(D6:R6,"=1")</f>
         <v/>
       </c>
-      <c r="P17" s="17" t="n"/>
-      <c r="Q17" s="18" t="n"/>
-      <c r="R17" s="16">
+      <c r="P19" s="16" t="n"/>
+      <c r="Q19" s="17" t="n"/>
+      <c r="R19" s="26">
         <f>SUMIF(S6:AH6,"=1")</f>
         <v/>
       </c>
-      <c r="S17" s="17" t="n"/>
-      <c r="T17" s="18" t="n"/>
-      <c r="U17" s="7">
+      <c r="S19" s="16" t="n"/>
+      <c r="T19" s="17" t="n"/>
+      <c r="U19" s="7">
         <f>SUMIF(D6:R6,"&gt;1")</f>
         <v/>
       </c>
-      <c r="V17" s="7">
+      <c r="V19" s="7">
         <f>SUMIF(S6:AH6,"&gt;1")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="18" customHeight="1" s="21">
-      <c r="M18" s="43" t="inlineStr">
-        <is>
-          <t>Супер</t>
-        </is>
-      </c>
-      <c r="N18" s="18" t="n"/>
-      <c r="O18" s="16">
+    <row r="20" ht="14.45" customHeight="1" s="32">
+      <c r="M20" s="42">
+        <f>B7</f>
+        <v/>
+      </c>
+      <c r="N20" s="17" t="n"/>
+      <c r="O20" s="26">
         <f>SUMIF(D7:R7,"=1")</f>
         <v/>
       </c>
-      <c r="P18" s="17" t="n"/>
-      <c r="Q18" s="18" t="n"/>
-      <c r="R18" s="16">
+      <c r="P20" s="16" t="n"/>
+      <c r="Q20" s="17" t="n"/>
+      <c r="R20" s="26">
         <f>SUMIF(S7:AH7,"=1")</f>
         <v/>
       </c>
-      <c r="S18" s="17" t="n"/>
-      <c r="T18" s="18" t="n"/>
-      <c r="U18" s="7">
+      <c r="S20" s="16" t="n"/>
+      <c r="T20" s="17" t="n"/>
+      <c r="U20" s="7">
         <f>SUMIF(D7:R7,"&gt;1")</f>
         <v/>
       </c>
-      <c r="V18" s="7">
+      <c r="V20" s="7">
         <f>SUMIF(S7:AH7,"&gt;1")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="18" customHeight="1" s="21">
-      <c r="M19" s="43" t="inlineStr">
-        <is>
-          <t>Владимир</t>
-        </is>
-      </c>
-      <c r="N19" s="18" t="n"/>
-      <c r="O19" s="16">
+    <row r="21" ht="14.45" customHeight="1" s="32">
+      <c r="M21" s="42">
+        <f>B8</f>
+        <v/>
+      </c>
+      <c r="N21" s="17" t="n"/>
+      <c r="O21" s="26">
         <f>SUMIF(D8:R8,"=1")</f>
         <v/>
       </c>
-      <c r="P19" s="17" t="n"/>
-      <c r="Q19" s="18" t="n"/>
-      <c r="R19" s="16">
+      <c r="P21" s="16" t="n"/>
+      <c r="Q21" s="17" t="n"/>
+      <c r="R21" s="26">
         <f>SUMIF(S8:AH8,"=1")</f>
         <v/>
       </c>
-      <c r="S19" s="17" t="n"/>
-      <c r="T19" s="18" t="n"/>
-      <c r="U19" s="7">
+      <c r="S21" s="16" t="n"/>
+      <c r="T21" s="17" t="n"/>
+      <c r="U21" s="7">
         <f>SUMIF(D8:R8,"&gt;1")</f>
         <v/>
       </c>
-      <c r="V19" s="7">
+      <c r="V21" s="7">
         <f>SUMIF(S8:AH8,"&gt;1")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="14.4" customHeight="1" s="21">
-      <c r="M20" s="43" t="inlineStr">
-        <is>
-          <t>Олигарх</t>
-        </is>
-      </c>
-      <c r="N20" s="18" t="n"/>
-      <c r="O20" s="16">
+    <row r="22" ht="14.45" customHeight="1" s="32">
+      <c r="M22" s="42">
+        <f>B9</f>
+        <v/>
+      </c>
+      <c r="N22" s="17" t="n"/>
+      <c r="O22" s="26">
         <f>SUMIF(D9:R9,"=1")</f>
         <v/>
       </c>
-      <c r="P20" s="17" t="n"/>
-      <c r="Q20" s="18" t="n"/>
-      <c r="R20" s="16">
+      <c r="P22" s="16" t="n"/>
+      <c r="Q22" s="17" t="n"/>
+      <c r="R22" s="26">
         <f>SUMIF(S9:AH9,"=1")</f>
         <v/>
       </c>
-      <c r="S20" s="17" t="n"/>
-      <c r="T20" s="18" t="n"/>
-      <c r="U20" s="7">
+      <c r="S22" s="16" t="n"/>
+      <c r="T22" s="17" t="n"/>
+      <c r="U22" s="7">
         <f>SUMIF(D9:R9,"&gt;1")</f>
         <v/>
       </c>
-      <c r="V20" s="7">
+      <c r="V22" s="7">
         <f>SUMIF(S9:AH9,"&gt;1")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="14.4" customHeight="1" s="21">
-      <c r="M21" s="43" t="inlineStr">
-        <is>
-          <t>Месяц</t>
-        </is>
-      </c>
-      <c r="N21" s="18" t="n"/>
-      <c r="O21" s="16">
+    <row r="23" ht="14.45" customHeight="1" s="32">
+      <c r="M23" s="42" t="inlineStr">
+        <is>
+          <t>Красавчик</t>
+        </is>
+      </c>
+      <c r="N23" s="17" t="n"/>
+      <c r="O23" s="26">
         <f>SUMIF(D10:R10,"=1")</f>
         <v/>
       </c>
-      <c r="P21" s="17" t="n"/>
-      <c r="Q21" s="18" t="n"/>
-      <c r="R21" s="16">
+      <c r="P23" s="16" t="n"/>
+      <c r="Q23" s="17" t="n"/>
+      <c r="R23" s="26">
         <f>SUMIF(S10:AH10,"=1")</f>
         <v/>
       </c>
-      <c r="S21" s="17" t="n"/>
-      <c r="T21" s="18" t="n"/>
-      <c r="U21" s="7">
+      <c r="S23" s="16" t="n"/>
+      <c r="T23" s="17" t="n"/>
+      <c r="U23" s="7">
         <f>SUMIF(D10:R10,"&gt;1")</f>
         <v/>
       </c>
-      <c r="V21" s="7">
+      <c r="V23" s="7">
         <f>SUMIF(S10:AH10,"&gt;1")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="14.4" customHeight="1" s="21"/>
-    <row r="23" ht="14.4" customHeight="1" s="21"/>
-    <row r="24" ht="14.4" customHeight="1" s="21"/>
+    <row r="24" ht="14.45" customHeight="1" s="32">
+      <c r="M24" s="42" t="inlineStr">
+        <is>
+          <t>Отличник</t>
+        </is>
+      </c>
+      <c r="N24" s="17" t="n"/>
+      <c r="O24" s="26">
+        <f>SUMIF(D11:R11,"=1")</f>
+        <v/>
+      </c>
+      <c r="P24" s="16" t="n"/>
+      <c r="Q24" s="17" t="n"/>
+      <c r="R24" s="26">
+        <f>SUMIF(S11:AH11,"=1")</f>
+        <v/>
+      </c>
+      <c r="S24" s="16" t="n"/>
+      <c r="T24" s="17" t="n"/>
+      <c r="U24" s="7">
+        <f>SUMIF(D11:R11,"&gt;1")</f>
+        <v/>
+      </c>
+      <c r="V24" s="7">
+        <f>SUMIF(S11:AH11,"&gt;1")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="14.45" customHeight="1" s="32">
+      <c r="M25" s="42" t="inlineStr">
+        <is>
+          <t>Лунный</t>
+        </is>
+      </c>
+      <c r="N25" s="17" t="n"/>
+      <c r="O25" s="26">
+        <f>SUMIF(D12:R12,"=1")</f>
+        <v/>
+      </c>
+      <c r="P25" s="16" t="n"/>
+      <c r="Q25" s="17" t="n"/>
+      <c r="R25" s="26">
+        <f>SUMIF(S12:AH12,"=1")</f>
+        <v/>
+      </c>
+      <c r="S25" s="16" t="n"/>
+      <c r="T25" s="17" t="n"/>
+      <c r="U25" s="7">
+        <f>SUMIF(D12:R12,"&gt;1")</f>
+        <v/>
+      </c>
+      <c r="V25" s="7">
+        <f>SUMIF(S12:AH12,"&gt;1")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="R15:T15"/>
+  <mergeCells count="46">
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="O22:Q22"/>
     <mergeCell ref="B2:AH2"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O13:Q14"/>
     <mergeCell ref="R21:T21"/>
+    <mergeCell ref="E15:K23"/>
+    <mergeCell ref="O25:Q25"/>
     <mergeCell ref="R20:T20"/>
-    <mergeCell ref="O16:Q16"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="M14:V14"/>
     <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O15:Q16"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="M20:N20"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="R22:T22"/>
     <mergeCell ref="R17:T17"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="R13:T14"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M16:N16"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="E14:K14"/>
     <mergeCell ref="M21:N21"/>
-    <mergeCell ref="E13:K20"/>
+    <mergeCell ref="R15:T16"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="M15:N17"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="U15:V16"/>
     <mergeCell ref="R18:T18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M13:N15"/>
+    <mergeCell ref="R23:T23"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="M24:N24"/>
     <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="R16:T16"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="O24:Q24"/>
     <mergeCell ref="R19:T19"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="M23:N23"/>
     <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M12:V12"/>
+    <mergeCell ref="R25:T25"/>
     <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="U13:V14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -4408,13 +4564,13 @@
       <selection activeCell="AG7" sqref="AG7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4.6640625" customWidth="1" style="21" min="1" max="1"/>
-    <col width="12.6640625" customWidth="1" style="21" min="3" max="3"/>
-    <col width="5.6640625" customWidth="1" style="21" min="4" max="6"/>
-    <col width="5.44140625" customWidth="1" style="21" min="7" max="7"/>
-    <col width="5.6640625" customWidth="1" style="21" min="8" max="34"/>
+    <col width="4.7109375" customWidth="1" style="32" min="1" max="1"/>
+    <col width="12.7109375" customWidth="1" style="32" min="3" max="3"/>
+    <col width="5.7109375" customWidth="1" style="32" min="4" max="6"/>
+    <col width="5.42578125" customWidth="1" style="32" min="7" max="7"/>
+    <col width="5.7109375" customWidth="1" style="32" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4429,52 +4585,52 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="21">
-      <c r="B2" s="39" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="32">
+      <c r="B2" s="15" t="inlineStr">
         <is>
           <t>Март</t>
         </is>
       </c>
-      <c r="C2" s="17" t="n"/>
-      <c r="D2" s="17" t="n"/>
-      <c r="E2" s="17" t="n"/>
-      <c r="F2" s="17" t="n"/>
-      <c r="G2" s="17" t="n"/>
-      <c r="H2" s="17" t="n"/>
-      <c r="I2" s="17" t="n"/>
-      <c r="J2" s="17" t="n"/>
-      <c r="K2" s="17" t="n"/>
-      <c r="L2" s="17" t="n"/>
-      <c r="M2" s="17" t="n"/>
-      <c r="N2" s="17" t="n"/>
-      <c r="O2" s="17" t="n"/>
-      <c r="P2" s="17" t="n"/>
-      <c r="Q2" s="17" t="n"/>
-      <c r="R2" s="17" t="n"/>
-      <c r="S2" s="17" t="n"/>
-      <c r="T2" s="17" t="n"/>
-      <c r="U2" s="17" t="n"/>
-      <c r="V2" s="17" t="n"/>
-      <c r="W2" s="17" t="n"/>
-      <c r="X2" s="17" t="n"/>
-      <c r="Y2" s="17" t="n"/>
-      <c r="Z2" s="17" t="n"/>
-      <c r="AA2" s="17" t="n"/>
-      <c r="AB2" s="17" t="n"/>
-      <c r="AC2" s="17" t="n"/>
-      <c r="AD2" s="17" t="n"/>
-      <c r="AE2" s="17" t="n"/>
-      <c r="AF2" s="17" t="n"/>
-      <c r="AG2" s="17" t="n"/>
-      <c r="AH2" s="18" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="21">
-      <c r="B3" s="37" t="inlineStr">
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="16" t="n"/>
+      <c r="I2" s="16" t="n"/>
+      <c r="J2" s="16" t="n"/>
+      <c r="K2" s="16" t="n"/>
+      <c r="L2" s="16" t="n"/>
+      <c r="M2" s="16" t="n"/>
+      <c r="N2" s="16" t="n"/>
+      <c r="O2" s="16" t="n"/>
+      <c r="P2" s="16" t="n"/>
+      <c r="Q2" s="16" t="n"/>
+      <c r="R2" s="16" t="n"/>
+      <c r="S2" s="16" t="n"/>
+      <c r="T2" s="16" t="n"/>
+      <c r="U2" s="16" t="n"/>
+      <c r="V2" s="16" t="n"/>
+      <c r="W2" s="16" t="n"/>
+      <c r="X2" s="16" t="n"/>
+      <c r="Y2" s="16" t="n"/>
+      <c r="Z2" s="16" t="n"/>
+      <c r="AA2" s="16" t="n"/>
+      <c r="AB2" s="16" t="n"/>
+      <c r="AC2" s="16" t="n"/>
+      <c r="AD2" s="16" t="n"/>
+      <c r="AE2" s="16" t="n"/>
+      <c r="AF2" s="16" t="n"/>
+      <c r="AG2" s="16" t="n"/>
+      <c r="AH2" s="17" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="32">
+      <c r="B3" s="28" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="32" t="n"/>
+      <c r="C3" s="29" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>пт</t>
@@ -4631,9 +4787,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="21">
-      <c r="B4" s="26" t="n"/>
-      <c r="C4" s="28" t="n"/>
+    <row r="4" ht="18.75" customHeight="1" s="32">
+      <c r="B4" s="23" t="n"/>
+      <c r="C4" s="25" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -4728,13 +4884,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="21">
-      <c r="B5" s="19" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="32">
+      <c r="B5" s="18" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="18" t="n"/>
+      <c r="C5" s="17" t="n"/>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="3" t="n"/>
       <c r="F5" s="3" t="n"/>
@@ -4771,13 +4927,13 @@
       <c r="AG5" s="3" t="n"/>
       <c r="AH5" s="3" t="n"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="21">
-      <c r="B6" s="19" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1" s="32">
+      <c r="B6" s="18" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="C6" s="18" t="n"/>
+      <c r="C6" s="17" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="3" t="n"/>
@@ -4812,13 +4968,13 @@
       <c r="AG6" s="3" t="n"/>
       <c r="AH6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="21">
-      <c r="B7" s="19" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="32">
+      <c r="B7" s="18" t="inlineStr">
         <is>
           <t>Дима</t>
         </is>
       </c>
-      <c r="C7" s="18" t="n"/>
+      <c r="C7" s="17" t="n"/>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="3" t="n"/>
       <c r="F7" s="6" t="n">
@@ -4875,13 +5031,13 @@
       <c r="AG7" s="3" t="n"/>
       <c r="AH7" s="3" t="n"/>
     </row>
-    <row r="8" ht="18.75" customHeight="1" s="21">
-      <c r="B8" s="19" t="inlineStr">
+    <row r="8" ht="18.75" customHeight="1" s="32">
+      <c r="B8" s="18" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
       </c>
-      <c r="C8" s="18" t="n"/>
+      <c r="C8" s="17" t="n"/>
       <c r="D8" s="2" t="n">
         <v>1</v>
       </c>
@@ -4944,105 +5100,105 @@
       </c>
       <c r="AH8" s="3" t="n"/>
     </row>
-    <row r="10" ht="18.75" customHeight="1" s="21">
-      <c r="B10" s="33" t="inlineStr">
+    <row r="10" ht="18.75" customHeight="1" s="32">
+      <c r="B10" s="37" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E10" s="35" t="inlineStr">
+      <c r="E10" s="39" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M10" s="38" t="inlineStr">
+      <c r="M10" s="30" t="inlineStr">
         <is>
           <t>Итоги (Март)</t>
         </is>
       </c>
-      <c r="N10" s="27" t="n"/>
-      <c r="O10" s="27" t="n"/>
-      <c r="P10" s="27" t="n"/>
-      <c r="Q10" s="27" t="n"/>
-      <c r="R10" s="27" t="n"/>
-      <c r="S10" s="27" t="n"/>
-      <c r="T10" s="27" t="n"/>
-      <c r="U10" s="27" t="n"/>
-      <c r="V10" s="27" t="n"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1" s="21">
-      <c r="B11" s="29" t="inlineStr">
+      <c r="N10" s="24" t="n"/>
+      <c r="O10" s="24" t="n"/>
+      <c r="P10" s="24" t="n"/>
+      <c r="Q10" s="24" t="n"/>
+      <c r="R10" s="24" t="n"/>
+      <c r="S10" s="24" t="n"/>
+      <c r="T10" s="24" t="n"/>
+      <c r="U10" s="24" t="n"/>
+      <c r="V10" s="24" t="n"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="32">
+      <c r="B11" s="34" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E11" s="22" t="inlineStr">
+      <c r="E11" s="33" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M11" s="30" t="inlineStr">
+      <c r="M11" s="35" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N11" s="25" t="n"/>
-      <c r="O11" s="23" t="inlineStr">
+      <c r="N11" s="22" t="n"/>
+      <c r="O11" s="20" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P11" s="24" t="n"/>
-      <c r="Q11" s="25" t="n"/>
-      <c r="R11" s="23" t="inlineStr">
+      <c r="P11" s="21" t="n"/>
+      <c r="Q11" s="22" t="n"/>
+      <c r="R11" s="20" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S11" s="24" t="n"/>
-      <c r="T11" s="25" t="n"/>
-      <c r="U11" s="36" t="inlineStr">
+      <c r="S11" s="21" t="n"/>
+      <c r="T11" s="22" t="n"/>
+      <c r="U11" s="27" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V11" s="25" t="n"/>
+      <c r="V11" s="22" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="20" t="inlineStr">
+      <c r="B12" s="31" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M12" s="31" t="n"/>
-      <c r="N12" s="32" t="n"/>
-      <c r="O12" s="26" t="n"/>
-      <c r="P12" s="27" t="n"/>
-      <c r="Q12" s="28" t="n"/>
-      <c r="R12" s="26" t="n"/>
-      <c r="S12" s="27" t="n"/>
-      <c r="T12" s="28" t="n"/>
-      <c r="U12" s="26" t="n"/>
-      <c r="V12" s="28" t="n"/>
+      <c r="M12" s="36" t="n"/>
+      <c r="N12" s="29" t="n"/>
+      <c r="O12" s="23" t="n"/>
+      <c r="P12" s="24" t="n"/>
+      <c r="Q12" s="25" t="n"/>
+      <c r="R12" s="23" t="n"/>
+      <c r="S12" s="24" t="n"/>
+      <c r="T12" s="25" t="n"/>
+      <c r="U12" s="23" t="n"/>
+      <c r="V12" s="25" t="n"/>
       <c r="AA12" s="10" t="n"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="21">
-      <c r="M13" s="26" t="n"/>
-      <c r="N13" s="28" t="n"/>
-      <c r="O13" s="34" t="inlineStr">
+    <row r="13" ht="15.75" customHeight="1" s="32">
+      <c r="M13" s="23" t="n"/>
+      <c r="N13" s="25" t="n"/>
+      <c r="O13" s="38" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P13" s="17" t="n"/>
-      <c r="Q13" s="18" t="n"/>
-      <c r="R13" s="40" t="inlineStr">
+      <c r="P13" s="16" t="n"/>
+      <c r="Q13" s="17" t="n"/>
+      <c r="R13" s="19" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S13" s="17" t="n"/>
-      <c r="T13" s="18" t="n"/>
+      <c r="S13" s="16" t="n"/>
+      <c r="T13" s="17" t="n"/>
       <c r="U13" s="11" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -5054,24 +5210,24 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="18" customHeight="1" s="21">
+    <row r="14" ht="18" customHeight="1" s="32">
       <c r="M14" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N14" s="4" t="n"/>
-      <c r="O14" s="16">
+      <c r="O14" s="26">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
-      <c r="P14" s="17" t="n"/>
-      <c r="Q14" s="18" t="n"/>
-      <c r="R14" s="16">
+      <c r="P14" s="16" t="n"/>
+      <c r="Q14" s="17" t="n"/>
+      <c r="R14" s="26">
         <f>SUM(S5:AH5)</f>
         <v/>
       </c>
-      <c r="S14" s="17" t="n"/>
-      <c r="T14" s="18" t="n"/>
+      <c r="S14" s="16" t="n"/>
+      <c r="T14" s="17" t="n"/>
       <c r="U14" s="7" t="n">
         <v>0</v>
       </c>
@@ -5081,75 +5237,75 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="14.4" customHeight="1" s="21">
+    <row r="15" ht="14.45" customHeight="1" s="32">
       <c r="M15" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="16">
+      <c r="O15" s="26">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
-      <c r="P15" s="17" t="n"/>
-      <c r="Q15" s="18" t="n"/>
-      <c r="R15" s="16">
+      <c r="P15" s="16" t="n"/>
+      <c r="Q15" s="17" t="n"/>
+      <c r="R15" s="26">
         <f>SUM(S6:AH6)</f>
         <v/>
       </c>
-      <c r="S15" s="17" t="n"/>
-      <c r="T15" s="18" t="n"/>
+      <c r="S15" s="16" t="n"/>
+      <c r="T15" s="17" t="n"/>
       <c r="U15" s="12" t="n"/>
       <c r="V15" s="5" t="n"/>
     </row>
-    <row r="16" ht="14.4" customHeight="1" s="21">
+    <row r="16" ht="14.45" customHeight="1" s="32">
       <c r="M16" s="4">
         <f>B7</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="16">
+      <c r="O16" s="26">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
-      <c r="P16" s="17" t="n"/>
-      <c r="Q16" s="18" t="n"/>
-      <c r="R16" s="16">
+      <c r="P16" s="16" t="n"/>
+      <c r="Q16" s="17" t="n"/>
+      <c r="R16" s="26">
         <f>SUM(S7:AH7)</f>
         <v/>
       </c>
-      <c r="S16" s="17" t="n"/>
-      <c r="T16" s="18" t="n"/>
+      <c r="S16" s="16" t="n"/>
+      <c r="T16" s="17" t="n"/>
       <c r="U16" s="5" t="n"/>
       <c r="V16" s="5" t="n"/>
     </row>
-    <row r="17" ht="14.4" customHeight="1" s="21">
+    <row r="17" ht="14.45" customHeight="1" s="32">
       <c r="M17" s="4">
         <f>B8</f>
         <v/>
       </c>
       <c r="N17" s="4" t="n"/>
-      <c r="O17" s="16">
+      <c r="O17" s="26">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
-      <c r="P17" s="17" t="n"/>
-      <c r="Q17" s="18" t="n"/>
-      <c r="R17" s="16">
+      <c r="P17" s="16" t="n"/>
+      <c r="Q17" s="17" t="n"/>
+      <c r="R17" s="26">
         <f>SUM(S8:AH8)</f>
         <v/>
       </c>
-      <c r="S17" s="17" t="n"/>
-      <c r="T17" s="18" t="n"/>
+      <c r="S17" s="16" t="n"/>
+      <c r="T17" s="17" t="n"/>
       <c r="U17" s="5" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="14.4" customHeight="1" s="21">
+    <row r="18" ht="14.45" customHeight="1" s="32">
       <c r="U18" s="10" t="n"/>
     </row>
-    <row r="19" ht="14.4" customHeight="1" s="21"/>
-    <row r="20" ht="14.4" customHeight="1" s="21"/>
-    <row r="21" ht="14.4" customHeight="1" s="21">
+    <row r="19" ht="14.45" customHeight="1" s="32"/>
+    <row r="20" ht="14.45" customHeight="1" s="32"/>
+    <row r="21" ht="14.45" customHeight="1" s="32">
       <c r="R21" s="10" t="n"/>
     </row>
   </sheetData>
@@ -5195,16 +5351,16 @@
   <dimension ref="B1:AG23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AG8" sqref="AG8"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4.6640625" customWidth="1" style="21" min="1" max="1"/>
-    <col width="12.6640625" customWidth="1" style="21" min="3" max="3"/>
-    <col width="5.6640625" customWidth="1" style="21" min="4" max="6"/>
-    <col width="5.44140625" customWidth="1" style="21" min="7" max="7"/>
-    <col width="5.6640625" customWidth="1" style="21" min="8" max="34"/>
+    <col width="4.7109375" customWidth="1" style="32" min="1" max="1"/>
+    <col width="12.7109375" customWidth="1" style="32" min="3" max="3"/>
+    <col width="5.7109375" customWidth="1" style="32" min="4" max="6"/>
+    <col width="5.42578125" customWidth="1" style="32" min="7" max="7"/>
+    <col width="5.7109375" customWidth="1" style="32" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5219,51 +5375,51 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="21">
-      <c r="B2" s="41" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="32">
+      <c r="B2" s="40" t="inlineStr">
         <is>
           <t>Апрель</t>
         </is>
       </c>
-      <c r="C2" s="17" t="n"/>
-      <c r="D2" s="17" t="n"/>
-      <c r="E2" s="17" t="n"/>
-      <c r="F2" s="17" t="n"/>
-      <c r="G2" s="17" t="n"/>
-      <c r="H2" s="17" t="n"/>
-      <c r="I2" s="17" t="n"/>
-      <c r="J2" s="17" t="n"/>
-      <c r="K2" s="17" t="n"/>
-      <c r="L2" s="17" t="n"/>
-      <c r="M2" s="17" t="n"/>
-      <c r="N2" s="17" t="n"/>
-      <c r="O2" s="17" t="n"/>
-      <c r="P2" s="17" t="n"/>
-      <c r="Q2" s="17" t="n"/>
-      <c r="R2" s="17" t="n"/>
-      <c r="S2" s="17" t="n"/>
-      <c r="T2" s="17" t="n"/>
-      <c r="U2" s="17" t="n"/>
-      <c r="V2" s="17" t="n"/>
-      <c r="W2" s="17" t="n"/>
-      <c r="X2" s="17" t="n"/>
-      <c r="Y2" s="17" t="n"/>
-      <c r="Z2" s="17" t="n"/>
-      <c r="AA2" s="17" t="n"/>
-      <c r="AB2" s="17" t="n"/>
-      <c r="AC2" s="17" t="n"/>
-      <c r="AD2" s="17" t="n"/>
-      <c r="AE2" s="17" t="n"/>
-      <c r="AF2" s="17" t="n"/>
-      <c r="AG2" s="17" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="21">
-      <c r="B3" s="37" t="inlineStr">
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="16" t="n"/>
+      <c r="I2" s="16" t="n"/>
+      <c r="J2" s="16" t="n"/>
+      <c r="K2" s="16" t="n"/>
+      <c r="L2" s="16" t="n"/>
+      <c r="M2" s="16" t="n"/>
+      <c r="N2" s="16" t="n"/>
+      <c r="O2" s="16" t="n"/>
+      <c r="P2" s="16" t="n"/>
+      <c r="Q2" s="16" t="n"/>
+      <c r="R2" s="16" t="n"/>
+      <c r="S2" s="16" t="n"/>
+      <c r="T2" s="16" t="n"/>
+      <c r="U2" s="16" t="n"/>
+      <c r="V2" s="16" t="n"/>
+      <c r="W2" s="16" t="n"/>
+      <c r="X2" s="16" t="n"/>
+      <c r="Y2" s="16" t="n"/>
+      <c r="Z2" s="16" t="n"/>
+      <c r="AA2" s="16" t="n"/>
+      <c r="AB2" s="16" t="n"/>
+      <c r="AC2" s="16" t="n"/>
+      <c r="AD2" s="16" t="n"/>
+      <c r="AE2" s="16" t="n"/>
+      <c r="AF2" s="16" t="n"/>
+      <c r="AG2" s="16" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="32">
+      <c r="B3" s="28" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="32" t="n"/>
+      <c r="C3" s="29" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>пн</t>
@@ -5415,9 +5571,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="21">
-      <c r="B4" s="26" t="n"/>
-      <c r="C4" s="28" t="n"/>
+    <row r="4" ht="18.75" customHeight="1" s="32">
+      <c r="B4" s="23" t="n"/>
+      <c r="C4" s="25" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -5509,13 +5665,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="21">
-      <c r="B5" s="19" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="32">
+      <c r="B5" s="18" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="18" t="n"/>
+      <c r="C5" s="17" t="n"/>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="3" t="n"/>
       <c r="F5" s="3" t="n"/>
@@ -5547,13 +5703,13 @@
       <c r="AF5" s="3" t="n"/>
       <c r="AG5" s="3" t="n"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="21">
-      <c r="B6" s="19" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1" s="32">
+      <c r="B6" s="18" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="C6" s="18" t="n"/>
+      <c r="C6" s="17" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="3" t="n"/>
@@ -5589,13 +5745,13 @@
       <c r="AF6" s="3" t="n"/>
       <c r="AG6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="21">
-      <c r="B7" s="19" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="32">
+      <c r="B7" s="18" t="inlineStr">
         <is>
           <t>Маша</t>
         </is>
       </c>
-      <c r="C7" s="18" t="n"/>
+      <c r="C7" s="17" t="n"/>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="3" t="n"/>
       <c r="F7" s="3" t="n"/>
@@ -5627,13 +5783,13 @@
       <c r="AF7" s="3" t="n"/>
       <c r="AG7" s="3" t="n"/>
     </row>
-    <row r="8" ht="18.75" customHeight="1" s="21">
-      <c r="B8" s="19" t="inlineStr">
+    <row r="8" ht="18.75" customHeight="1" s="32">
+      <c r="B8" s="18" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
       </c>
-      <c r="C8" s="18" t="n"/>
+      <c r="C8" s="17" t="n"/>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="2" t="n">
         <v>1</v>
@@ -5695,13 +5851,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="18.75" customHeight="1" s="21">
-      <c r="B9" s="19" t="inlineStr">
+    <row r="9" ht="18.75" customHeight="1" s="32">
+      <c r="B9" s="18" t="inlineStr">
         <is>
           <t>Рома</t>
         </is>
       </c>
-      <c r="C9" s="18" t="n"/>
+      <c r="C9" s="17" t="n"/>
       <c r="D9" s="2" t="n">
         <v>1</v>
       </c>
@@ -5735,13 +5891,13 @@
       <c r="AF9" s="3" t="n"/>
       <c r="AG9" s="3" t="n"/>
     </row>
-    <row r="10" ht="18.75" customHeight="1" s="21">
-      <c r="B10" s="19" t="inlineStr">
+    <row r="10" ht="18.75" customHeight="1" s="32">
+      <c r="B10" s="18" t="inlineStr">
         <is>
           <t>Амелия</t>
         </is>
       </c>
-      <c r="C10" s="18" t="n"/>
+      <c r="C10" s="17" t="n"/>
       <c r="D10" s="3" t="n"/>
       <c r="E10" s="3" t="n"/>
       <c r="F10" s="3" t="n"/>
@@ -5797,105 +5953,105 @@
       </c>
       <c r="AG10" s="3" t="n"/>
     </row>
-    <row r="12" ht="18.75" customHeight="1" s="21">
-      <c r="B12" s="33" t="inlineStr">
+    <row r="12" ht="18.75" customHeight="1" s="32">
+      <c r="B12" s="37" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E12" s="35" t="inlineStr">
+      <c r="E12" s="39" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M12" s="38" t="inlineStr">
+      <c r="M12" s="30" t="inlineStr">
         <is>
           <t>Итоги (Апрель)</t>
         </is>
       </c>
-      <c r="N12" s="27" t="n"/>
-      <c r="O12" s="27" t="n"/>
-      <c r="P12" s="27" t="n"/>
-      <c r="Q12" s="27" t="n"/>
-      <c r="R12" s="27" t="n"/>
-      <c r="S12" s="27" t="n"/>
-      <c r="T12" s="27" t="n"/>
-      <c r="U12" s="27" t="n"/>
-      <c r="V12" s="27" t="n"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" s="21">
-      <c r="B13" s="29" t="inlineStr">
+      <c r="N12" s="24" t="n"/>
+      <c r="O12" s="24" t="n"/>
+      <c r="P12" s="24" t="n"/>
+      <c r="Q12" s="24" t="n"/>
+      <c r="R12" s="24" t="n"/>
+      <c r="S12" s="24" t="n"/>
+      <c r="T12" s="24" t="n"/>
+      <c r="U12" s="24" t="n"/>
+      <c r="V12" s="24" t="n"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="32">
+      <c r="B13" s="34" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E13" s="22" t="inlineStr">
+      <c r="E13" s="33" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M13" s="30" t="inlineStr">
+      <c r="M13" s="35" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N13" s="25" t="n"/>
-      <c r="O13" s="23" t="inlineStr">
+      <c r="N13" s="22" t="n"/>
+      <c r="O13" s="20" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P13" s="24" t="n"/>
-      <c r="Q13" s="25" t="n"/>
-      <c r="R13" s="23" t="inlineStr">
+      <c r="P13" s="21" t="n"/>
+      <c r="Q13" s="22" t="n"/>
+      <c r="R13" s="20" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S13" s="24" t="n"/>
-      <c r="T13" s="25" t="n"/>
-      <c r="U13" s="36" t="inlineStr">
+      <c r="S13" s="21" t="n"/>
+      <c r="T13" s="22" t="n"/>
+      <c r="U13" s="27" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V13" s="25" t="n"/>
+      <c r="V13" s="22" t="n"/>
     </row>
     <row r="14">
-      <c r="B14" s="20" t="inlineStr">
+      <c r="B14" s="31" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M14" s="31" t="n"/>
-      <c r="N14" s="32" t="n"/>
-      <c r="O14" s="26" t="n"/>
-      <c r="P14" s="27" t="n"/>
-      <c r="Q14" s="28" t="n"/>
-      <c r="R14" s="26" t="n"/>
-      <c r="S14" s="27" t="n"/>
-      <c r="T14" s="28" t="n"/>
-      <c r="U14" s="26" t="n"/>
-      <c r="V14" s="28" t="n"/>
+      <c r="M14" s="36" t="n"/>
+      <c r="N14" s="29" t="n"/>
+      <c r="O14" s="23" t="n"/>
+      <c r="P14" s="24" t="n"/>
+      <c r="Q14" s="25" t="n"/>
+      <c r="R14" s="23" t="n"/>
+      <c r="S14" s="24" t="n"/>
+      <c r="T14" s="25" t="n"/>
+      <c r="U14" s="23" t="n"/>
+      <c r="V14" s="25" t="n"/>
       <c r="AA14" s="10" t="n"/>
     </row>
-    <row r="15" ht="18" customHeight="1" s="21">
-      <c r="M15" s="26" t="n"/>
-      <c r="N15" s="28" t="n"/>
-      <c r="O15" s="34" t="inlineStr">
+    <row r="15" ht="18" customHeight="1" s="32">
+      <c r="M15" s="23" t="n"/>
+      <c r="N15" s="25" t="n"/>
+      <c r="O15" s="38" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P15" s="17" t="n"/>
-      <c r="Q15" s="18" t="n"/>
-      <c r="R15" s="40" t="inlineStr">
+      <c r="P15" s="16" t="n"/>
+      <c r="Q15" s="17" t="n"/>
+      <c r="R15" s="19" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S15" s="17" t="n"/>
-      <c r="T15" s="18" t="n"/>
+      <c r="S15" s="16" t="n"/>
+      <c r="T15" s="17" t="n"/>
       <c r="U15" s="11" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -5907,145 +6063,145 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="14.4" customHeight="1" s="21">
+    <row r="16" ht="14.45" customHeight="1" s="32">
       <c r="M16" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="16">
+      <c r="O16" s="26">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
-      <c r="P16" s="17" t="n"/>
-      <c r="Q16" s="18" t="n"/>
-      <c r="R16" s="16">
+      <c r="P16" s="16" t="n"/>
+      <c r="Q16" s="17" t="n"/>
+      <c r="R16" s="26">
         <f>SUM(S5:AG5)</f>
         <v/>
       </c>
-      <c r="S16" s="17" t="n"/>
-      <c r="T16" s="18" t="n"/>
+      <c r="S16" s="16" t="n"/>
+      <c r="T16" s="17" t="n"/>
       <c r="U16" s="7" t="n"/>
       <c r="V16" s="8" t="n"/>
     </row>
-    <row r="17" ht="14.4" customHeight="1" s="21">
+    <row r="17" ht="14.45" customHeight="1" s="32">
       <c r="M17" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N17" s="4" t="n"/>
-      <c r="O17" s="16">
+      <c r="O17" s="26">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
-      <c r="P17" s="17" t="n"/>
-      <c r="Q17" s="18" t="n"/>
-      <c r="R17" s="16">
+      <c r="P17" s="16" t="n"/>
+      <c r="Q17" s="17" t="n"/>
+      <c r="R17" s="26">
         <f>SUM(S6:AG6)</f>
         <v/>
       </c>
-      <c r="S17" s="17" t="n"/>
-      <c r="T17" s="18" t="n"/>
+      <c r="S17" s="16" t="n"/>
+      <c r="T17" s="17" t="n"/>
       <c r="U17" s="12" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="14.4" customHeight="1" s="21">
+    <row r="18" ht="14.45" customHeight="1" s="32">
       <c r="M18" s="4">
         <f>B7</f>
         <v/>
       </c>
       <c r="N18" s="4" t="n"/>
-      <c r="O18" s="16">
+      <c r="O18" s="26">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
-      <c r="P18" s="17" t="n"/>
-      <c r="Q18" s="18" t="n"/>
-      <c r="R18" s="16">
+      <c r="P18" s="16" t="n"/>
+      <c r="Q18" s="17" t="n"/>
+      <c r="R18" s="26">
         <f>SUM(S7:AG7)</f>
         <v/>
       </c>
-      <c r="S18" s="17" t="n"/>
-      <c r="T18" s="18" t="n"/>
+      <c r="S18" s="16" t="n"/>
+      <c r="T18" s="17" t="n"/>
       <c r="U18" s="5" t="n"/>
       <c r="V18" s="5" t="n"/>
     </row>
-    <row r="19" ht="14.4" customHeight="1" s="21">
+    <row r="19" ht="14.45" customHeight="1" s="32">
       <c r="M19" s="4">
         <f>B8</f>
         <v/>
       </c>
       <c r="N19" s="4" t="n"/>
-      <c r="O19" s="16">
+      <c r="O19" s="26">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
-      <c r="P19" s="17" t="n"/>
-      <c r="Q19" s="18" t="n"/>
-      <c r="R19" s="16">
+      <c r="P19" s="16" t="n"/>
+      <c r="Q19" s="17" t="n"/>
+      <c r="R19" s="26">
         <f>SUM(S8:AG8)</f>
         <v/>
       </c>
-      <c r="S19" s="17" t="n"/>
-      <c r="T19" s="18" t="n"/>
+      <c r="S19" s="16" t="n"/>
+      <c r="T19" s="17" t="n"/>
       <c r="U19" s="5" t="n"/>
       <c r="V19" s="5" t="n"/>
     </row>
-    <row r="20" ht="14.4" customHeight="1" s="21">
+    <row r="20" ht="14.45" customHeight="1" s="32">
       <c r="M20" s="4">
         <f>B9</f>
         <v/>
       </c>
       <c r="N20" s="4" t="n"/>
-      <c r="O20" s="16">
+      <c r="O20" s="26">
         <f>SUM(D9:R9)</f>
         <v/>
       </c>
-      <c r="P20" s="17" t="n"/>
-      <c r="Q20" s="18" t="n"/>
-      <c r="R20" s="16">
+      <c r="P20" s="16" t="n"/>
+      <c r="Q20" s="17" t="n"/>
+      <c r="R20" s="26">
         <f>SUM(S9:AG9)</f>
         <v/>
       </c>
-      <c r="S20" s="17" t="n"/>
-      <c r="T20" s="18" t="n"/>
+      <c r="S20" s="16" t="n"/>
+      <c r="T20" s="17" t="n"/>
       <c r="U20" s="5" t="n"/>
       <c r="V20" s="5" t="n"/>
     </row>
-    <row r="21" ht="14.4" customHeight="1" s="21">
+    <row r="21" ht="14.45" customHeight="1" s="32">
       <c r="M21" s="4">
         <f>B10</f>
         <v/>
       </c>
       <c r="N21" s="4" t="n"/>
-      <c r="O21" s="16">
+      <c r="O21" s="26">
         <f>SUM(D10:R10)</f>
         <v/>
       </c>
-      <c r="P21" s="17" t="n"/>
-      <c r="Q21" s="18" t="n"/>
-      <c r="R21" s="16">
+      <c r="P21" s="16" t="n"/>
+      <c r="Q21" s="17" t="n"/>
+      <c r="R21" s="26">
         <f>SUM(S10:AG10)</f>
         <v/>
       </c>
-      <c r="S21" s="17" t="n"/>
-      <c r="T21" s="18" t="n"/>
+      <c r="S21" s="16" t="n"/>
+      <c r="T21" s="17" t="n"/>
       <c r="U21" s="5" t="n"/>
       <c r="V21" s="5" t="n"/>
     </row>
-    <row r="22" ht="14.4" customHeight="1" s="21"/>
+    <row r="22" ht="14.45" customHeight="1" s="32"/>
     <row r="23">
       <c r="R23" s="10" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="R15:T15"/>
     <mergeCell ref="E13:K21"/>
-    <mergeCell ref="R15:T15"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="O13:Q14"/>
     <mergeCell ref="R21:T21"/>
+    <mergeCell ref="O16:Q16"/>
     <mergeCell ref="R20:T20"/>
-    <mergeCell ref="O16:Q16"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="O21:Q21"/>
     <mergeCell ref="R17:T17"/>
@@ -6061,8 +6217,8 @@
     <mergeCell ref="M13:N15"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B3:C4"/>
+    <mergeCell ref="O19:Q19"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="O19:Q19"/>
     <mergeCell ref="O15:Q15"/>
     <mergeCell ref="R19:T19"/>
     <mergeCell ref="B5:C5"/>
@@ -6089,13 +6245,13 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4.6640625" customWidth="1" style="21" min="1" max="1"/>
-    <col width="12.6640625" customWidth="1" style="21" min="3" max="3"/>
-    <col width="5.6640625" customWidth="1" style="21" min="4" max="6"/>
-    <col width="5.44140625" customWidth="1" style="21" min="7" max="7"/>
-    <col width="5.6640625" customWidth="1" style="21" min="8" max="34"/>
+    <col width="4.7109375" customWidth="1" style="32" min="1" max="1"/>
+    <col width="12.7109375" customWidth="1" style="32" min="3" max="3"/>
+    <col width="5.7109375" customWidth="1" style="32" min="4" max="6"/>
+    <col width="5.42578125" customWidth="1" style="32" min="7" max="7"/>
+    <col width="5.7109375" customWidth="1" style="32" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6110,52 +6266,52 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="21">
-      <c r="B2" s="39" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="32">
+      <c r="B2" s="15" t="inlineStr">
         <is>
           <t>Май</t>
         </is>
       </c>
-      <c r="C2" s="17" t="n"/>
-      <c r="D2" s="17" t="n"/>
-      <c r="E2" s="17" t="n"/>
-      <c r="F2" s="17" t="n"/>
-      <c r="G2" s="17" t="n"/>
-      <c r="H2" s="17" t="n"/>
-      <c r="I2" s="17" t="n"/>
-      <c r="J2" s="17" t="n"/>
-      <c r="K2" s="17" t="n"/>
-      <c r="L2" s="17" t="n"/>
-      <c r="M2" s="17" t="n"/>
-      <c r="N2" s="17" t="n"/>
-      <c r="O2" s="17" t="n"/>
-      <c r="P2" s="17" t="n"/>
-      <c r="Q2" s="17" t="n"/>
-      <c r="R2" s="17" t="n"/>
-      <c r="S2" s="17" t="n"/>
-      <c r="T2" s="17" t="n"/>
-      <c r="U2" s="17" t="n"/>
-      <c r="V2" s="17" t="n"/>
-      <c r="W2" s="17" t="n"/>
-      <c r="X2" s="17" t="n"/>
-      <c r="Y2" s="17" t="n"/>
-      <c r="Z2" s="17" t="n"/>
-      <c r="AA2" s="17" t="n"/>
-      <c r="AB2" s="17" t="n"/>
-      <c r="AC2" s="17" t="n"/>
-      <c r="AD2" s="17" t="n"/>
-      <c r="AE2" s="17" t="n"/>
-      <c r="AF2" s="17" t="n"/>
-      <c r="AG2" s="17" t="n"/>
-      <c r="AH2" s="18" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="21">
-      <c r="B3" s="37" t="inlineStr">
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="16" t="n"/>
+      <c r="I2" s="16" t="n"/>
+      <c r="J2" s="16" t="n"/>
+      <c r="K2" s="16" t="n"/>
+      <c r="L2" s="16" t="n"/>
+      <c r="M2" s="16" t="n"/>
+      <c r="N2" s="16" t="n"/>
+      <c r="O2" s="16" t="n"/>
+      <c r="P2" s="16" t="n"/>
+      <c r="Q2" s="16" t="n"/>
+      <c r="R2" s="16" t="n"/>
+      <c r="S2" s="16" t="n"/>
+      <c r="T2" s="16" t="n"/>
+      <c r="U2" s="16" t="n"/>
+      <c r="V2" s="16" t="n"/>
+      <c r="W2" s="16" t="n"/>
+      <c r="X2" s="16" t="n"/>
+      <c r="Y2" s="16" t="n"/>
+      <c r="Z2" s="16" t="n"/>
+      <c r="AA2" s="16" t="n"/>
+      <c r="AB2" s="16" t="n"/>
+      <c r="AC2" s="16" t="n"/>
+      <c r="AD2" s="16" t="n"/>
+      <c r="AE2" s="16" t="n"/>
+      <c r="AF2" s="16" t="n"/>
+      <c r="AG2" s="16" t="n"/>
+      <c r="AH2" s="17" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="32">
+      <c r="B3" s="28" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="32" t="n"/>
+      <c r="C3" s="29" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>ср</t>
@@ -6312,9 +6468,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="21">
-      <c r="B4" s="26" t="n"/>
-      <c r="C4" s="28" t="n"/>
+    <row r="4" ht="18.75" customHeight="1" s="32">
+      <c r="B4" s="23" t="n"/>
+      <c r="C4" s="25" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -6409,13 +6565,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="21">
-      <c r="B5" s="19" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="32">
+      <c r="B5" s="18" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="18" t="n"/>
+      <c r="C5" s="17" t="n"/>
       <c r="D5" s="2" t="n">
         <v>1</v>
       </c>
@@ -6450,13 +6606,13 @@
       <c r="AG5" s="3" t="n"/>
       <c r="AH5" s="3" t="n"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="21">
-      <c r="B6" s="19" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1" s="32">
+      <c r="B6" s="18" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="C6" s="18" t="n"/>
+      <c r="C6" s="17" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="3" t="n"/>
@@ -6489,13 +6645,13 @@
       <c r="AG6" s="3" t="n"/>
       <c r="AH6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="21">
-      <c r="B7" s="19" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="32">
+      <c r="B7" s="18" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
       </c>
-      <c r="C7" s="18" t="n"/>
+      <c r="C7" s="17" t="n"/>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="3" t="n"/>
       <c r="F7" s="3" t="n"/>
@@ -6556,13 +6712,13 @@
       <c r="AG7" s="3" t="n"/>
       <c r="AH7" s="3" t="n"/>
     </row>
-    <row r="8" ht="18.75" customHeight="1" s="21">
-      <c r="B8" s="19" t="inlineStr">
+    <row r="8" ht="18.75" customHeight="1" s="32">
+      <c r="B8" s="18" t="inlineStr">
         <is>
           <t>Амелия</t>
         </is>
       </c>
-      <c r="C8" s="18" t="n"/>
+      <c r="C8" s="17" t="n"/>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="2" t="n">
         <v>1</v>
@@ -6627,105 +6783,105 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="18.75" customHeight="1" s="21">
-      <c r="B10" s="33" t="inlineStr">
+    <row r="10" ht="18.75" customHeight="1" s="32">
+      <c r="B10" s="37" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E10" s="35" t="inlineStr">
+      <c r="E10" s="39" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M10" s="42" t="inlineStr">
+      <c r="M10" s="41" t="inlineStr">
         <is>
           <t>Итоги (Май)</t>
         </is>
       </c>
-      <c r="N10" s="17" t="n"/>
-      <c r="O10" s="17" t="n"/>
-      <c r="P10" s="17" t="n"/>
-      <c r="Q10" s="17" t="n"/>
-      <c r="R10" s="17" t="n"/>
-      <c r="S10" s="17" t="n"/>
-      <c r="T10" s="17" t="n"/>
-      <c r="U10" s="17" t="n"/>
-      <c r="V10" s="18" t="n"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1" s="21">
-      <c r="B11" s="29" t="inlineStr">
+      <c r="N10" s="16" t="n"/>
+      <c r="O10" s="16" t="n"/>
+      <c r="P10" s="16" t="n"/>
+      <c r="Q10" s="16" t="n"/>
+      <c r="R10" s="16" t="n"/>
+      <c r="S10" s="16" t="n"/>
+      <c r="T10" s="16" t="n"/>
+      <c r="U10" s="16" t="n"/>
+      <c r="V10" s="17" t="n"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="32">
+      <c r="B11" s="34" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E11" s="22" t="inlineStr">
+      <c r="E11" s="33" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M11" s="30" t="inlineStr">
+      <c r="M11" s="35" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N11" s="25" t="n"/>
-      <c r="O11" s="23" t="inlineStr">
+      <c r="N11" s="22" t="n"/>
+      <c r="O11" s="20" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P11" s="24" t="n"/>
-      <c r="Q11" s="25" t="n"/>
-      <c r="R11" s="23" t="inlineStr">
+      <c r="P11" s="21" t="n"/>
+      <c r="Q11" s="22" t="n"/>
+      <c r="R11" s="20" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S11" s="24" t="n"/>
-      <c r="T11" s="25" t="n"/>
-      <c r="U11" s="36" t="inlineStr">
+      <c r="S11" s="21" t="n"/>
+      <c r="T11" s="22" t="n"/>
+      <c r="U11" s="27" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V11" s="25" t="n"/>
+      <c r="V11" s="22" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="20" t="inlineStr">
+      <c r="B12" s="31" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M12" s="31" t="n"/>
-      <c r="N12" s="32" t="n"/>
-      <c r="O12" s="26" t="n"/>
-      <c r="P12" s="27" t="n"/>
-      <c r="Q12" s="28" t="n"/>
-      <c r="R12" s="26" t="n"/>
-      <c r="S12" s="27" t="n"/>
-      <c r="T12" s="28" t="n"/>
-      <c r="U12" s="26" t="n"/>
-      <c r="V12" s="28" t="n"/>
+      <c r="M12" s="36" t="n"/>
+      <c r="N12" s="29" t="n"/>
+      <c r="O12" s="23" t="n"/>
+      <c r="P12" s="24" t="n"/>
+      <c r="Q12" s="25" t="n"/>
+      <c r="R12" s="23" t="n"/>
+      <c r="S12" s="24" t="n"/>
+      <c r="T12" s="25" t="n"/>
+      <c r="U12" s="23" t="n"/>
+      <c r="V12" s="25" t="n"/>
       <c r="AA12" s="10" t="n"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="21">
-      <c r="M13" s="26" t="n"/>
-      <c r="N13" s="28" t="n"/>
-      <c r="O13" s="34" t="inlineStr">
+    <row r="13" ht="15.75" customHeight="1" s="32">
+      <c r="M13" s="23" t="n"/>
+      <c r="N13" s="25" t="n"/>
+      <c r="O13" s="38" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P13" s="17" t="n"/>
-      <c r="Q13" s="18" t="n"/>
-      <c r="R13" s="40" t="inlineStr">
+      <c r="P13" s="16" t="n"/>
+      <c r="Q13" s="17" t="n"/>
+      <c r="R13" s="19" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S13" s="17" t="n"/>
-      <c r="T13" s="18" t="n"/>
+      <c r="S13" s="16" t="n"/>
+      <c r="T13" s="17" t="n"/>
       <c r="U13" s="11" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -6737,97 +6893,97 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="18.75" customHeight="1" s="21">
+    <row r="14" ht="18.75" customHeight="1" s="32">
       <c r="M14" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N14" s="4" t="n"/>
-      <c r="O14" s="16">
+      <c r="O14" s="26">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
-      <c r="P14" s="17" t="n"/>
-      <c r="Q14" s="18" t="n"/>
-      <c r="R14" s="16">
+      <c r="P14" s="16" t="n"/>
+      <c r="Q14" s="17" t="n"/>
+      <c r="R14" s="26">
         <f>SUM(S5:AG5)</f>
         <v/>
       </c>
-      <c r="S14" s="17" t="n"/>
-      <c r="T14" s="18" t="n"/>
+      <c r="S14" s="16" t="n"/>
+      <c r="T14" s="17" t="n"/>
       <c r="U14" s="7" t="n"/>
       <c r="V14" s="8" t="n"/>
     </row>
-    <row r="15" ht="18" customHeight="1" s="21">
+    <row r="15" ht="18" customHeight="1" s="32">
       <c r="M15" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="16">
+      <c r="O15" s="26">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
-      <c r="P15" s="17" t="n"/>
-      <c r="Q15" s="18" t="n"/>
-      <c r="R15" s="16">
+      <c r="P15" s="16" t="n"/>
+      <c r="Q15" s="17" t="n"/>
+      <c r="R15" s="26">
         <f>SUM(S6:AG6)</f>
         <v/>
       </c>
-      <c r="S15" s="17" t="n"/>
-      <c r="T15" s="18" t="n"/>
+      <c r="S15" s="16" t="n"/>
+      <c r="T15" s="17" t="n"/>
       <c r="U15" s="12" t="n"/>
       <c r="V15" s="5" t="n"/>
     </row>
-    <row r="16" ht="14.4" customHeight="1" s="21">
+    <row r="16" ht="14.45" customHeight="1" s="32">
       <c r="M16" s="4">
         <f>B7</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="16">
+      <c r="O16" s="26">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
-      <c r="P16" s="17" t="n"/>
-      <c r="Q16" s="18" t="n"/>
-      <c r="R16" s="16">
+      <c r="P16" s="16" t="n"/>
+      <c r="Q16" s="17" t="n"/>
+      <c r="R16" s="26">
         <f>SUM(S7:AH7)</f>
         <v/>
       </c>
-      <c r="S16" s="17" t="n"/>
-      <c r="T16" s="18" t="n"/>
+      <c r="S16" s="16" t="n"/>
+      <c r="T16" s="17" t="n"/>
       <c r="U16" s="5" t="n"/>
       <c r="V16" s="5" t="n"/>
     </row>
-    <row r="17" ht="14.4" customHeight="1" s="21">
+    <row r="17" ht="14.45" customHeight="1" s="32">
       <c r="M17" s="4">
         <f>B8</f>
         <v/>
       </c>
       <c r="N17" s="4" t="n"/>
-      <c r="O17" s="16">
+      <c r="O17" s="26">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
-      <c r="P17" s="17" t="n"/>
-      <c r="Q17" s="18" t="n"/>
-      <c r="R17" s="16">
+      <c r="P17" s="16" t="n"/>
+      <c r="Q17" s="17" t="n"/>
+      <c r="R17" s="26">
         <f>SUM(S8:AH8)</f>
         <v/>
       </c>
-      <c r="S17" s="17" t="n"/>
-      <c r="T17" s="18" t="n"/>
+      <c r="S17" s="16" t="n"/>
+      <c r="T17" s="17" t="n"/>
       <c r="U17" s="5" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="14.4" customHeight="1" s="21"/>
-    <row r="19" ht="14.4" customHeight="1" s="21">
+    <row r="18" ht="14.45" customHeight="1" s="32"/>
+    <row r="19" ht="14.45" customHeight="1" s="32">
       <c r="R19" s="10" t="n"/>
     </row>
-    <row r="20" ht="14.4" customHeight="1" s="21"/>
-    <row r="21" ht="14.4" customHeight="1" s="21"/>
-    <row r="22" ht="14.4" customHeight="1" s="21"/>
+    <row r="20" ht="14.45" customHeight="1" s="32"/>
+    <row r="21" ht="14.45" customHeight="1" s="32"/>
+    <row r="22" ht="14.45" customHeight="1" s="32"/>
   </sheetData>
   <mergeCells count="26">
     <mergeCell ref="R15:T15"/>
@@ -6874,13 +7030,13 @@
       <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4.6640625" customWidth="1" style="21" min="1" max="1"/>
-    <col width="12.6640625" customWidth="1" style="21" min="3" max="3"/>
-    <col width="5.6640625" customWidth="1" style="21" min="4" max="6"/>
-    <col width="5.44140625" customWidth="1" style="21" min="7" max="7"/>
-    <col width="5.6640625" customWidth="1" style="21" min="8" max="34"/>
+    <col width="4.7109375" customWidth="1" style="32" min="1" max="1"/>
+    <col width="12.7109375" customWidth="1" style="32" min="3" max="3"/>
+    <col width="5.7109375" customWidth="1" style="32" min="4" max="6"/>
+    <col width="5.42578125" customWidth="1" style="32" min="7" max="7"/>
+    <col width="5.7109375" customWidth="1" style="32" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6895,51 +7051,51 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="21">
-      <c r="B2" s="39" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="32">
+      <c r="B2" s="15" t="inlineStr">
         <is>
           <t>Июнь</t>
         </is>
       </c>
-      <c r="C2" s="17" t="n"/>
-      <c r="D2" s="17" t="n"/>
-      <c r="E2" s="17" t="n"/>
-      <c r="F2" s="17" t="n"/>
-      <c r="G2" s="17" t="n"/>
-      <c r="H2" s="17" t="n"/>
-      <c r="I2" s="17" t="n"/>
-      <c r="J2" s="17" t="n"/>
-      <c r="K2" s="17" t="n"/>
-      <c r="L2" s="17" t="n"/>
-      <c r="M2" s="17" t="n"/>
-      <c r="N2" s="17" t="n"/>
-      <c r="O2" s="17" t="n"/>
-      <c r="P2" s="17" t="n"/>
-      <c r="Q2" s="17" t="n"/>
-      <c r="R2" s="17" t="n"/>
-      <c r="S2" s="17" t="n"/>
-      <c r="T2" s="17" t="n"/>
-      <c r="U2" s="17" t="n"/>
-      <c r="V2" s="17" t="n"/>
-      <c r="W2" s="17" t="n"/>
-      <c r="X2" s="17" t="n"/>
-      <c r="Y2" s="17" t="n"/>
-      <c r="Z2" s="17" t="n"/>
-      <c r="AA2" s="17" t="n"/>
-      <c r="AB2" s="17" t="n"/>
-      <c r="AC2" s="17" t="n"/>
-      <c r="AD2" s="17" t="n"/>
-      <c r="AE2" s="17" t="n"/>
-      <c r="AF2" s="17" t="n"/>
-      <c r="AG2" s="18" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="21">
-      <c r="B3" s="37" t="inlineStr">
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="16" t="n"/>
+      <c r="I2" s="16" t="n"/>
+      <c r="J2" s="16" t="n"/>
+      <c r="K2" s="16" t="n"/>
+      <c r="L2" s="16" t="n"/>
+      <c r="M2" s="16" t="n"/>
+      <c r="N2" s="16" t="n"/>
+      <c r="O2" s="16" t="n"/>
+      <c r="P2" s="16" t="n"/>
+      <c r="Q2" s="16" t="n"/>
+      <c r="R2" s="16" t="n"/>
+      <c r="S2" s="16" t="n"/>
+      <c r="T2" s="16" t="n"/>
+      <c r="U2" s="16" t="n"/>
+      <c r="V2" s="16" t="n"/>
+      <c r="W2" s="16" t="n"/>
+      <c r="X2" s="16" t="n"/>
+      <c r="Y2" s="16" t="n"/>
+      <c r="Z2" s="16" t="n"/>
+      <c r="AA2" s="16" t="n"/>
+      <c r="AB2" s="16" t="n"/>
+      <c r="AC2" s="16" t="n"/>
+      <c r="AD2" s="16" t="n"/>
+      <c r="AE2" s="16" t="n"/>
+      <c r="AF2" s="16" t="n"/>
+      <c r="AG2" s="17" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="32">
+      <c r="B3" s="28" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="32" t="n"/>
+      <c r="C3" s="29" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>сб</t>
@@ -7091,9 +7247,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="21">
-      <c r="B4" s="26" t="n"/>
-      <c r="C4" s="28" t="n"/>
+    <row r="4" ht="18.75" customHeight="1" s="32">
+      <c r="B4" s="23" t="n"/>
+      <c r="C4" s="25" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -7185,13 +7341,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="21">
-      <c r="B5" s="19" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="32">
+      <c r="B5" s="18" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="18" t="n"/>
+      <c r="C5" s="17" t="n"/>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="3" t="n"/>
       <c r="F5" s="3" t="n"/>
@@ -7225,13 +7381,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="21">
-      <c r="B6" s="19" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1" s="32">
+      <c r="B6" s="18" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="C6" s="18" t="n"/>
+      <c r="C6" s="17" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="3" t="n"/>
@@ -7275,13 +7431,13 @@
       </c>
       <c r="AG6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="21">
-      <c r="B7" s="19" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="32">
+      <c r="B7" s="18" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
       </c>
-      <c r="C7" s="18" t="n"/>
+      <c r="C7" s="17" t="n"/>
       <c r="D7" s="2" t="n">
         <v>1</v>
       </c>
@@ -7333,13 +7489,13 @@
       <c r="AF7" s="3" t="n"/>
       <c r="AG7" s="3" t="n"/>
     </row>
-    <row r="8" ht="18.75" customHeight="1" s="21">
-      <c r="B8" s="19" t="inlineStr">
+    <row r="8" ht="18.75" customHeight="1" s="32">
+      <c r="B8" s="18" t="inlineStr">
         <is>
           <t>Амелия</t>
         </is>
       </c>
-      <c r="C8" s="18" t="n"/>
+      <c r="C8" s="17" t="n"/>
       <c r="D8" s="3" t="inlineStr">
         <is>
           <t>ё</t>
@@ -7401,105 +7557,105 @@
       <c r="AF8" s="3" t="n"/>
       <c r="AG8" s="3" t="n"/>
     </row>
-    <row r="10" ht="18.75" customHeight="1" s="21">
-      <c r="B10" s="33" t="inlineStr">
+    <row r="10" ht="18.75" customHeight="1" s="32">
+      <c r="B10" s="37" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E10" s="35" t="inlineStr">
+      <c r="E10" s="39" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M10" s="42" t="inlineStr">
+      <c r="M10" s="41" t="inlineStr">
         <is>
           <t>Итоги (Июнь)</t>
         </is>
       </c>
-      <c r="N10" s="17" t="n"/>
-      <c r="O10" s="17" t="n"/>
-      <c r="P10" s="17" t="n"/>
-      <c r="Q10" s="17" t="n"/>
-      <c r="R10" s="17" t="n"/>
-      <c r="S10" s="17" t="n"/>
-      <c r="T10" s="17" t="n"/>
-      <c r="U10" s="17" t="n"/>
-      <c r="V10" s="18" t="n"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1" s="21">
-      <c r="B11" s="29" t="inlineStr">
+      <c r="N10" s="16" t="n"/>
+      <c r="O10" s="16" t="n"/>
+      <c r="P10" s="16" t="n"/>
+      <c r="Q10" s="16" t="n"/>
+      <c r="R10" s="16" t="n"/>
+      <c r="S10" s="16" t="n"/>
+      <c r="T10" s="16" t="n"/>
+      <c r="U10" s="16" t="n"/>
+      <c r="V10" s="17" t="n"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="32">
+      <c r="B11" s="34" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E11" s="22" t="inlineStr">
+      <c r="E11" s="33" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M11" s="30" t="inlineStr">
+      <c r="M11" s="35" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N11" s="25" t="n"/>
-      <c r="O11" s="23" t="inlineStr">
+      <c r="N11" s="22" t="n"/>
+      <c r="O11" s="20" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P11" s="24" t="n"/>
-      <c r="Q11" s="25" t="n"/>
-      <c r="R11" s="23" t="inlineStr">
+      <c r="P11" s="21" t="n"/>
+      <c r="Q11" s="22" t="n"/>
+      <c r="R11" s="20" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S11" s="24" t="n"/>
-      <c r="T11" s="25" t="n"/>
-      <c r="U11" s="36" t="inlineStr">
+      <c r="S11" s="21" t="n"/>
+      <c r="T11" s="22" t="n"/>
+      <c r="U11" s="27" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V11" s="25" t="n"/>
+      <c r="V11" s="22" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="20" t="inlineStr">
+      <c r="B12" s="31" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M12" s="31" t="n"/>
-      <c r="N12" s="32" t="n"/>
-      <c r="O12" s="26" t="n"/>
-      <c r="P12" s="27" t="n"/>
-      <c r="Q12" s="28" t="n"/>
-      <c r="R12" s="26" t="n"/>
-      <c r="S12" s="27" t="n"/>
-      <c r="T12" s="28" t="n"/>
-      <c r="U12" s="26" t="n"/>
-      <c r="V12" s="28" t="n"/>
+      <c r="M12" s="36" t="n"/>
+      <c r="N12" s="29" t="n"/>
+      <c r="O12" s="23" t="n"/>
+      <c r="P12" s="24" t="n"/>
+      <c r="Q12" s="25" t="n"/>
+      <c r="R12" s="23" t="n"/>
+      <c r="S12" s="24" t="n"/>
+      <c r="T12" s="25" t="n"/>
+      <c r="U12" s="23" t="n"/>
+      <c r="V12" s="25" t="n"/>
       <c r="AA12" s="10" t="n"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="21">
-      <c r="M13" s="26" t="n"/>
-      <c r="N13" s="28" t="n"/>
-      <c r="O13" s="34" t="inlineStr">
+    <row r="13" ht="15.75" customHeight="1" s="32">
+      <c r="M13" s="23" t="n"/>
+      <c r="N13" s="25" t="n"/>
+      <c r="O13" s="38" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P13" s="17" t="n"/>
-      <c r="Q13" s="18" t="n"/>
-      <c r="R13" s="40" t="inlineStr">
+      <c r="P13" s="16" t="n"/>
+      <c r="Q13" s="17" t="n"/>
+      <c r="R13" s="19" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S13" s="17" t="n"/>
-      <c r="T13" s="18" t="n"/>
+      <c r="S13" s="16" t="n"/>
+      <c r="T13" s="17" t="n"/>
       <c r="U13" s="11" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -7511,24 +7667,24 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="18.75" customHeight="1" s="21">
+    <row r="14" ht="18.75" customHeight="1" s="32">
       <c r="M14" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N14" s="4" t="n"/>
-      <c r="O14" s="16">
+      <c r="O14" s="26">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
-      <c r="P14" s="17" t="n"/>
-      <c r="Q14" s="18" t="n"/>
-      <c r="R14" s="16">
+      <c r="P14" s="16" t="n"/>
+      <c r="Q14" s="17" t="n"/>
+      <c r="R14" s="26">
         <f>SUM(S5:AG5)</f>
         <v/>
       </c>
-      <c r="S14" s="17" t="n"/>
-      <c r="T14" s="18" t="n"/>
+      <c r="S14" s="16" t="n"/>
+      <c r="T14" s="17" t="n"/>
       <c r="U14" s="7" t="n"/>
       <c r="V14" s="8" t="inlineStr">
         <is>
@@ -7536,76 +7692,76 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="18" customHeight="1" s="21">
+    <row r="15" ht="18" customHeight="1" s="32">
       <c r="M15" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="16">
+      <c r="O15" s="26">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
-      <c r="P15" s="17" t="n"/>
-      <c r="Q15" s="18" t="n"/>
-      <c r="R15" s="16">
+      <c r="P15" s="16" t="n"/>
+      <c r="Q15" s="17" t="n"/>
+      <c r="R15" s="26">
         <f>SUM(S6:AG6)</f>
         <v/>
       </c>
-      <c r="S15" s="17" t="n"/>
-      <c r="T15" s="18" t="n"/>
+      <c r="S15" s="16" t="n"/>
+      <c r="T15" s="17" t="n"/>
       <c r="U15" s="12" t="n"/>
       <c r="V15" s="5" t="n"/>
     </row>
-    <row r="16" ht="14.4" customHeight="1" s="21">
+    <row r="16" ht="14.45" customHeight="1" s="32">
       <c r="M16" s="4">
         <f>B7</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="16">
+      <c r="O16" s="26">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
-      <c r="P16" s="17" t="n"/>
-      <c r="Q16" s="18" t="n"/>
-      <c r="R16" s="16">
+      <c r="P16" s="16" t="n"/>
+      <c r="Q16" s="17" t="n"/>
+      <c r="R16" s="26">
         <f>SUM(S7:AG7)</f>
         <v/>
       </c>
-      <c r="S16" s="17" t="n"/>
-      <c r="T16" s="18" t="n"/>
+      <c r="S16" s="16" t="n"/>
+      <c r="T16" s="17" t="n"/>
       <c r="U16" s="5" t="n"/>
       <c r="V16" s="5" t="n"/>
     </row>
-    <row r="17" ht="14.4" customHeight="1" s="21">
+    <row r="17" ht="14.45" customHeight="1" s="32">
       <c r="M17" s="4">
         <f>B8</f>
         <v/>
       </c>
       <c r="N17" s="4" t="n"/>
-      <c r="O17" s="16">
+      <c r="O17" s="26">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
-      <c r="P17" s="17" t="n"/>
-      <c r="Q17" s="18" t="n"/>
-      <c r="R17" s="16">
+      <c r="P17" s="16" t="n"/>
+      <c r="Q17" s="17" t="n"/>
+      <c r="R17" s="26">
         <f>SUM(S8:AG8)</f>
         <v/>
       </c>
-      <c r="S17" s="17" t="n"/>
-      <c r="T17" s="18" t="n"/>
+      <c r="S17" s="16" t="n"/>
+      <c r="T17" s="17" t="n"/>
       <c r="U17" s="5" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="14.4" customHeight="1" s="21"/>
-    <row r="19" ht="14.4" customHeight="1" s="21">
+    <row r="18" ht="14.45" customHeight="1" s="32"/>
+    <row r="19" ht="14.45" customHeight="1" s="32">
       <c r="R19" s="10" t="n"/>
     </row>
-    <row r="20" ht="14.4" customHeight="1" s="21"/>
-    <row r="21" ht="14.4" customHeight="1" s="21"/>
-    <row r="22" ht="14.4" customHeight="1" s="21"/>
+    <row r="20" ht="14.45" customHeight="1" s="32"/>
+    <row r="21" ht="14.45" customHeight="1" s="32"/>
+    <row r="22" ht="14.45" customHeight="1" s="32"/>
   </sheetData>
   <mergeCells count="26">
     <mergeCell ref="R15:T15"/>
@@ -7652,13 +7808,13 @@
       <selection activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4.6640625" customWidth="1" style="21" min="1" max="1"/>
-    <col width="12.6640625" customWidth="1" style="21" min="3" max="3"/>
-    <col width="5.6640625" customWidth="1" style="21" min="4" max="6"/>
-    <col width="5.44140625" customWidth="1" style="21" min="7" max="7"/>
-    <col width="5.6640625" customWidth="1" style="21" min="8" max="34"/>
+    <col width="4.7109375" customWidth="1" style="32" min="1" max="1"/>
+    <col width="12.7109375" customWidth="1" style="32" min="3" max="3"/>
+    <col width="5.7109375" customWidth="1" style="32" min="4" max="6"/>
+    <col width="5.42578125" customWidth="1" style="32" min="7" max="7"/>
+    <col width="5.7109375" customWidth="1" style="32" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7673,52 +7829,52 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="21">
-      <c r="B2" s="39" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="32">
+      <c r="B2" s="15" t="inlineStr">
         <is>
           <t>Июль</t>
         </is>
       </c>
-      <c r="C2" s="17" t="n"/>
-      <c r="D2" s="17" t="n"/>
-      <c r="E2" s="17" t="n"/>
-      <c r="F2" s="17" t="n"/>
-      <c r="G2" s="17" t="n"/>
-      <c r="H2" s="17" t="n"/>
-      <c r="I2" s="17" t="n"/>
-      <c r="J2" s="17" t="n"/>
-      <c r="K2" s="17" t="n"/>
-      <c r="L2" s="17" t="n"/>
-      <c r="M2" s="17" t="n"/>
-      <c r="N2" s="17" t="n"/>
-      <c r="O2" s="17" t="n"/>
-      <c r="P2" s="17" t="n"/>
-      <c r="Q2" s="17" t="n"/>
-      <c r="R2" s="17" t="n"/>
-      <c r="S2" s="17" t="n"/>
-      <c r="T2" s="17" t="n"/>
-      <c r="U2" s="17" t="n"/>
-      <c r="V2" s="17" t="n"/>
-      <c r="W2" s="17" t="n"/>
-      <c r="X2" s="17" t="n"/>
-      <c r="Y2" s="17" t="n"/>
-      <c r="Z2" s="17" t="n"/>
-      <c r="AA2" s="17" t="n"/>
-      <c r="AB2" s="17" t="n"/>
-      <c r="AC2" s="17" t="n"/>
-      <c r="AD2" s="17" t="n"/>
-      <c r="AE2" s="17" t="n"/>
-      <c r="AF2" s="17" t="n"/>
-      <c r="AG2" s="17" t="n"/>
-      <c r="AH2" s="18" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="21">
-      <c r="B3" s="37" t="inlineStr">
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="16" t="n"/>
+      <c r="I2" s="16" t="n"/>
+      <c r="J2" s="16" t="n"/>
+      <c r="K2" s="16" t="n"/>
+      <c r="L2" s="16" t="n"/>
+      <c r="M2" s="16" t="n"/>
+      <c r="N2" s="16" t="n"/>
+      <c r="O2" s="16" t="n"/>
+      <c r="P2" s="16" t="n"/>
+      <c r="Q2" s="16" t="n"/>
+      <c r="R2" s="16" t="n"/>
+      <c r="S2" s="16" t="n"/>
+      <c r="T2" s="16" t="n"/>
+      <c r="U2" s="16" t="n"/>
+      <c r="V2" s="16" t="n"/>
+      <c r="W2" s="16" t="n"/>
+      <c r="X2" s="16" t="n"/>
+      <c r="Y2" s="16" t="n"/>
+      <c r="Z2" s="16" t="n"/>
+      <c r="AA2" s="16" t="n"/>
+      <c r="AB2" s="16" t="n"/>
+      <c r="AC2" s="16" t="n"/>
+      <c r="AD2" s="16" t="n"/>
+      <c r="AE2" s="16" t="n"/>
+      <c r="AF2" s="16" t="n"/>
+      <c r="AG2" s="16" t="n"/>
+      <c r="AH2" s="17" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="32">
+      <c r="B3" s="28" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="32" t="n"/>
+      <c r="C3" s="29" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>пн</t>
@@ -7875,9 +8031,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="21">
-      <c r="B4" s="26" t="n"/>
-      <c r="C4" s="28" t="n"/>
+    <row r="4" ht="18.75" customHeight="1" s="32">
+      <c r="B4" s="23" t="n"/>
+      <c r="C4" s="25" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -7972,13 +8128,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="21">
-      <c r="B5" s="19" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="32">
+      <c r="B5" s="18" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="18" t="n"/>
+      <c r="C5" s="17" t="n"/>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="3" t="n"/>
       <c r="F5" s="3" t="n"/>
@@ -8017,13 +8173,13 @@
       <c r="AG5" s="3" t="n"/>
       <c r="AH5" s="3" t="n"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="21">
-      <c r="B6" s="19" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1" s="32">
+      <c r="B6" s="18" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="C6" s="18" t="n"/>
+      <c r="C6" s="17" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="2" t="n">
@@ -8084,13 +8240,13 @@
       <c r="AG6" s="3" t="n"/>
       <c r="AH6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="21">
-      <c r="B7" s="19" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="32">
+      <c r="B7" s="18" t="inlineStr">
         <is>
           <t>Игорь</t>
         </is>
       </c>
-      <c r="C7" s="18" t="n"/>
+      <c r="C7" s="17" t="n"/>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="3" t="n"/>
       <c r="F7" s="3" t="n"/>
@@ -8139,105 +8295,105 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="18.75" customHeight="1" s="21">
-      <c r="B9" s="33" t="inlineStr">
+    <row r="9" ht="18.75" customHeight="1" s="32">
+      <c r="B9" s="37" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E9" s="35" t="inlineStr">
+      <c r="E9" s="39" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M9" s="42" t="inlineStr">
+      <c r="M9" s="41" t="inlineStr">
         <is>
           <t>Итоги (Июль)</t>
         </is>
       </c>
-      <c r="N9" s="17" t="n"/>
-      <c r="O9" s="17" t="n"/>
-      <c r="P9" s="17" t="n"/>
-      <c r="Q9" s="17" t="n"/>
-      <c r="R9" s="17" t="n"/>
-      <c r="S9" s="17" t="n"/>
-      <c r="T9" s="17" t="n"/>
-      <c r="U9" s="17" t="n"/>
-      <c r="V9" s="18" t="n"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1" s="21">
-      <c r="B10" s="29" t="inlineStr">
+      <c r="N9" s="16" t="n"/>
+      <c r="O9" s="16" t="n"/>
+      <c r="P9" s="16" t="n"/>
+      <c r="Q9" s="16" t="n"/>
+      <c r="R9" s="16" t="n"/>
+      <c r="S9" s="16" t="n"/>
+      <c r="T9" s="16" t="n"/>
+      <c r="U9" s="16" t="n"/>
+      <c r="V9" s="17" t="n"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" s="32">
+      <c r="B10" s="34" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E10" s="22" t="inlineStr">
+      <c r="E10" s="33" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M10" s="30" t="inlineStr">
+      <c r="M10" s="35" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N10" s="25" t="n"/>
-      <c r="O10" s="23" t="inlineStr">
+      <c r="N10" s="22" t="n"/>
+      <c r="O10" s="20" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P10" s="24" t="n"/>
-      <c r="Q10" s="25" t="n"/>
-      <c r="R10" s="23" t="inlineStr">
+      <c r="P10" s="21" t="n"/>
+      <c r="Q10" s="22" t="n"/>
+      <c r="R10" s="20" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S10" s="24" t="n"/>
-      <c r="T10" s="25" t="n"/>
-      <c r="U10" s="36" t="inlineStr">
+      <c r="S10" s="21" t="n"/>
+      <c r="T10" s="22" t="n"/>
+      <c r="U10" s="27" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V10" s="25" t="n"/>
+      <c r="V10" s="22" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="20" t="inlineStr">
+      <c r="B11" s="31" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M11" s="31" t="n"/>
-      <c r="N11" s="32" t="n"/>
-      <c r="O11" s="26" t="n"/>
-      <c r="P11" s="27" t="n"/>
-      <c r="Q11" s="28" t="n"/>
-      <c r="R11" s="26" t="n"/>
-      <c r="S11" s="27" t="n"/>
-      <c r="T11" s="28" t="n"/>
-      <c r="U11" s="26" t="n"/>
-      <c r="V11" s="28" t="n"/>
+      <c r="M11" s="36" t="n"/>
+      <c r="N11" s="29" t="n"/>
+      <c r="O11" s="23" t="n"/>
+      <c r="P11" s="24" t="n"/>
+      <c r="Q11" s="25" t="n"/>
+      <c r="R11" s="23" t="n"/>
+      <c r="S11" s="24" t="n"/>
+      <c r="T11" s="25" t="n"/>
+      <c r="U11" s="23" t="n"/>
+      <c r="V11" s="25" t="n"/>
       <c r="AA11" s="10" t="n"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1" s="21">
-      <c r="M12" s="26" t="n"/>
-      <c r="N12" s="28" t="n"/>
-      <c r="O12" s="34" t="inlineStr">
+    <row r="12" ht="15.75" customHeight="1" s="32">
+      <c r="M12" s="23" t="n"/>
+      <c r="N12" s="25" t="n"/>
+      <c r="O12" s="38" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P12" s="17" t="n"/>
-      <c r="Q12" s="18" t="n"/>
-      <c r="R12" s="40" t="inlineStr">
+      <c r="P12" s="16" t="n"/>
+      <c r="Q12" s="17" t="n"/>
+      <c r="R12" s="19" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S12" s="17" t="n"/>
-      <c r="T12" s="18" t="n"/>
+      <c r="S12" s="16" t="n"/>
+      <c r="T12" s="17" t="n"/>
       <c r="U12" s="11" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -8249,79 +8405,79 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="18.75" customHeight="1" s="21">
+    <row r="13" ht="18.75" customHeight="1" s="32">
       <c r="M13" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N13" s="4" t="n"/>
-      <c r="O13" s="16">
+      <c r="O13" s="26">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
-      <c r="P13" s="17" t="n"/>
-      <c r="Q13" s="18" t="n"/>
-      <c r="R13" s="16">
+      <c r="P13" s="16" t="n"/>
+      <c r="Q13" s="17" t="n"/>
+      <c r="R13" s="26">
         <f>SUM(S5:AG5)</f>
         <v/>
       </c>
-      <c r="S13" s="17" t="n"/>
-      <c r="T13" s="18" t="n"/>
+      <c r="S13" s="16" t="n"/>
+      <c r="T13" s="17" t="n"/>
       <c r="U13" s="7" t="n">
         <v>6</v>
       </c>
       <c r="V13" s="8" t="n"/>
     </row>
-    <row r="14" ht="18" customHeight="1" s="21">
+    <row r="14" ht="18" customHeight="1" s="32">
       <c r="M14" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N14" s="4" t="n"/>
-      <c r="O14" s="16">
+      <c r="O14" s="26">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
-      <c r="P14" s="17" t="n"/>
-      <c r="Q14" s="18" t="n"/>
-      <c r="R14" s="16">
+      <c r="P14" s="16" t="n"/>
+      <c r="Q14" s="17" t="n"/>
+      <c r="R14" s="26">
         <f>SUM(S6:AG6)</f>
         <v/>
       </c>
-      <c r="S14" s="17" t="n"/>
-      <c r="T14" s="18" t="n"/>
+      <c r="S14" s="16" t="n"/>
+      <c r="T14" s="17" t="n"/>
       <c r="U14" s="12" t="n"/>
       <c r="V14" s="5" t="n"/>
     </row>
-    <row r="15" ht="14.4" customHeight="1" s="21">
+    <row r="15" ht="14.45" customHeight="1" s="32">
       <c r="M15" s="4">
         <f>B7</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="16">
+      <c r="O15" s="26">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
-      <c r="P15" s="17" t="n"/>
-      <c r="Q15" s="18" t="n"/>
-      <c r="R15" s="16">
+      <c r="P15" s="16" t="n"/>
+      <c r="Q15" s="17" t="n"/>
+      <c r="R15" s="26">
         <f>SUM(S7:AG7)</f>
         <v/>
       </c>
-      <c r="S15" s="17" t="n"/>
-      <c r="T15" s="18" t="n"/>
+      <c r="S15" s="16" t="n"/>
+      <c r="T15" s="17" t="n"/>
       <c r="U15" s="5" t="n"/>
       <c r="V15" s="5" t="n"/>
     </row>
-    <row r="16" ht="14.4" customHeight="1" s="21"/>
-    <row r="17" ht="14.4" customHeight="1" s="21">
+    <row r="16" ht="14.45" customHeight="1" s="32"/>
+    <row r="17" ht="14.45" customHeight="1" s="32">
       <c r="R17" s="10" t="n"/>
     </row>
-    <row r="18" ht="14.4" customHeight="1" s="21"/>
-    <row r="19" ht="14.4" customHeight="1" s="21"/>
-    <row r="20" ht="14.4" customHeight="1" s="21"/>
-    <row r="21" ht="14.4" customHeight="1" s="21"/>
+    <row r="18" ht="14.45" customHeight="1" s="32"/>
+    <row r="19" ht="14.45" customHeight="1" s="32"/>
+    <row r="20" ht="14.45" customHeight="1" s="32"/>
+    <row r="21" ht="14.45" customHeight="1" s="32"/>
     <row r="25">
       <c r="V25" t="inlineStr">
         <is>
@@ -8372,13 +8528,13 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4.6640625" customWidth="1" style="21" min="1" max="1"/>
-    <col width="12.6640625" customWidth="1" style="21" min="3" max="3"/>
-    <col width="5.6640625" customWidth="1" style="21" min="4" max="6"/>
-    <col width="5.44140625" customWidth="1" style="21" min="7" max="7"/>
-    <col width="5.6640625" customWidth="1" style="21" min="8" max="34"/>
+    <col width="4.7109375" customWidth="1" style="32" min="1" max="1"/>
+    <col width="12.7109375" customWidth="1" style="32" min="3" max="3"/>
+    <col width="5.7109375" customWidth="1" style="32" min="4" max="6"/>
+    <col width="5.42578125" customWidth="1" style="32" min="7" max="7"/>
+    <col width="5.7109375" customWidth="1" style="32" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8393,52 +8549,52 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="21">
-      <c r="B2" s="39" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="32">
+      <c r="B2" s="15" t="inlineStr">
         <is>
           <t>Август</t>
         </is>
       </c>
-      <c r="C2" s="17" t="n"/>
-      <c r="D2" s="17" t="n"/>
-      <c r="E2" s="17" t="n"/>
-      <c r="F2" s="17" t="n"/>
-      <c r="G2" s="17" t="n"/>
-      <c r="H2" s="17" t="n"/>
-      <c r="I2" s="17" t="n"/>
-      <c r="J2" s="17" t="n"/>
-      <c r="K2" s="17" t="n"/>
-      <c r="L2" s="17" t="n"/>
-      <c r="M2" s="17" t="n"/>
-      <c r="N2" s="17" t="n"/>
-      <c r="O2" s="17" t="n"/>
-      <c r="P2" s="17" t="n"/>
-      <c r="Q2" s="17" t="n"/>
-      <c r="R2" s="17" t="n"/>
-      <c r="S2" s="17" t="n"/>
-      <c r="T2" s="17" t="n"/>
-      <c r="U2" s="17" t="n"/>
-      <c r="V2" s="17" t="n"/>
-      <c r="W2" s="17" t="n"/>
-      <c r="X2" s="17" t="n"/>
-      <c r="Y2" s="17" t="n"/>
-      <c r="Z2" s="17" t="n"/>
-      <c r="AA2" s="17" t="n"/>
-      <c r="AB2" s="17" t="n"/>
-      <c r="AC2" s="17" t="n"/>
-      <c r="AD2" s="17" t="n"/>
-      <c r="AE2" s="17" t="n"/>
-      <c r="AF2" s="17" t="n"/>
-      <c r="AG2" s="17" t="n"/>
-      <c r="AH2" s="18" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="21">
-      <c r="B3" s="37" t="inlineStr">
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="16" t="n"/>
+      <c r="I2" s="16" t="n"/>
+      <c r="J2" s="16" t="n"/>
+      <c r="K2" s="16" t="n"/>
+      <c r="L2" s="16" t="n"/>
+      <c r="M2" s="16" t="n"/>
+      <c r="N2" s="16" t="n"/>
+      <c r="O2" s="16" t="n"/>
+      <c r="P2" s="16" t="n"/>
+      <c r="Q2" s="16" t="n"/>
+      <c r="R2" s="16" t="n"/>
+      <c r="S2" s="16" t="n"/>
+      <c r="T2" s="16" t="n"/>
+      <c r="U2" s="16" t="n"/>
+      <c r="V2" s="16" t="n"/>
+      <c r="W2" s="16" t="n"/>
+      <c r="X2" s="16" t="n"/>
+      <c r="Y2" s="16" t="n"/>
+      <c r="Z2" s="16" t="n"/>
+      <c r="AA2" s="16" t="n"/>
+      <c r="AB2" s="16" t="n"/>
+      <c r="AC2" s="16" t="n"/>
+      <c r="AD2" s="16" t="n"/>
+      <c r="AE2" s="16" t="n"/>
+      <c r="AF2" s="16" t="n"/>
+      <c r="AG2" s="16" t="n"/>
+      <c r="AH2" s="17" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="32">
+      <c r="B3" s="28" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="32" t="n"/>
+      <c r="C3" s="29" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>чт</t>
@@ -8595,9 +8751,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="21">
-      <c r="B4" s="26" t="n"/>
-      <c r="C4" s="28" t="n"/>
+    <row r="4" ht="18.75" customHeight="1" s="32">
+      <c r="B4" s="23" t="n"/>
+      <c r="C4" s="25" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -8692,13 +8848,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="21">
-      <c r="B5" s="19" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="32">
+      <c r="B5" s="18" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="18" t="n"/>
+      <c r="C5" s="17" t="n"/>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="3" t="n"/>
       <c r="F5" s="3" t="n"/>
@@ -8737,13 +8893,13 @@
       <c r="AG5" s="3" t="n"/>
       <c r="AH5" s="3" t="n"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="21">
-      <c r="B6" s="19" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1" s="32">
+      <c r="B6" s="18" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="C6" s="18" t="n"/>
+      <c r="C6" s="17" t="n"/>
       <c r="D6" s="2" t="n">
         <v>1</v>
       </c>
@@ -8798,13 +8954,13 @@
       </c>
       <c r="AH6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="21">
-      <c r="B7" s="19" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="32">
+      <c r="B7" s="18" t="inlineStr">
         <is>
           <t>Игорь</t>
         </is>
       </c>
-      <c r="C7" s="18" t="n"/>
+      <c r="C7" s="17" t="n"/>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="3" t="n"/>
       <c r="F7" s="3" t="n"/>
@@ -8839,13 +8995,13 @@
       <c r="AG7" s="3" t="n"/>
       <c r="AH7" s="3" t="n"/>
     </row>
-    <row r="8" ht="18.75" customHeight="1" s="21">
-      <c r="B8" s="19" t="inlineStr">
+    <row r="8" ht="18.75" customHeight="1" s="32">
+      <c r="B8" s="18" t="inlineStr">
         <is>
           <t>Алена</t>
         </is>
       </c>
-      <c r="C8" s="18" t="n"/>
+      <c r="C8" s="17" t="n"/>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="3" t="n"/>
       <c r="F8" s="3" t="n"/>
@@ -8908,13 +9064,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="18.75" customHeight="1" s="21">
-      <c r="B9" s="19" t="inlineStr">
+    <row r="9" ht="18.75" customHeight="1" s="32">
+      <c r="B9" s="18" t="inlineStr">
         <is>
           <t>Снежанна</t>
         </is>
       </c>
-      <c r="C9" s="18" t="n"/>
+      <c r="C9" s="17" t="n"/>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="3" t="n"/>
       <c r="F9" s="3" t="n"/>
@@ -8953,105 +9109,105 @@
       <c r="AG9" s="3" t="n"/>
       <c r="AH9" s="3" t="n"/>
     </row>
-    <row r="11" ht="18.75" customHeight="1" s="21">
-      <c r="B11" s="33" t="inlineStr">
+    <row r="11" ht="18.75" customHeight="1" s="32">
+      <c r="B11" s="37" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E11" s="35" t="inlineStr">
+      <c r="E11" s="39" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M11" s="42" t="inlineStr">
+      <c r="M11" s="41" t="inlineStr">
         <is>
           <t>Итоги (Август)</t>
         </is>
       </c>
-      <c r="N11" s="17" t="n"/>
-      <c r="O11" s="17" t="n"/>
-      <c r="P11" s="17" t="n"/>
-      <c r="Q11" s="17" t="n"/>
-      <c r="R11" s="17" t="n"/>
-      <c r="S11" s="17" t="n"/>
-      <c r="T11" s="17" t="n"/>
-      <c r="U11" s="17" t="n"/>
-      <c r="V11" s="18" t="n"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1" s="21">
-      <c r="B12" s="29" t="inlineStr">
+      <c r="N11" s="16" t="n"/>
+      <c r="O11" s="16" t="n"/>
+      <c r="P11" s="16" t="n"/>
+      <c r="Q11" s="16" t="n"/>
+      <c r="R11" s="16" t="n"/>
+      <c r="S11" s="16" t="n"/>
+      <c r="T11" s="16" t="n"/>
+      <c r="U11" s="16" t="n"/>
+      <c r="V11" s="17" t="n"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" s="32">
+      <c r="B12" s="34" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E12" s="22" t="inlineStr">
+      <c r="E12" s="33" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M12" s="30" t="inlineStr">
+      <c r="M12" s="35" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N12" s="25" t="n"/>
-      <c r="O12" s="23" t="inlineStr">
+      <c r="N12" s="22" t="n"/>
+      <c r="O12" s="20" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P12" s="24" t="n"/>
-      <c r="Q12" s="25" t="n"/>
-      <c r="R12" s="23" t="inlineStr">
+      <c r="P12" s="21" t="n"/>
+      <c r="Q12" s="22" t="n"/>
+      <c r="R12" s="20" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S12" s="24" t="n"/>
-      <c r="T12" s="25" t="n"/>
-      <c r="U12" s="36" t="inlineStr">
+      <c r="S12" s="21" t="n"/>
+      <c r="T12" s="22" t="n"/>
+      <c r="U12" s="27" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V12" s="25" t="n"/>
+      <c r="V12" s="22" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="20" t="inlineStr">
+      <c r="B13" s="31" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M13" s="31" t="n"/>
-      <c r="N13" s="32" t="n"/>
-      <c r="O13" s="26" t="n"/>
-      <c r="P13" s="27" t="n"/>
-      <c r="Q13" s="28" t="n"/>
-      <c r="R13" s="26" t="n"/>
-      <c r="S13" s="27" t="n"/>
-      <c r="T13" s="28" t="n"/>
-      <c r="U13" s="26" t="n"/>
-      <c r="V13" s="28" t="n"/>
+      <c r="M13" s="36" t="n"/>
+      <c r="N13" s="29" t="n"/>
+      <c r="O13" s="23" t="n"/>
+      <c r="P13" s="24" t="n"/>
+      <c r="Q13" s="25" t="n"/>
+      <c r="R13" s="23" t="n"/>
+      <c r="S13" s="24" t="n"/>
+      <c r="T13" s="25" t="n"/>
+      <c r="U13" s="23" t="n"/>
+      <c r="V13" s="25" t="n"/>
       <c r="AA13" s="10" t="n"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="21">
-      <c r="M14" s="26" t="n"/>
-      <c r="N14" s="28" t="n"/>
-      <c r="O14" s="34" t="inlineStr">
+    <row r="14" ht="15.75" customHeight="1" s="32">
+      <c r="M14" s="23" t="n"/>
+      <c r="N14" s="25" t="n"/>
+      <c r="O14" s="38" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P14" s="17" t="n"/>
-      <c r="Q14" s="18" t="n"/>
-      <c r="R14" s="40" t="inlineStr">
+      <c r="P14" s="16" t="n"/>
+      <c r="Q14" s="17" t="n"/>
+      <c r="R14" s="19" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S14" s="17" t="n"/>
-      <c r="T14" s="18" t="n"/>
+      <c r="S14" s="16" t="n"/>
+      <c r="T14" s="17" t="n"/>
       <c r="U14" s="11" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -9063,24 +9219,24 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="18.75" customHeight="1" s="21">
+    <row r="15" ht="18.75" customHeight="1" s="32">
       <c r="M15" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="16">
+      <c r="O15" s="26">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
-      <c r="P15" s="17" t="n"/>
-      <c r="Q15" s="18" t="n"/>
-      <c r="R15" s="16">
+      <c r="P15" s="16" t="n"/>
+      <c r="Q15" s="17" t="n"/>
+      <c r="R15" s="26">
         <f>SUM(S5:AG5)</f>
         <v/>
       </c>
-      <c r="S15" s="17" t="n"/>
-      <c r="T15" s="18" t="n"/>
+      <c r="S15" s="16" t="n"/>
+      <c r="T15" s="17" t="n"/>
       <c r="U15" s="7" t="n">
         <v>4</v>
       </c>
@@ -9090,99 +9246,100 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="18" customHeight="1" s="21">
+    <row r="16" ht="18" customHeight="1" s="32">
       <c r="M16" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="16">
+      <c r="O16" s="26">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
-      <c r="P16" s="17" t="n"/>
-      <c r="Q16" s="18" t="n"/>
-      <c r="R16" s="16">
+      <c r="P16" s="16" t="n"/>
+      <c r="Q16" s="17" t="n"/>
+      <c r="R16" s="26">
         <f>SUM(S6:AG6)</f>
         <v/>
       </c>
-      <c r="S16" s="17" t="n"/>
-      <c r="T16" s="18" t="n"/>
+      <c r="S16" s="16" t="n"/>
+      <c r="T16" s="17" t="n"/>
       <c r="U16" s="12" t="n"/>
       <c r="V16" s="5" t="n"/>
     </row>
-    <row r="17" ht="14.4" customHeight="1" s="21">
-      <c r="M17" s="43">
+    <row r="17" ht="14.45" customHeight="1" s="32">
+      <c r="M17" s="42">
         <f>B7</f>
         <v/>
       </c>
-      <c r="N17" s="18" t="n"/>
-      <c r="O17" s="16">
+      <c r="N17" s="17" t="n"/>
+      <c r="O17" s="26">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
-      <c r="P17" s="17" t="n"/>
-      <c r="Q17" s="18" t="n"/>
-      <c r="R17" s="16">
+      <c r="P17" s="16" t="n"/>
+      <c r="Q17" s="17" t="n"/>
+      <c r="R17" s="26">
         <f>SUM(S7:AG7)</f>
         <v/>
       </c>
-      <c r="S17" s="17" t="n"/>
-      <c r="T17" s="18" t="n"/>
+      <c r="S17" s="16" t="n"/>
+      <c r="T17" s="17" t="n"/>
       <c r="U17" s="5" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="14.4" customHeight="1" s="21">
-      <c r="M18" s="43">
+    <row r="18" ht="14.45" customHeight="1" s="32">
+      <c r="M18" s="42">
         <f>B8</f>
         <v/>
       </c>
-      <c r="N18" s="18" t="n"/>
-      <c r="O18" s="16">
+      <c r="N18" s="17" t="n"/>
+      <c r="O18" s="26">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
-      <c r="P18" s="17" t="n"/>
-      <c r="Q18" s="18" t="n"/>
-      <c r="R18" s="16">
+      <c r="P18" s="16" t="n"/>
+      <c r="Q18" s="17" t="n"/>
+      <c r="R18" s="26">
         <f>SUM(S8:AG8)</f>
         <v/>
       </c>
-      <c r="S18" s="17" t="n"/>
-      <c r="T18" s="18" t="n"/>
+      <c r="S18" s="16" t="n"/>
+      <c r="T18" s="17" t="n"/>
       <c r="U18" s="5" t="n"/>
       <c r="V18" s="5" t="n"/>
     </row>
-    <row r="19" ht="14.4" customHeight="1" s="21">
-      <c r="M19" s="43">
+    <row r="19" ht="14.45" customHeight="1" s="32">
+      <c r="M19" s="42">
         <f>B9</f>
         <v/>
       </c>
-      <c r="N19" s="18" t="n"/>
-      <c r="O19" s="16">
+      <c r="N19" s="17" t="n"/>
+      <c r="O19" s="26">
         <f>SUM(D9:R9)</f>
         <v/>
       </c>
-      <c r="P19" s="17" t="n"/>
-      <c r="Q19" s="18" t="n"/>
-      <c r="R19" s="16">
+      <c r="P19" s="16" t="n"/>
+      <c r="Q19" s="17" t="n"/>
+      <c r="R19" s="26">
         <f>SUM(S9:AG9)</f>
         <v/>
       </c>
-      <c r="S19" s="17" t="n"/>
-      <c r="T19" s="18" t="n"/>
+      <c r="S19" s="16" t="n"/>
+      <c r="T19" s="17" t="n"/>
       <c r="U19" s="5" t="n"/>
       <c r="V19" s="5" t="n"/>
     </row>
-    <row r="20" ht="14.4" customHeight="1" s="21"/>
-    <row r="21" ht="14.4" customHeight="1" s="21"/>
-    <row r="22" ht="14.4" customHeight="1" s="21"/>
-    <row r="23" ht="14.4" customHeight="1" s="21"/>
+    <row r="20" ht="14.45" customHeight="1" s="32"/>
+    <row r="21" ht="14.45" customHeight="1" s="32"/>
+    <row r="22" ht="14.45" customHeight="1" s="32"/>
+    <row r="23" ht="14.45" customHeight="1" s="32"/>
   </sheetData>
   <mergeCells count="32">
     <mergeCell ref="R15:T15"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="U12:V13"/>
+    <mergeCell ref="E11:K11"/>
     <mergeCell ref="B2:AH2"/>
     <mergeCell ref="O16:Q16"/>
     <mergeCell ref="B12:C12"/>
@@ -9203,15 +9360,14 @@
     <mergeCell ref="M12:N14"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="O12:Q13"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="M19:N19"/>
     <mergeCell ref="R16:T16"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="E11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -9230,13 +9386,13 @@
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4.6640625" customWidth="1" style="21" min="1" max="1"/>
-    <col width="12.6640625" customWidth="1" style="21" min="3" max="3"/>
-    <col width="5.6640625" customWidth="1" style="21" min="4" max="6"/>
-    <col width="5.44140625" customWidth="1" style="21" min="7" max="7"/>
-    <col width="5.6640625" customWidth="1" style="21" min="8" max="34"/>
+    <col width="4.7109375" customWidth="1" style="32" min="1" max="1"/>
+    <col width="12.7109375" customWidth="1" style="32" min="3" max="3"/>
+    <col width="5.7109375" customWidth="1" style="32" min="4" max="6"/>
+    <col width="5.42578125" customWidth="1" style="32" min="7" max="7"/>
+    <col width="5.7109375" customWidth="1" style="32" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9251,51 +9407,51 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="21">
-      <c r="B2" s="39" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="32">
+      <c r="B2" s="15" t="inlineStr">
         <is>
           <t>Сентябрь</t>
         </is>
       </c>
-      <c r="C2" s="17" t="n"/>
-      <c r="D2" s="17" t="n"/>
-      <c r="E2" s="17" t="n"/>
-      <c r="F2" s="17" t="n"/>
-      <c r="G2" s="17" t="n"/>
-      <c r="H2" s="17" t="n"/>
-      <c r="I2" s="17" t="n"/>
-      <c r="J2" s="17" t="n"/>
-      <c r="K2" s="17" t="n"/>
-      <c r="L2" s="17" t="n"/>
-      <c r="M2" s="17" t="n"/>
-      <c r="N2" s="17" t="n"/>
-      <c r="O2" s="17" t="n"/>
-      <c r="P2" s="17" t="n"/>
-      <c r="Q2" s="17" t="n"/>
-      <c r="R2" s="17" t="n"/>
-      <c r="S2" s="17" t="n"/>
-      <c r="T2" s="17" t="n"/>
-      <c r="U2" s="17" t="n"/>
-      <c r="V2" s="17" t="n"/>
-      <c r="W2" s="17" t="n"/>
-      <c r="X2" s="17" t="n"/>
-      <c r="Y2" s="17" t="n"/>
-      <c r="Z2" s="17" t="n"/>
-      <c r="AA2" s="17" t="n"/>
-      <c r="AB2" s="17" t="n"/>
-      <c r="AC2" s="17" t="n"/>
-      <c r="AD2" s="17" t="n"/>
-      <c r="AE2" s="17" t="n"/>
-      <c r="AF2" s="17" t="n"/>
-      <c r="AG2" s="18" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="21">
-      <c r="B3" s="37" t="inlineStr">
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="16" t="n"/>
+      <c r="I2" s="16" t="n"/>
+      <c r="J2" s="16" t="n"/>
+      <c r="K2" s="16" t="n"/>
+      <c r="L2" s="16" t="n"/>
+      <c r="M2" s="16" t="n"/>
+      <c r="N2" s="16" t="n"/>
+      <c r="O2" s="16" t="n"/>
+      <c r="P2" s="16" t="n"/>
+      <c r="Q2" s="16" t="n"/>
+      <c r="R2" s="16" t="n"/>
+      <c r="S2" s="16" t="n"/>
+      <c r="T2" s="16" t="n"/>
+      <c r="U2" s="16" t="n"/>
+      <c r="V2" s="16" t="n"/>
+      <c r="W2" s="16" t="n"/>
+      <c r="X2" s="16" t="n"/>
+      <c r="Y2" s="16" t="n"/>
+      <c r="Z2" s="16" t="n"/>
+      <c r="AA2" s="16" t="n"/>
+      <c r="AB2" s="16" t="n"/>
+      <c r="AC2" s="16" t="n"/>
+      <c r="AD2" s="16" t="n"/>
+      <c r="AE2" s="16" t="n"/>
+      <c r="AF2" s="16" t="n"/>
+      <c r="AG2" s="17" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="32">
+      <c r="B3" s="28" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="32" t="n"/>
+      <c r="C3" s="29" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>вс</t>
@@ -9447,9 +9603,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="21">
-      <c r="B4" s="26" t="n"/>
-      <c r="C4" s="28" t="n"/>
+    <row r="4" ht="18.75" customHeight="1" s="32">
+      <c r="B4" s="23" t="n"/>
+      <c r="C4" s="25" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -9541,13 +9697,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="21">
-      <c r="B5" s="19" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="32">
+      <c r="B5" s="18" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="18" t="n"/>
+      <c r="C5" s="17" t="n"/>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="3" t="n"/>
       <c r="F5" s="3" t="n"/>
@@ -9579,13 +9735,13 @@
       <c r="AF5" s="3" t="n"/>
       <c r="AG5" s="3" t="n"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="21">
-      <c r="B6" s="19" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1" s="32">
+      <c r="B6" s="18" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="C6" s="18" t="n"/>
+      <c r="C6" s="17" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="3" t="n"/>
@@ -9631,13 +9787,13 @@
       <c r="AF6" s="3" t="n"/>
       <c r="AG6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="21">
-      <c r="B7" s="19" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="32">
+      <c r="B7" s="18" t="inlineStr">
         <is>
           <t>Алена</t>
         </is>
       </c>
-      <c r="C7" s="18" t="n"/>
+      <c r="C7" s="17" t="n"/>
       <c r="D7" s="2" t="n">
         <v>1</v>
       </c>
@@ -9711,13 +9867,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="18.75" customHeight="1" s="21">
-      <c r="B8" s="19" t="inlineStr">
+    <row r="8" ht="18.75" customHeight="1" s="32">
+      <c r="B8" s="18" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
       </c>
-      <c r="C8" s="18" t="n"/>
+      <c r="C8" s="17" t="n"/>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="3" t="n"/>
       <c r="F8" s="3" t="n"/>
@@ -9753,105 +9909,105 @@
       </c>
       <c r="AG8" s="3" t="n"/>
     </row>
-    <row r="10" ht="18.75" customHeight="1" s="21">
-      <c r="B10" s="33" t="inlineStr">
+    <row r="10" ht="18.75" customHeight="1" s="32">
+      <c r="B10" s="37" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E10" s="35" t="inlineStr">
+      <c r="E10" s="39" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M10" s="42" t="inlineStr">
+      <c r="M10" s="41" t="inlineStr">
         <is>
           <t>Итоги (Сентябрь)</t>
         </is>
       </c>
-      <c r="N10" s="17" t="n"/>
-      <c r="O10" s="17" t="n"/>
-      <c r="P10" s="17" t="n"/>
-      <c r="Q10" s="17" t="n"/>
-      <c r="R10" s="17" t="n"/>
-      <c r="S10" s="17" t="n"/>
-      <c r="T10" s="17" t="n"/>
-      <c r="U10" s="17" t="n"/>
-      <c r="V10" s="18" t="n"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1" s="21">
-      <c r="B11" s="29" t="inlineStr">
+      <c r="N10" s="16" t="n"/>
+      <c r="O10" s="16" t="n"/>
+      <c r="P10" s="16" t="n"/>
+      <c r="Q10" s="16" t="n"/>
+      <c r="R10" s="16" t="n"/>
+      <c r="S10" s="16" t="n"/>
+      <c r="T10" s="16" t="n"/>
+      <c r="U10" s="16" t="n"/>
+      <c r="V10" s="17" t="n"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="32">
+      <c r="B11" s="34" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E11" s="22" t="inlineStr">
+      <c r="E11" s="33" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M11" s="30" t="inlineStr">
+      <c r="M11" s="35" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N11" s="25" t="n"/>
-      <c r="O11" s="23" t="inlineStr">
+      <c r="N11" s="22" t="n"/>
+      <c r="O11" s="20" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P11" s="24" t="n"/>
-      <c r="Q11" s="25" t="n"/>
-      <c r="R11" s="23" t="inlineStr">
+      <c r="P11" s="21" t="n"/>
+      <c r="Q11" s="22" t="n"/>
+      <c r="R11" s="20" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S11" s="24" t="n"/>
-      <c r="T11" s="25" t="n"/>
-      <c r="U11" s="36" t="inlineStr">
+      <c r="S11" s="21" t="n"/>
+      <c r="T11" s="22" t="n"/>
+      <c r="U11" s="27" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V11" s="25" t="n"/>
+      <c r="V11" s="22" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="20" t="inlineStr">
+      <c r="B12" s="31" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M12" s="31" t="n"/>
-      <c r="N12" s="32" t="n"/>
-      <c r="O12" s="26" t="n"/>
-      <c r="P12" s="27" t="n"/>
-      <c r="Q12" s="28" t="n"/>
-      <c r="R12" s="26" t="n"/>
-      <c r="S12" s="27" t="n"/>
-      <c r="T12" s="28" t="n"/>
-      <c r="U12" s="26" t="n"/>
-      <c r="V12" s="28" t="n"/>
+      <c r="M12" s="36" t="n"/>
+      <c r="N12" s="29" t="n"/>
+      <c r="O12" s="23" t="n"/>
+      <c r="P12" s="24" t="n"/>
+      <c r="Q12" s="25" t="n"/>
+      <c r="R12" s="23" t="n"/>
+      <c r="S12" s="24" t="n"/>
+      <c r="T12" s="25" t="n"/>
+      <c r="U12" s="23" t="n"/>
+      <c r="V12" s="25" t="n"/>
       <c r="AA12" s="10" t="n"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="21">
-      <c r="M13" s="26" t="n"/>
-      <c r="N13" s="28" t="n"/>
-      <c r="O13" s="34" t="inlineStr">
+    <row r="13" ht="15.75" customHeight="1" s="32">
+      <c r="M13" s="23" t="n"/>
+      <c r="N13" s="25" t="n"/>
+      <c r="O13" s="38" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P13" s="17" t="n"/>
-      <c r="Q13" s="18" t="n"/>
-      <c r="R13" s="40" t="inlineStr">
+      <c r="P13" s="16" t="n"/>
+      <c r="Q13" s="17" t="n"/>
+      <c r="R13" s="19" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S13" s="17" t="n"/>
-      <c r="T13" s="18" t="n"/>
+      <c r="S13" s="16" t="n"/>
+      <c r="T13" s="17" t="n"/>
       <c r="U13" s="11" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -9863,97 +10019,97 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="18.75" customHeight="1" s="21">
+    <row r="14" ht="18.75" customHeight="1" s="32">
       <c r="M14" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N14" s="4" t="n"/>
-      <c r="O14" s="16">
+      <c r="O14" s="26">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
-      <c r="P14" s="17" t="n"/>
-      <c r="Q14" s="18" t="n"/>
-      <c r="R14" s="16">
+      <c r="P14" s="16" t="n"/>
+      <c r="Q14" s="17" t="n"/>
+      <c r="R14" s="26">
         <f>SUM(S5:AG5)</f>
         <v/>
       </c>
-      <c r="S14" s="17" t="n"/>
-      <c r="T14" s="18" t="n"/>
+      <c r="S14" s="16" t="n"/>
+      <c r="T14" s="17" t="n"/>
       <c r="U14" s="7" t="n"/>
       <c r="V14" s="8" t="n"/>
     </row>
-    <row r="15" ht="18.75" customHeight="1" s="21">
+    <row r="15" ht="18.75" customHeight="1" s="32">
       <c r="M15" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="16">
+      <c r="O15" s="26">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
-      <c r="P15" s="17" t="n"/>
-      <c r="Q15" s="18" t="n"/>
-      <c r="R15" s="16">
+      <c r="P15" s="16" t="n"/>
+      <c r="Q15" s="17" t="n"/>
+      <c r="R15" s="26">
         <f>SUM(S6:AG6)</f>
         <v/>
       </c>
-      <c r="S15" s="17" t="n"/>
-      <c r="T15" s="18" t="n"/>
+      <c r="S15" s="16" t="n"/>
+      <c r="T15" s="17" t="n"/>
       <c r="U15" s="12" t="n"/>
       <c r="V15" s="5" t="n"/>
     </row>
-    <row r="16" ht="18.75" customHeight="1" s="21">
-      <c r="M16" s="43">
+    <row r="16" ht="18.75" customHeight="1" s="32">
+      <c r="M16" s="42">
         <f>B7</f>
         <v/>
       </c>
-      <c r="N16" s="18" t="n"/>
-      <c r="O16" s="16">
+      <c r="N16" s="17" t="n"/>
+      <c r="O16" s="26">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
-      <c r="P16" s="17" t="n"/>
-      <c r="Q16" s="18" t="n"/>
-      <c r="R16" s="16">
+      <c r="P16" s="16" t="n"/>
+      <c r="Q16" s="17" t="n"/>
+      <c r="R16" s="26">
         <f>SUM(S7:AG7)</f>
         <v/>
       </c>
-      <c r="S16" s="17" t="n"/>
-      <c r="T16" s="18" t="n"/>
+      <c r="S16" s="16" t="n"/>
+      <c r="T16" s="17" t="n"/>
       <c r="U16" s="5" t="n"/>
       <c r="V16" s="5" t="n"/>
     </row>
-    <row r="17" ht="18" customHeight="1" s="21">
-      <c r="M17" s="43">
+    <row r="17" ht="18" customHeight="1" s="32">
+      <c r="M17" s="42">
         <f>B8</f>
         <v/>
       </c>
-      <c r="N17" s="18" t="n"/>
-      <c r="O17" s="16">
+      <c r="N17" s="17" t="n"/>
+      <c r="O17" s="26">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
-      <c r="P17" s="17" t="n"/>
-      <c r="Q17" s="18" t="n"/>
-      <c r="R17" s="16">
+      <c r="P17" s="16" t="n"/>
+      <c r="Q17" s="17" t="n"/>
+      <c r="R17" s="26">
         <f>SUM(S8:AG8)</f>
         <v/>
       </c>
-      <c r="S17" s="17" t="n"/>
-      <c r="T17" s="18" t="n"/>
+      <c r="S17" s="16" t="n"/>
+      <c r="T17" s="17" t="n"/>
       <c r="U17" s="5" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="14.4" customHeight="1" s="21"/>
-    <row r="19" ht="14.4" customHeight="1" s="21"/>
-    <row r="20" ht="14.4" customHeight="1" s="21"/>
-    <row r="21" ht="14.4" customHeight="1" s="21"/>
-    <row r="22" ht="14.4" customHeight="1" s="21"/>
-    <row r="23" ht="14.4" customHeight="1" s="21"/>
-    <row r="24" ht="14.4" customHeight="1" s="21"/>
+    <row r="18" ht="14.45" customHeight="1" s="32"/>
+    <row r="19" ht="14.45" customHeight="1" s="32"/>
+    <row r="20" ht="14.45" customHeight="1" s="32"/>
+    <row r="21" ht="14.45" customHeight="1" s="32"/>
+    <row r="22" ht="14.45" customHeight="1" s="32"/>
+    <row r="23" ht="14.45" customHeight="1" s="32"/>
+    <row r="24" ht="14.45" customHeight="1" s="32"/>
   </sheetData>
   <mergeCells count="28">
     <mergeCell ref="R15:T15"/>
@@ -9976,8 +10132,8 @@
     <mergeCell ref="E10:K10"/>
     <mergeCell ref="U11:V12"/>
     <mergeCell ref="B3:C4"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="M10:V10"/>
-    <mergeCell ref="M17:N17"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="O15:Q15"/>
     <mergeCell ref="B5:C5"/>
@@ -9999,16 +10155,16 @@
   <dimension ref="B1:AH20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4.6640625" customWidth="1" style="21" min="1" max="1"/>
-    <col width="12.6640625" customWidth="1" style="21" min="3" max="3"/>
-    <col width="5.6640625" customWidth="1" style="21" min="4" max="6"/>
-    <col width="5.44140625" customWidth="1" style="21" min="7" max="7"/>
-    <col width="5.6640625" customWidth="1" style="21" min="8" max="34"/>
+    <col width="4.7109375" customWidth="1" style="32" min="1" max="1"/>
+    <col width="12.7109375" customWidth="1" style="32" min="3" max="3"/>
+    <col width="5.7109375" customWidth="1" style="32" min="4" max="6"/>
+    <col width="5.42578125" customWidth="1" style="32" min="7" max="7"/>
+    <col width="5.7109375" customWidth="1" style="32" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -10023,52 +10179,52 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="21">
-      <c r="B2" s="39" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="32">
+      <c r="B2" s="15" t="inlineStr">
         <is>
           <t>Октябрь</t>
         </is>
       </c>
-      <c r="C2" s="17" t="n"/>
-      <c r="D2" s="17" t="n"/>
-      <c r="E2" s="17" t="n"/>
-      <c r="F2" s="17" t="n"/>
-      <c r="G2" s="17" t="n"/>
-      <c r="H2" s="17" t="n"/>
-      <c r="I2" s="17" t="n"/>
-      <c r="J2" s="17" t="n"/>
-      <c r="K2" s="17" t="n"/>
-      <c r="L2" s="17" t="n"/>
-      <c r="M2" s="17" t="n"/>
-      <c r="N2" s="17" t="n"/>
-      <c r="O2" s="17" t="n"/>
-      <c r="P2" s="17" t="n"/>
-      <c r="Q2" s="17" t="n"/>
-      <c r="R2" s="17" t="n"/>
-      <c r="S2" s="17" t="n"/>
-      <c r="T2" s="17" t="n"/>
-      <c r="U2" s="17" t="n"/>
-      <c r="V2" s="17" t="n"/>
-      <c r="W2" s="17" t="n"/>
-      <c r="X2" s="17" t="n"/>
-      <c r="Y2" s="17" t="n"/>
-      <c r="Z2" s="17" t="n"/>
-      <c r="AA2" s="17" t="n"/>
-      <c r="AB2" s="17" t="n"/>
-      <c r="AC2" s="17" t="n"/>
-      <c r="AD2" s="17" t="n"/>
-      <c r="AE2" s="17" t="n"/>
-      <c r="AF2" s="17" t="n"/>
-      <c r="AG2" s="17" t="n"/>
-      <c r="AH2" s="18" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="21">
-      <c r="B3" s="37" t="inlineStr">
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="16" t="n"/>
+      <c r="I2" s="16" t="n"/>
+      <c r="J2" s="16" t="n"/>
+      <c r="K2" s="16" t="n"/>
+      <c r="L2" s="16" t="n"/>
+      <c r="M2" s="16" t="n"/>
+      <c r="N2" s="16" t="n"/>
+      <c r="O2" s="16" t="n"/>
+      <c r="P2" s="16" t="n"/>
+      <c r="Q2" s="16" t="n"/>
+      <c r="R2" s="16" t="n"/>
+      <c r="S2" s="16" t="n"/>
+      <c r="T2" s="16" t="n"/>
+      <c r="U2" s="16" t="n"/>
+      <c r="V2" s="16" t="n"/>
+      <c r="W2" s="16" t="n"/>
+      <c r="X2" s="16" t="n"/>
+      <c r="Y2" s="16" t="n"/>
+      <c r="Z2" s="16" t="n"/>
+      <c r="AA2" s="16" t="n"/>
+      <c r="AB2" s="16" t="n"/>
+      <c r="AC2" s="16" t="n"/>
+      <c r="AD2" s="16" t="n"/>
+      <c r="AE2" s="16" t="n"/>
+      <c r="AF2" s="16" t="n"/>
+      <c r="AG2" s="16" t="n"/>
+      <c r="AH2" s="17" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="32">
+      <c r="B3" s="28" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="32" t="n"/>
+      <c r="C3" s="29" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>вт</t>
@@ -10225,9 +10381,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="21">
-      <c r="B4" s="26" t="n"/>
-      <c r="C4" s="28" t="n"/>
+    <row r="4" ht="18.75" customHeight="1" s="32">
+      <c r="B4" s="23" t="n"/>
+      <c r="C4" s="25" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -10322,13 +10478,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="21">
-      <c r="B5" s="19" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="32">
+      <c r="B5" s="18" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="18" t="n"/>
+      <c r="C5" s="17" t="n"/>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="3" t="n"/>
       <c r="F5" s="3" t="n"/>
@@ -10363,13 +10519,13 @@
       <c r="AG5" s="3" t="n"/>
       <c r="AH5" s="3" t="n"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="21">
-      <c r="B6" s="19" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1" s="32">
+      <c r="B6" s="18" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="C6" s="18" t="n"/>
+      <c r="C6" s="17" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="3" t="n"/>
@@ -10404,13 +10560,13 @@
       <c r="AG6" s="3" t="n"/>
       <c r="AH6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="21">
-      <c r="B7" s="19" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="32">
+      <c r="B7" s="18" t="inlineStr">
         <is>
           <t>Алена</t>
         </is>
       </c>
-      <c r="C7" s="18" t="n"/>
+      <c r="C7" s="17" t="n"/>
       <c r="D7" s="2" t="n">
         <v>1</v>
       </c>
@@ -10487,13 +10643,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="18.75" customHeight="1" s="21">
-      <c r="B8" s="19" t="inlineStr">
+    <row r="8" ht="18.75" customHeight="1" s="32">
+      <c r="B8" s="18" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
       </c>
-      <c r="C8" s="18" t="n"/>
+      <c r="C8" s="17" t="n"/>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="3" t="n"/>
       <c r="F8" s="3" t="n"/>
@@ -10530,13 +10686,13 @@
       <c r="AG8" s="3" t="n"/>
       <c r="AH8" s="3" t="n"/>
     </row>
-    <row r="9" ht="18.75" customHeight="1" s="21">
-      <c r="B9" s="19" t="inlineStr">
+    <row r="9" ht="18.75" customHeight="1" s="32">
+      <c r="B9" s="18" t="inlineStr">
         <is>
           <t>Ильдар</t>
         </is>
       </c>
-      <c r="C9" s="18" t="n"/>
+      <c r="C9" s="17" t="n"/>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="3" t="n"/>
       <c r="F9" s="3" t="n"/>
@@ -10579,105 +10735,105 @@
       </c>
       <c r="AH9" s="3" t="n"/>
     </row>
-    <row r="11" ht="18.75" customHeight="1" s="21">
-      <c r="B11" s="33" t="inlineStr">
+    <row r="11" ht="18.75" customHeight="1" s="32">
+      <c r="B11" s="37" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E11" s="35" t="inlineStr">
+      <c r="E11" s="39" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M11" s="42" t="inlineStr">
+      <c r="M11" s="41" t="inlineStr">
         <is>
           <t>Итоги (Октябрь)</t>
         </is>
       </c>
-      <c r="N11" s="17" t="n"/>
-      <c r="O11" s="17" t="n"/>
-      <c r="P11" s="17" t="n"/>
-      <c r="Q11" s="17" t="n"/>
-      <c r="R11" s="17" t="n"/>
-      <c r="S11" s="17" t="n"/>
-      <c r="T11" s="17" t="n"/>
-      <c r="U11" s="17" t="n"/>
-      <c r="V11" s="18" t="n"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1" s="21">
-      <c r="B12" s="29" t="inlineStr">
+      <c r="N11" s="16" t="n"/>
+      <c r="O11" s="16" t="n"/>
+      <c r="P11" s="16" t="n"/>
+      <c r="Q11" s="16" t="n"/>
+      <c r="R11" s="16" t="n"/>
+      <c r="S11" s="16" t="n"/>
+      <c r="T11" s="16" t="n"/>
+      <c r="U11" s="16" t="n"/>
+      <c r="V11" s="17" t="n"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" s="32">
+      <c r="B12" s="34" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E12" s="22" t="inlineStr">
+      <c r="E12" s="33" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M12" s="30" t="inlineStr">
+      <c r="M12" s="35" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N12" s="25" t="n"/>
-      <c r="O12" s="23" t="inlineStr">
+      <c r="N12" s="22" t="n"/>
+      <c r="O12" s="20" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P12" s="24" t="n"/>
-      <c r="Q12" s="25" t="n"/>
-      <c r="R12" s="23" t="inlineStr">
+      <c r="P12" s="21" t="n"/>
+      <c r="Q12" s="22" t="n"/>
+      <c r="R12" s="20" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S12" s="24" t="n"/>
-      <c r="T12" s="25" t="n"/>
-      <c r="U12" s="36" t="inlineStr">
+      <c r="S12" s="21" t="n"/>
+      <c r="T12" s="22" t="n"/>
+      <c r="U12" s="27" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V12" s="25" t="n"/>
+      <c r="V12" s="22" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="20" t="inlineStr">
+      <c r="B13" s="31" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M13" s="31" t="n"/>
-      <c r="N13" s="32" t="n"/>
-      <c r="O13" s="26" t="n"/>
-      <c r="P13" s="27" t="n"/>
-      <c r="Q13" s="28" t="n"/>
-      <c r="R13" s="26" t="n"/>
-      <c r="S13" s="27" t="n"/>
-      <c r="T13" s="28" t="n"/>
-      <c r="U13" s="26" t="n"/>
-      <c r="V13" s="28" t="n"/>
+      <c r="M13" s="36" t="n"/>
+      <c r="N13" s="29" t="n"/>
+      <c r="O13" s="23" t="n"/>
+      <c r="P13" s="24" t="n"/>
+      <c r="Q13" s="25" t="n"/>
+      <c r="R13" s="23" t="n"/>
+      <c r="S13" s="24" t="n"/>
+      <c r="T13" s="25" t="n"/>
+      <c r="U13" s="23" t="n"/>
+      <c r="V13" s="25" t="n"/>
       <c r="AA13" s="10" t="n"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="21">
-      <c r="M14" s="26" t="n"/>
-      <c r="N14" s="28" t="n"/>
-      <c r="O14" s="34" t="inlineStr">
+    <row r="14" ht="15.75" customHeight="1" s="32">
+      <c r="M14" s="23" t="n"/>
+      <c r="N14" s="25" t="n"/>
+      <c r="O14" s="38" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P14" s="17" t="n"/>
-      <c r="Q14" s="18" t="n"/>
-      <c r="R14" s="40" t="inlineStr">
+      <c r="P14" s="16" t="n"/>
+      <c r="Q14" s="17" t="n"/>
+      <c r="R14" s="19" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S14" s="17" t="n"/>
-      <c r="T14" s="18" t="n"/>
+      <c r="S14" s="16" t="n"/>
+      <c r="T14" s="17" t="n"/>
       <c r="U14" s="11" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -10689,122 +10845,123 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="18.75" customHeight="1" s="21">
+    <row r="15" ht="18.75" customHeight="1" s="32">
       <c r="M15" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="16">
+      <c r="O15" s="26">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
-      <c r="P15" s="17" t="n"/>
-      <c r="Q15" s="18" t="n"/>
-      <c r="R15" s="16">
+      <c r="P15" s="16" t="n"/>
+      <c r="Q15" s="17" t="n"/>
+      <c r="R15" s="26">
         <f>SUM(S5:AH5)</f>
         <v/>
       </c>
-      <c r="S15" s="17" t="n"/>
-      <c r="T15" s="18" t="n"/>
+      <c r="S15" s="16" t="n"/>
+      <c r="T15" s="17" t="n"/>
       <c r="U15" s="7" t="n"/>
       <c r="V15" s="8" t="n"/>
     </row>
-    <row r="16" ht="18.75" customHeight="1" s="21">
+    <row r="16" ht="18.75" customHeight="1" s="32">
       <c r="M16" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="16">
+      <c r="O16" s="26">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
-      <c r="P16" s="17" t="n"/>
-      <c r="Q16" s="18" t="n"/>
-      <c r="R16" s="16">
+      <c r="P16" s="16" t="n"/>
+      <c r="Q16" s="17" t="n"/>
+      <c r="R16" s="26">
         <f>SUM(S6:AH6)</f>
         <v/>
       </c>
-      <c r="S16" s="17" t="n"/>
-      <c r="T16" s="18" t="n"/>
+      <c r="S16" s="16" t="n"/>
+      <c r="T16" s="17" t="n"/>
       <c r="U16" s="12" t="n"/>
       <c r="V16" s="5" t="n"/>
     </row>
-    <row r="17" ht="18.75" customHeight="1" s="21">
-      <c r="M17" s="43">
+    <row r="17" ht="18.75" customHeight="1" s="32">
+      <c r="M17" s="42">
         <f>B7</f>
         <v/>
       </c>
-      <c r="N17" s="18" t="n"/>
-      <c r="O17" s="16">
+      <c r="N17" s="17" t="n"/>
+      <c r="O17" s="26">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
-      <c r="P17" s="17" t="n"/>
-      <c r="Q17" s="18" t="n"/>
-      <c r="R17" s="16">
+      <c r="P17" s="16" t="n"/>
+      <c r="Q17" s="17" t="n"/>
+      <c r="R17" s="26">
         <f>SUM(S7:AH7)</f>
         <v/>
       </c>
-      <c r="S17" s="17" t="n"/>
-      <c r="T17" s="18" t="n"/>
+      <c r="S17" s="16" t="n"/>
+      <c r="T17" s="17" t="n"/>
       <c r="U17" s="5" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="18" customHeight="1" s="21">
-      <c r="M18" s="43">
+    <row r="18" ht="18" customHeight="1" s="32">
+      <c r="M18" s="42">
         <f>B8</f>
         <v/>
       </c>
-      <c r="N18" s="18" t="n"/>
-      <c r="O18" s="16">
+      <c r="N18" s="17" t="n"/>
+      <c r="O18" s="26">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
-      <c r="P18" s="17" t="n"/>
-      <c r="Q18" s="18" t="n"/>
-      <c r="R18" s="16">
+      <c r="P18" s="16" t="n"/>
+      <c r="Q18" s="17" t="n"/>
+      <c r="R18" s="26">
         <f>SUM(S8:AH8)</f>
         <v/>
       </c>
-      <c r="S18" s="17" t="n"/>
-      <c r="T18" s="18" t="n"/>
+      <c r="S18" s="16" t="n"/>
+      <c r="T18" s="17" t="n"/>
       <c r="U18" s="5" t="n"/>
       <c r="V18" s="5" t="n"/>
     </row>
-    <row r="19" ht="14.4" customHeight="1" s="21">
-      <c r="M19" s="43">
+    <row r="19" ht="14.45" customHeight="1" s="32">
+      <c r="M19" s="42">
         <f>B9</f>
         <v/>
       </c>
-      <c r="N19" s="18" t="n"/>
-      <c r="O19" s="16">
+      <c r="N19" s="17" t="n"/>
+      <c r="O19" s="26">
         <f>SUM(D9:R9)</f>
         <v/>
       </c>
-      <c r="P19" s="17" t="n"/>
-      <c r="Q19" s="18" t="n"/>
-      <c r="R19" s="16">
+      <c r="P19" s="16" t="n"/>
+      <c r="Q19" s="17" t="n"/>
+      <c r="R19" s="26">
         <f>SUM(S9:AH9)</f>
         <v/>
       </c>
-      <c r="S19" s="17" t="n"/>
-      <c r="T19" s="18" t="n"/>
+      <c r="S19" s="16" t="n"/>
+      <c r="T19" s="17" t="n"/>
       <c r="U19" s="5" t="n"/>
       <c r="V19" s="5" t="n"/>
     </row>
-    <row r="20" ht="14.4" customHeight="1" s="21"/>
-    <row r="21" ht="14.4" customHeight="1" s="21"/>
-    <row r="22" ht="14.4" customHeight="1" s="21"/>
-    <row r="23" ht="14.4" customHeight="1" s="21"/>
-    <row r="24" ht="14.4" customHeight="1" s="21"/>
-    <row r="25" ht="14.4" customHeight="1" s="21"/>
+    <row r="20" ht="14.45" customHeight="1" s="32"/>
+    <row r="21" ht="14.45" customHeight="1" s="32"/>
+    <row r="22" ht="14.45" customHeight="1" s="32"/>
+    <row r="23" ht="14.45" customHeight="1" s="32"/>
+    <row r="24" ht="14.45" customHeight="1" s="32"/>
+    <row r="25" ht="14.45" customHeight="1" s="32"/>
   </sheetData>
   <mergeCells count="32">
     <mergeCell ref="R15:T15"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="U12:V13"/>
+    <mergeCell ref="E11:K11"/>
     <mergeCell ref="B2:AH2"/>
     <mergeCell ref="O16:Q16"/>
     <mergeCell ref="B12:C12"/>
@@ -10825,15 +10982,14 @@
     <mergeCell ref="M12:N14"/>
     <mergeCell ref="O12:Q13"/>
     <mergeCell ref="M17:N17"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="M19:N19"/>
     <mergeCell ref="R16:T16"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="E11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ЭтаКнига"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="9" activeTab="11" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Февраль" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Март" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Апрель" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Май" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Июнь" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Июль" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Август" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Сентябрь" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Октябрь" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Ноябрь" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Декабрь" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Январь" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Февраль" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Март" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Апрель" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Май" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Июнь" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Июль" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Август" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Сентябрь" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Октябрь" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ноябрь" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Декабрь" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Январь" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191028" fullCalcOnLoad="1"/>
@@ -3435,7 +3435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI25"/>
+  <dimension ref="A1:AI27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
@@ -4163,387 +4163,458 @@
       <c r="AG12" s="45" t="n"/>
       <c r="AH12" s="45" t="n"/>
     </row>
-    <row r="13"/>
-    <row r="14" ht="15.75" customHeight="1" s="32">
-      <c r="B14" s="37" t="inlineStr">
+    <row r="13" ht="18.75" customHeight="1" s="32">
+      <c r="B13" s="18" t="inlineStr">
+        <is>
+          <t>Ильдар</t>
+        </is>
+      </c>
+      <c r="C13" s="17" t="n"/>
+      <c r="D13" s="45" t="n"/>
+      <c r="E13" s="45" t="n"/>
+      <c r="F13" s="45" t="n"/>
+      <c r="G13" s="45" t="n"/>
+      <c r="H13" s="45" t="n"/>
+      <c r="I13" s="45" t="n"/>
+      <c r="J13" s="45" t="n"/>
+      <c r="K13" s="45" t="n"/>
+      <c r="L13" s="45" t="n"/>
+      <c r="M13" s="45" t="n"/>
+      <c r="N13" s="45" t="n"/>
+      <c r="O13" s="45" t="n"/>
+      <c r="P13" s="45" t="n"/>
+      <c r="Q13" s="45" t="n"/>
+      <c r="R13" s="45" t="n"/>
+      <c r="S13" s="45" t="n"/>
+      <c r="T13" s="45" t="n"/>
+      <c r="U13" s="45" t="n"/>
+      <c r="V13" s="45" t="n"/>
+      <c r="W13" s="45" t="n"/>
+      <c r="X13" s="45" t="n"/>
+      <c r="Y13" s="45" t="n"/>
+      <c r="Z13" s="45" t="n"/>
+      <c r="AA13" s="45" t="n"/>
+      <c r="AB13" s="45" t="n"/>
+      <c r="AC13" s="45" t="n"/>
+      <c r="AD13" s="45" t="n"/>
+      <c r="AE13" s="45" t="n"/>
+      <c r="AF13" s="45" t="n"/>
+      <c r="AG13" s="45" t="n"/>
+      <c r="AH13" s="45" t="n"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1" s="32"/>
+    <row r="15" ht="18.75" customHeight="1" s="32">
+      <c r="B15" s="37" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E14" s="39" t="inlineStr">
+      <c r="E15" s="39" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M14" s="41" t="inlineStr">
+      <c r="M15" s="41" t="inlineStr">
         <is>
           <t>Итоги (Январь)</t>
         </is>
       </c>
-      <c r="N14" s="16" t="n"/>
-      <c r="O14" s="16" t="n"/>
-      <c r="P14" s="16" t="n"/>
-      <c r="Q14" s="16" t="n"/>
-      <c r="R14" s="16" t="n"/>
-      <c r="S14" s="16" t="n"/>
-      <c r="T14" s="16" t="n"/>
-      <c r="U14" s="16" t="n"/>
-      <c r="V14" s="17" t="n"/>
-    </row>
-    <row r="15" ht="18.75" customHeight="1" s="32">
-      <c r="B15" s="34" t="inlineStr">
+      <c r="N15" s="16" t="n"/>
+      <c r="O15" s="16" t="n"/>
+      <c r="P15" s="16" t="n"/>
+      <c r="Q15" s="16" t="n"/>
+      <c r="R15" s="16" t="n"/>
+      <c r="S15" s="16" t="n"/>
+      <c r="T15" s="16" t="n"/>
+      <c r="U15" s="16" t="n"/>
+      <c r="V15" s="17" t="n"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1" s="32">
+      <c r="B16" s="34" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E15" s="33" t="inlineStr">
+      <c r="E16" s="33" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M15" s="35" t="inlineStr">
+      <c r="M16" s="35" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N15" s="22" t="n"/>
-      <c r="O15" s="20" t="inlineStr">
+      <c r="N16" s="22" t="n"/>
+      <c r="O16" s="20" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P15" s="21" t="n"/>
-      <c r="Q15" s="22" t="n"/>
-      <c r="R15" s="20" t="inlineStr">
+      <c r="P16" s="21" t="n"/>
+      <c r="Q16" s="22" t="n"/>
+      <c r="R16" s="20" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S15" s="21" t="n"/>
-      <c r="T15" s="22" t="n"/>
-      <c r="U15" s="44" t="inlineStr">
+      <c r="S16" s="21" t="n"/>
+      <c r="T16" s="22" t="n"/>
+      <c r="U16" s="44" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V15" s="22" t="n"/>
-    </row>
-    <row r="16" ht="18.75" customHeight="1" s="32">
-      <c r="B16" s="31" t="inlineStr">
+      <c r="V16" s="22" t="n"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1" s="32">
+      <c r="B17" s="31" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M16" s="36" t="n"/>
-      <c r="N16" s="29" t="n"/>
-      <c r="O16" s="23" t="n"/>
-      <c r="P16" s="24" t="n"/>
-      <c r="Q16" s="25" t="n"/>
-      <c r="R16" s="23" t="n"/>
-      <c r="S16" s="24" t="n"/>
-      <c r="T16" s="25" t="n"/>
-      <c r="U16" s="23" t="n"/>
-      <c r="V16" s="25" t="n"/>
-      <c r="AA16" s="10" t="n"/>
-    </row>
-    <row r="17" ht="18.75" customHeight="1" s="32">
-      <c r="B17" s="43" t="inlineStr">
+      <c r="M17" s="36" t="n"/>
+      <c r="N17" s="29" t="n"/>
+      <c r="O17" s="23" t="n"/>
+      <c r="P17" s="24" t="n"/>
+      <c r="Q17" s="25" t="n"/>
+      <c r="R17" s="23" t="n"/>
+      <c r="S17" s="24" t="n"/>
+      <c r="T17" s="25" t="n"/>
+      <c r="U17" s="23" t="n"/>
+      <c r="V17" s="25" t="n"/>
+      <c r="AA17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="18" customHeight="1" s="32">
+      <c r="B18" s="43" t="inlineStr">
         <is>
           <t>Подработка/ч</t>
         </is>
       </c>
-      <c r="M17" s="23" t="n"/>
-      <c r="N17" s="25" t="n"/>
-      <c r="O17" s="38" t="inlineStr">
+      <c r="M18" s="23" t="n"/>
+      <c r="N18" s="25" t="n"/>
+      <c r="O18" s="38" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
-      </c>
-      <c r="P17" s="16" t="n"/>
-      <c r="Q17" s="17" t="n"/>
-      <c r="R17" s="19" t="inlineStr">
-        <is>
-          <t>смены</t>
-        </is>
-      </c>
-      <c r="S17" s="16" t="n"/>
-      <c r="T17" s="17" t="n"/>
-      <c r="U17" s="13" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-      <c r="V17" s="13" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="18" customHeight="1" s="32">
-      <c r="M18" s="4">
-        <f>B5</f>
-        <v/>
-      </c>
-      <c r="N18" s="4" t="n"/>
-      <c r="O18" s="26">
-        <f>SUMIF(D5:R5,"=1")</f>
-        <v/>
       </c>
       <c r="P18" s="16" t="n"/>
       <c r="Q18" s="17" t="n"/>
-      <c r="R18" s="26">
-        <f>SUMIF(S5:AH5,"=1")</f>
-        <v/>
+      <c r="R18" s="19" t="inlineStr">
+        <is>
+          <t>смены</t>
+        </is>
       </c>
       <c r="S18" s="16" t="n"/>
       <c r="T18" s="17" t="n"/>
-      <c r="U18" s="7">
-        <f>SUMIF(D5:R5,"&gt;1")</f>
-        <v/>
-      </c>
-      <c r="V18" s="7">
-        <f>SUMIF(S5:AH5,"&gt;1")</f>
-        <v/>
+      <c r="U18" s="13" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="V18" s="13" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1" s="32">
       <c r="M19" s="4">
-        <f>B6</f>
+        <f>B5</f>
         <v/>
       </c>
       <c r="N19" s="4" t="n"/>
       <c r="O19" s="26">
-        <f>SUMIF(D6:R6,"=1")</f>
+        <f>SUMIF(D5:R5,"=1")</f>
         <v/>
       </c>
       <c r="P19" s="16" t="n"/>
       <c r="Q19" s="17" t="n"/>
       <c r="R19" s="26">
-        <f>SUMIF(S6:AH6,"=1")</f>
+        <f>SUMIF(S5:AH5,"=1")</f>
         <v/>
       </c>
       <c r="S19" s="16" t="n"/>
       <c r="T19" s="17" t="n"/>
       <c r="U19" s="7">
-        <f>SUMIF(D6:R6,"&gt;1")</f>
+        <f>SUMIF(D5:R5,"&gt;1")</f>
         <v/>
       </c>
       <c r="V19" s="7">
-        <f>SUMIF(S6:AH6,"&gt;1")</f>
+        <f>SUMIF(S5:AH5,"&gt;1")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="14.45" customHeight="1" s="32">
-      <c r="M20" s="42">
-        <f>B7</f>
-        <v/>
-      </c>
-      <c r="N20" s="17" t="n"/>
+      <c r="M20" s="4">
+        <f>B6</f>
+        <v/>
+      </c>
+      <c r="N20" s="4" t="n"/>
       <c r="O20" s="26">
-        <f>SUMIF(D7:R7,"=1")</f>
+        <f>SUMIF(D6:R6,"=1")</f>
         <v/>
       </c>
       <c r="P20" s="16" t="n"/>
       <c r="Q20" s="17" t="n"/>
       <c r="R20" s="26">
-        <f>SUMIF(S7:AH7,"=1")</f>
+        <f>SUMIF(S6:AH6,"=1")</f>
         <v/>
       </c>
       <c r="S20" s="16" t="n"/>
       <c r="T20" s="17" t="n"/>
       <c r="U20" s="7">
-        <f>SUMIF(D7:R7,"&gt;1")</f>
+        <f>SUMIF(D6:R6,"&gt;1")</f>
         <v/>
       </c>
       <c r="V20" s="7">
-        <f>SUMIF(S7:AH7,"&gt;1")</f>
+        <f>SUMIF(S6:AH6,"&gt;1")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="14.45" customHeight="1" s="32">
       <c r="M21" s="42">
-        <f>B8</f>
+        <f>B7</f>
         <v/>
       </c>
       <c r="N21" s="17" t="n"/>
       <c r="O21" s="26">
-        <f>SUMIF(D8:R8,"=1")</f>
+        <f>SUMIF(D7:R7,"=1")</f>
         <v/>
       </c>
       <c r="P21" s="16" t="n"/>
       <c r="Q21" s="17" t="n"/>
       <c r="R21" s="26">
-        <f>SUMIF(S8:AH8,"=1")</f>
+        <f>SUMIF(S7:AH7,"=1")</f>
         <v/>
       </c>
       <c r="S21" s="16" t="n"/>
       <c r="T21" s="17" t="n"/>
       <c r="U21" s="7">
-        <f>SUMIF(D8:R8,"&gt;1")</f>
+        <f>SUMIF(D7:R7,"&gt;1")</f>
         <v/>
       </c>
       <c r="V21" s="7">
-        <f>SUMIF(S8:AH8,"&gt;1")</f>
+        <f>SUMIF(S7:AH7,"&gt;1")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="14.45" customHeight="1" s="32">
       <c r="M22" s="42">
-        <f>B9</f>
+        <f>B8</f>
         <v/>
       </c>
       <c r="N22" s="17" t="n"/>
       <c r="O22" s="26">
-        <f>SUMIF(D9:R9,"=1")</f>
+        <f>SUMIF(D8:R8,"=1")</f>
         <v/>
       </c>
       <c r="P22" s="16" t="n"/>
       <c r="Q22" s="17" t="n"/>
       <c r="R22" s="26">
-        <f>SUMIF(S9:AH9,"=1")</f>
+        <f>SUMIF(S8:AH8,"=1")</f>
         <v/>
       </c>
       <c r="S22" s="16" t="n"/>
       <c r="T22" s="17" t="n"/>
       <c r="U22" s="7">
-        <f>SUMIF(D9:R9,"&gt;1")</f>
+        <f>SUMIF(D8:R8,"&gt;1")</f>
         <v/>
       </c>
       <c r="V22" s="7">
-        <f>SUMIF(S9:AH9,"&gt;1")</f>
+        <f>SUMIF(S8:AH8,"&gt;1")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="14.45" customHeight="1" s="32">
-      <c r="M23" s="42" t="inlineStr">
-        <is>
-          <t>Красавчик</t>
-        </is>
+      <c r="M23" s="42">
+        <f>B9</f>
+        <v/>
       </c>
       <c r="N23" s="17" t="n"/>
       <c r="O23" s="26">
-        <f>SUMIF(D10:R10,"=1")</f>
+        <f>SUMIF(D9:R9,"=1")</f>
         <v/>
       </c>
       <c r="P23" s="16" t="n"/>
       <c r="Q23" s="17" t="n"/>
       <c r="R23" s="26">
-        <f>SUMIF(S10:AH10,"=1")</f>
+        <f>SUMIF(S9:AH9,"=1")</f>
         <v/>
       </c>
       <c r="S23" s="16" t="n"/>
       <c r="T23" s="17" t="n"/>
       <c r="U23" s="7">
-        <f>SUMIF(D10:R10,"&gt;1")</f>
+        <f>SUMIF(D9:R9,"&gt;1")</f>
         <v/>
       </c>
       <c r="V23" s="7">
-        <f>SUMIF(S10:AH10,"&gt;1")</f>
+        <f>SUMIF(S9:AH9,"&gt;1")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="14.45" customHeight="1" s="32">
       <c r="M24" s="42" t="inlineStr">
         <is>
-          <t>Отличник</t>
+          <t>Красавчик</t>
         </is>
       </c>
       <c r="N24" s="17" t="n"/>
       <c r="O24" s="26">
-        <f>SUMIF(D11:R11,"=1")</f>
+        <f>SUMIF(D10:R10,"=1")</f>
         <v/>
       </c>
       <c r="P24" s="16" t="n"/>
       <c r="Q24" s="17" t="n"/>
       <c r="R24" s="26">
-        <f>SUMIF(S11:AH11,"=1")</f>
+        <f>SUMIF(S10:AH10,"=1")</f>
         <v/>
       </c>
       <c r="S24" s="16" t="n"/>
       <c r="T24" s="17" t="n"/>
       <c r="U24" s="7">
-        <f>SUMIF(D11:R11,"&gt;1")</f>
+        <f>SUMIF(D10:R10,"&gt;1")</f>
         <v/>
       </c>
       <c r="V24" s="7">
-        <f>SUMIF(S11:AH11,"&gt;1")</f>
+        <f>SUMIF(S10:AH10,"&gt;1")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="14.45" customHeight="1" s="32">
       <c r="M25" s="42" t="inlineStr">
         <is>
-          <t>Лунный</t>
+          <t>Отличник</t>
         </is>
       </c>
       <c r="N25" s="17" t="n"/>
       <c r="O25" s="26">
-        <f>SUMIF(D12:R12,"=1")</f>
+        <f>SUMIF(D11:R11,"=1")</f>
         <v/>
       </c>
       <c r="P25" s="16" t="n"/>
       <c r="Q25" s="17" t="n"/>
       <c r="R25" s="26">
-        <f>SUMIF(S12:AH12,"=1")</f>
+        <f>SUMIF(S11:AH11,"=1")</f>
         <v/>
       </c>
       <c r="S25" s="16" t="n"/>
       <c r="T25" s="17" t="n"/>
       <c r="U25" s="7">
+        <f>SUMIF(D11:R11,"&gt;1")</f>
+        <v/>
+      </c>
+      <c r="V25" s="7">
+        <f>SUMIF(S11:AH11,"&gt;1")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" s="32">
+      <c r="M26" s="42" t="inlineStr">
+        <is>
+          <t>Лунный</t>
+        </is>
+      </c>
+      <c r="N26" s="17" t="n"/>
+      <c r="O26" s="26">
+        <f>SUMIF(D12:R12,"=1")</f>
+        <v/>
+      </c>
+      <c r="P26" s="16" t="n"/>
+      <c r="Q26" s="17" t="n"/>
+      <c r="R26" s="26">
+        <f>SUMIF(S12:AH12,"=1")</f>
+        <v/>
+      </c>
+      <c r="S26" s="16" t="n"/>
+      <c r="T26" s="17" t="n"/>
+      <c r="U26" s="7">
         <f>SUMIF(D12:R12,"&gt;1")</f>
         <v/>
       </c>
-      <c r="V25" s="7">
+      <c r="V26" s="7">
         <f>SUMIF(S12:AH12,"&gt;1")</f>
         <v/>
       </c>
     </row>
+    <row r="27" s="32">
+      <c r="M27" s="42" t="inlineStr">
+        <is>
+          <t>Ильдар</t>
+        </is>
+      </c>
+      <c r="N27" s="17" t="n"/>
+      <c r="O27" s="26">
+        <f>SUMIF(D13:R13,"=1")</f>
+        <v/>
+      </c>
+      <c r="P27" s="16" t="n"/>
+      <c r="Q27" s="17" t="n"/>
+      <c r="R27" s="26">
+        <f>SUMIF(S13:AH13,"=1")</f>
+        <v/>
+      </c>
+      <c r="S27" s="16" t="n"/>
+      <c r="T27" s="17" t="n"/>
+      <c r="U27" s="7">
+        <f>SUMIF(D13:R13,"&gt;1")</f>
+        <v/>
+      </c>
+      <c r="V27" s="7">
+        <f>SUMIF(S13:AH13,"&gt;1")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="50">
     <mergeCell ref="R24:T24"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="O26:Q26"/>
     <mergeCell ref="O22:Q22"/>
     <mergeCell ref="B2:AH2"/>
+    <mergeCell ref="R26:T26"/>
     <mergeCell ref="R21:T21"/>
-    <mergeCell ref="E15:K23"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="O25:Q25"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="M14:V14"/>
     <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O15:Q16"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O27:Q27"/>
     <mergeCell ref="R22:T22"/>
-    <mergeCell ref="R17:T17"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="O17:Q17"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E16:K24"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="R16:T17"/>
     <mergeCell ref="M25:N25"/>
-    <mergeCell ref="E14:K14"/>
+    <mergeCell ref="M16:N18"/>
     <mergeCell ref="M21:N21"/>
-    <mergeCell ref="R15:T16"/>
     <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="M15:N17"/>
+    <mergeCell ref="O16:Q17"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="U15:V16"/>
     <mergeCell ref="R18:T18"/>
     <mergeCell ref="R23:T23"/>
+    <mergeCell ref="M27:N27"/>
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="M26:N26"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="O19:Q19"/>
     <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O19:Q19"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="R19:T19"/>
     <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="R19:T19"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="U16:V17"/>
+    <mergeCell ref="E15:K15"/>
+    <mergeCell ref="M15:V15"/>
     <mergeCell ref="R25:T25"/>
     <mergeCell ref="O20:Q20"/>
   </mergeCells>
